--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="925">
   <si>
     <t xml:space="preserve">ADFC Hemmingen / Pattensen</t>
   </si>
@@ -3690,9 +3690,9 @@
   <dimension ref="A1:AMJ275"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J153" activeCellId="0" sqref="J153"/>
+      <selection pane="bottomLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4592,7 +4592,9 @@
       <c r="I18" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="J18" s="27"/>
+      <c r="J18" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K18" s="28" t="str">
         <f aca="false">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A18),A18)</f>
         <v>8M7R+QH</v>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56746BE7-1178-4059-8898-BD72C1C49E0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927EECDC-AAA9-451E-9F2A-113E2AC0C6AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,10 +215,6 @@
   </si>
   <si>
     <t>Ausbau des Wirtschaftsweges ODER eines Radwegs entlang der L389</t>
-  </si>
-  <si>
-    <t>- offen
-- 2020 - Innerhin stehen im Haushaltsplan für 2020 ca. 10000 €uro für die Unterhaltung der Wirtschafts- und Wanderwege (Für Material und Einsatz des Wegehobels).</t>
   </si>
   <si>
     <t>7MVW+C2</t>
@@ -3123,6 +3119,11 @@
     <t>- 04.01.2021 - Gemeldet an die Stadtverwaltung Laatzen über "Sag's uns einfach" vom ADFC Laatzen.
 - 04.01.2021, 11:45 - Antwort des Stadtverwaltung Laatzen:
 "Hier werden wir zusammen mit der Region Hannover prüfen, inwieweit eine Verbesserung für Fußgänger und Radfahrer erreicht werden kann.".   Meldungs-ID: 416442106 .</t>
+  </si>
+  <si>
+    <t>- offen
+- 2020 - Innerhin stehen im Haushaltsplan für 2020 ca. 10000 €uro für die Unterhaltung der Wirtschafts- und Wanderwege (Für Material und Einsatz des Wegehobels).
+- 2021-01 Kontakt mit Ralf Mannstedt aud Linderte - Dort nennt man diese Maßnahme "M1"</t>
   </si>
 </sst>
 </file>
@@ -3877,8 +3878,8 @@
   <dimension ref="A1:AMJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4291,7 +4292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>54</v>
       </c>
@@ -4317,8 +4318,8 @@
       <c r="H10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>60</v>
+      <c r="I10" s="54" t="s">
+        <v>925</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="29"/>
@@ -4341,29 +4342,29 @@
     </row>
     <row r="11" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7MVW+C2</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="41">
         <v>43972</v>
       </c>
       <c r="E11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="G11" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="H11" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>40</v>
@@ -4389,14 +4390,14 @@
     </row>
     <row r="12" spans="1:1024" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7PP7+85</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="34">
         <v>43898</v>
@@ -4405,13 +4406,13 @@
         <v>45</v>
       </c>
       <c r="F12" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="H12" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>40</v>
@@ -4447,29 +4448,29 @@
     </row>
     <row r="13" spans="1:1024" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7PPR+3C</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="34">
         <v>42005</v>
       </c>
       <c r="E13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="G13" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="H13" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="I13" s="26" t="s">
         <v>40</v>
@@ -4480,7 +4481,7 @@
         <v>7PPR+3C</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13" s="38" t="s">
         <v>53</v>
@@ -4507,14 +4508,14 @@
     </row>
     <row r="14" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7PVG+Q8</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="34">
         <v>43873</v>
@@ -4523,16 +4524,16 @@
         <v>45</v>
       </c>
       <c r="F14" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="H14" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="I14" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="28" t="str">
@@ -4565,14 +4566,14 @@
     </row>
     <row r="15" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7PXR+R8</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="34">
         <v>43873</v>
@@ -4581,13 +4582,13 @@
         <v>45</v>
       </c>
       <c r="F15" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="H15" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>40</v>
@@ -4599,7 +4600,7 @@
       </c>
       <c r="L15" s="29"/>
       <c r="M15" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N15" s="31" t="str">
         <f t="shared" si="3"/>
@@ -4631,14 +4632,14 @@
     </row>
     <row r="16" spans="1:1024" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7PXX+MW</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="34">
         <v>43853</v>
@@ -4647,13 +4648,13 @@
         <v>36</v>
       </c>
       <c r="F16" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="H16" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>95</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>40</v>
@@ -4664,7 +4665,7 @@
         <v>7PXX+MW</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M16" s="30" t="s">
         <v>42</v>
@@ -4691,29 +4692,29 @@
     </row>
     <row r="17" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7QPF+GM</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="34">
         <v>42988</v>
       </c>
       <c r="E17" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="H17" s="26" t="s">
         <v>100</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>101</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>40</v>
@@ -4727,7 +4728,7 @@
         <v>41</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" s="31" t="str">
         <f t="shared" si="3"/>
@@ -4751,14 +4752,14 @@
     </row>
     <row r="18" spans="1:27" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8M7R+QH</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="34">
         <v>43488</v>
@@ -4767,16 +4768,16 @@
         <v>56</v>
       </c>
       <c r="F18" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="H18" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="I18" s="26" t="s">
         <v>106</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>107</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>43</v>
@@ -4786,10 +4787,10 @@
         <v>8M7R+QH</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N18" s="31" t="str">
         <f t="shared" si="3"/>
@@ -4813,14 +4814,14 @@
     </row>
     <row r="19" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P2R+R2</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="34">
         <v>43873</v>
@@ -4829,16 +4830,16 @@
         <v>45</v>
       </c>
       <c r="F19" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="28" t="str">
@@ -4877,14 +4878,14 @@
     </row>
     <row r="20" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P2R+R2</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="34">
         <v>43873</v>
@@ -4893,16 +4894,16 @@
         <v>45</v>
       </c>
       <c r="F20" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="H20" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>116</v>
-      </c>
       <c r="I20" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="28" t="str">
@@ -4941,14 +4942,14 @@
     </row>
     <row r="21" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P37+8H</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="34">
         <v>43873</v>
@@ -4957,16 +4958,16 @@
         <v>45</v>
       </c>
       <c r="F21" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="H21" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>122</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="28" t="str">
@@ -4999,32 +5000,32 @@
     </row>
     <row r="22" spans="1:27" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3H+3H</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="34">
         <v>42005</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="H22" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="I22" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>128</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="28" t="str">
@@ -5032,7 +5033,7 @@
         <v>8P3H+3H</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M22" s="38" t="s">
         <v>53</v>
@@ -5059,14 +5060,14 @@
     </row>
     <row r="23" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3H+3H</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="34">
         <v>43873</v>
@@ -5075,16 +5076,16 @@
         <v>45</v>
       </c>
       <c r="F23" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>131</v>
-      </c>
       <c r="H23" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>128</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="28" t="str">
@@ -5117,14 +5118,14 @@
     </row>
     <row r="24" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="22" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">8P3P+VP </v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="34">
         <v>43969</v>
@@ -5133,21 +5134,21 @@
         <v>36</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="H24" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="I24" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>136</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="28"/>
       <c r="L24" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M24" s="42"/>
       <c r="N24" s="43"/>
@@ -5167,14 +5168,14 @@
     </row>
     <row r="25" spans="1:27" ht="270.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3Q+5M</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="34">
         <v>43541</v>
@@ -5183,16 +5184,16 @@
         <v>36</v>
       </c>
       <c r="F25" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="H25" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="I25" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>142</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="28" t="str">
@@ -5200,7 +5201,7 @@
         <v>8P3Q+5M</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M25" s="38" t="s">
         <v>53</v>
@@ -5235,14 +5236,14 @@
     </row>
     <row r="26" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3Q+5P</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="34">
         <v>43873</v>
@@ -5251,16 +5252,16 @@
         <v>45</v>
       </c>
       <c r="F26" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="H26" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="I26" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>148</v>
       </c>
       <c r="J26" s="27"/>
       <c r="K26" s="28" t="str">
@@ -5291,14 +5292,14 @@
     </row>
     <row r="27" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3Q+R5</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="34">
         <v>43873</v>
@@ -5307,16 +5308,16 @@
         <v>45</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="28" t="str">
@@ -5349,14 +5350,14 @@
     </row>
     <row r="28" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P4P+CQ</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" s="34">
         <v>43873</v>
@@ -5365,16 +5366,16 @@
         <v>45</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>157</v>
-      </c>
       <c r="I28" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J28" s="27"/>
       <c r="K28" s="28" t="str">
@@ -5407,14 +5408,14 @@
     </row>
     <row r="29" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P4Q+9C</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="34">
         <v>43873</v>
@@ -5423,16 +5424,16 @@
         <v>45</v>
       </c>
       <c r="F29" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="H29" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="I29" s="26" t="s">
         <v>162</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="J29" s="27"/>
       <c r="K29" s="28" t="str">
@@ -5441,7 +5442,7 @@
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N29" s="31" t="str">
         <f t="shared" si="5"/>
@@ -5467,14 +5468,14 @@
     </row>
     <row r="30" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P4X+V6</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="34">
         <v>43873</v>
@@ -5483,16 +5484,16 @@
         <v>45</v>
       </c>
       <c r="F30" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="H30" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="I30" s="26" t="s">
         <v>168</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>169</v>
       </c>
       <c r="J30" s="27"/>
       <c r="K30" s="28" t="str">
@@ -5525,14 +5526,14 @@
     </row>
     <row r="31" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P57+6C</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="41">
         <v>43972</v>
@@ -5541,16 +5542,16 @@
         <v>36</v>
       </c>
       <c r="F31" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="H31" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="I31" s="26" t="s">
         <v>174</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>175</v>
       </c>
       <c r="J31" s="27"/>
       <c r="K31" s="29"/>
@@ -5573,14 +5574,14 @@
     </row>
     <row r="32" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5J+MJ</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" s="34">
         <v>43873</v>
@@ -5589,16 +5590,16 @@
         <v>45</v>
       </c>
       <c r="F32" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="H32" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H32" s="26" t="s">
-        <v>180</v>
-      </c>
       <c r="I32" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="28" t="str">
@@ -5607,7 +5608,7 @@
       </c>
       <c r="L32" s="29"/>
       <c r="M32" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N32" s="31" t="str">
         <f t="shared" ref="N32:N51" si="7">LEFT(M32,1)</f>
@@ -5631,32 +5632,32 @@
     </row>
     <row r="33" spans="1:1024" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+RH</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" s="34">
         <v>43105</v>
       </c>
       <c r="E33" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="G33" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="H33" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="I33" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>187</v>
       </c>
       <c r="J33" s="27"/>
       <c r="K33" s="28" t="str">
@@ -5664,7 +5665,7 @@
         <v>8P5M+RH</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M33" s="44" t="s">
         <v>48</v>
@@ -5691,14 +5692,14 @@
     </row>
     <row r="34" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+RH</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D34" s="34">
         <v>43873</v>
@@ -5707,16 +5708,16 @@
         <v>45</v>
       </c>
       <c r="F34" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="G34" s="35" t="s">
+      <c r="H34" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="26" t="s">
-        <v>191</v>
-      </c>
       <c r="I34" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J34" s="27"/>
       <c r="K34" s="28" t="str">
@@ -5725,7 +5726,7 @@
       </c>
       <c r="L34" s="29"/>
       <c r="M34" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N34" s="31" t="str">
         <f t="shared" si="7"/>
@@ -5751,14 +5752,14 @@
     </row>
     <row r="35" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+RH</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35" s="34">
         <v>43873</v>
@@ -5767,16 +5768,16 @@
         <v>45</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G35" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>195</v>
       </c>
       <c r="J35" s="27"/>
       <c r="K35" s="28" t="str">
@@ -5809,14 +5810,14 @@
     </row>
     <row r="36" spans="1:1024" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B36" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+VG</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D36" s="34">
         <v>43873</v>
@@ -5825,16 +5826,16 @@
         <v>45</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J36" s="27"/>
       <c r="K36" s="28" t="str">
@@ -5867,14 +5868,14 @@
     </row>
     <row r="37" spans="1:1024" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+VJ</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" s="34">
         <v>43873</v>
@@ -5883,16 +5884,16 @@
         <v>45</v>
       </c>
       <c r="F37" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="G37" s="35" t="s">
-        <v>202</v>
-      </c>
       <c r="H37" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J37" s="27"/>
       <c r="K37" s="28" t="str">
@@ -5927,14 +5928,14 @@
     </row>
     <row r="38" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5P+FR</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D38" s="34">
         <v>43894</v>
@@ -5943,16 +5944,16 @@
         <v>45</v>
       </c>
       <c r="F38" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="H38" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="H38" s="26" t="s">
-        <v>207</v>
-      </c>
       <c r="I38" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J38" s="27"/>
       <c r="K38" s="28" t="str">
@@ -5985,14 +5986,14 @@
     </row>
     <row r="39" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5V+VQ</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D39" s="34">
         <v>43873</v>
@@ -6001,16 +6002,16 @@
         <v>45</v>
       </c>
       <c r="F39" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="H39" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="H39" s="26" t="s">
-        <v>212</v>
-      </c>
       <c r="I39" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J39" s="27"/>
       <c r="K39" s="28" t="str">
@@ -6043,14 +6044,14 @@
     </row>
     <row r="40" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6H+GP</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" s="34">
         <v>43873</v>
@@ -6059,16 +6060,16 @@
         <v>45</v>
       </c>
       <c r="F40" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="H40" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="H40" s="26" t="s">
-        <v>217</v>
-      </c>
       <c r="I40" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J40" s="27"/>
       <c r="K40" s="28" t="str">
@@ -6101,30 +6102,30 @@
     </row>
     <row r="41" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+HX</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="34">
         <v>42988</v>
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="H41" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="26" t="s">
         <v>221</v>
-      </c>
-      <c r="H41" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>222</v>
       </c>
       <c r="J41" s="27"/>
       <c r="K41" s="28" t="str">
@@ -6132,10 +6133,10 @@
         <v>8P6J+HX</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M41" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N41" s="31" t="str">
         <f t="shared" si="7"/>
@@ -6159,14 +6160,14 @@
     </row>
     <row r="42" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B42" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+HX</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D42" s="34">
         <v>43873</v>
@@ -6175,16 +6176,16 @@
         <v>45</v>
       </c>
       <c r="F42" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="35" t="s">
-        <v>226</v>
-      </c>
       <c r="H42" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J42" s="27"/>
       <c r="K42" s="28" t="str">
@@ -6217,14 +6218,14 @@
     </row>
     <row r="43" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+HX</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="34">
         <v>43873</v>
@@ -6233,16 +6234,16 @@
         <v>45</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J43" s="27"/>
       <c r="K43" s="28" t="str">
@@ -6275,14 +6276,14 @@
     </row>
     <row r="44" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B44" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+WP</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D44" s="34">
         <v>43873</v>
@@ -6291,16 +6292,16 @@
         <v>45</v>
       </c>
       <c r="F44" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="G44" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="H44" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="H44" s="26" t="s">
-        <v>233</v>
-      </c>
       <c r="I44" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J44" s="27"/>
       <c r="K44" s="28" t="str">
@@ -6309,7 +6310,7 @@
       </c>
       <c r="L44" s="29"/>
       <c r="M44" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N44" s="31" t="str">
         <f t="shared" si="7"/>
@@ -6335,14 +6336,14 @@
     </row>
     <row r="45" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6M+95</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D45" s="34">
         <v>43873</v>
@@ -6351,16 +6352,16 @@
         <v>45</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J45" s="27"/>
       <c r="K45" s="28" t="str">
@@ -6393,14 +6394,14 @@
     </row>
     <row r="46" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6M+95</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D46" s="34">
         <v>43873</v>
@@ -6409,16 +6410,16 @@
         <v>45</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J46" s="27"/>
       <c r="K46" s="28" t="str">
@@ -6451,14 +6452,14 @@
     </row>
     <row r="47" spans="1:1024" s="48" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B47" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P76+Q9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" s="34">
         <v>43873</v>
@@ -6467,16 +6468,16 @@
         <v>45</v>
       </c>
       <c r="F47" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="H47" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="I47" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>244</v>
       </c>
       <c r="J47" s="27"/>
       <c r="K47" s="28" t="str">
@@ -6518,14 +6519,14 @@
     </row>
     <row r="48" spans="1:1024" ht="261.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P77+W8</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D48" s="34">
         <v>43074</v>
@@ -6534,16 +6535,16 @@
         <v>36</v>
       </c>
       <c r="F48" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="G48" s="35" t="s">
+      <c r="H48" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="I48" s="26" t="s">
         <v>249</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>250</v>
       </c>
       <c r="J48" s="27"/>
       <c r="K48" s="28" t="str">
@@ -6578,14 +6579,14 @@
     </row>
     <row r="49" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B49" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P78+49</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D49" s="34">
         <v>43873</v>
@@ -6594,16 +6595,16 @@
         <v>45</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G49" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H49" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="I49" s="26" t="s">
         <v>254</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>255</v>
       </c>
       <c r="J49" s="27"/>
       <c r="K49" s="28" t="str">
@@ -6636,14 +6637,14 @@
     </row>
     <row r="50" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B50" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7G+46</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D50" s="34">
         <v>42005</v>
@@ -6652,16 +6653,16 @@
         <v>36</v>
       </c>
       <c r="F50" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="G50" s="35" t="s">
+      <c r="H50" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="I50" s="26" t="s">
         <v>260</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>261</v>
       </c>
       <c r="J50" s="27"/>
       <c r="K50" s="28" t="str">
@@ -6669,7 +6670,7 @@
         <v>8P7G+46</v>
       </c>
       <c r="L50" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M50" s="30" t="s">
         <v>42</v>
@@ -6696,14 +6697,14 @@
     </row>
     <row r="51" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B51" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7G+GJ</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D51" s="34">
         <v>43873</v>
@@ -6712,16 +6713,16 @@
         <v>45</v>
       </c>
       <c r="F51" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="H51" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="I51" s="26" t="s">
         <v>266</v>
-      </c>
-      <c r="I51" s="26" t="s">
-        <v>267</v>
       </c>
       <c r="J51" s="27"/>
       <c r="K51" s="28" t="str">
@@ -6754,14 +6755,14 @@
     </row>
     <row r="52" spans="1:27" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B52" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7G+HH</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D52" s="34">
         <v>43970</v>
@@ -6770,16 +6771,16 @@
         <v>36</v>
       </c>
       <c r="F52" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="H52" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="H52" s="26" t="s">
-        <v>272</v>
-      </c>
       <c r="I52" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J52" s="27"/>
       <c r="K52" s="28"/>
@@ -6802,14 +6803,14 @@
     </row>
     <row r="53" spans="1:27" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7H+45</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D53" s="34">
         <v>43873</v>
@@ -6818,16 +6819,16 @@
         <v>45</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G53" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="H53" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="H53" s="26" t="s">
-        <v>276</v>
-      </c>
       <c r="I53" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="28" t="str">
@@ -6860,14 +6861,14 @@
     </row>
     <row r="54" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B54" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7J+7C</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D54" s="34">
         <v>43873</v>
@@ -6876,16 +6877,16 @@
         <v>45</v>
       </c>
       <c r="F54" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G54" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="G54" s="35" t="s">
-        <v>280</v>
-      </c>
       <c r="H54" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J54" s="27"/>
       <c r="K54" s="28" t="str">
@@ -6918,14 +6919,14 @@
     </row>
     <row r="55" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B55" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7Q+CC</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D55" s="34">
         <v>43873</v>
@@ -6934,16 +6935,16 @@
         <v>45</v>
       </c>
       <c r="F55" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="H55" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="H55" s="26" t="s">
-        <v>285</v>
-      </c>
       <c r="I55" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J55" s="27"/>
       <c r="K55" s="28" t="str">
@@ -6952,7 +6953,7 @@
       </c>
       <c r="L55" s="29"/>
       <c r="M55" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N55" s="31" t="str">
         <f t="shared" si="9"/>
@@ -6980,14 +6981,14 @@
     </row>
     <row r="56" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B56" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7Q+CC</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D56" s="34">
         <v>43873</v>
@@ -6996,16 +6997,16 @@
         <v>45</v>
       </c>
       <c r="F56" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="G56" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>288</v>
-      </c>
       <c r="I56" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J56" s="27"/>
       <c r="K56" s="28" t="str">
@@ -7040,14 +7041,14 @@
     </row>
     <row r="57" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B57" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D57" s="34">
         <v>43873</v>
@@ -7056,16 +7057,16 @@
         <v>45</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J57" s="27"/>
       <c r="K57" s="28" t="str">
@@ -7098,14 +7099,14 @@
     </row>
     <row r="58" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B58" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D58" s="34">
         <v>43873</v>
@@ -7114,16 +7115,16 @@
         <v>45</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J58" s="27"/>
       <c r="K58" s="28" t="str">
@@ -7156,14 +7157,14 @@
     </row>
     <row r="59" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D59" s="34">
         <v>43873</v>
@@ -7172,16 +7173,16 @@
         <v>45</v>
       </c>
       <c r="F59" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="G59" s="35" t="s">
+      <c r="H59" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H59" s="26" t="s">
-        <v>297</v>
-      </c>
       <c r="I59" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J59" s="27"/>
       <c r="K59" s="28" t="str">
@@ -7214,14 +7215,14 @@
     </row>
     <row r="60" spans="1:27" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B60" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D60" s="34">
         <v>43649</v>
@@ -7230,16 +7231,16 @@
         <v>36</v>
       </c>
       <c r="F60" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="G60" s="35" t="s">
+      <c r="H60" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="H60" s="26" t="s">
-        <v>301</v>
-      </c>
       <c r="I60" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J60" s="27"/>
       <c r="K60" s="28" t="str">
@@ -7274,14 +7275,14 @@
     </row>
     <row r="61" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B61" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P8C+R7</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D61" s="34">
         <v>43873</v>
@@ -7290,16 +7291,16 @@
         <v>45</v>
       </c>
       <c r="F61" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="G61" s="35" t="s">
-        <v>305</v>
-      </c>
       <c r="H61" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J61" s="27"/>
       <c r="K61" s="28" t="str">
@@ -7308,7 +7309,7 @@
       </c>
       <c r="L61" s="29"/>
       <c r="M61" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N61" s="31" t="str">
         <f t="shared" si="9"/>
@@ -7332,14 +7333,14 @@
     </row>
     <row r="62" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B62" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P8C+VR</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D62" s="34">
         <v>43873</v>
@@ -7348,16 +7349,16 @@
         <v>45</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G62" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="H62" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="H62" s="26" t="s">
-        <v>309</v>
-      </c>
       <c r="I62" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J62" s="27"/>
       <c r="K62" s="28" t="str">
@@ -7392,14 +7393,14 @@
     </row>
     <row r="63" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B63" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P8F+5V</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="34">
         <v>43873</v>
@@ -7408,16 +7409,16 @@
         <v>45</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J63" s="27"/>
       <c r="K63" s="28" t="str">
@@ -7450,14 +7451,14 @@
     </row>
     <row r="64" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B64" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P99+HX</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D64" s="34">
         <v>43873</v>
@@ -7466,16 +7467,16 @@
         <v>45</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G64" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="H64" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="H64" s="26" t="s">
-        <v>316</v>
-      </c>
       <c r="I64" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J64" s="27"/>
       <c r="K64" s="28" t="str">
@@ -7484,7 +7485,7 @@
       </c>
       <c r="L64" s="29"/>
       <c r="M64" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N64" s="31" t="str">
         <f t="shared" si="9"/>
@@ -7508,14 +7509,14 @@
     </row>
     <row r="65" spans="1:27" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B65" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P99+MW</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D65" s="34">
         <v>43873</v>
@@ -7524,16 +7525,16 @@
         <v>45</v>
       </c>
       <c r="F65" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G65" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="G65" s="35" t="s">
-        <v>320</v>
-      </c>
       <c r="H65" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I65" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J65" s="27"/>
       <c r="K65" s="28" t="str">
@@ -7566,14 +7567,14 @@
     </row>
     <row r="66" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B66" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+62</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D66" s="34">
         <v>43873</v>
@@ -7582,16 +7583,16 @@
         <v>45</v>
       </c>
       <c r="F66" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="G66" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="G66" s="35" t="s">
-        <v>324</v>
-      </c>
       <c r="H66" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J66" s="27"/>
       <c r="K66" s="28" t="str">
@@ -7624,14 +7625,14 @@
     </row>
     <row r="67" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B67" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+62</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D67" s="34">
         <v>43873</v>
@@ -7640,16 +7641,16 @@
         <v>45</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J67" s="27"/>
       <c r="K67" s="28" t="str">
@@ -7682,14 +7683,14 @@
     </row>
     <row r="68" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+62</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D68" s="34">
         <v>43873</v>
@@ -7698,16 +7699,16 @@
         <v>45</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J68" s="27"/>
       <c r="K68" s="28" t="str">
@@ -7740,14 +7741,14 @@
     </row>
     <row r="69" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B69" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+7C</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D69" s="34">
         <v>43873</v>
@@ -7756,16 +7757,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="G69" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="G69" s="35" t="s">
+      <c r="H69" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="I69" s="26" t="s">
         <v>332</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="I69" s="26" t="s">
-        <v>333</v>
       </c>
       <c r="J69" s="27"/>
       <c r="K69" s="28" t="str">
@@ -7798,14 +7799,14 @@
     </row>
     <row r="70" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B70" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9H+F9</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D70" s="34">
         <v>43873</v>
@@ -7814,16 +7815,16 @@
         <v>45</v>
       </c>
       <c r="F70" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="G70" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="I70" s="26" t="s">
         <v>336</v>
-      </c>
-      <c r="G70" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="H70" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="I70" s="26" t="s">
-        <v>337</v>
       </c>
       <c r="J70" s="27"/>
       <c r="K70" s="28" t="str">
@@ -7858,14 +7859,14 @@
     </row>
     <row r="71" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B71" s="22" t="str">
         <f t="shared" ref="B71:B134" si="10">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A71,4),"%2B",RIGHT(A71,2)),A71)</f>
         <v>8P9H+F9</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D71" s="34">
         <v>43873</v>
@@ -7874,16 +7875,16 @@
         <v>45</v>
       </c>
       <c r="F71" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="G71" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="G71" s="35" t="s">
-        <v>340</v>
-      </c>
       <c r="H71" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J71" s="27"/>
       <c r="K71" s="28" t="str">
@@ -7918,14 +7919,14 @@
     </row>
     <row r="72" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B72" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9H+F9</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D72" s="34">
         <v>43873</v>
@@ -7934,16 +7935,16 @@
         <v>45</v>
       </c>
       <c r="F72" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="G72" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="G72" s="35" t="s">
+      <c r="H72" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="H72" s="26" t="s">
-        <v>344</v>
-      </c>
       <c r="I72" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J72" s="27"/>
       <c r="K72" s="28" t="str">
@@ -7952,7 +7953,7 @@
       </c>
       <c r="L72" s="29"/>
       <c r="M72" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N72" s="31" t="str">
         <f t="shared" si="9"/>
@@ -7978,14 +7979,14 @@
     </row>
     <row r="73" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B73" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9M+W2</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D73" s="34">
         <v>43873</v>
@@ -7994,16 +7995,16 @@
         <v>45</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G73" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="H73" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="H73" s="26" t="s">
-        <v>348</v>
-      </c>
       <c r="I73" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J73" s="27"/>
       <c r="K73" s="28" t="str">
@@ -8034,32 +8035,32 @@
     </row>
     <row r="74" spans="1:27" ht="396" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B74" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9P+Q4</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D74" s="34">
         <v>43619</v>
       </c>
       <c r="E74" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="F74" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="F74" s="35" t="s">
+      <c r="G74" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="G74" s="35" t="s">
+      <c r="H74" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="I74" s="26" t="s">
         <v>354</v>
-      </c>
-      <c r="I74" s="26" t="s">
-        <v>355</v>
       </c>
       <c r="J74" s="27"/>
       <c r="K74" s="28" t="str">
@@ -8068,7 +8069,7 @@
       </c>
       <c r="L74" s="29"/>
       <c r="M74" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N74" s="31" t="str">
         <f t="shared" si="9"/>
@@ -8092,14 +8093,14 @@
     </row>
     <row r="75" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B75" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9P+Q4</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D75" s="34">
         <v>43873</v>
@@ -8108,16 +8109,16 @@
         <v>45</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G75" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I75" s="26" t="s">
         <v>357</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="I75" s="26" t="s">
-        <v>358</v>
       </c>
       <c r="J75" s="27"/>
       <c r="K75" s="28" t="str">
@@ -8150,14 +8151,14 @@
     </row>
     <row r="76" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B76" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9P+Q4</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D76" s="34">
         <v>43873</v>
@@ -8166,16 +8167,16 @@
         <v>45</v>
       </c>
       <c r="F76" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="G76" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="G76" s="35" t="s">
-        <v>361</v>
-      </c>
       <c r="H76" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J76" s="27"/>
       <c r="K76" s="28" t="str">
@@ -8208,32 +8209,32 @@
     </row>
     <row r="77" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B77" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+PC</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D77" s="34">
         <v>43612</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F77" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="G77" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="G77" s="35" t="s">
+      <c r="H77" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="H77" s="26" t="s">
-        <v>366</v>
-      </c>
       <c r="I77" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J77" s="27"/>
       <c r="K77" s="28" t="str">
@@ -8241,7 +8242,7 @@
         <v>8P9X+PC</v>
       </c>
       <c r="L77" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M77" s="38" t="s">
         <v>53</v>
@@ -8266,14 +8267,14 @@
     </row>
     <row r="78" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B78" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+PC</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D78" s="34">
         <v>43897</v>
@@ -8282,16 +8283,16 @@
         <v>45</v>
       </c>
       <c r="F78" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G78" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="G78" s="35" t="s">
-        <v>369</v>
-      </c>
       <c r="H78" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J78" s="27"/>
       <c r="K78" s="28" t="str">
@@ -8322,14 +8323,14 @@
     </row>
     <row r="79" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B79" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+QJ</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D79" s="34">
         <v>43987</v>
@@ -8341,13 +8342,13 @@
         <v>32</v>
       </c>
       <c r="G79" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="H79" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="H79" s="26" t="s">
-        <v>373</v>
-      </c>
       <c r="I79" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J79" s="27"/>
       <c r="K79" s="28" t="str">
@@ -8382,14 +8383,14 @@
     </row>
     <row r="80" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B80" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+QQ</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D80" s="34">
         <v>43893</v>
@@ -8401,13 +8402,13 @@
         <v>32</v>
       </c>
       <c r="G80" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="H80" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="H80" s="26" t="s">
-        <v>377</v>
-      </c>
       <c r="I80" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J80" s="27"/>
       <c r="K80" s="28" t="str">
@@ -8442,14 +8443,14 @@
     </row>
     <row r="81" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B81" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D81" s="34">
         <v>43873</v>
@@ -8458,16 +8459,16 @@
         <v>45</v>
       </c>
       <c r="F81" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="G81" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="G81" s="35" t="s">
-        <v>381</v>
-      </c>
       <c r="H81" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J81" s="27"/>
       <c r="K81" s="28" t="str">
@@ -8500,14 +8501,14 @@
     </row>
     <row r="82" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B82" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D82" s="34">
         <v>43873</v>
@@ -8516,16 +8517,16 @@
         <v>45</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J82" s="27"/>
       <c r="K82" s="28" t="str">
@@ -8558,14 +8559,14 @@
     </row>
     <row r="83" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B83" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D83" s="34">
         <v>43873</v>
@@ -8574,16 +8575,16 @@
         <v>45</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G83" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="H83" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="H83" s="26" t="s">
-        <v>386</v>
-      </c>
       <c r="I83" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J83" s="27"/>
       <c r="K83" s="28" t="str">
@@ -8616,14 +8617,14 @@
     </row>
     <row r="84" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B84" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D84" s="34">
         <v>43873</v>
@@ -8632,16 +8633,16 @@
         <v>45</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J84" s="27"/>
       <c r="K84" s="28" t="str">
@@ -8674,14 +8675,14 @@
     </row>
     <row r="85" spans="1:1024" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B85" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+7M</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D85" s="34">
         <v>43649</v>
@@ -8690,16 +8691,16 @@
         <v>45</v>
       </c>
       <c r="F85" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="G85" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="G85" s="35" t="s">
+      <c r="H85" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="H85" s="26" t="s">
-        <v>393</v>
-      </c>
       <c r="I85" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J85" s="27"/>
       <c r="K85" s="28" t="str">
@@ -8734,14 +8735,14 @@
     </row>
     <row r="86" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B86" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC9+RH</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D86" s="34">
         <v>43873</v>
@@ -8750,16 +8751,16 @@
         <v>45</v>
       </c>
       <c r="F86" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="G86" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="G86" s="35" t="s">
+      <c r="H86" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="H86" s="26" t="s">
-        <v>398</v>
-      </c>
       <c r="I86" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J86" s="27"/>
       <c r="K86" s="28" t="str">
@@ -8792,14 +8793,14 @@
     </row>
     <row r="87" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B87" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCH+W5</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D87" s="34">
         <v>43873</v>
@@ -8808,16 +8809,16 @@
         <v>45</v>
       </c>
       <c r="F87" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G87" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="H87" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="H87" s="26" t="s">
-        <v>398</v>
-      </c>
       <c r="I87" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J87" s="27"/>
       <c r="K87" s="28" t="str">
@@ -8852,14 +8853,14 @@
     </row>
     <row r="88" spans="1:1024" ht="261.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B88" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCW+6G</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D88" s="34">
         <v>43873</v>
@@ -8868,16 +8869,16 @@
         <v>45</v>
       </c>
       <c r="F88" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G88" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="H88" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="H88" s="26" t="s">
-        <v>405</v>
-      </c>
       <c r="I88" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J88" s="27"/>
       <c r="K88" s="28" t="str">
@@ -8912,14 +8913,14 @@
     </row>
     <row r="89" spans="1:1024" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B89" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCW+6H</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D89" s="34">
         <v>42988</v>
@@ -8928,16 +8929,16 @@
         <v>36</v>
       </c>
       <c r="F89" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="G89" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="G89" s="35" t="s">
+      <c r="H89" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="H89" s="26" t="s">
+      <c r="I89" s="26" t="s">
         <v>410</v>
-      </c>
-      <c r="I89" s="26" t="s">
-        <v>411</v>
       </c>
       <c r="J89" s="27"/>
       <c r="K89" s="28" t="str">
@@ -8976,14 +8977,14 @@
     </row>
     <row r="90" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B90" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCW+6J</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D90" s="34">
         <v>43873</v>
@@ -8992,16 +8993,16 @@
         <v>45</v>
       </c>
       <c r="F90" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="G90" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="G90" s="35" t="s">
+      <c r="H90" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="H90" s="26" t="s">
+      <c r="I90" s="26" t="s">
         <v>416</v>
-      </c>
-      <c r="I90" s="26" t="s">
-        <v>417</v>
       </c>
       <c r="J90" s="27"/>
       <c r="K90" s="28" t="str">
@@ -9010,7 +9011,7 @@
       </c>
       <c r="L90" s="29"/>
       <c r="M90" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N90" s="31" t="str">
         <f t="shared" si="12"/>
@@ -9036,14 +9037,14 @@
     </row>
     <row r="91" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B91" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+74</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D91" s="34">
         <v>43873</v>
@@ -9052,16 +9053,16 @@
         <v>45</v>
       </c>
       <c r="F91" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="G91" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="G91" s="35" t="s">
+      <c r="H91" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="I91" s="26" t="s">
         <v>421</v>
-      </c>
-      <c r="H91" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="I91" s="26" t="s">
-        <v>422</v>
       </c>
       <c r="J91" s="27"/>
       <c r="K91" s="28" t="str">
@@ -9096,14 +9097,14 @@
     </row>
     <row r="92" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B92" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+74</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D92" s="34">
         <v>43897</v>
@@ -9112,16 +9113,16 @@
         <v>45</v>
       </c>
       <c r="F92" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G92" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J92" s="27"/>
       <c r="K92" s="28" t="str">
@@ -9156,14 +9157,14 @@
     </row>
     <row r="93" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B93" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+74</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D93" s="34">
         <v>43873</v>
@@ -9175,13 +9176,13 @@
         <v>32</v>
       </c>
       <c r="G93" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="H93" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="H93" s="26" t="s">
-        <v>427</v>
-      </c>
       <c r="I93" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J93" s="27"/>
       <c r="K93" s="28" t="str">
@@ -9214,14 +9215,14 @@
     </row>
     <row r="94" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B94" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J2</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D94" s="34">
         <v>43873</v>
@@ -9230,16 +9231,16 @@
         <v>45</v>
       </c>
       <c r="F94" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="G94" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="G94" s="35" t="s">
+      <c r="H94" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="H94" s="26" t="s">
-        <v>432</v>
-      </c>
       <c r="I94" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J94" s="27"/>
       <c r="K94" s="28" t="str">
@@ -9272,14 +9273,14 @@
     </row>
     <row r="95" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B95" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D95" s="34">
         <v>43873</v>
@@ -9288,16 +9289,16 @@
         <v>45</v>
       </c>
       <c r="F95" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J95" s="27"/>
       <c r="K95" s="28" t="str">
@@ -9330,30 +9331,30 @@
     </row>
     <row r="96" spans="1:1024" s="48" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B96" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D96" s="34">
         <v>43731</v>
       </c>
       <c r="E96" s="34"/>
       <c r="F96" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="G96" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="G96" s="35" t="s">
+      <c r="H96" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="H96" s="26" t="s">
-        <v>437</v>
-      </c>
       <c r="I96" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J96" s="27"/>
       <c r="K96" s="28" t="str">
@@ -9397,14 +9398,14 @@
     </row>
     <row r="97" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B97" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D97" s="34">
         <v>43873</v>
@@ -9413,16 +9414,16 @@
         <v>45</v>
       </c>
       <c r="F97" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G97" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J97" s="27"/>
       <c r="K97" s="28" t="str">
@@ -9457,14 +9458,14 @@
     </row>
     <row r="98" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B98" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D98" s="34">
         <v>43873</v>
@@ -9473,16 +9474,16 @@
         <v>45</v>
       </c>
       <c r="F98" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G98" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J98" s="27"/>
       <c r="K98" s="28" t="str">
@@ -9517,14 +9518,14 @@
     </row>
     <row r="99" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B99" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PF4+M7</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D99" s="34">
         <v>43873</v>
@@ -9533,16 +9534,16 @@
         <v>45</v>
       </c>
       <c r="F99" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="G99" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="G99" s="35" t="s">
-        <v>443</v>
-      </c>
       <c r="H99" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I99" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J99" s="27"/>
       <c r="K99" s="28" t="str">
@@ -9575,14 +9576,14 @@
     </row>
     <row r="100" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B100" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PF9+MX</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D100" s="34">
         <v>43731</v>
@@ -9591,16 +9592,16 @@
         <v>36</v>
       </c>
       <c r="F100" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="G100" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H100" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="G100" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H100" s="26" t="s">
-        <v>447</v>
-      </c>
       <c r="I100" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J100" s="27"/>
       <c r="K100" s="28" t="str">
@@ -9608,7 +9609,7 @@
         <v>8PF9+MX</v>
       </c>
       <c r="L100" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M100" s="38" t="s">
         <v>53</v>
@@ -9635,14 +9636,14 @@
     </row>
     <row r="101" spans="1:27" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B101" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFF+WF</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D101" s="34">
         <v>43873</v>
@@ -9651,16 +9652,16 @@
         <v>45</v>
       </c>
       <c r="F101" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="G101" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="G101" s="35" t="s">
+      <c r="H101" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="H101" s="26" t="s">
-        <v>452</v>
-      </c>
       <c r="I101" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J101" s="27"/>
       <c r="K101" s="28" t="str">
@@ -9669,7 +9670,7 @@
       </c>
       <c r="L101" s="29"/>
       <c r="M101" s="49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N101" s="31" t="str">
         <f t="shared" si="12"/>
@@ -9693,14 +9694,14 @@
     </row>
     <row r="102" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B102" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+25</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D102" s="34">
         <v>43873</v>
@@ -9709,16 +9710,16 @@
         <v>45</v>
       </c>
       <c r="F102" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G102" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H102" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J102" s="27"/>
       <c r="K102" s="28" t="str">
@@ -9753,30 +9754,30 @@
     </row>
     <row r="103" spans="1:27" ht="327" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B103" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+6Q</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D103" s="34">
         <v>42988</v>
       </c>
       <c r="E103" s="34"/>
       <c r="F103" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="G103" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="G103" s="35" t="s">
+      <c r="H103" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="H103" s="26" t="s">
-        <v>461</v>
-      </c>
       <c r="I103" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J103" s="27"/>
       <c r="K103" s="28" t="str">
@@ -9784,7 +9785,7 @@
         <v>8PFG+6Q</v>
       </c>
       <c r="L103" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M103" s="30" t="s">
         <v>42</v>
@@ -9811,14 +9812,14 @@
     </row>
     <row r="104" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B104" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+PF</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D104" s="34">
         <v>43873</v>
@@ -9827,16 +9828,16 @@
         <v>45</v>
       </c>
       <c r="F104" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="G104" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="G104" s="35" t="s">
-        <v>465</v>
-      </c>
       <c r="H104" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J104" s="27"/>
       <c r="K104" s="28" t="str">
@@ -9869,14 +9870,14 @@
     </row>
     <row r="105" spans="1:27" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B105" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+PF</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D105" s="34">
         <v>43873</v>
@@ -9885,16 +9886,16 @@
         <v>45</v>
       </c>
       <c r="F105" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="G105" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="G105" s="35" t="s">
-        <v>468</v>
-      </c>
       <c r="H105" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I105" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J105" s="27"/>
       <c r="K105" s="28" t="str">
@@ -9927,32 +9928,32 @@
     </row>
     <row r="106" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B106" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFH+85</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D106" s="34">
         <v>43619</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F106" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G106" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="G106" s="35" t="s">
+      <c r="H106" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="H106" s="26" t="s">
-        <v>473</v>
-      </c>
       <c r="I106" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J106" s="27"/>
       <c r="K106" s="28" t="str">
@@ -9960,7 +9961,7 @@
         <v>8PFH+85</v>
       </c>
       <c r="L106" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M106" s="36" t="s">
         <v>48</v>
@@ -9987,14 +9988,14 @@
     </row>
     <row r="107" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B107" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFH+86</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D107" s="34">
         <v>43873</v>
@@ -10003,16 +10004,16 @@
         <v>45</v>
       </c>
       <c r="F107" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="G107" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="G107" s="35" t="s">
-        <v>477</v>
-      </c>
       <c r="H107" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J107" s="27"/>
       <c r="K107" s="28" t="str">
@@ -10045,14 +10046,14 @@
     </row>
     <row r="108" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B108" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFH+HW</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D108" s="34">
         <v>43873</v>
@@ -10061,16 +10062,16 @@
         <v>45</v>
       </c>
       <c r="F108" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="G108" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="G108" s="35" t="s">
+      <c r="H108" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="H108" s="26" t="s">
-        <v>482</v>
-      </c>
       <c r="I108" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J108" s="27"/>
       <c r="K108" s="28" t="str">
@@ -10103,14 +10104,14 @@
     </row>
     <row r="109" spans="1:27" ht="306.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B109" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFJ+M8</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D109" s="34">
         <v>42988</v>
@@ -10119,16 +10120,16 @@
         <v>36</v>
       </c>
       <c r="F109" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="G109" s="35" t="s">
         <v>485</v>
       </c>
-      <c r="G109" s="35" t="s">
+      <c r="H109" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="H109" s="26" t="s">
+      <c r="I109" s="26" t="s">
         <v>487</v>
-      </c>
-      <c r="I109" s="26" t="s">
-        <v>488</v>
       </c>
       <c r="J109" s="27"/>
       <c r="K109" s="28" t="str">
@@ -10136,7 +10137,7 @@
         <v>8PFJ+M8</v>
       </c>
       <c r="L109" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M109" s="30" t="s">
         <v>42</v>
@@ -10163,14 +10164,14 @@
     </row>
     <row r="110" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B110" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+GR</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D110" s="34">
         <v>43873</v>
@@ -10179,16 +10180,16 @@
         <v>45</v>
       </c>
       <c r="F110" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="G110" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="G110" s="35" t="s">
+      <c r="H110" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="H110" s="26" t="s">
-        <v>493</v>
-      </c>
       <c r="I110" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J110" s="27"/>
       <c r="K110" s="28" t="str">
@@ -10221,14 +10222,14 @@
     </row>
     <row r="111" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B111" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+JV</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D111" s="34">
         <v>43873</v>
@@ -10237,16 +10238,16 @@
         <v>45</v>
       </c>
       <c r="F111" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="G111" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="G111" s="35" t="s">
-        <v>497</v>
-      </c>
       <c r="H111" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I111" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J111" s="27"/>
       <c r="K111" s="28" t="str">
@@ -10279,14 +10280,14 @@
     </row>
     <row r="112" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B112" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+JV</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D112" s="34">
         <v>43358</v>
@@ -10295,16 +10296,16 @@
         <v>36</v>
       </c>
       <c r="F112" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="G112" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="G112" s="35" t="s">
+      <c r="H112" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="H112" s="26" t="s">
+      <c r="I112" s="26" t="s">
         <v>501</v>
-      </c>
-      <c r="I112" s="26" t="s">
-        <v>502</v>
       </c>
       <c r="J112" s="27"/>
       <c r="K112" s="28" t="str">
@@ -10312,7 +10313,7 @@
         <v>8PFW+JV</v>
       </c>
       <c r="L112" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M112" s="38" t="s">
         <v>53</v>
@@ -10339,14 +10340,14 @@
     </row>
     <row r="113" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B113" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+QC</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D113" s="34">
         <v>43873</v>
@@ -10355,16 +10356,16 @@
         <v>45</v>
       </c>
       <c r="F113" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="G113" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="G113" s="35" t="s">
+      <c r="H113" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="H113" s="26" t="s">
-        <v>507</v>
-      </c>
       <c r="I113" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J113" s="27"/>
       <c r="K113" s="28" t="str">
@@ -10397,14 +10398,14 @@
     </row>
     <row r="114" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B114" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+QC</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D114" s="34">
         <v>43873</v>
@@ -10413,16 +10414,16 @@
         <v>45</v>
       </c>
       <c r="F114" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H114" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I114" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J114" s="27"/>
       <c r="K114" s="28" t="str">
@@ -10455,32 +10456,32 @@
     </row>
     <row r="115" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B115" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFX+Q2</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D115" s="34">
         <v>43631</v>
       </c>
       <c r="E115" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="F115" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="F115" s="35" t="s">
+      <c r="G115" s="35" t="s">
         <v>513</v>
       </c>
-      <c r="G115" s="35" t="s">
+      <c r="H115" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="H115" s="26" t="s">
-        <v>515</v>
-      </c>
       <c r="I115" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J115" s="27"/>
       <c r="K115" s="28" t="str">
@@ -10515,14 +10516,14 @@
     </row>
     <row r="116" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B116" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGF+2C</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D116" s="34">
         <v>43873</v>
@@ -10531,16 +10532,16 @@
         <v>45</v>
       </c>
       <c r="F116" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="G116" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="G116" s="35" t="s">
-        <v>518</v>
-      </c>
       <c r="H116" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J116" s="27"/>
       <c r="K116" s="28" t="str">
@@ -10573,14 +10574,14 @@
     </row>
     <row r="117" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B117" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGF+2G</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D117" s="34">
         <v>43873</v>
@@ -10589,16 +10590,16 @@
         <v>45</v>
       </c>
       <c r="F117" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="G117" s="35" t="s">
         <v>521</v>
       </c>
-      <c r="G117" s="35" t="s">
+      <c r="H117" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="H117" s="26" t="s">
-        <v>523</v>
-      </c>
       <c r="I117" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J117" s="27"/>
       <c r="K117" s="28" t="str">
@@ -10631,14 +10632,14 @@
     </row>
     <row r="118" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B118" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGF+68</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D118" s="34">
         <v>43731</v>
@@ -10647,16 +10648,16 @@
         <v>36</v>
       </c>
       <c r="F118" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="G118" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="G118" s="35" t="s">
+      <c r="H118" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="H118" s="26" t="s">
-        <v>528</v>
-      </c>
       <c r="I118" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J118" s="27"/>
       <c r="K118" s="28" t="str">
@@ -10664,10 +10665,10 @@
         <v>8PGF+68</v>
       </c>
       <c r="L118" s="29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M118" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N118" s="31" t="str">
         <f t="shared" si="14"/>
@@ -10691,14 +10692,14 @@
     </row>
     <row r="119" spans="1:27" ht="342.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B119" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+63</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D119" s="34">
         <v>43617</v>
@@ -10707,16 +10708,16 @@
         <v>36</v>
       </c>
       <c r="F119" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="G119" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="G119" s="35" t="s">
+      <c r="H119" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="H119" s="26" t="s">
+      <c r="I119" s="26" t="s">
         <v>533</v>
-      </c>
-      <c r="I119" s="26" t="s">
-        <v>534</v>
       </c>
       <c r="J119" s="27"/>
       <c r="K119" s="28" t="str">
@@ -10724,7 +10725,7 @@
         <v>8PGG+63</v>
       </c>
       <c r="L119" s="29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M119" s="44" t="s">
         <v>48</v>
@@ -10751,14 +10752,14 @@
     </row>
     <row r="120" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B120" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+63</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D120" s="34">
         <v>43873</v>
@@ -10767,16 +10768,16 @@
         <v>45</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G120" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H120" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="I120" s="26" t="s">
         <v>533</v>
-      </c>
-      <c r="I120" s="26" t="s">
-        <v>534</v>
       </c>
       <c r="J120" s="27"/>
       <c r="K120" s="28" t="str">
@@ -10809,14 +10810,14 @@
     </row>
     <row r="121" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B121" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+99</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D121" s="34">
         <v>43873</v>
@@ -10825,16 +10826,16 @@
         <v>45</v>
       </c>
       <c r="F121" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="G121" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="H121" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="G121" s="35" t="s">
-        <v>538</v>
-      </c>
-      <c r="H121" s="26" t="s">
-        <v>540</v>
-      </c>
       <c r="I121" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J121" s="27"/>
       <c r="K121" s="28" t="str">
@@ -10867,14 +10868,14 @@
     </row>
     <row r="122" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B122" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+VC</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D122" s="34">
         <v>43898</v>
@@ -10883,16 +10884,16 @@
         <v>45</v>
       </c>
       <c r="F122" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="G122" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="G122" s="35" t="s">
-        <v>544</v>
-      </c>
       <c r="H122" s="26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J122" s="27"/>
       <c r="K122" s="28" t="str">
@@ -10900,7 +10901,7 @@
         <v>8PGG+VC</v>
       </c>
       <c r="L122" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M122" s="30" t="s">
         <v>42</v>
@@ -10927,14 +10928,14 @@
     </row>
     <row r="123" spans="1:27" ht="245.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B123" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+WC</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D123" s="34">
         <v>43758</v>
@@ -10943,16 +10944,16 @@
         <v>36</v>
       </c>
       <c r="F123" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G123" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="H123" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="H123" s="26" t="s">
-        <v>548</v>
-      </c>
       <c r="I123" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J123" s="27"/>
       <c r="K123" s="28" t="str">
@@ -10960,7 +10961,7 @@
         <v>8PGG+WC</v>
       </c>
       <c r="L123" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M123" s="44" t="s">
         <v>48</v>
@@ -10987,14 +10988,14 @@
     </row>
     <row r="124" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B124" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGH+4H</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D124" s="34">
         <v>43873</v>
@@ -11003,16 +11004,16 @@
         <v>45</v>
       </c>
       <c r="F124" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="G124" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="G124" s="35" t="s">
+      <c r="H124" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="H124" s="26" t="s">
-        <v>553</v>
-      </c>
       <c r="I124" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J124" s="27"/>
       <c r="K124" s="28" t="str">
@@ -11021,7 +11022,7 @@
       </c>
       <c r="L124" s="29"/>
       <c r="M124" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N124" s="31" t="str">
         <f t="shared" si="14"/>
@@ -11047,14 +11048,14 @@
     </row>
     <row r="125" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B125" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGM+5V</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D125" s="34">
         <v>43897</v>
@@ -11063,16 +11064,16 @@
         <v>45</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G125" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H125" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J125" s="27"/>
       <c r="K125" s="28" t="str">
@@ -11105,14 +11106,14 @@
     </row>
     <row r="126" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B126" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGM+5V</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D126" s="34">
         <v>43897</v>
@@ -11121,16 +11122,16 @@
         <v>45</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G126" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H126" s="26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J126" s="27"/>
       <c r="K126" s="28" t="str">
@@ -11163,14 +11164,14 @@
     </row>
     <row r="127" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B127" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGP+84</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D127" s="34">
         <v>43873</v>
@@ -11179,16 +11180,16 @@
         <v>45</v>
       </c>
       <c r="F127" s="35" t="s">
+        <v>559</v>
+      </c>
+      <c r="G127" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="G127" s="35" t="s">
+      <c r="H127" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="H127" s="26" t="s">
-        <v>562</v>
-      </c>
       <c r="I127" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J127" s="27"/>
       <c r="K127" s="28" t="str">
@@ -11221,14 +11222,14 @@
     </row>
     <row r="128" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B128" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGQ+74</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D128" s="34">
         <v>43873</v>
@@ -11237,16 +11238,16 @@
         <v>45</v>
       </c>
       <c r="F128" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="G128" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="G128" s="35" t="s">
+      <c r="H128" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="H128" s="26" t="s">
-        <v>567</v>
-      </c>
       <c r="I128" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J128" s="27"/>
       <c r="K128" s="28" t="str">
@@ -11281,14 +11282,14 @@
     </row>
     <row r="129" spans="1:27" ht="357.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B129" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGR+7W</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D129" s="34">
         <v>42988</v>
@@ -11297,16 +11298,16 @@
         <v>36</v>
       </c>
       <c r="F129" s="35" t="s">
+        <v>569</v>
+      </c>
+      <c r="G129" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="G129" s="35" t="s">
+      <c r="H129" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="H129" s="26" t="s">
-        <v>572</v>
-      </c>
       <c r="I129" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J129" s="27"/>
       <c r="K129" s="28" t="str">
@@ -11314,7 +11315,7 @@
         <v>8PGR+7W</v>
       </c>
       <c r="L129" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M129" s="38" t="s">
         <v>53</v>
@@ -11343,14 +11344,14 @@
     </row>
     <row r="130" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B130" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGR+7W</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D130" s="34">
         <v>43873</v>
@@ -11359,16 +11360,16 @@
         <v>45</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G130" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="H130" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="H130" s="26" t="s">
-        <v>575</v>
-      </c>
       <c r="I130" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J130" s="27"/>
       <c r="K130" s="28" t="str">
@@ -11403,14 +11404,14 @@
     </row>
     <row r="131" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B131" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+3F</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D131" s="34">
         <v>43873</v>
@@ -11419,16 +11420,16 @@
         <v>45</v>
       </c>
       <c r="F131" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="G131" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="G131" s="35" t="s">
+      <c r="H131" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="H131" s="26" t="s">
-        <v>580</v>
-      </c>
       <c r="I131" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J131" s="27"/>
       <c r="K131" s="28" t="str">
@@ -11437,7 +11438,7 @@
       </c>
       <c r="L131" s="29"/>
       <c r="M131" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N131" s="31" t="str">
         <f t="shared" si="14"/>
@@ -11461,14 +11462,14 @@
     </row>
     <row r="132" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B132" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+4C</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D132" s="34">
         <v>43873</v>
@@ -11477,16 +11478,16 @@
         <v>45</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G132" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="H132" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="H132" s="26" t="s">
-        <v>584</v>
-      </c>
       <c r="I132" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J132" s="27"/>
       <c r="K132" s="28" t="str">
@@ -11521,14 +11522,14 @@
     </row>
     <row r="133" spans="1:27" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B133" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+4C</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D133" s="34">
         <v>43873</v>
@@ -11537,16 +11538,16 @@
         <v>45</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G133" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H133" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I133" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J133" s="27"/>
       <c r="K133" s="28" t="str">
@@ -11579,32 +11580,32 @@
     </row>
     <row r="134" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B134" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+4C</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D134" s="34">
         <v>43997</v>
       </c>
       <c r="E134" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F134" s="35" t="s">
+        <v>587</v>
+      </c>
+      <c r="G134" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="G134" s="35" t="s">
-        <v>589</v>
-      </c>
       <c r="H134" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J134" s="27"/>
       <c r="K134" s="28" t="str">
@@ -11612,7 +11613,7 @@
         <v>8PGV+4C</v>
       </c>
       <c r="L134" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M134" s="36" t="s">
         <v>48</v>
@@ -11641,14 +11642,14 @@
     </row>
     <row r="135" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B135" s="22" t="str">
         <f t="shared" ref="B135:B198" si="15">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A135,4),"%2B",RIGHT(A135,2)),A135)</f>
         <v>8PGV+9F</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D135" s="34">
         <v>43873</v>
@@ -11657,16 +11658,16 @@
         <v>45</v>
       </c>
       <c r="F135" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="G135" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="G135" s="35" t="s">
-        <v>593</v>
-      </c>
       <c r="H135" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J135" s="27"/>
       <c r="K135" s="28" t="str">
@@ -11699,14 +11700,14 @@
     </row>
     <row r="136" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B136" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PGV+9F</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D136" s="34">
         <v>43873</v>
@@ -11715,16 +11716,16 @@
         <v>45</v>
       </c>
       <c r="F136" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G136" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="H136" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="H136" s="26" t="s">
-        <v>595</v>
-      </c>
       <c r="I136" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J136" s="27"/>
       <c r="K136" s="28" t="str">
@@ -11757,14 +11758,14 @@
     </row>
     <row r="137" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B137" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PGX+MQ</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D137" s="34">
         <v>43873</v>
@@ -11773,16 +11774,16 @@
         <v>45</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G137" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H137" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I137" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J137" s="27"/>
       <c r="K137" s="28" t="str">
@@ -11815,32 +11816,32 @@
     </row>
     <row r="138" spans="1:27" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B138" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D138" s="34">
         <v>43809</v>
       </c>
       <c r="E138" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="F138" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="F138" s="35" t="s">
+      <c r="G138" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="G138" s="35" t="s">
+      <c r="H138" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="H138" s="26" t="s">
-        <v>604</v>
-      </c>
       <c r="I138" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J138" s="27"/>
       <c r="K138" s="28" t="str">
@@ -11848,7 +11849,7 @@
         <v>8PHG+RV</v>
       </c>
       <c r="L138" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M138" s="30" t="s">
         <v>42</v>
@@ -11875,14 +11876,14 @@
     </row>
     <row r="139" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B139" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D139" s="34">
         <v>43873</v>
@@ -11891,16 +11892,16 @@
         <v>45</v>
       </c>
       <c r="F139" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="G139" s="35" t="s">
         <v>606</v>
       </c>
-      <c r="G139" s="35" t="s">
-        <v>607</v>
-      </c>
       <c r="H139" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J139" s="27"/>
       <c r="K139" s="28" t="str">
@@ -11933,14 +11934,14 @@
     </row>
     <row r="140" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B140" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D140" s="34">
         <v>43873</v>
@@ -11949,16 +11950,16 @@
         <v>45</v>
       </c>
       <c r="F140" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="G140" s="35" t="s">
         <v>609</v>
       </c>
-      <c r="G140" s="35" t="s">
-        <v>610</v>
-      </c>
       <c r="H140" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J140" s="27"/>
       <c r="K140" s="28" t="str">
@@ -11967,7 +11968,7 @@
       </c>
       <c r="L140" s="29"/>
       <c r="M140" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N140" s="31" t="str">
         <f t="shared" si="14"/>
@@ -11991,14 +11992,14 @@
     </row>
     <row r="141" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B141" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D141" s="34">
         <v>42736</v>
@@ -12007,16 +12008,16 @@
         <v>36</v>
       </c>
       <c r="F141" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="G141" s="35" t="s">
         <v>612</v>
       </c>
-      <c r="G141" s="35" t="s">
+      <c r="H141" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="H141" s="26" t="s">
-        <v>614</v>
-      </c>
       <c r="I141" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J141" s="27"/>
       <c r="K141" s="28" t="str">
@@ -12024,7 +12025,7 @@
         <v>8PHG+RV</v>
       </c>
       <c r="L141" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M141" s="44" t="s">
         <v>48</v>
@@ -12051,14 +12052,14 @@
     </row>
     <row r="142" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B142" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PJC+32</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D142" s="34">
         <v>43873</v>
@@ -12067,16 +12068,16 @@
         <v>45</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G142" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H142" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="I142" s="26" t="s">
         <v>533</v>
-      </c>
-      <c r="I142" s="26" t="s">
-        <v>534</v>
       </c>
       <c r="J142" s="27"/>
       <c r="K142" s="28" t="str">
@@ -12115,14 +12116,14 @@
     </row>
     <row r="143" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B143" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PJM+VW</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D143" s="34">
         <v>43873</v>
@@ -12131,16 +12132,16 @@
         <v>45</v>
       </c>
       <c r="F143" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G143" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="H143" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="H143" s="26" t="s">
+      <c r="I143" s="26" t="s">
         <v>621</v>
-      </c>
-      <c r="I143" s="26" t="s">
-        <v>622</v>
       </c>
       <c r="J143" s="27"/>
       <c r="K143" s="28" t="str">
@@ -12173,14 +12174,14 @@
     </row>
     <row r="144" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B144" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PJR+46</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D144" s="34">
         <v>43873</v>
@@ -12189,16 +12190,16 @@
         <v>45</v>
       </c>
       <c r="F144" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G144" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="H144" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="H144" s="26" t="s">
-        <v>626</v>
-      </c>
       <c r="I144" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J144" s="27"/>
       <c r="K144" s="28" t="str">
@@ -12231,32 +12232,32 @@
     </row>
     <row r="145" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B145" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PJR+46</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D145" s="34">
         <v>43631</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F145" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="G145" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="G145" s="35" t="s">
-        <v>629</v>
-      </c>
       <c r="H145" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I145" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J145" s="27"/>
       <c r="K145" s="28" t="str">
@@ -12264,7 +12265,7 @@
         <v>8PJR+46</v>
       </c>
       <c r="L145" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M145" s="38" t="s">
         <v>53</v>
@@ -12291,14 +12292,14 @@
     </row>
     <row r="146" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B146" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PM9+8X</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D146" s="34">
         <v>43873</v>
@@ -12307,16 +12308,16 @@
         <v>45</v>
       </c>
       <c r="F146" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="G146" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="G146" s="35" t="s">
-        <v>633</v>
-      </c>
       <c r="H146" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J146" s="27"/>
       <c r="K146" s="28" t="str">
@@ -12351,14 +12352,14 @@
     </row>
     <row r="147" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B147" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PM9+JX</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D147" s="34">
         <v>43873</v>
@@ -12367,16 +12368,16 @@
         <v>45</v>
       </c>
       <c r="F147" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H147" s="26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J147" s="27"/>
       <c r="K147" s="28" t="str">
@@ -12411,14 +12412,14 @@
     </row>
     <row r="148" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B148" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PMH+33</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D148" s="34">
         <v>43873</v>
@@ -12427,16 +12428,16 @@
         <v>45</v>
       </c>
       <c r="F148" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G148" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H148" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="H148" s="26" t="s">
-        <v>640</v>
-      </c>
       <c r="I148" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J148" s="27"/>
       <c r="K148" s="28" t="str">
@@ -12469,14 +12470,14 @@
     </row>
     <row r="149" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B149" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PMQ+XJ</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D149" s="34">
         <v>43873</v>
@@ -12485,16 +12486,16 @@
         <v>45</v>
       </c>
       <c r="F149" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G149" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="H149" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="H149" s="26" t="s">
+      <c r="I149" s="26" t="s">
         <v>644</v>
-      </c>
-      <c r="I149" s="26" t="s">
-        <v>645</v>
       </c>
       <c r="J149" s="27"/>
       <c r="K149" s="28" t="str">
@@ -12527,32 +12528,32 @@
     </row>
     <row r="150" spans="1:27" ht="294" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="33" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B150" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PPQ+5H</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D150" s="34">
         <v>43612</v>
       </c>
       <c r="E150" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F150" s="35" t="s">
+        <v>647</v>
+      </c>
+      <c r="G150" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="G150" s="35" t="s">
+      <c r="H150" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="I150" s="26" t="s">
         <v>649</v>
-      </c>
-      <c r="H150" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="I150" s="26" t="s">
-        <v>650</v>
       </c>
       <c r="J150" s="27"/>
       <c r="K150" s="28" t="str">
@@ -12560,7 +12561,7 @@
         <v>8PPQ+5H</v>
       </c>
       <c r="L150" s="29" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M150" s="36" t="s">
         <v>48</v>
@@ -12587,14 +12588,14 @@
     </row>
     <row r="151" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B151" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q29+P6</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D151" s="34">
         <v>43873</v>
@@ -12603,16 +12604,16 @@
         <v>45</v>
       </c>
       <c r="F151" s="35" t="s">
+        <v>652</v>
+      </c>
+      <c r="G151" s="35" t="s">
         <v>653</v>
       </c>
-      <c r="G151" s="35" t="s">
+      <c r="H151" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="H151" s="26" t="s">
-        <v>655</v>
-      </c>
       <c r="I151" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J151" s="27"/>
       <c r="K151" s="28" t="str">
@@ -12645,32 +12646,32 @@
     </row>
     <row r="152" spans="1:27" ht="258" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B152" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q5G+F7</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D152" s="34">
         <v>41821</v>
       </c>
       <c r="E152" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="F152" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="F152" s="35" t="s">
+      <c r="G152" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="G152" s="35" t="s">
+      <c r="H152" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="H152" s="26" t="s">
+      <c r="I152" s="26" t="s">
         <v>661</v>
-      </c>
-      <c r="I152" s="26" t="s">
-        <v>662</v>
       </c>
       <c r="J152" s="27"/>
       <c r="K152" s="28" t="str">
@@ -12678,7 +12679,7 @@
         <v>8Q5G+F7</v>
       </c>
       <c r="L152" s="29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M152" s="36" t="s">
         <v>48</v>
@@ -12705,14 +12706,14 @@
     </row>
     <row r="153" spans="1:27" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B153" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q63+HQ</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D153" s="34">
         <v>42988</v>
@@ -12721,16 +12722,16 @@
         <v>36</v>
       </c>
       <c r="F153" s="35" t="s">
+        <v>665</v>
+      </c>
+      <c r="G153" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="G153" s="35" t="s">
+      <c r="H153" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="I153" s="26" t="s">
         <v>667</v>
-      </c>
-      <c r="H153" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="I153" s="26" t="s">
-        <v>668</v>
       </c>
       <c r="J153" s="27" t="s">
         <v>43</v>
@@ -12769,14 +12770,14 @@
     </row>
     <row r="154" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B154" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q64+Q3</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D154" s="34">
         <v>42989</v>
@@ -12785,16 +12786,16 @@
         <v>36</v>
       </c>
       <c r="F154" s="35" t="s">
+        <v>670</v>
+      </c>
+      <c r="G154" s="35" t="s">
         <v>671</v>
       </c>
-      <c r="G154" s="35" t="s">
+      <c r="H154" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="H154" s="26" t="s">
+      <c r="I154" s="26" t="s">
         <v>673</v>
-      </c>
-      <c r="I154" s="26" t="s">
-        <v>674</v>
       </c>
       <c r="J154" s="27"/>
       <c r="K154" s="28" t="str">
@@ -12829,14 +12830,14 @@
     </row>
     <row r="155" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B155" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+2P</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D155" s="34">
         <v>43873</v>
@@ -12845,16 +12846,16 @@
         <v>45</v>
       </c>
       <c r="F155" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="G155" s="35" t="s">
         <v>677</v>
       </c>
-      <c r="G155" s="35" t="s">
+      <c r="H155" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="H155" s="26" t="s">
-        <v>679</v>
-      </c>
       <c r="I155" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J155" s="27"/>
       <c r="K155" s="28" t="str">
@@ -12887,32 +12888,32 @@
     </row>
     <row r="156" spans="1:27" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B156" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+2P</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D156" s="34">
         <v>43488</v>
       </c>
       <c r="E156" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="F156" s="35" t="s">
         <v>681</v>
       </c>
-      <c r="F156" s="35" t="s">
+      <c r="G156" s="35" t="s">
         <v>682</v>
       </c>
-      <c r="G156" s="35" t="s">
-        <v>683</v>
-      </c>
       <c r="H156" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I156" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J156" s="27"/>
       <c r="K156" s="28" t="str">
@@ -12920,7 +12921,7 @@
         <v>8Q74+2P</v>
       </c>
       <c r="L156" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M156" s="36" t="s">
         <v>48</v>
@@ -12947,14 +12948,14 @@
     </row>
     <row r="157" spans="1:27" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B157" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+2P</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D157" s="34">
         <v>43873</v>
@@ -12963,16 +12964,16 @@
         <v>45</v>
       </c>
       <c r="F157" s="35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G157" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="H157" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="H157" s="26" t="s">
-        <v>686</v>
-      </c>
       <c r="I157" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J157" s="27"/>
       <c r="K157" s="28" t="str">
@@ -13005,14 +13006,14 @@
     </row>
     <row r="158" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B158" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+J5</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D158" s="34">
         <v>43873</v>
@@ -13021,16 +13022,16 @@
         <v>45</v>
       </c>
       <c r="F158" s="35" t="s">
+        <v>688</v>
+      </c>
+      <c r="G158" s="35" t="s">
         <v>689</v>
       </c>
-      <c r="G158" s="35" t="s">
-        <v>690</v>
-      </c>
       <c r="H158" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J158" s="27"/>
       <c r="K158" s="28" t="str">
@@ -13065,14 +13066,14 @@
     </row>
     <row r="159" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B159" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q77+69</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D159" s="34">
         <v>43873</v>
@@ -13081,16 +13082,16 @@
         <v>45</v>
       </c>
       <c r="F159" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H159" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J159" s="27"/>
       <c r="K159" s="28" t="str">
@@ -13123,14 +13124,14 @@
     </row>
     <row r="160" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B160" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q77+79</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D160" s="34">
         <v>42005</v>
@@ -13139,16 +13140,16 @@
         <v>36</v>
       </c>
       <c r="F160" s="35" t="s">
+        <v>695</v>
+      </c>
+      <c r="G160" s="35" t="s">
         <v>696</v>
       </c>
-      <c r="G160" s="35" t="s">
+      <c r="H160" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I160" s="50" t="s">
         <v>697</v>
-      </c>
-      <c r="H160" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I160" s="50" t="s">
-        <v>698</v>
       </c>
       <c r="J160" s="27"/>
       <c r="K160" s="28" t="str">
@@ -13156,7 +13157,7 @@
         <v>8Q77+79</v>
       </c>
       <c r="L160" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M160" s="38" t="s">
         <v>53</v>
@@ -13183,14 +13184,14 @@
     </row>
     <row r="161" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B161" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q84+5P</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D161" s="34">
         <v>43873</v>
@@ -13199,16 +13200,16 @@
         <v>45</v>
       </c>
       <c r="F161" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H161" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J161" s="27"/>
       <c r="K161" s="28" t="str">
@@ -13241,14 +13242,14 @@
     </row>
     <row r="162" spans="1:27" ht="311.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="33" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B162" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q84+5P</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D162" s="34">
         <v>42988</v>
@@ -13257,16 +13258,16 @@
         <v>36</v>
       </c>
       <c r="F162" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="G162" s="35" t="s">
         <v>703</v>
       </c>
-      <c r="G162" s="35" t="s">
+      <c r="H162" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="H162" s="26" t="s">
+      <c r="I162" s="26" t="s">
         <v>705</v>
-      </c>
-      <c r="I162" s="26" t="s">
-        <v>706</v>
       </c>
       <c r="J162" s="27"/>
       <c r="K162" s="28" t="str">
@@ -13274,7 +13275,7 @@
         <v>8Q84+5P</v>
       </c>
       <c r="L162" s="29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M162" s="36" t="s">
         <v>48</v>
@@ -13301,14 +13302,14 @@
     </row>
     <row r="163" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B163" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q92+PP</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D163" s="34">
         <v>43730</v>
@@ -13317,16 +13318,16 @@
         <v>36</v>
       </c>
       <c r="F163" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="G163" s="35" t="s">
         <v>710</v>
       </c>
-      <c r="G163" s="35" t="s">
+      <c r="H163" s="26" t="s">
         <v>711</v>
       </c>
-      <c r="H163" s="26" t="s">
+      <c r="I163" s="26" t="s">
         <v>712</v>
-      </c>
-      <c r="I163" s="26" t="s">
-        <v>713</v>
       </c>
       <c r="J163" s="27"/>
       <c r="K163" s="28" t="str">
@@ -13363,14 +13364,14 @@
     </row>
     <row r="164" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B164" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D164" s="34">
         <v>42987</v>
@@ -13379,16 +13380,16 @@
         <v>36</v>
       </c>
       <c r="F164" s="35" t="s">
+        <v>715</v>
+      </c>
+      <c r="G164" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="G164" s="35" t="s">
+      <c r="H164" s="26" t="s">
         <v>717</v>
       </c>
-      <c r="H164" s="26" t="s">
-        <v>718</v>
-      </c>
       <c r="I164" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J164" s="27"/>
       <c r="K164" s="28" t="str">
@@ -13427,14 +13428,14 @@
     </row>
     <row r="165" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B165" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D165" s="34">
         <v>43873</v>
@@ -13443,16 +13444,16 @@
         <v>45</v>
       </c>
       <c r="F165" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G165" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H165" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J165" s="27"/>
       <c r="K165" s="28" t="str">
@@ -13487,14 +13488,14 @@
     </row>
     <row r="166" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B166" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D166" s="34">
         <v>43873</v>
@@ -13503,16 +13504,16 @@
         <v>45</v>
       </c>
       <c r="F166" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H166" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J166" s="27"/>
       <c r="K166" s="28" t="str">
@@ -13547,14 +13548,14 @@
     </row>
     <row r="167" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B167" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D167" s="34">
         <v>43873</v>
@@ -13563,16 +13564,16 @@
         <v>45</v>
       </c>
       <c r="F167" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H167" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I167" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J167" s="27"/>
       <c r="K167" s="28" t="str">
@@ -13607,14 +13608,14 @@
     </row>
     <row r="168" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B168" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D168" s="34">
         <v>43873</v>
@@ -13623,16 +13624,16 @@
         <v>45</v>
       </c>
       <c r="F168" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G168" s="35" t="s">
+        <v>725</v>
+      </c>
+      <c r="H168" s="26" t="s">
         <v>726</v>
       </c>
-      <c r="H168" s="26" t="s">
-        <v>727</v>
-      </c>
       <c r="I168" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J168" s="27"/>
       <c r="K168" s="28" t="str">
@@ -13667,14 +13668,14 @@
     </row>
     <row r="169" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B169" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D169" s="34">
         <v>43873</v>
@@ -13683,16 +13684,16 @@
         <v>45</v>
       </c>
       <c r="F169" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G169" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H169" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I169" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J169" s="27"/>
       <c r="K169" s="28" t="str">
@@ -13727,14 +13728,14 @@
     </row>
     <row r="170" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B170" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D170" s="34">
         <v>43873</v>
@@ -13743,16 +13744,16 @@
         <v>45</v>
       </c>
       <c r="F170" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G170" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H170" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J170" s="27"/>
       <c r="K170" s="28" t="str">
@@ -13787,14 +13788,14 @@
     </row>
     <row r="171" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B171" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D171" s="34">
         <v>43873</v>
@@ -13803,16 +13804,16 @@
         <v>45</v>
       </c>
       <c r="F171" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G171" s="35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H171" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J171" s="27"/>
       <c r="K171" s="28" t="str">
@@ -13845,14 +13846,14 @@
     </row>
     <row r="172" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B172" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D172" s="34">
         <v>43873</v>
@@ -13861,16 +13862,16 @@
         <v>45</v>
       </c>
       <c r="F172" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G172" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H172" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J172" s="27"/>
       <c r="K172" s="28" t="str">
@@ -13903,14 +13904,14 @@
     </row>
     <row r="173" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B173" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D173" s="34">
         <v>43873</v>
@@ -13919,16 +13920,16 @@
         <v>45</v>
       </c>
       <c r="F173" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G173" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="H173" s="26" t="s">
         <v>737</v>
       </c>
-      <c r="H173" s="26" t="s">
-        <v>738</v>
-      </c>
       <c r="I173" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J173" s="27"/>
       <c r="K173" s="28" t="str">
@@ -13961,32 +13962,32 @@
     </row>
     <row r="174" spans="1:27" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B174" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D174" s="34">
         <v>43612</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F174" s="35" t="s">
+        <v>739</v>
+      </c>
+      <c r="G174" s="35" t="s">
         <v>740</v>
       </c>
-      <c r="G174" s="35" t="s">
+      <c r="H174" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="H174" s="26" t="s">
-        <v>742</v>
-      </c>
       <c r="I174" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J174" s="27"/>
       <c r="K174" s="28" t="str">
@@ -13994,7 +13995,7 @@
         <v>8Q94+VR</v>
       </c>
       <c r="L174" s="29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M174" s="30" t="s">
         <v>42</v>
@@ -14021,14 +14022,14 @@
     </row>
     <row r="175" spans="1:27" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="33" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B175" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q98+X3</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D175" s="34">
         <v>42988</v>
@@ -14037,16 +14038,16 @@
         <v>36</v>
       </c>
       <c r="F175" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="G175" s="35" t="s">
         <v>745</v>
       </c>
-      <c r="G175" s="35" t="s">
+      <c r="H175" s="26" t="s">
         <v>746</v>
       </c>
-      <c r="H175" s="26" t="s">
-        <v>747</v>
-      </c>
       <c r="I175" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J175" s="27"/>
       <c r="K175" s="28" t="str">
@@ -14054,7 +14055,7 @@
         <v>8Q98+X3</v>
       </c>
       <c r="L175" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M175" s="38" t="s">
         <v>53</v>
@@ -14081,14 +14082,14 @@
     </row>
     <row r="176" spans="1:27" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B176" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QC7+47</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D176" s="34">
         <v>43731</v>
@@ -14097,16 +14098,16 @@
         <v>36</v>
       </c>
       <c r="F176" s="35" t="s">
+        <v>749</v>
+      </c>
+      <c r="G176" s="35" t="s">
         <v>750</v>
       </c>
-      <c r="G176" s="35" t="s">
-        <v>751</v>
-      </c>
       <c r="H176" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J176" s="27"/>
       <c r="K176" s="28" t="str">
@@ -14114,10 +14115,10 @@
         <v>8QC7+47</v>
       </c>
       <c r="L176" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M176" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N176" s="31" t="str">
         <f t="shared" si="17"/>
@@ -14141,14 +14142,14 @@
     </row>
     <row r="177" spans="1:27" ht="225" x14ac:dyDescent="0.3">
       <c r="A177" s="33" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B177" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QC8+WH</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D177" s="34">
         <v>43873</v>
@@ -14157,16 +14158,16 @@
         <v>45</v>
       </c>
       <c r="F177" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="G177" s="35" t="s">
         <v>753</v>
       </c>
-      <c r="G177" s="35" t="s">
-        <v>754</v>
-      </c>
       <c r="H177" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I177" s="54" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J177" s="27"/>
       <c r="K177" s="28" t="str">
@@ -14199,14 +14200,14 @@
     </row>
     <row r="178" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B178" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QF4+62</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D178" s="34">
         <v>43873</v>
@@ -14215,16 +14216,16 @@
         <v>45</v>
       </c>
       <c r="F178" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G178" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="H178" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="H178" s="26" t="s">
+      <c r="I178" s="26" t="s">
         <v>759</v>
-      </c>
-      <c r="I178" s="26" t="s">
-        <v>760</v>
       </c>
       <c r="J178" s="27"/>
       <c r="K178" s="28" t="str">
@@ -14257,14 +14258,14 @@
     </row>
     <row r="179" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="33" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B179" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QF6+HR</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D179" s="34">
         <v>43254</v>
@@ -14273,16 +14274,16 @@
         <v>36</v>
       </c>
       <c r="F179" s="35" t="s">
+        <v>762</v>
+      </c>
+      <c r="G179" s="35" t="s">
         <v>763</v>
       </c>
-      <c r="G179" s="35" t="s">
+      <c r="H179" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="H179" s="26" t="s">
+      <c r="I179" s="26" t="s">
         <v>765</v>
-      </c>
-      <c r="I179" s="26" t="s">
-        <v>766</v>
       </c>
       <c r="J179" s="27"/>
       <c r="K179" s="28" t="str">
@@ -14290,7 +14291,7 @@
         <v>8QF6+HR</v>
       </c>
       <c r="L179" s="29" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M179" s="38" t="s">
         <v>53</v>
@@ -14317,14 +14318,14 @@
     </row>
     <row r="180" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="33" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B180" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QG2+RX</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D180" s="34">
         <v>43893</v>
@@ -14333,16 +14334,16 @@
         <v>45</v>
       </c>
       <c r="F180" s="35" t="s">
+        <v>768</v>
+      </c>
+      <c r="G180" s="35" t="s">
         <v>769</v>
       </c>
-      <c r="G180" s="35" t="s">
-        <v>770</v>
-      </c>
       <c r="H180" s="26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J180" s="27"/>
       <c r="K180" s="28" t="str">
@@ -14377,14 +14378,14 @@
     </row>
     <row r="181" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="33" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B181" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QG2+V2</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D181" s="34">
         <v>43873</v>
@@ -14393,16 +14394,16 @@
         <v>45</v>
       </c>
       <c r="F181" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="G181" s="35" t="s">
         <v>772</v>
       </c>
-      <c r="G181" s="35" t="s">
+      <c r="H181" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="H181" s="26" t="s">
-        <v>774</v>
-      </c>
       <c r="I181" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J181" s="27"/>
       <c r="K181" s="28" t="str">
@@ -14435,14 +14436,14 @@
     </row>
     <row r="182" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="33" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B182" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QH2+9H</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D182" s="34">
         <v>43873</v>
@@ -14451,16 +14452,16 @@
         <v>45</v>
       </c>
       <c r="F182" s="35" t="s">
+        <v>776</v>
+      </c>
+      <c r="G182" s="35" t="s">
         <v>777</v>
       </c>
-      <c r="G182" s="35" t="s">
-        <v>778</v>
-      </c>
       <c r="H182" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J182" s="27"/>
       <c r="K182" s="28" t="str">
@@ -14493,32 +14494,32 @@
     </row>
     <row r="183" spans="1:27" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="33" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B183" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QH3+R4</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D183" s="34">
         <v>42989</v>
       </c>
       <c r="E183" s="34" t="s">
+        <v>780</v>
+      </c>
+      <c r="F183" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="G183" s="35" t="s">
         <v>781</v>
       </c>
-      <c r="F183" s="35" t="s">
-        <v>598</v>
-      </c>
-      <c r="G183" s="35" t="s">
+      <c r="H183" s="26" t="s">
         <v>782</v>
       </c>
-      <c r="H183" s="26" t="s">
+      <c r="I183" s="26" t="s">
         <v>783</v>
-      </c>
-      <c r="I183" s="26" t="s">
-        <v>784</v>
       </c>
       <c r="J183" s="27"/>
       <c r="K183" s="28" t="str">
@@ -14553,14 +14554,14 @@
     </row>
     <row r="184" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="33" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B184" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QJ4+V4</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D184" s="34">
         <v>43873</v>
@@ -14569,16 +14570,16 @@
         <v>45</v>
       </c>
       <c r="F184" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G184" s="35" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H184" s="26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J184" s="27"/>
       <c r="K184" s="28" t="str">
@@ -14586,7 +14587,7 @@
         <v>8QJ4+V4</v>
       </c>
       <c r="L184" s="29" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M184" s="38" t="s">
         <v>53</v>
@@ -14613,7 +14614,7 @@
     </row>
     <row r="185" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="33" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B185" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14627,10 +14628,10 @@
         <v>45</v>
       </c>
       <c r="F185" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H185" s="26"/>
       <c r="I185" s="26"/>
@@ -14662,7 +14663,7 @@
     </row>
     <row r="186" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="33" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B186" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14676,10 +14677,10 @@
         <v>45</v>
       </c>
       <c r="F186" s="35" t="s">
+        <v>789</v>
+      </c>
+      <c r="G186" s="35" t="s">
         <v>790</v>
-      </c>
-      <c r="G186" s="35" t="s">
-        <v>791</v>
       </c>
       <c r="H186" s="26"/>
       <c r="I186" s="26"/>
@@ -14687,7 +14688,7 @@
       <c r="K186" s="29"/>
       <c r="L186" s="29"/>
       <c r="M186" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N186" s="31" t="str">
         <f t="shared" si="18"/>
@@ -14723,7 +14724,7 @@
     </row>
     <row r="187" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="33" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B187" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14737,10 +14738,10 @@
         <v>45</v>
       </c>
       <c r="F187" s="35" t="s">
+        <v>792</v>
+      </c>
+      <c r="G187" s="35" t="s">
         <v>793</v>
-      </c>
-      <c r="G187" s="35" t="s">
-        <v>794</v>
       </c>
       <c r="H187" s="26"/>
       <c r="I187" s="26"/>
@@ -14772,7 +14773,7 @@
     </row>
     <row r="188" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B188" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14786,7 +14787,7 @@
         <v>45</v>
       </c>
       <c r="F188" s="35" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G188" s="35">
         <v>0</v>
@@ -14821,7 +14822,7 @@
     </row>
     <row r="189" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B189" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14835,7 +14836,7 @@
         <v>45</v>
       </c>
       <c r="F189" s="35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G189" s="35">
         <v>0</v>
@@ -14870,7 +14871,7 @@
     </row>
     <row r="190" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B190" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14884,10 +14885,10 @@
         <v>45</v>
       </c>
       <c r="F190" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="G190" s="35" t="s">
         <v>799</v>
-      </c>
-      <c r="G190" s="35" t="s">
-        <v>800</v>
       </c>
       <c r="H190" s="26"/>
       <c r="I190" s="26"/>
@@ -14919,7 +14920,7 @@
     </row>
     <row r="191" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B191" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14933,10 +14934,10 @@
         <v>45</v>
       </c>
       <c r="F191" s="35" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H191" s="26"/>
       <c r="I191" s="26"/>
@@ -14968,7 +14969,7 @@
     </row>
     <row r="192" spans="1:27" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B192" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14982,10 +14983,10 @@
         <v>45</v>
       </c>
       <c r="F192" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="G192" s="35" t="s">
         <v>802</v>
-      </c>
-      <c r="G192" s="35" t="s">
-        <v>803</v>
       </c>
       <c r="H192" s="26"/>
       <c r="I192" s="26"/>
@@ -15017,7 +15018,7 @@
     </row>
     <row r="193" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B193" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15031,10 +15032,10 @@
         <v>45</v>
       </c>
       <c r="F193" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H193" s="26"/>
       <c r="I193" s="26"/>
@@ -15066,7 +15067,7 @@
     </row>
     <row r="194" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B194" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15080,10 +15081,10 @@
         <v>45</v>
       </c>
       <c r="F194" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G194" s="35" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H194" s="26"/>
       <c r="I194" s="26"/>
@@ -15115,7 +15116,7 @@
     </row>
     <row r="195" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B195" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15129,10 +15130,10 @@
         <v>45</v>
       </c>
       <c r="F195" s="35" t="s">
+        <v>805</v>
+      </c>
+      <c r="G195" s="35" t="s">
         <v>806</v>
-      </c>
-      <c r="G195" s="35" t="s">
-        <v>807</v>
       </c>
       <c r="H195" s="26"/>
       <c r="I195" s="26"/>
@@ -15162,7 +15163,7 @@
     </row>
     <row r="196" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B196" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15176,10 +15177,10 @@
         <v>45</v>
       </c>
       <c r="F196" s="35" t="s">
+        <v>807</v>
+      </c>
+      <c r="G196" s="35" t="s">
         <v>808</v>
-      </c>
-      <c r="G196" s="35" t="s">
-        <v>809</v>
       </c>
       <c r="H196" s="26"/>
       <c r="I196" s="26"/>
@@ -15187,7 +15188,7 @@
       <c r="K196" s="29"/>
       <c r="L196" s="29"/>
       <c r="M196" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N196" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15211,7 +15212,7 @@
     </row>
     <row r="197" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="33" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B197" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15225,7 +15226,7 @@
         <v>45</v>
       </c>
       <c r="F197" s="35" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G197" s="35">
         <v>0</v>
@@ -15236,7 +15237,7 @@
       <c r="K197" s="29"/>
       <c r="L197" s="29"/>
       <c r="M197" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N197" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15260,7 +15261,7 @@
     </row>
     <row r="198" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B198" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15274,10 +15275,10 @@
         <v>45</v>
       </c>
       <c r="F198" s="35" t="s">
+        <v>812</v>
+      </c>
+      <c r="G198" s="35" t="s">
         <v>813</v>
-      </c>
-      <c r="G198" s="35" t="s">
-        <v>814</v>
       </c>
       <c r="H198" s="26"/>
       <c r="I198" s="26"/>
@@ -15285,7 +15286,7 @@
       <c r="K198" s="29"/>
       <c r="L198" s="29"/>
       <c r="M198" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N198" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15309,10 +15310,10 @@
     </row>
     <row r="199" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B199" s="22" t="str">
-        <f t="shared" ref="B199:B262" si="19">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A199,4),"%2B",RIGHT(A199,2)),A199)</f>
+        <f t="shared" ref="B199:B254" si="19">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A199,4),"%2B",RIGHT(A199,2)),A199)</f>
         <v>Gute Radwege</v>
       </c>
       <c r="C199" s="37"/>
@@ -15323,10 +15324,10 @@
         <v>45</v>
       </c>
       <c r="F199" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G199" s="35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H199" s="26"/>
       <c r="I199" s="26"/>
@@ -15334,7 +15335,7 @@
       <c r="K199" s="29"/>
       <c r="L199" s="29"/>
       <c r="M199" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N199" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15358,7 +15359,7 @@
     </row>
     <row r="200" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B200" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15372,10 +15373,10 @@
         <v>45</v>
       </c>
       <c r="F200" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G200" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H200" s="26"/>
       <c r="I200" s="26"/>
@@ -15413,7 +15414,7 @@
     </row>
     <row r="201" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B201" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15427,10 +15428,10 @@
         <v>45</v>
       </c>
       <c r="F201" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G201" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H201" s="26"/>
       <c r="I201" s="26"/>
@@ -15462,7 +15463,7 @@
     </row>
     <row r="202" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B202" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15476,10 +15477,10 @@
         <v>45</v>
       </c>
       <c r="F202" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G202" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H202" s="26"/>
       <c r="I202" s="26"/>
@@ -15487,7 +15488,7 @@
       <c r="K202" s="29"/>
       <c r="L202" s="29"/>
       <c r="M202" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N202" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15511,7 +15512,7 @@
     </row>
     <row r="203" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B203" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15525,10 +15526,10 @@
         <v>45</v>
       </c>
       <c r="F203" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G203" s="35" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H203" s="26"/>
       <c r="I203" s="26"/>
@@ -15560,7 +15561,7 @@
     </row>
     <row r="204" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B204" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15574,10 +15575,10 @@
         <v>45</v>
       </c>
       <c r="F204" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G204" s="35" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H204" s="26"/>
       <c r="I204" s="26"/>
@@ -15609,7 +15610,7 @@
     </row>
     <row r="205" spans="1:27" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B205" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15623,10 +15624,10 @@
         <v>45</v>
       </c>
       <c r="F205" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G205" s="35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H205" s="26"/>
       <c r="I205" s="26"/>
@@ -15658,7 +15659,7 @@
     </row>
     <row r="206" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B206" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15672,10 +15673,10 @@
         <v>45</v>
       </c>
       <c r="F206" s="35" t="s">
+        <v>821</v>
+      </c>
+      <c r="G206" s="35" t="s">
         <v>822</v>
-      </c>
-      <c r="G206" s="35" t="s">
-        <v>823</v>
       </c>
       <c r="H206" s="26"/>
       <c r="I206" s="26"/>
@@ -15707,7 +15708,7 @@
     </row>
     <row r="207" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B207" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15721,10 +15722,10 @@
         <v>45</v>
       </c>
       <c r="F207" s="35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G207" s="35" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H207" s="26"/>
       <c r="I207" s="26"/>
@@ -15756,7 +15757,7 @@
     </row>
     <row r="208" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B208" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15770,10 +15771,10 @@
         <v>45</v>
       </c>
       <c r="F208" s="35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G208" s="35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H208" s="26"/>
       <c r="I208" s="26"/>
@@ -15805,7 +15806,7 @@
     </row>
     <row r="209" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B209" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15819,10 +15820,10 @@
         <v>45</v>
       </c>
       <c r="F209" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="G209" s="35" t="s">
         <v>826</v>
-      </c>
-      <c r="G209" s="35" t="s">
-        <v>827</v>
       </c>
       <c r="H209" s="26"/>
       <c r="I209" s="26"/>
@@ -15854,7 +15855,7 @@
     </row>
     <row r="210" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B210" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15868,10 +15869,10 @@
         <v>45</v>
       </c>
       <c r="F210" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="G210" s="35" t="s">
         <v>828</v>
-      </c>
-      <c r="G210" s="35" t="s">
-        <v>829</v>
       </c>
       <c r="H210" s="26"/>
       <c r="I210" s="26"/>
@@ -15879,7 +15880,7 @@
       <c r="K210" s="29"/>
       <c r="L210" s="29"/>
       <c r="M210" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N210" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15901,7 +15902,7 @@
     </row>
     <row r="211" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B211" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15915,10 +15916,10 @@
         <v>45</v>
       </c>
       <c r="F211" s="35" t="s">
+        <v>829</v>
+      </c>
+      <c r="G211" s="35" t="s">
         <v>830</v>
-      </c>
-      <c r="G211" s="35" t="s">
-        <v>831</v>
       </c>
       <c r="H211" s="26"/>
       <c r="I211" s="26"/>
@@ -15948,7 +15949,7 @@
     </row>
     <row r="212" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B212" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15989,7 +15990,7 @@
     </row>
     <row r="213" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B213" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16003,10 +16004,10 @@
         <v>45</v>
       </c>
       <c r="F213" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G213" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H213" s="26"/>
       <c r="I213" s="26"/>
@@ -16014,7 +16015,7 @@
       <c r="K213" s="29"/>
       <c r="L213" s="29"/>
       <c r="M213" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N213" s="31" t="str">
         <f t="shared" ref="N213:N244" si="20">LEFT(M213,1)</f>
@@ -16038,7 +16039,7 @@
     </row>
     <row r="214" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B214" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16052,10 +16053,10 @@
         <v>45</v>
       </c>
       <c r="F214" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G214" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H214" s="26"/>
       <c r="I214" s="26"/>
@@ -16063,7 +16064,7 @@
       <c r="K214" s="29"/>
       <c r="L214" s="29"/>
       <c r="M214" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N214" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16087,7 +16088,7 @@
     </row>
     <row r="215" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B215" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16101,10 +16102,10 @@
         <v>45</v>
       </c>
       <c r="F215" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="G215" s="35" t="s">
         <v>834</v>
-      </c>
-      <c r="G215" s="35" t="s">
-        <v>835</v>
       </c>
       <c r="H215" s="26"/>
       <c r="I215" s="26"/>
@@ -16115,7 +16116,7 @@
       </c>
       <c r="L215" s="29"/>
       <c r="M215" s="49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N215" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16139,7 +16140,7 @@
     </row>
     <row r="216" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B216" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16153,10 +16154,10 @@
         <v>45</v>
       </c>
       <c r="F216" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G216" s="35" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H216" s="26"/>
       <c r="I216" s="26"/>
@@ -16164,7 +16165,7 @@
       <c r="K216" s="29"/>
       <c r="L216" s="29"/>
       <c r="M216" s="51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N216" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16186,7 +16187,7 @@
     </row>
     <row r="217" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B217" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16200,10 +16201,10 @@
         <v>45</v>
       </c>
       <c r="F217" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G217" s="35" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H217" s="26"/>
       <c r="I217" s="26"/>
@@ -16235,7 +16236,7 @@
     </row>
     <row r="218" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B218" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16249,10 +16250,10 @@
         <v>45</v>
       </c>
       <c r="F218" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="G218" s="35" t="s">
         <v>839</v>
-      </c>
-      <c r="G218" s="35" t="s">
-        <v>840</v>
       </c>
       <c r="H218" s="26"/>
       <c r="I218" s="26"/>
@@ -16260,7 +16261,7 @@
       <c r="K218" s="29"/>
       <c r="L218" s="29"/>
       <c r="M218" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N218" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16284,7 +16285,7 @@
     </row>
     <row r="219" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B219" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16298,10 +16299,10 @@
         <v>45</v>
       </c>
       <c r="F219" s="35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G219" s="35" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H219" s="26"/>
       <c r="I219" s="26"/>
@@ -16309,7 +16310,7 @@
       <c r="K219" s="29"/>
       <c r="L219" s="29"/>
       <c r="M219" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N219" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16333,7 +16334,7 @@
     </row>
     <row r="220" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B220" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16347,10 +16348,10 @@
         <v>45</v>
       </c>
       <c r="F220" s="35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G220" s="35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H220" s="26"/>
       <c r="I220" s="26"/>
@@ -16358,7 +16359,7 @@
       <c r="K220" s="29"/>
       <c r="L220" s="29"/>
       <c r="M220" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N220" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16382,7 +16383,7 @@
     </row>
     <row r="221" spans="1:27" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B221" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16396,10 +16397,10 @@
         <v>45</v>
       </c>
       <c r="F221" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G221" s="35" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H221" s="26"/>
       <c r="I221" s="26"/>
@@ -16431,7 +16432,7 @@
     </row>
     <row r="222" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B222" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16445,10 +16446,10 @@
         <v>45</v>
       </c>
       <c r="F222" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G222" s="35" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H222" s="26"/>
       <c r="I222" s="26"/>
@@ -16456,7 +16457,7 @@
       <c r="K222" s="29"/>
       <c r="L222" s="29"/>
       <c r="M222" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N222" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16480,7 +16481,7 @@
     </row>
     <row r="223" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B223" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16494,10 +16495,10 @@
         <v>45</v>
       </c>
       <c r="F223" s="35" t="s">
+        <v>844</v>
+      </c>
+      <c r="G223" s="35" t="s">
         <v>845</v>
-      </c>
-      <c r="G223" s="35" t="s">
-        <v>846</v>
       </c>
       <c r="H223" s="26"/>
       <c r="I223" s="26"/>
@@ -16505,7 +16506,7 @@
       <c r="K223" s="29"/>
       <c r="L223" s="29"/>
       <c r="M223" s="30" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N223" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16527,7 +16528,7 @@
     </row>
     <row r="224" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B224" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16541,10 +16542,10 @@
         <v>45</v>
       </c>
       <c r="F224" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G224" s="35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H224" s="26"/>
       <c r="I224" s="26"/>
@@ -16552,7 +16553,7 @@
       <c r="K224" s="29"/>
       <c r="L224" s="29"/>
       <c r="M224" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N224" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16576,7 +16577,7 @@
     </row>
     <row r="225" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B225" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16590,10 +16591,10 @@
         <v>45</v>
       </c>
       <c r="F225" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G225" s="35" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H225" s="26"/>
       <c r="I225" s="26"/>
@@ -16601,7 +16602,7 @@
       <c r="K225" s="29"/>
       <c r="L225" s="29"/>
       <c r="M225" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N225" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16625,7 +16626,7 @@
     </row>
     <row r="226" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B226" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16639,10 +16640,10 @@
         <v>45</v>
       </c>
       <c r="F226" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G226" s="35" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H226" s="26"/>
       <c r="I226" s="26"/>
@@ -16674,7 +16675,7 @@
     </row>
     <row r="227" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B227" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16688,10 +16689,10 @@
         <v>45</v>
       </c>
       <c r="F227" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G227" s="35" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H227" s="26"/>
       <c r="I227" s="26"/>
@@ -16699,7 +16700,7 @@
       <c r="K227" s="29"/>
       <c r="L227" s="29"/>
       <c r="M227" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N227" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16723,7 +16724,7 @@
     </row>
     <row r="228" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B228" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16737,10 +16738,10 @@
         <v>45</v>
       </c>
       <c r="F228" s="35" t="s">
+        <v>852</v>
+      </c>
+      <c r="G228" s="35" t="s">
         <v>853</v>
-      </c>
-      <c r="G228" s="35" t="s">
-        <v>854</v>
       </c>
       <c r="H228" s="26"/>
       <c r="I228" s="26"/>
@@ -16772,7 +16773,7 @@
     </row>
     <row r="229" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B229" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16786,10 +16787,10 @@
         <v>45</v>
       </c>
       <c r="F229" s="35" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G229" s="35" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H229" s="26"/>
       <c r="I229" s="26"/>
@@ -16821,7 +16822,7 @@
     </row>
     <row r="230" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B230" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16835,10 +16836,10 @@
         <v>45</v>
       </c>
       <c r="F230" s="35" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G230" s="35" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H230" s="26"/>
       <c r="I230" s="26"/>
@@ -16870,7 +16871,7 @@
     </row>
     <row r="231" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B231" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16884,10 +16885,10 @@
         <v>45</v>
       </c>
       <c r="F231" s="35" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G231" s="35" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H231" s="26"/>
       <c r="I231" s="26"/>
@@ -16919,7 +16920,7 @@
     </row>
     <row r="232" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B232" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16933,10 +16934,10 @@
         <v>45</v>
       </c>
       <c r="F232" s="35" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G232" s="35" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H232" s="26"/>
       <c r="I232" s="26"/>
@@ -16968,7 +16969,7 @@
     </row>
     <row r="233" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B233" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16982,10 +16983,10 @@
         <v>45</v>
       </c>
       <c r="F233" s="35" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G233" s="35" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H233" s="26"/>
       <c r="I233" s="26"/>
@@ -16993,7 +16994,7 @@
       <c r="K233" s="29"/>
       <c r="L233" s="29"/>
       <c r="M233" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N233" s="31" t="str">
         <f t="shared" si="20"/>
@@ -17017,7 +17018,7 @@
     </row>
     <row r="234" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B234" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17031,10 +17032,10 @@
         <v>45</v>
       </c>
       <c r="F234" s="35" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G234" s="35" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H234" s="26"/>
       <c r="I234" s="26"/>
@@ -17066,7 +17067,7 @@
     </row>
     <row r="235" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B235" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17080,10 +17081,10 @@
         <v>45</v>
       </c>
       <c r="F235" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G235" s="35" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H235" s="26"/>
       <c r="I235" s="26"/>
@@ -17115,7 +17116,7 @@
     </row>
     <row r="236" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B236" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17129,10 +17130,10 @@
         <v>45</v>
       </c>
       <c r="F236" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G236" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H236" s="26"/>
       <c r="I236" s="26"/>
@@ -17164,7 +17165,7 @@
     </row>
     <row r="237" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B237" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17178,10 +17179,10 @@
         <v>45</v>
       </c>
       <c r="F237" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G237" s="35" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H237" s="26"/>
       <c r="I237" s="26"/>
@@ -17213,7 +17214,7 @@
     </row>
     <row r="238" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B238" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17227,10 +17228,10 @@
         <v>45</v>
       </c>
       <c r="F238" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G238" s="35" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H238" s="26"/>
       <c r="I238" s="26"/>
@@ -17262,7 +17263,7 @@
     </row>
     <row r="239" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B239" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17276,10 +17277,10 @@
         <v>45</v>
       </c>
       <c r="F239" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G239" s="35" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H239" s="26"/>
       <c r="I239" s="26"/>
@@ -17311,7 +17312,7 @@
     </row>
     <row r="240" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B240" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17325,10 +17326,10 @@
         <v>45</v>
       </c>
       <c r="F240" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="G240" s="35" t="s">
         <v>868</v>
-      </c>
-      <c r="G240" s="35" t="s">
-        <v>869</v>
       </c>
       <c r="H240" s="26"/>
       <c r="I240" s="26"/>
@@ -17360,7 +17361,7 @@
     </row>
     <row r="241" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B241" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17374,7 +17375,7 @@
         <v>45</v>
       </c>
       <c r="F241" s="35" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G241" s="35">
         <v>0</v>
@@ -17409,7 +17410,7 @@
     </row>
     <row r="242" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B242" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17423,10 +17424,10 @@
         <v>45</v>
       </c>
       <c r="F242" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="G242" s="35" t="s">
         <v>872</v>
-      </c>
-      <c r="G242" s="35" t="s">
-        <v>873</v>
       </c>
       <c r="H242" s="26"/>
       <c r="I242" s="26"/>
@@ -17458,7 +17459,7 @@
     </row>
     <row r="243" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B243" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17472,10 +17473,10 @@
         <v>45</v>
       </c>
       <c r="F243" s="35" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G243" s="35" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H243" s="26"/>
       <c r="I243" s="26"/>
@@ -17507,7 +17508,7 @@
     </row>
     <row r="244" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B244" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17521,10 +17522,10 @@
         <v>45</v>
       </c>
       <c r="F244" s="35" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G244" s="35" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H244" s="26"/>
       <c r="I244" s="26"/>
@@ -17556,7 +17557,7 @@
     </row>
     <row r="245" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B245" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17570,10 +17571,10 @@
         <v>45</v>
       </c>
       <c r="F245" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="G245" s="35" t="s">
         <v>876</v>
-      </c>
-      <c r="G245" s="35" t="s">
-        <v>877</v>
       </c>
       <c r="H245" s="26"/>
       <c r="I245" s="26"/>
@@ -17584,7 +17585,7 @@
         <v>48</v>
       </c>
       <c r="N245" s="31" t="str">
-        <f t="shared" ref="N245:N276" si="21">LEFT(M245,1)</f>
+        <f t="shared" ref="N245:N246" si="21">LEFT(M245,1)</f>
         <v>D</v>
       </c>
       <c r="O245" s="32"/>
@@ -17605,7 +17606,7 @@
     </row>
     <row r="246" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="33" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B246" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17619,10 +17620,10 @@
         <v>45</v>
       </c>
       <c r="F246" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G246" s="35" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H246" s="26"/>
       <c r="I246" s="26"/>
@@ -17654,14 +17655,14 @@
     </row>
     <row r="247" spans="1:27" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B247" s="22" t="str">
         <f t="shared" si="19"/>
         <v>6Q3G+97</v>
       </c>
       <c r="C247" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D247" s="41">
         <v>43282</v>
@@ -17670,16 +17671,16 @@
         <v>36</v>
       </c>
       <c r="F247" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="G247" s="40" t="s">
         <v>882</v>
       </c>
-      <c r="G247" s="40" t="s">
+      <c r="H247" s="26" t="s">
         <v>883</v>
       </c>
-      <c r="H247" s="26" t="s">
+      <c r="I247" s="26" t="s">
         <v>884</v>
-      </c>
-      <c r="I247" s="26" t="s">
-        <v>885</v>
       </c>
       <c r="J247" s="27"/>
       <c r="K247" s="29"/>
@@ -17702,14 +17703,14 @@
     </row>
     <row r="248" spans="1:27" ht="291.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="39" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B248" s="22" t="str">
         <f t="shared" si="19"/>
         <v>6Q7V+23</v>
       </c>
       <c r="C248" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D248" s="41">
         <v>43073</v>
@@ -17718,16 +17719,16 @@
         <v>36</v>
       </c>
       <c r="F248" s="40" t="s">
+        <v>887</v>
+      </c>
+      <c r="G248" s="40" t="s">
         <v>888</v>
       </c>
-      <c r="G248" s="40" t="s">
+      <c r="H248" s="26" t="s">
         <v>889</v>
       </c>
-      <c r="H248" s="26" t="s">
+      <c r="I248" s="26" t="s">
         <v>890</v>
-      </c>
-      <c r="I248" s="26" t="s">
-        <v>891</v>
       </c>
       <c r="J248" s="27"/>
       <c r="K248" s="29"/>
@@ -17750,14 +17751,14 @@
     </row>
     <row r="249" spans="1:27" ht="284.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="39" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B249" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7QF6+HG</v>
       </c>
       <c r="C249" s="40" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D249" s="41">
         <v>40431</v>
@@ -17766,16 +17767,16 @@
         <v>36</v>
       </c>
       <c r="F249" s="40" t="s">
+        <v>893</v>
+      </c>
+      <c r="G249" s="40" t="s">
         <v>894</v>
       </c>
-      <c r="G249" s="40" t="s">
+      <c r="H249" s="26" t="s">
         <v>895</v>
       </c>
-      <c r="H249" s="26" t="s">
-        <v>896</v>
-      </c>
       <c r="I249" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J249" s="27"/>
       <c r="K249" s="29"/>
@@ -17798,14 +17799,14 @@
     </row>
     <row r="250" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="39" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B250" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7QJF+2R</v>
       </c>
       <c r="C250" s="40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D250" s="41">
         <v>43440</v>
@@ -17814,16 +17815,16 @@
         <v>36</v>
       </c>
       <c r="F250" s="40" t="s">
+        <v>898</v>
+      </c>
+      <c r="G250" s="40" t="s">
         <v>899</v>
       </c>
-      <c r="G250" s="40" t="s">
+      <c r="H250" s="26" t="s">
         <v>900</v>
       </c>
-      <c r="H250" s="26" t="s">
+      <c r="I250" s="26" t="s">
         <v>901</v>
-      </c>
-      <c r="I250" s="26" t="s">
-        <v>902</v>
       </c>
       <c r="J250" s="27"/>
       <c r="K250" s="29"/>
@@ -17846,14 +17847,14 @@
     </row>
     <row r="251" spans="1:27" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="39" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B251" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7Q64+F9</v>
       </c>
       <c r="C251" s="40" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D251" s="41">
         <v>43550</v>
@@ -17862,16 +17863,16 @@
         <v>36</v>
       </c>
       <c r="F251" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="G251" s="40" t="s">
         <v>905</v>
       </c>
-      <c r="G251" s="40" t="s">
+      <c r="H251" s="26" t="s">
+        <v>900</v>
+      </c>
+      <c r="I251" s="26" t="s">
         <v>906</v>
-      </c>
-      <c r="H251" s="26" t="s">
-        <v>901</v>
-      </c>
-      <c r="I251" s="26" t="s">
-        <v>907</v>
       </c>
       <c r="J251" s="27"/>
       <c r="K251" s="29"/>
@@ -17894,32 +17895,32 @@
     </row>
     <row r="252" spans="1:27" ht="109.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="39" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B252" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7Q87+6P</v>
       </c>
       <c r="C252" s="40" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D252" s="41">
         <v>43730</v>
       </c>
       <c r="E252" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="F252" s="40" t="s">
         <v>910</v>
       </c>
-      <c r="F252" s="40" t="s">
+      <c r="G252" s="40" t="s">
         <v>911</v>
       </c>
-      <c r="G252" s="40" t="s">
+      <c r="H252" s="26" t="s">
         <v>912</v>
       </c>
-      <c r="H252" s="26" t="s">
+      <c r="I252" s="26" t="s">
         <v>913</v>
-      </c>
-      <c r="I252" s="26" t="s">
-        <v>914</v>
       </c>
       <c r="J252" s="27"/>
       <c r="K252" s="29"/>
@@ -17942,14 +17943,14 @@
     </row>
     <row r="253" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="39" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B253" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7RG4+R6</v>
       </c>
       <c r="C253" s="40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D253" s="41">
         <v>43431</v>
@@ -17958,16 +17959,16 @@
         <v>36</v>
       </c>
       <c r="F253" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="G253" s="40" t="s">
         <v>917</v>
       </c>
-      <c r="G253" s="40" t="s">
+      <c r="H253" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="I253" s="26" t="s">
         <v>918</v>
-      </c>
-      <c r="H253" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="I253" s="26" t="s">
-        <v>919</v>
       </c>
       <c r="J253" s="27"/>
       <c r="K253" s="29"/>
@@ -17990,14 +17991,14 @@
     </row>
     <row r="254" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="39" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B254" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7RP3+H8</v>
       </c>
       <c r="C254" s="40" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D254" s="41">
         <v>43431</v>
@@ -18006,16 +18007,16 @@
         <v>36</v>
       </c>
       <c r="F254" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G254" s="40" t="s">
         <v>922</v>
       </c>
-      <c r="G254" s="40" t="s">
+      <c r="H254" s="26" t="s">
         <v>923</v>
       </c>
-      <c r="H254" s="26" t="s">
-        <v>924</v>
-      </c>
       <c r="I254" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J254" s="27"/>
       <c r="K254" s="29"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927EECDC-AAA9-451E-9F2A-113E2AC0C6AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F5D574-A478-4ECF-90AA-DE1C2150EE13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="937">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -3124,6 +3124,43 @@
     <t>- offen
 - 2020 - Innerhin stehen im Haushaltsplan für 2020 ca. 10000 €uro für die Unterhaltung der Wirtschafts- und Wanderwege (Für Material und Einsatz des Wegehobels).
 - 2021-01 Kontakt mit Ralf Mannstedt aud Linderte - Dort nennt man diese Maßnahme "M1"</t>
+  </si>
+  <si>
+    <t>7PXW+85</t>
+  </si>
+  <si>
+    <t>per Email</t>
+  </si>
+  <si>
+    <t>Harkenblecker Weg in Arnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Situation als Radfahrerin ist dort aktuell ziemlich unglücklich. Offiziell gehören Radfahrer*innen auf die Straße. Das ist natürlich auch nicht anders möglich, denn die Seitenanlagen sind beidseits so schmal, dass man, besonders mit Lastenrad oder Kinderanhänger, kaum an entgegenkommenden Fußgänger*innen vorbei kommt.
+Trotzdem fahren die meisten Radfahrer*innen auf dem reinen Fußweg, denn auf der Straße fühlt man sich, besonders mit Kind im Anhänger, in einer Tempo 50 Zone wirklich nicht wohl.
+Bis auf ein Verkehrsschild „Achtung Radfahrer“ (138-10) kurz nach dem Ortseingang (da parkt oft ein LKW, weshalb die Autofahrer das Schild nicht einmal sehen), weist nichts darauf hin, dass Radfahrer hier rechtmäßig auf die Straße gehören. </t>
+  </si>
+  <si>
+    <t>Auf der Straße fühlt man sich nicht wohl</t>
+  </si>
+  <si>
+    <t>Eventuell Fahrrad-Symbole auf der Fahrbahn (wie in der Ortsdurchfahrt Jeinsen oder Devese) oder eine kombinierte Lösung mit Schutzstreifen auf einer Seite (wie in Pattensen, Jeinser Straße). Zusätzliche Möglichkeit der Tempo-Reduzierung.</t>
+  </si>
+  <si>
+    <t>8PCG+CM</t>
+  </si>
+  <si>
+    <t>Kfz dürfen nicht Überholen</t>
+  </si>
+  <si>
+    <t>Göttinger Landstraße - zwischen Kirchdamm und Weetzener Landstr.</t>
+  </si>
+  <si>
+    <t>Die Umbaupläne sehen zwischen den nicht befahrbaren Gleisbett und dem Hochboard eine 3 m breite Fahrbahn und einen 1,5 m breiten Schutzstreifen, in beiden Richtungen, vor. Für den Radfahrenden bleiben ca. 1,2 m wegen der Regenrinne zum fahren. Wenn hier ein Radfahrer:innen unterwegs ist, bleibt noch die Fahrbahnbreite von 3m übrig zum Überholen. Das reicht nicht, um den Sicherheitsabstand einzuhalten, und das über eine Länge von 800 m. Es sei denn das Kfz ist schmaler als 1,5 m.</t>
+  </si>
+  <si>
+    <t>1. Radfahrende auf einen seperaten Radweg führen.
+2. Überholverbot verdeutlichen mit 
+![](8PCG+CM_Stadtbahnverlängerung2.svg)</t>
   </si>
 </sst>
 </file>
@@ -3358,7 +3395,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3480,12 +3517,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3877,9 +3908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H257" sqref="H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4318,7 +4349,7 @@
       <c r="H10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="52" t="s">
         <v>925</v>
       </c>
       <c r="J10" s="27"/>
@@ -14166,7 +14197,7 @@
       <c r="H177" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="I177" s="54" t="s">
+      <c r="I177" s="52" t="s">
         <v>924</v>
       </c>
       <c r="J177" s="27"/>
@@ -15313,7 +15344,7 @@
         <v>811</v>
       </c>
       <c r="B199" s="22" t="str">
-        <f t="shared" ref="B199:B254" si="19">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A199,4),"%2B",RIGHT(A199,2)),A199)</f>
+        <f t="shared" ref="B199:B256" si="19">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A199,4),"%2B",RIGHT(A199,2)),A199)</f>
         <v>Gute Radwege</v>
       </c>
       <c r="C199" s="37"/>
@@ -18037,12 +18068,102 @@
       <c r="Z254" s="32"/>
       <c r="AA254" s="32"/>
     </row>
-    <row r="255" spans="1:27" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="2"/>
-      <c r="I255" s="52"/>
-      <c r="J255" s="53"/>
-    </row>
-    <row r="256" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="39" t="s">
+        <v>926</v>
+      </c>
+      <c r="B255" s="22" t="str">
+        <f t="shared" si="19"/>
+        <v>7PXW+85</v>
+      </c>
+      <c r="C255" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="D255" s="41">
+        <v>44318</v>
+      </c>
+      <c r="E255" s="41" t="s">
+        <v>927</v>
+      </c>
+      <c r="F255" s="40" t="s">
+        <v>928</v>
+      </c>
+      <c r="G255" s="40" t="s">
+        <v>929</v>
+      </c>
+      <c r="H255" s="26" t="s">
+        <v>931</v>
+      </c>
+      <c r="I255" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J255" s="27"/>
+      <c r="K255" s="29"/>
+      <c r="L255" s="29"/>
+      <c r="M255" s="42"/>
+      <c r="N255" s="43"/>
+      <c r="O255" s="32"/>
+      <c r="P255" s="32"/>
+      <c r="Q255" s="32"/>
+      <c r="R255" s="32"/>
+      <c r="S255" s="32"/>
+      <c r="T255" s="32"/>
+      <c r="U255" s="32"/>
+      <c r="V255" s="32"/>
+      <c r="W255" s="32"/>
+      <c r="X255" s="32"/>
+      <c r="Y255" s="32"/>
+      <c r="Z255" s="32"/>
+      <c r="AA255" s="32"/>
+    </row>
+    <row r="256" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="39" t="s">
+        <v>932</v>
+      </c>
+      <c r="B256" s="22" t="str">
+        <f t="shared" si="19"/>
+        <v>8PCG+CM</v>
+      </c>
+      <c r="C256" s="40" t="s">
+        <v>933</v>
+      </c>
+      <c r="D256" s="41">
+        <v>44318</v>
+      </c>
+      <c r="E256" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F256" s="40" t="s">
+        <v>934</v>
+      </c>
+      <c r="G256" s="40" t="s">
+        <v>935</v>
+      </c>
+      <c r="H256" s="26" t="s">
+        <v>936</v>
+      </c>
+      <c r="I256" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J256" s="27"/>
+      <c r="K256" s="29"/>
+      <c r="L256" s="29"/>
+      <c r="M256" s="42"/>
+      <c r="N256" s="43"/>
+      <c r="O256" s="32"/>
+      <c r="P256" s="32"/>
+      <c r="Q256" s="32"/>
+      <c r="R256" s="32"/>
+      <c r="S256" s="32"/>
+      <c r="T256" s="32"/>
+      <c r="U256" s="32"/>
+      <c r="V256" s="32"/>
+      <c r="W256" s="32"/>
+      <c r="X256" s="32"/>
+      <c r="Y256" s="32"/>
+      <c r="Z256" s="32"/>
+      <c r="AA256" s="32"/>
+    </row>
     <row r="257" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="258" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="259" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F5D574-A478-4ECF-90AA-DE1C2150EE13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E49ECC-4725-4BC2-AC04-A3815212F31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3135,11 +3135,6 @@
     <t>Harkenblecker Weg in Arnum</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Situation als Radfahrerin ist dort aktuell ziemlich unglücklich. Offiziell gehören Radfahrer*innen auf die Straße. Das ist natürlich auch nicht anders möglich, denn die Seitenanlagen sind beidseits so schmal, dass man, besonders mit Lastenrad oder Kinderanhänger, kaum an entgegenkommenden Fußgänger*innen vorbei kommt.
-Trotzdem fahren die meisten Radfahrer*innen auf dem reinen Fußweg, denn auf der Straße fühlt man sich, besonders mit Kind im Anhänger, in einer Tempo 50 Zone wirklich nicht wohl.
-Bis auf ein Verkehrsschild „Achtung Radfahrer“ (138-10) kurz nach dem Ortseingang (da parkt oft ein LKW, weshalb die Autofahrer das Schild nicht einmal sehen), weist nichts darauf hin, dass Radfahrer hier rechtmäßig auf die Straße gehören. </t>
-  </si>
-  <si>
     <t>Auf der Straße fühlt man sich nicht wohl</t>
   </si>
   <si>
@@ -3161,6 +3156,11 @@
     <t>1. Radfahrende auf einen seperaten Radweg führen.
 2. Überholverbot verdeutlichen mit 
 ![](8PCG+CM_Stadtbahnverlängerung2.svg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Situation als Radfahrerin ist dort aktuell ziemlich unglücklich. Offiziell gehören Radfahrer:innen auf die Straße. Das ist natürlich auch nicht anders möglich, denn die Seitenanlagen sind beidseits so schmal, dass man, besonders mit Lastenrad oder Kinderanhänger, kaum an entgegenkommenden Fußgänger:innen vorbei kommt.
+Trotzdem fahren die meisten Radfahrer:innen auf dem reinen Fußweg, denn auf der Straße fühlt man sich, besonders mit Kind im Anhänger, in einer Tempo 50 Zone wirklich nicht wohl.
+Bis auf ein Verkehrsschild „Achtung Radfahrer“ (138-10) kurz nach dem Ortseingang (da parkt oft ein LKW, weshalb die Autofahrer das Schild nicht einmal sehen), weist nichts darauf hin, dass Radfahrer hier rechtmäßig auf die Straße gehören. </t>
   </si>
 </sst>
 </file>
@@ -3910,7 +3910,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H257" sqref="H257"/>
+      <selection pane="bottomLeft" activeCell="G255" sqref="G255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -18077,7 +18077,7 @@
         <v>7PXW+85</v>
       </c>
       <c r="C255" s="40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D255" s="41">
         <v>44318</v>
@@ -18089,10 +18089,10 @@
         <v>928</v>
       </c>
       <c r="G255" s="40" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="H255" s="26" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I255" s="26" t="s">
         <v>174</v>
@@ -18118,14 +18118,14 @@
     </row>
     <row r="256" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="39" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B256" s="22" t="str">
         <f t="shared" si="19"/>
         <v>8PCG+CM</v>
       </c>
       <c r="C256" s="40" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D256" s="41">
         <v>44318</v>
@@ -18134,13 +18134,13 @@
         <v>36</v>
       </c>
       <c r="F256" s="40" t="s">
+        <v>933</v>
+      </c>
+      <c r="G256" s="40" t="s">
         <v>934</v>
       </c>
-      <c r="G256" s="40" t="s">
+      <c r="H256" s="26" t="s">
         <v>935</v>
-      </c>
-      <c r="H256" s="26" t="s">
-        <v>936</v>
       </c>
       <c r="I256" s="26" t="s">
         <v>174</v>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E49ECC-4725-4BC2-AC04-A3815212F31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12252204-9E44-455F-B1C4-487358BA56DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3138,9 +3138,6 @@
     <t>Auf der Straße fühlt man sich nicht wohl</t>
   </si>
   <si>
-    <t>Eventuell Fahrrad-Symbole auf der Fahrbahn (wie in der Ortsdurchfahrt Jeinsen oder Devese) oder eine kombinierte Lösung mit Schutzstreifen auf einer Seite (wie in Pattensen, Jeinser Straße). Zusätzliche Möglichkeit der Tempo-Reduzierung.</t>
-  </si>
-  <si>
     <t>8PCG+CM</t>
   </si>
   <si>
@@ -3158,9 +3155,12 @@
 ![](8PCG+CM_Stadtbahnverlängerung2.svg)</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Situation als Radfahrerin ist dort aktuell ziemlich unglücklich. Offiziell gehören Radfahrer:innen auf die Straße. Das ist natürlich auch nicht anders möglich, denn die Seitenanlagen sind beidseits so schmal, dass man, besonders mit Lastenrad oder Kinderanhänger, kaum an entgegenkommenden Fußgänger:innen vorbei kommt.
+    <t>Eine Alltagsradlerin berichtet: „Die Situation als Radfahrerin ist dort aktuell ziemlich unglücklich. Offiziell gehören Radfahrer:innen auf die Straße. Das ist natürlich auch nicht anders möglich, denn die Seitenanlagen sind beidseits so schmal, dass man, besonders mit Lastenrad oder Kinderanhänger, kaum an entgegenkommenden Fußgänger:innen vorbei kommt.
 Trotzdem fahren die meisten Radfahrer:innen auf dem reinen Fußweg, denn auf der Straße fühlt man sich, besonders mit Kind im Anhänger, in einer Tempo 50 Zone wirklich nicht wohl.
-Bis auf ein Verkehrsschild „Achtung Radfahrer“ (138-10) kurz nach dem Ortseingang (da parkt oft ein LKW, weshalb die Autofahrer das Schild nicht einmal sehen), weist nichts darauf hin, dass Radfahrer hier rechtmäßig auf die Straße gehören. </t>
+Bis auf ein Verkehrsschild „Achtung Radfahrer“ (138-10) kurz nach dem Ortseingang (da parkt oft ein LKW, weshalb die Autofahrer das Schild nicht einmal sehen), weist nichts darauf hin, dass Radfahrer hier rechtmäßig auf die Straße gehören. "</t>
+  </si>
+  <si>
+    <t>"Eventuell Fahrrad-Symbole auf der Fahrbahn (wie in der Ortsdurchfahrt Jeinsen oder Devese) oder eine kombinierte Lösung mit Schutzstreifen auf einer Seite (wie in Pattensen, Jeinser Straße). Zusätzliche Möglichkeit der Tempo-Reduzierung."</t>
   </si>
 </sst>
 </file>
@@ -3910,7 +3910,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G255" sqref="G255"/>
+      <selection pane="bottomLeft" activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -18089,10 +18089,10 @@
         <v>928</v>
       </c>
       <c r="G255" s="40" t="s">
+        <v>935</v>
+      </c>
+      <c r="H255" s="26" t="s">
         <v>936</v>
-      </c>
-      <c r="H255" s="26" t="s">
-        <v>930</v>
       </c>
       <c r="I255" s="26" t="s">
         <v>174</v>
@@ -18118,14 +18118,14 @@
     </row>
     <row r="256" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B256" s="22" t="str">
         <f t="shared" si="19"/>
         <v>8PCG+CM</v>
       </c>
       <c r="C256" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D256" s="41">
         <v>44318</v>
@@ -18134,13 +18134,13 @@
         <v>36</v>
       </c>
       <c r="F256" s="40" t="s">
+        <v>932</v>
+      </c>
+      <c r="G256" s="40" t="s">
         <v>933</v>
       </c>
-      <c r="G256" s="40" t="s">
+      <c r="H256" s="26" t="s">
         <v>934</v>
-      </c>
-      <c r="H256" s="26" t="s">
-        <v>935</v>
       </c>
       <c r="I256" s="26" t="s">
         <v>174</v>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12252204-9E44-455F-B1C4-487358BA56DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FD9E15-F029-41C6-8033-13702392C1E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="938">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -3161,6 +3161,10 @@
   </si>
   <si>
     <t>"Eventuell Fahrrad-Symbole auf der Fahrbahn (wie in der Ortsdurchfahrt Jeinsen oder Devese) oder eine kombinierte Lösung mit Schutzstreifen auf einer Seite (wie in Pattensen, Jeinser Straße). Zusätzliche Möglichkeit der Tempo-Reduzierung."</t>
+  </si>
+  <si>
+    <t>28.04.2021 HAZ Artikel "Politiker fordern neuen Radweg" - Von Hiddestorf nach Lüdersen: Hemminger Stadtverwaltung freut sich über die Unterstützung der Ortsräte aus Springe - Hiddestorf. Die Stadt Hemmingen bekommt für ihr Radverkehrskonzept Unterstützung aus Springe: Die Ortsräte Lüdersen und Bennigsen fordern den Bau eines befestigten Radwegs von Hiddestorf nach Lüdersen. Dieser Abschnitt wird auch im Hemminger Verkehrskonzept als „Route 1. Ordnung“ bezeichnet. Die Stadt sieht
+diese Routen als „wichtige Verbindungen für den Radverkehr".</t>
   </si>
 </sst>
 </file>
@@ -3909,8 +3913,8 @@
   <dimension ref="A1:AMJ275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H256" sqref="H256"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4174,7 +4178,7 @@
         <v>39</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>40</v>
+        <v>937</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="28" t="str">

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\2_Projekte\Proj2021\2021-07-25_MaengelMarco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6743DCC4-8E23-42A6-84D3-046EB92632CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0311B983-1D04-4FBA-B6F1-4AC62FCDB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AA$254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AA$260</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="960">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -3228,6 +3235,15 @@
     <t>Wer als Nicht-Autofahrer vom real-Markt zum Stanze-Gartencenter möchte, muss entweder durch die Grünanlagen oder auf der Straße laufen. Siehe beigefügtes Foto von Google Maps/Satellitenansicht. Der Fußweg incl. abgesenktem Bordstein auf der Straßenseite von Stanze führt auf der gegenüberliegenden Straßenseite direkt in die Grünrabatte. Der inzwischen entstandene Trampelpfad ist nur für Fußgänger, die nicht auf eine glatte Wegoberfläche angewiesen sind, nutzbar. Damit müssen Kinderwagen, Rollstuhlfahrer, Radler auf die Straße bzw. Parkplatzzufahrt ausweichen. Das ist nicht zumutbar. 
 ![](8P8C+7M_real-Stanze.jpg)</t>
   </si>
+  <si>
+    <t>- erledigt Oct/Nov 2021</t>
+  </si>
+  <si>
+    <t>- erledigt Oct/Nov 2022</t>
+  </si>
+  <si>
+    <t>- Umgitter versetzt</t>
+  </si>
 </sst>
 </file>
 
@@ -3236,7 +3252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-407]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3315,6 +3331,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3461,7 +3483,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3595,6 +3617,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lesestreifen" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3980,11 +4005,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G260" sqref="G260"/>
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4221,7 +4247,7 @@
       <c r="AMI6" s="6"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" ht="95.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024" ht="95.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>34</v>
       </c>
@@ -4281,7 +4307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>34</v>
       </c>
@@ -4339,7 +4365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>50</v>
       </c>
@@ -4397,7 +4423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>55</v>
       </c>
@@ -4445,7 +4471,7 @@
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
     </row>
-    <row r="11" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>62</v>
       </c>
@@ -4493,7 +4519,7 @@
       <c r="Z11" s="32"/>
       <c r="AA11" s="32"/>
     </row>
-    <row r="12" spans="1:1024" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>68</v>
       </c>
@@ -4551,7 +4577,7 @@
       <c r="Z12" s="32"/>
       <c r="AA12" s="32"/>
     </row>
-    <row r="13" spans="1:1024" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>73</v>
       </c>
@@ -4611,7 +4637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>80</v>
       </c>
@@ -4669,7 +4695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>86</v>
       </c>
@@ -4735,7 +4761,7 @@
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
     </row>
-    <row r="16" spans="1:1024" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>92</v>
       </c>
@@ -4795,7 +4821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>97</v>
       </c>
@@ -4917,7 +4943,7 @@
       <c r="Z18" s="32"/>
       <c r="AA18" s="32"/>
     </row>
-    <row r="19" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>110</v>
       </c>
@@ -4981,7 +5007,7 @@
       <c r="Z19" s="32"/>
       <c r="AA19" s="32"/>
     </row>
-    <row r="20" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>110</v>
       </c>
@@ -5045,7 +5071,7 @@
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
     </row>
-    <row r="21" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>118</v>
       </c>
@@ -5103,7 +5129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>124</v>
       </c>
@@ -5163,7 +5189,7 @@
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
     </row>
-    <row r="23" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>124</v>
       </c>
@@ -5221,7 +5247,7 @@
       <c r="Z23" s="32"/>
       <c r="AA23" s="32"/>
     </row>
-    <row r="24" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
         <v>133</v>
       </c>
@@ -5271,7 +5297,7 @@
       <c r="Z24" s="32"/>
       <c r="AA24" s="32"/>
     </row>
-    <row r="25" spans="1:27" ht="270.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="270.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>138</v>
       </c>
@@ -5339,7 +5365,7 @@
       <c r="Z25" s="32"/>
       <c r="AA25" s="32"/>
     </row>
-    <row r="26" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>144</v>
       </c>
@@ -5395,7 +5421,7 @@
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
     </row>
-    <row r="27" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>150</v>
       </c>
@@ -5453,7 +5479,7 @@
       <c r="Z27" s="32"/>
       <c r="AA27" s="32"/>
     </row>
-    <row r="28" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>155</v>
       </c>
@@ -5511,7 +5537,7 @@
       <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
     </row>
-    <row r="29" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>159</v>
       </c>
@@ -5571,7 +5597,7 @@
       <c r="Z29" s="32"/>
       <c r="AA29" s="32"/>
     </row>
-    <row r="30" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>165</v>
       </c>
@@ -5629,7 +5655,7 @@
       <c r="Z30" s="32"/>
       <c r="AA30" s="32"/>
     </row>
-    <row r="31" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>171</v>
       </c>
@@ -5677,7 +5703,7 @@
       <c r="Z31" s="32"/>
       <c r="AA31" s="32"/>
     </row>
-    <row r="32" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>177</v>
       </c>
@@ -5735,7 +5761,7 @@
       <c r="Z32" s="32"/>
       <c r="AA32" s="32"/>
     </row>
-    <row r="33" spans="1:1024" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1024" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>182</v>
       </c>
@@ -5795,7 +5821,7 @@
       <c r="Z33" s="32"/>
       <c r="AA33" s="32"/>
     </row>
-    <row r="34" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
         <v>182</v>
       </c>
@@ -5855,7 +5881,7 @@
       <c r="Z34" s="32"/>
       <c r="AA34" s="32"/>
     </row>
-    <row r="35" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>182</v>
       </c>
@@ -5913,7 +5939,7 @@
       <c r="Z35" s="32"/>
       <c r="AA35" s="32"/>
     </row>
-    <row r="36" spans="1:1024" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1024" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>197</v>
       </c>
@@ -5971,7 +5997,7 @@
       <c r="Z36" s="32"/>
       <c r="AA36" s="32"/>
     </row>
-    <row r="37" spans="1:1024" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1024" ht="139.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>200</v>
       </c>
@@ -6031,7 +6057,7 @@
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
     </row>
-    <row r="38" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>204</v>
       </c>
@@ -6089,7 +6115,7 @@
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
     </row>
-    <row r="39" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>209</v>
       </c>
@@ -6147,7 +6173,7 @@
       <c r="Z39" s="32"/>
       <c r="AA39" s="32"/>
     </row>
-    <row r="40" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
         <v>214</v>
       </c>
@@ -6205,7 +6231,7 @@
       <c r="Z40" s="32"/>
       <c r="AA40" s="32"/>
     </row>
-    <row r="41" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>219</v>
       </c>
@@ -6263,7 +6289,7 @@
       <c r="Z41" s="32"/>
       <c r="AA41" s="32"/>
     </row>
-    <row r="42" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>219</v>
       </c>
@@ -6321,7 +6347,7 @@
       <c r="Z42" s="32"/>
       <c r="AA42" s="32"/>
     </row>
-    <row r="43" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>219</v>
       </c>
@@ -6379,7 +6405,7 @@
       <c r="Z43" s="32"/>
       <c r="AA43" s="32"/>
     </row>
-    <row r="44" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>230</v>
       </c>
@@ -6439,7 +6465,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>235</v>
       </c>
@@ -6497,7 +6523,7 @@
       <c r="Z45" s="32"/>
       <c r="AA45" s="32"/>
     </row>
-    <row r="46" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>235</v>
       </c>
@@ -6555,7 +6581,7 @@
       <c r="Z46" s="32"/>
       <c r="AA46" s="32"/>
     </row>
-    <row r="47" spans="1:1024" s="48" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1024" s="48" customFormat="1" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>240</v>
       </c>
@@ -6622,7 +6648,7 @@
       <c r="AMI47" s="6"/>
       <c r="AMJ47" s="6"/>
     </row>
-    <row r="48" spans="1:1024" ht="261.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1024" ht="261.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>246</v>
       </c>
@@ -6682,7 +6708,7 @@
       <c r="Z48" s="32"/>
       <c r="AA48" s="32"/>
     </row>
-    <row r="49" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>252</v>
       </c>
@@ -6740,7 +6766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>257</v>
       </c>
@@ -6800,7 +6826,7 @@
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
     </row>
-    <row r="51" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>263</v>
       </c>
@@ -6858,7 +6884,7 @@
       <c r="Z51" s="32"/>
       <c r="AA51" s="32"/>
     </row>
-    <row r="52" spans="1:27" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="282.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>269</v>
       </c>
@@ -6906,7 +6932,7 @@
       <c r="Z52" s="32"/>
       <c r="AA52" s="32"/>
     </row>
-    <row r="53" spans="1:27" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>274</v>
       </c>
@@ -6964,7 +6990,7 @@
       <c r="Z53" s="32"/>
       <c r="AA53" s="32"/>
     </row>
-    <row r="54" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>278</v>
       </c>
@@ -7022,7 +7048,7 @@
       <c r="Z54" s="32"/>
       <c r="AA54" s="32"/>
     </row>
-    <row r="55" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>282</v>
       </c>
@@ -7084,7 +7110,7 @@
       <c r="Z55" s="32"/>
       <c r="AA55" s="32"/>
     </row>
-    <row r="56" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>282</v>
       </c>
@@ -7144,7 +7170,7 @@
       <c r="Z56" s="32"/>
       <c r="AA56" s="32"/>
     </row>
-    <row r="57" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>290</v>
       </c>
@@ -7202,7 +7228,7 @@
       <c r="Z57" s="32"/>
       <c r="AA57" s="32"/>
     </row>
-    <row r="58" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>290</v>
       </c>
@@ -7260,7 +7286,7 @@
       <c r="Z58" s="32"/>
       <c r="AA58" s="32"/>
     </row>
-    <row r="59" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>290</v>
       </c>
@@ -7318,7 +7344,7 @@
       <c r="Z59" s="32"/>
       <c r="AA59" s="32"/>
     </row>
-    <row r="60" spans="1:27" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="137.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
         <v>290</v>
       </c>
@@ -7378,7 +7404,7 @@
       <c r="Z60" s="32"/>
       <c r="AA60" s="32"/>
     </row>
-    <row r="61" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>303</v>
       </c>
@@ -7436,7 +7462,7 @@
       <c r="Z61" s="32"/>
       <c r="AA61" s="32"/>
     </row>
-    <row r="62" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>307</v>
       </c>
@@ -7580,10 +7606,12 @@
       <c r="H64" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="I64" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J64" s="27"/>
+      <c r="I64" s="57" t="s">
+        <v>957</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K64" s="28" t="str">
         <f t="shared" si="8"/>
         <v>8P99+HX</v>
@@ -7638,10 +7666,12 @@
       <c r="H65" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="I65" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J65" s="27"/>
+      <c r="I65" s="57" t="s">
+        <v>958</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K65" s="28" t="str">
         <f t="shared" si="8"/>
         <v>8P99+MW</v>
@@ -7670,7 +7700,7 @@
       <c r="Z65" s="32"/>
       <c r="AA65" s="32"/>
     </row>
-    <row r="66" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>322</v>
       </c>
@@ -7728,7 +7758,7 @@
       <c r="Z66" s="32"/>
       <c r="AA66" s="32"/>
     </row>
-    <row r="67" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>322</v>
       </c>
@@ -7786,7 +7816,7 @@
       <c r="Z67" s="32"/>
       <c r="AA67" s="32"/>
     </row>
-    <row r="68" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>322</v>
       </c>
@@ -7844,7 +7874,7 @@
       <c r="Z68" s="32"/>
       <c r="AA68" s="32"/>
     </row>
-    <row r="69" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>330</v>
       </c>
@@ -7902,7 +7932,7 @@
       <c r="Z69" s="32"/>
       <c r="AA69" s="32"/>
     </row>
-    <row r="70" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>335</v>
       </c>
@@ -7962,7 +7992,7 @@
       <c r="Z70" s="32"/>
       <c r="AA70" s="32"/>
     </row>
-    <row r="71" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>335</v>
       </c>
@@ -8022,7 +8052,7 @@
       <c r="Z71" s="32"/>
       <c r="AA71" s="32"/>
     </row>
-    <row r="72" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>335</v>
       </c>
@@ -8082,7 +8112,7 @@
       <c r="Z72" s="32"/>
       <c r="AA72" s="32"/>
     </row>
-    <row r="73" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>346</v>
       </c>
@@ -8138,7 +8168,7 @@
       <c r="Z73" s="32"/>
       <c r="AA73" s="32"/>
     </row>
-    <row r="74" spans="1:27" ht="396" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="396" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
         <v>350</v>
       </c>
@@ -8196,7 +8226,7 @@
       <c r="Z74" s="32"/>
       <c r="AA74" s="32"/>
     </row>
-    <row r="75" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
         <v>350</v>
       </c>
@@ -8254,7 +8284,7 @@
       <c r="Z75" s="32"/>
       <c r="AA75" s="32"/>
     </row>
-    <row r="76" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>350</v>
       </c>
@@ -8312,7 +8342,7 @@
       <c r="Z76" s="32"/>
       <c r="AA76" s="32"/>
     </row>
-    <row r="77" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>363</v>
       </c>
@@ -8370,7 +8400,7 @@
       <c r="Z77" s="32"/>
       <c r="AA77" s="32"/>
     </row>
-    <row r="78" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>363</v>
       </c>
@@ -8426,7 +8456,7 @@
       <c r="Z78" s="32"/>
       <c r="AA78" s="32"/>
     </row>
-    <row r="79" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
         <v>371</v>
       </c>
@@ -8486,7 +8516,7 @@
       </c>
       <c r="AA79" s="32"/>
     </row>
-    <row r="80" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>375</v>
       </c>
@@ -8546,7 +8576,7 @@
       </c>
       <c r="AA80" s="32"/>
     </row>
-    <row r="81" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
         <v>379</v>
       </c>
@@ -8604,7 +8634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>379</v>
       </c>
@@ -8662,7 +8692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
         <v>379</v>
       </c>
@@ -8720,7 +8750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>379</v>
       </c>
@@ -8778,7 +8808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:1024" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1024" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>390</v>
       </c>
@@ -8838,7 +8868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
         <v>395</v>
       </c>
@@ -8896,7 +8926,7 @@
       <c r="Z86" s="32"/>
       <c r="AA86" s="32"/>
     </row>
-    <row r="87" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>400</v>
       </c>
@@ -8956,7 +8986,7 @@
       <c r="Z87" s="32"/>
       <c r="AA87" s="32"/>
     </row>
-    <row r="88" spans="1:1024" ht="261.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1024" ht="261.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
         <v>403</v>
       </c>
@@ -9016,7 +9046,7 @@
       <c r="Z88" s="32"/>
       <c r="AA88" s="32"/>
     </row>
-    <row r="89" spans="1:1024" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1024" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
         <v>407</v>
       </c>
@@ -9080,7 +9110,7 @@
       <c r="Z89" s="32"/>
       <c r="AA89" s="32"/>
     </row>
-    <row r="90" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
         <v>413</v>
       </c>
@@ -9140,7 +9170,7 @@
       <c r="Z90" s="32"/>
       <c r="AA90" s="32"/>
     </row>
-    <row r="91" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
         <v>419</v>
       </c>
@@ -9200,7 +9230,7 @@
       </c>
       <c r="AA91" s="32"/>
     </row>
-    <row r="92" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>419</v>
       </c>
@@ -9260,7 +9290,7 @@
       </c>
       <c r="AA92" s="32"/>
     </row>
-    <row r="93" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>419</v>
       </c>
@@ -9318,7 +9348,7 @@
       </c>
       <c r="AA93" s="32"/>
     </row>
-    <row r="94" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
         <v>429</v>
       </c>
@@ -9376,7 +9406,7 @@
       </c>
       <c r="AA94" s="32"/>
     </row>
-    <row r="95" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
         <v>434</v>
       </c>
@@ -9434,7 +9464,7 @@
       </c>
       <c r="AA95" s="32"/>
     </row>
-    <row r="96" spans="1:1024" s="48" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1024" s="48" customFormat="1" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
         <v>434</v>
       </c>
@@ -9501,7 +9531,7 @@
       <c r="AMI96" s="6"/>
       <c r="AMJ96" s="6"/>
     </row>
-    <row r="97" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
         <v>434</v>
       </c>
@@ -9561,7 +9591,7 @@
       </c>
       <c r="AA97" s="32"/>
     </row>
-    <row r="98" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
         <v>434</v>
       </c>
@@ -9621,7 +9651,7 @@
       </c>
       <c r="AA98" s="32"/>
     </row>
-    <row r="99" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
         <v>441</v>
       </c>
@@ -9705,10 +9735,12 @@
       <c r="H100" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="I100" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J100" s="27"/>
+      <c r="I100" s="57" t="s">
+        <v>959</v>
+      </c>
+      <c r="J100" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K100" s="28" t="str">
         <f t="shared" si="11"/>
         <v>8PF9+MX</v>
@@ -9739,7 +9771,7 @@
       <c r="Z100" s="32"/>
       <c r="AA100" s="32"/>
     </row>
-    <row r="101" spans="1:27" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" ht="116.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
         <v>449</v>
       </c>
@@ -9797,7 +9829,7 @@
       <c r="Z101" s="32"/>
       <c r="AA101" s="32"/>
     </row>
-    <row r="102" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
         <v>455</v>
       </c>
@@ -9857,7 +9889,7 @@
       <c r="Z102" s="32"/>
       <c r="AA102" s="32"/>
     </row>
-    <row r="103" spans="1:27" ht="327" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" ht="327" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
         <v>458</v>
       </c>
@@ -9915,7 +9947,7 @@
       <c r="Z103" s="32"/>
       <c r="AA103" s="32"/>
     </row>
-    <row r="104" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
         <v>463</v>
       </c>
@@ -9973,7 +10005,7 @@
       <c r="Z104" s="32"/>
       <c r="AA104" s="32"/>
     </row>
-    <row r="105" spans="1:27" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="33" t="s">
         <v>463</v>
       </c>
@@ -10031,7 +10063,7 @@
       <c r="Z105" s="32"/>
       <c r="AA105" s="32"/>
     </row>
-    <row r="106" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
         <v>470</v>
       </c>
@@ -10091,7 +10123,7 @@
       <c r="Z106" s="32"/>
       <c r="AA106" s="32"/>
     </row>
-    <row r="107" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
         <v>475</v>
       </c>
@@ -10149,7 +10181,7 @@
       <c r="Z107" s="32"/>
       <c r="AA107" s="32"/>
     </row>
-    <row r="108" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
         <v>479</v>
       </c>
@@ -10207,7 +10239,7 @@
       <c r="Z108" s="32"/>
       <c r="AA108" s="32"/>
     </row>
-    <row r="109" spans="1:27" ht="306.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" ht="306.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
         <v>484</v>
       </c>
@@ -10267,7 +10299,7 @@
       <c r="Z109" s="32"/>
       <c r="AA109" s="32"/>
     </row>
-    <row r="110" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
         <v>490</v>
       </c>
@@ -10325,7 +10357,7 @@
       <c r="Z110" s="32"/>
       <c r="AA110" s="32"/>
     </row>
-    <row r="111" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
         <v>495</v>
       </c>
@@ -10383,7 +10415,7 @@
       <c r="Z111" s="32"/>
       <c r="AA111" s="32"/>
     </row>
-    <row r="112" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
         <v>495</v>
       </c>
@@ -10443,7 +10475,7 @@
       <c r="Z112" s="32"/>
       <c r="AA112" s="32"/>
     </row>
-    <row r="113" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
         <v>504</v>
       </c>
@@ -10501,7 +10533,7 @@
       <c r="Z113" s="32"/>
       <c r="AA113" s="32"/>
     </row>
-    <row r="114" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
         <v>504</v>
       </c>
@@ -10559,7 +10591,7 @@
       <c r="Z114" s="32"/>
       <c r="AA114" s="32"/>
     </row>
-    <row r="115" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
         <v>511</v>
       </c>
@@ -10619,7 +10651,7 @@
       <c r="Z115" s="32"/>
       <c r="AA115" s="32"/>
     </row>
-    <row r="116" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
         <v>517</v>
       </c>
@@ -10677,7 +10709,7 @@
       <c r="Z116" s="32"/>
       <c r="AA116" s="32"/>
     </row>
-    <row r="117" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
         <v>520</v>
       </c>
@@ -10735,7 +10767,7 @@
       <c r="Z117" s="32"/>
       <c r="AA117" s="32"/>
     </row>
-    <row r="118" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
         <v>525</v>
       </c>
@@ -10795,7 +10827,7 @@
       <c r="Z118" s="32"/>
       <c r="AA118" s="32"/>
     </row>
-    <row r="119" spans="1:27" ht="342.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" ht="342.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
         <v>530</v>
       </c>
@@ -10855,7 +10887,7 @@
       <c r="Z119" s="32"/>
       <c r="AA119" s="32"/>
     </row>
-    <row r="120" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
         <v>530</v>
       </c>
@@ -10913,7 +10945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
         <v>538</v>
       </c>
@@ -10971,7 +11003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
         <v>542</v>
       </c>
@@ -11031,7 +11063,7 @@
       <c r="Z122" s="32"/>
       <c r="AA122" s="32"/>
     </row>
-    <row r="123" spans="1:27" ht="245.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" ht="245.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
         <v>546</v>
       </c>
@@ -11091,7 +11123,7 @@
       <c r="Z123" s="32"/>
       <c r="AA123" s="32"/>
     </row>
-    <row r="124" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
         <v>550</v>
       </c>
@@ -11151,7 +11183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
         <v>555</v>
       </c>
@@ -11209,7 +11241,7 @@
       <c r="Z125" s="32"/>
       <c r="AA125" s="32"/>
     </row>
-    <row r="126" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
         <v>555</v>
       </c>
@@ -11267,7 +11299,7 @@
       <c r="Z126" s="32"/>
       <c r="AA126" s="32"/>
     </row>
-    <row r="127" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
         <v>559</v>
       </c>
@@ -11325,7 +11357,7 @@
       <c r="Z127" s="32"/>
       <c r="AA127" s="32"/>
     </row>
-    <row r="128" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
         <v>564</v>
       </c>
@@ -11385,7 +11417,7 @@
       <c r="Z128" s="32"/>
       <c r="AA128" s="32"/>
     </row>
-    <row r="129" spans="1:27" ht="357.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" ht="357.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
         <v>569</v>
       </c>
@@ -11447,7 +11479,7 @@
       <c r="Z129" s="32"/>
       <c r="AA129" s="32"/>
     </row>
-    <row r="130" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
         <v>569</v>
       </c>
@@ -11507,7 +11539,7 @@
       <c r="Z130" s="32"/>
       <c r="AA130" s="32"/>
     </row>
-    <row r="131" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
         <v>577</v>
       </c>
@@ -11565,7 +11597,7 @@
       <c r="Z131" s="32"/>
       <c r="AA131" s="32"/>
     </row>
-    <row r="132" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
         <v>582</v>
       </c>
@@ -11625,7 +11657,7 @@
       <c r="Z132" s="32"/>
       <c r="AA132" s="32"/>
     </row>
-    <row r="133" spans="1:27" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
         <v>582</v>
       </c>
@@ -11683,7 +11715,7 @@
       <c r="Z133" s="32"/>
       <c r="AA133" s="32"/>
     </row>
-    <row r="134" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
         <v>582</v>
       </c>
@@ -11745,7 +11777,7 @@
       <c r="Z134" s="32"/>
       <c r="AA134" s="32"/>
     </row>
-    <row r="135" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
         <v>591</v>
       </c>
@@ -11803,7 +11835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
         <v>591</v>
       </c>
@@ -11861,7 +11893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
         <v>597</v>
       </c>
@@ -11919,7 +11951,7 @@
       <c r="Z137" s="32"/>
       <c r="AA137" s="32"/>
     </row>
-    <row r="138" spans="1:27" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
         <v>600</v>
       </c>
@@ -11979,7 +12011,7 @@
       <c r="Z138" s="32"/>
       <c r="AA138" s="32"/>
     </row>
-    <row r="139" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
         <v>600</v>
       </c>
@@ -12037,7 +12069,7 @@
       <c r="Z139" s="32"/>
       <c r="AA139" s="32"/>
     </row>
-    <row r="140" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
         <v>600</v>
       </c>
@@ -12095,7 +12127,7 @@
       <c r="Z140" s="32"/>
       <c r="AA140" s="32"/>
     </row>
-    <row r="141" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
         <v>600</v>
       </c>
@@ -12155,7 +12187,7 @@
       <c r="Z141" s="32"/>
       <c r="AA141" s="32"/>
     </row>
-    <row r="142" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
         <v>616</v>
       </c>
@@ -12219,7 +12251,7 @@
       <c r="Z142" s="32"/>
       <c r="AA142" s="32"/>
     </row>
-    <row r="143" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
         <v>619</v>
       </c>
@@ -12277,7 +12309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
         <v>624</v>
       </c>
@@ -12335,7 +12367,7 @@
       <c r="Z144" s="32"/>
       <c r="AA144" s="32"/>
     </row>
-    <row r="145" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
         <v>624</v>
       </c>
@@ -12395,7 +12427,7 @@
       <c r="Z145" s="32"/>
       <c r="AA145" s="32"/>
     </row>
-    <row r="146" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
         <v>631</v>
       </c>
@@ -12455,7 +12487,7 @@
       <c r="Z146" s="32"/>
       <c r="AA146" s="32"/>
     </row>
-    <row r="147" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="33" t="s">
         <v>635</v>
       </c>
@@ -12515,7 +12547,7 @@
       <c r="Z147" s="32"/>
       <c r="AA147" s="32"/>
     </row>
-    <row r="148" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="33" t="s">
         <v>638</v>
       </c>
@@ -12573,7 +12605,7 @@
       <c r="Z148" s="32"/>
       <c r="AA148" s="32"/>
     </row>
-    <row r="149" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
         <v>642</v>
       </c>
@@ -12631,7 +12663,7 @@
       <c r="Z149" s="32"/>
       <c r="AA149" s="32"/>
     </row>
-    <row r="150" spans="1:27" ht="294" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" ht="294" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="33" t="s">
         <v>647</v>
       </c>
@@ -12691,7 +12723,7 @@
       <c r="Z150" s="32"/>
       <c r="AA150" s="32"/>
     </row>
-    <row r="151" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="33" t="s">
         <v>652</v>
       </c>
@@ -12749,7 +12781,7 @@
       <c r="Z151" s="32"/>
       <c r="AA151" s="32"/>
     </row>
-    <row r="152" spans="1:27" ht="258" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" ht="258" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
         <v>657</v>
       </c>
@@ -12873,7 +12905,7 @@
       <c r="Z153" s="32"/>
       <c r="AA153" s="32"/>
     </row>
-    <row r="154" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
         <v>670</v>
       </c>
@@ -12933,7 +12965,7 @@
       <c r="Z154" s="32"/>
       <c r="AA154" s="32"/>
     </row>
-    <row r="155" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>676</v>
       </c>
@@ -12991,7 +13023,7 @@
       <c r="Z155" s="32"/>
       <c r="AA155" s="32"/>
     </row>
-    <row r="156" spans="1:27" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
         <v>676</v>
       </c>
@@ -13051,7 +13083,7 @@
       <c r="Z156" s="32"/>
       <c r="AA156" s="32"/>
     </row>
-    <row r="157" spans="1:27" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" ht="188.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
         <v>676</v>
       </c>
@@ -13109,7 +13141,7 @@
       <c r="Z157" s="32"/>
       <c r="AA157" s="32"/>
     </row>
-    <row r="158" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
         <v>688</v>
       </c>
@@ -13169,7 +13201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="33" t="s">
         <v>692</v>
       </c>
@@ -13227,7 +13259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="33" t="s">
         <v>695</v>
       </c>
@@ -13287,7 +13319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
         <v>700</v>
       </c>
@@ -13345,7 +13377,7 @@
       <c r="Z161" s="32"/>
       <c r="AA161" s="32"/>
     </row>
-    <row r="162" spans="1:27" ht="311.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" ht="311.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="33" t="s">
         <v>700</v>
       </c>
@@ -13405,7 +13437,7 @@
       <c r="Z162" s="32"/>
       <c r="AA162" s="32"/>
     </row>
-    <row r="163" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
         <v>709</v>
       </c>
@@ -13467,7 +13499,7 @@
       </c>
       <c r="AA163" s="32"/>
     </row>
-    <row r="164" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
         <v>715</v>
       </c>
@@ -13531,7 +13563,7 @@
       </c>
       <c r="AA164" s="32"/>
     </row>
-    <row r="165" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="33" t="s">
         <v>715</v>
       </c>
@@ -13591,7 +13623,7 @@
       <c r="Z165" s="32"/>
       <c r="AA165" s="32"/>
     </row>
-    <row r="166" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="33" t="s">
         <v>715</v>
       </c>
@@ -13651,7 +13683,7 @@
       <c r="Z166" s="32"/>
       <c r="AA166" s="32"/>
     </row>
-    <row r="167" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="33" t="s">
         <v>715</v>
       </c>
@@ -13711,7 +13743,7 @@
       <c r="Z167" s="32"/>
       <c r="AA167" s="32"/>
     </row>
-    <row r="168" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="33" t="s">
         <v>715</v>
       </c>
@@ -13771,7 +13803,7 @@
       <c r="Z168" s="32"/>
       <c r="AA168" s="32"/>
     </row>
-    <row r="169" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="33" t="s">
         <v>715</v>
       </c>
@@ -13831,7 +13863,7 @@
       <c r="Z169" s="32"/>
       <c r="AA169" s="32"/>
     </row>
-    <row r="170" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="33" t="s">
         <v>715</v>
       </c>
@@ -13891,7 +13923,7 @@
       <c r="Z170" s="32"/>
       <c r="AA170" s="32"/>
     </row>
-    <row r="171" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="33" t="s">
         <v>715</v>
       </c>
@@ -13949,7 +13981,7 @@
       <c r="Z171" s="32"/>
       <c r="AA171" s="32"/>
     </row>
-    <row r="172" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="33" t="s">
         <v>715</v>
       </c>
@@ -14007,7 +14039,7 @@
       <c r="Z172" s="32"/>
       <c r="AA172" s="32"/>
     </row>
-    <row r="173" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="33" t="s">
         <v>715</v>
       </c>
@@ -14065,7 +14097,7 @@
       <c r="Z173" s="32"/>
       <c r="AA173" s="32"/>
     </row>
-    <row r="174" spans="1:27" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="33" t="s">
         <v>715</v>
       </c>
@@ -14125,7 +14157,7 @@
       <c r="Z174" s="32"/>
       <c r="AA174" s="32"/>
     </row>
-    <row r="175" spans="1:27" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="33" t="s">
         <v>744</v>
       </c>
@@ -14185,7 +14217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="33" t="s">
         <v>749</v>
       </c>
@@ -14245,7 +14277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="225" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="33" t="s">
         <v>753</v>
       </c>
@@ -14303,7 +14335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
         <v>757</v>
       </c>
@@ -14361,7 +14393,7 @@
       <c r="Z178" s="32"/>
       <c r="AA178" s="32"/>
     </row>
-    <row r="179" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="33" t="s">
         <v>762</v>
       </c>
@@ -14421,7 +14453,7 @@
       <c r="Z179" s="32"/>
       <c r="AA179" s="32"/>
     </row>
-    <row r="180" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="33" t="s">
         <v>768</v>
       </c>
@@ -14481,7 +14513,7 @@
       </c>
       <c r="AA180" s="32"/>
     </row>
-    <row r="181" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="33" t="s">
         <v>772</v>
       </c>
@@ -14539,7 +14571,7 @@
       <c r="Z181" s="32"/>
       <c r="AA181" s="32"/>
     </row>
-    <row r="182" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="33" t="s">
         <v>776</v>
       </c>
@@ -14597,7 +14629,7 @@
       <c r="Z182" s="32"/>
       <c r="AA182" s="32"/>
     </row>
-    <row r="183" spans="1:27" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="33" t="s">
         <v>781</v>
       </c>
@@ -14657,7 +14689,7 @@
       <c r="Z183" s="32"/>
       <c r="AA183" s="32"/>
     </row>
-    <row r="184" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="33" t="s">
         <v>787</v>
       </c>
@@ -14717,7 +14749,7 @@
       <c r="Z184" s="32"/>
       <c r="AA184" s="32"/>
     </row>
-    <row r="185" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="33" t="s">
         <v>789</v>
       </c>
@@ -14766,7 +14798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="33" t="s">
         <v>791</v>
       </c>
@@ -14827,7 +14859,7 @@
       <c r="Z186" s="32"/>
       <c r="AA186" s="32"/>
     </row>
-    <row r="187" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="33" t="s">
         <v>794</v>
       </c>
@@ -14876,7 +14908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="33" t="s">
         <v>797</v>
       </c>
@@ -14925,7 +14957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="33" t="s">
         <v>797</v>
       </c>
@@ -14974,7 +15006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="33" t="s">
         <v>800</v>
       </c>
@@ -15023,7 +15055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="33" t="s">
         <v>800</v>
       </c>
@@ -15072,7 +15104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" ht="168.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="33" t="s">
         <v>801</v>
       </c>
@@ -15121,7 +15153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="33" t="s">
         <v>801</v>
       </c>
@@ -15170,7 +15202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="33" t="s">
         <v>801</v>
       </c>
@@ -15219,7 +15251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="33" t="s">
         <v>801</v>
       </c>
@@ -15266,7 +15298,7 @@
       <c r="Z195" s="32"/>
       <c r="AA195" s="32"/>
     </row>
-    <row r="196" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="33" t="s">
         <v>801</v>
       </c>
@@ -15315,7 +15347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="33" t="s">
         <v>812</v>
       </c>
@@ -15364,7 +15396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="33" t="s">
         <v>814</v>
       </c>
@@ -15413,12 +15445,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="33" t="s">
         <v>814</v>
       </c>
       <c r="B199" s="22" t="str">
-        <f t="shared" ref="B199:B262" si="19">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A199,4),"%2B",RIGHT(A199,2)),A199)</f>
+        <f t="shared" ref="B199:B256" si="19">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A199,4),"%2B",RIGHT(A199,2)),A199)</f>
         <v>Gute Radwege</v>
       </c>
       <c r="C199" s="37"/>
@@ -15462,7 +15494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="33" t="s">
         <v>814</v>
       </c>
@@ -15517,7 +15549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="33" t="s">
         <v>814</v>
       </c>
@@ -15566,7 +15598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="33" t="s">
         <v>814</v>
       </c>
@@ -15615,7 +15647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="33" t="s">
         <v>814</v>
       </c>
@@ -15664,7 +15696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="33" t="s">
         <v>814</v>
       </c>
@@ -15713,7 +15745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="33" t="s">
         <v>814</v>
       </c>
@@ -15762,7 +15794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="33" t="s">
         <v>814</v>
       </c>
@@ -15811,7 +15843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="33" t="s">
         <v>814</v>
       </c>
@@ -15860,7 +15892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="33" t="s">
         <v>814</v>
       </c>
@@ -15909,7 +15941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="33" t="s">
         <v>814</v>
       </c>
@@ -15958,7 +15990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="33" t="s">
         <v>814</v>
       </c>
@@ -16005,7 +16037,7 @@
       <c r="Z210" s="32"/>
       <c r="AA210" s="32"/>
     </row>
-    <row r="211" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="33" t="s">
         <v>814</v>
       </c>
@@ -16052,7 +16084,7 @@
       <c r="Z211" s="32"/>
       <c r="AA211" s="32"/>
     </row>
-    <row r="212" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="33" t="s">
         <v>814</v>
       </c>
@@ -16093,7 +16125,7 @@
       <c r="Z212" s="32"/>
       <c r="AA212" s="32"/>
     </row>
-    <row r="213" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="33" t="s">
         <v>814</v>
       </c>
@@ -16142,7 +16174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="33" t="s">
         <v>814</v>
       </c>
@@ -16191,7 +16223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="33" t="s">
         <v>633</v>
       </c>
@@ -16243,7 +16275,7 @@
       <c r="Z215" s="32"/>
       <c r="AA215" s="32"/>
     </row>
-    <row r="216" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="33" t="s">
         <v>633</v>
       </c>
@@ -16290,7 +16322,7 @@
       <c r="Z216" s="32"/>
       <c r="AA216" s="32"/>
     </row>
-    <row r="217" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="33" t="s">
         <v>839</v>
       </c>
@@ -16339,7 +16371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="33" t="s">
         <v>839</v>
       </c>
@@ -16388,7 +16420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="33" t="s">
         <v>839</v>
       </c>
@@ -16437,7 +16469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="33" t="s">
         <v>839</v>
       </c>
@@ -16486,7 +16518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" ht="204.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="33" t="s">
         <v>839</v>
       </c>
@@ -16535,7 +16567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="33" t="s">
         <v>839</v>
       </c>
@@ -16584,7 +16616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="33" t="s">
         <v>839</v>
       </c>
@@ -16631,7 +16663,7 @@
       <c r="Z223" s="32"/>
       <c r="AA223" s="32"/>
     </row>
-    <row r="224" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="33" t="s">
         <v>850</v>
       </c>
@@ -16680,7 +16712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="33" t="s">
         <v>850</v>
       </c>
@@ -16729,7 +16761,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="33" t="s">
         <v>566</v>
       </c>
@@ -16778,7 +16810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="33" t="s">
         <v>566</v>
       </c>
@@ -16827,7 +16859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="228" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="33" t="s">
         <v>566</v>
       </c>
@@ -16876,7 +16908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="33" t="s">
         <v>566</v>
       </c>
@@ -16925,7 +16957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="33" t="s">
         <v>858</v>
       </c>
@@ -16974,7 +17006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="33" t="s">
         <v>858</v>
       </c>
@@ -17023,7 +17055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="33" t="s">
         <v>858</v>
       </c>
@@ -17072,7 +17104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="33" t="s">
         <v>858</v>
       </c>
@@ -17121,7 +17153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="234" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="33" t="s">
         <v>858</v>
       </c>
@@ -17170,7 +17202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="33" t="s">
         <v>864</v>
       </c>
@@ -17219,7 +17251,7 @@
       <c r="Z235" s="32"/>
       <c r="AA235" s="32"/>
     </row>
-    <row r="236" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="33" t="s">
         <v>864</v>
       </c>
@@ -17268,7 +17300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="33" t="s">
         <v>864</v>
       </c>
@@ -17317,7 +17349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="33" t="s">
         <v>864</v>
       </c>
@@ -17366,7 +17398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="33" t="s">
         <v>868</v>
       </c>
@@ -17415,7 +17447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="240" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="33" t="s">
         <v>868</v>
       </c>
@@ -17464,7 +17496,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="33" t="s">
         <v>872</v>
       </c>
@@ -17513,7 +17545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="33" t="s">
         <v>872</v>
       </c>
@@ -17562,7 +17594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="243" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="33" t="s">
         <v>872</v>
       </c>
@@ -17611,7 +17643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="33" t="s">
         <v>872</v>
       </c>
@@ -17660,7 +17692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="33" t="s">
         <v>872</v>
       </c>
@@ -17690,7 +17722,7 @@
         <v>49</v>
       </c>
       <c r="N245" s="31" t="str">
-        <f t="shared" ref="N245:N276" si="21">LEFT(M245,1)</f>
+        <f t="shared" ref="N245:N246" si="21">LEFT(M245,1)</f>
         <v>D</v>
       </c>
       <c r="O245" s="32"/>
@@ -17709,7 +17741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="246" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="33" t="s">
         <v>880</v>
       </c>
@@ -17758,7 +17790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="247" spans="1:27" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" ht="211.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="39" t="s">
         <v>882</v>
       </c>
@@ -17806,7 +17838,7 @@
       <c r="Z247" s="32"/>
       <c r="AA247" s="32"/>
     </row>
-    <row r="248" spans="1:27" ht="291.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" ht="291.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="39" t="s">
         <v>888</v>
       </c>
@@ -17854,7 +17886,7 @@
       <c r="Z248" s="32"/>
       <c r="AA248" s="32"/>
     </row>
-    <row r="249" spans="1:27" ht="284.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" ht="284.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="39" t="s">
         <v>894</v>
       </c>
@@ -17902,7 +17934,7 @@
       <c r="Z249" s="32"/>
       <c r="AA249" s="32"/>
     </row>
-    <row r="250" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="39" t="s">
         <v>899</v>
       </c>
@@ -17950,7 +17982,7 @@
       <c r="Z250" s="32"/>
       <c r="AA250" s="32"/>
     </row>
-    <row r="251" spans="1:27" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="39" t="s">
         <v>905</v>
       </c>
@@ -17998,7 +18030,7 @@
       <c r="Z251" s="32"/>
       <c r="AA251" s="32"/>
     </row>
-    <row r="252" spans="1:27" ht="109.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" ht="109.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="39" t="s">
         <v>910</v>
       </c>
@@ -18046,7 +18078,7 @@
       <c r="Z252" s="32"/>
       <c r="AA252" s="32"/>
     </row>
-    <row r="253" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="39" t="s">
         <v>917</v>
       </c>
@@ -18094,7 +18126,7 @@
       <c r="Z253" s="32"/>
       <c r="AA253" s="32"/>
     </row>
-    <row r="254" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="39" t="s">
         <v>922</v>
       </c>
@@ -18142,7 +18174,7 @@
       <c r="Z254" s="32"/>
       <c r="AA254" s="32"/>
     </row>
-    <row r="255" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="39" t="s">
         <v>927</v>
       </c>
@@ -18190,7 +18222,7 @@
       <c r="Z255" s="32"/>
       <c r="AA255" s="32"/>
     </row>
-    <row r="256" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="39" t="s">
         <v>933</v>
       </c>
@@ -18238,7 +18270,7 @@
       <c r="Z256" s="32"/>
       <c r="AA256" s="32"/>
     </row>
-    <row r="257" spans="1:27" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="39" t="s">
         <v>938</v>
       </c>
@@ -18286,7 +18318,7 @@
       <c r="Z257" s="55"/>
       <c r="AA257" s="55"/>
     </row>
-    <row r="258" spans="1:27" ht="337.5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" ht="337.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="39" t="s">
         <v>941</v>
       </c>
@@ -18334,7 +18366,7 @@
       <c r="Z258" s="55"/>
       <c r="AA258" s="55"/>
     </row>
-    <row r="259" spans="1:27" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="39" t="s">
         <v>944</v>
       </c>
@@ -18382,7 +18414,7 @@
       <c r="Z259" s="55"/>
       <c r="AA259" s="55"/>
     </row>
-    <row r="260" spans="1:27" ht="375" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" ht="375" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="39" t="s">
         <v>948</v>
       </c>
@@ -18448,7 +18480,14 @@
     <row r="276" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="277" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A6:AA254" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A6:AA260" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I74" r:id="rId1" display="- 2018-08-23 - Jens Spille - Herr Vinken (Region Hannover) informiert über die Planungsabsichten der Region Hannover, als zuständige Straßenbaulastträgerin, die Weetzener Landstraße (K 221) zwischen der Einmündung Dorfstraße und dem Kreisverkehr Marie-Curie-Straße/ Alfred-Bentz-Straße umzugestalten. Der Bereich wird in insgesamt 5 Abschnitte unterteilt. Die Planung wird stufenweise umgesetzt.  _x000a__x000a_[Umgestaltung Weetzener Landstraße (K221) (4579 KB)](https://www.stadthemmingen.de/allris/to020.asp?TOLFDNR=808)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I88" r:id="rId2" display="- 2018-08-23 - Jens Spille - Herr Vinken (Region Hannover) informiert über die Planungsabsichten der Region Hannover, als zuständige Straßenbaulastträgerin, die Weetzener Landstraße (K 221) zwischen der Einmündung Dorfstraße und dem Kreisverkehr Marie-Curie-Straße/ Alfred-Bentz-Straße umzugestalten. Der Bereich wird in insgesamt 5 Abschnitte unterteilt. Die Planung wird stufenweise umgesetzt.  _x000a__x000a_[Umgestaltung Weetzener Landstraße (K221) (4579 KB)](https://www.stadthemmingen.de/allris/to020.asp?TOLFDNR=808)" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0311B983-1D04-4FBA-B6F1-4AC62FCDB3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16945EE4-62D3-4797-BA4F-8627BA29C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="971">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Umleitung erstellen</t>
   </si>
   <si>
-    <t>Umleitung über L 398 geplant</t>
-  </si>
-  <si>
     <t>7PXR+R8</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
   </si>
   <si>
     <t>Fahrradstr. oder Radweg.</t>
-  </si>
-  <si>
-    <t>Straße soll für Durchgangsverkehr gesperrt werden.</t>
   </si>
   <si>
     <t>8P3H+3H</t>
@@ -556,10 +550,6 @@
 2. prüfen ob EDEKA Zulieferer hier Radfahrende gefährden können.</t>
   </si>
   <si>
-    <t xml:space="preserve">- offen
-</t>
-  </si>
-  <si>
     <t>8P4X+V6</t>
   </si>
   <si>
@@ -573,9 +563,6 @@
   </si>
   <si>
     <t>Radweg sanieren</t>
-  </si>
-  <si>
-    <t>- L 398 soll schon seit 2017 saniert werden</t>
   </si>
   <si>
     <t>8P57+6C</t>
@@ -833,10 +820,6 @@
   <si>
     <t>Angebot einer Alternative - z.B. indirektes Abbiegen.
 ![](8P77+W8_Vorschlag.png)</t>
-  </si>
-  <si>
-    <t>- 2018-01-05 J. Spille: Verbesserungsvorschlag wurde in unserer Stellungsnahme vom VEP2030 vorgestellt. 
-- 2018-10 J. Spille: Der Ortsverband BÜNDNIS 90/DIE GRÜNEN haben ein Gesprächsangebot gemacht.</t>
   </si>
   <si>
     <t>8P78+49</t>
@@ -3243,6 +3226,58 @@
   </si>
   <si>
     <t>- Umgitter versetzt</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>in Planung</t>
+  </si>
+  <si>
+    <t>- 2018-01-05 J. Spille: Verbesserungsvorschlag wurde in unserer Stellungsnahme vom VEP2030 vorgestellt. 
+'- 2018-10 J. Spille: Der Ortsverband BÜNDNIS 90/DIE GRÜNEN haben ein Gesprächsangebot gemacht.
+'-2022-06-25 J.Spille: Region hat Änderung angekündigt</t>
+  </si>
+  <si>
+    <t>- 2022-06-25 Ausbau angekündigt</t>
+  </si>
+  <si>
+    <t>- 2019 - Jens Spille - Radweg soll saniert werden, wegen Beleuchtung.
+'- 2022-06-25 J. Spille - Beleuchtung angekündigt</t>
+  </si>
+  <si>
+    <t># 2022-06-25 Ausbau angekündigt</t>
+  </si>
+  <si>
+    <t># 2022-06-25 Beleuchtung angekündigt</t>
+  </si>
+  <si>
+    <t>Ausbau angekündigt 2022-06-25</t>
+  </si>
+  <si>
+    <t>Umleitung über L 398 geplant
+Die Verbindung wird es nicht geben</t>
+  </si>
+  <si>
+    <t>Straße ist für Durchgangsverkehr gesperrt worden.</t>
+  </si>
+  <si>
+    <t>Verbingung durch Wäldchen is OK</t>
+  </si>
+  <si>
+    <t>- wurde saniert</t>
+  </si>
+  <si>
+    <t>Sanierung ist angekündigt</t>
+  </si>
+  <si>
+    <t>soll im Juni 2022 rot markiert werden</t>
   </si>
 </sst>
 </file>
@@ -4009,8 +4044,8 @@
   <dimension ref="A1:AMJ277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4637,7 +4672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>80</v>
       </c>
@@ -4664,9 +4699,11 @@
         <v>84</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="27"/>
+        <v>965</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>956</v>
+      </c>
       <c r="K14" s="28" t="str">
         <f t="shared" si="2"/>
         <v>7PVG+Q8</v>
@@ -4697,14 +4734,14 @@
     </row>
     <row r="15" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7PXR+R8</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="34">
         <v>43873</v>
@@ -4713,13 +4750,13 @@
         <v>45</v>
       </c>
       <c r="F15" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="H15" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>90</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>48</v>
@@ -4731,7 +4768,7 @@
       </c>
       <c r="L15" s="29"/>
       <c r="M15" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N15" s="31" t="str">
         <f t="shared" si="3"/>
@@ -4763,14 +4800,14 @@
     </row>
     <row r="16" spans="1:1024" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7PXX+MW</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="34">
         <v>43853</v>
@@ -4779,13 +4816,13 @@
         <v>36</v>
       </c>
       <c r="F16" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="H16" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>48</v>
@@ -4823,29 +4860,29 @@
     </row>
     <row r="17" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="22" t="str">
         <f t="shared" si="1"/>
         <v>7QPF+GM</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="34">
         <v>42988</v>
       </c>
       <c r="E17" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="H17" s="26" t="s">
         <v>101</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>102</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>48</v>
@@ -4859,7 +4896,7 @@
         <v>41</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N17" s="31" t="str">
         <f t="shared" si="3"/>
@@ -4883,14 +4920,14 @@
     </row>
     <row r="18" spans="1:27" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8M7R+QH</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="34">
         <v>43488</v>
@@ -4899,16 +4936,16 @@
         <v>57</v>
       </c>
       <c r="F18" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="H18" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="I18" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>108</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>43</v>
@@ -4921,7 +4958,7 @@
         <v>79</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="31" t="str">
         <f t="shared" si="3"/>
@@ -4945,14 +4982,14 @@
     </row>
     <row r="19" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P2R+R2</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="34">
         <v>43873</v>
@@ -4961,16 +4998,16 @@
         <v>45</v>
       </c>
       <c r="F19" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>113</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="28" t="str">
@@ -5009,14 +5046,14 @@
     </row>
     <row r="20" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P2R+R2</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="34">
         <v>43873</v>
@@ -5025,16 +5062,16 @@
         <v>45</v>
       </c>
       <c r="F20" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="H20" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>117</v>
-      </c>
       <c r="I20" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="28" t="str">
@@ -5071,16 +5108,16 @@
       <c r="Z20" s="32"/>
       <c r="AA20" s="32"/>
     </row>
-    <row r="21" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P37+8H</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="34">
         <v>43873</v>
@@ -5089,18 +5126,20 @@
         <v>45</v>
       </c>
       <c r="F21" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="H21" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>122</v>
-      </c>
       <c r="I21" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="27"/>
+        <v>966</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K21" s="28" t="str">
         <f t="shared" si="2"/>
         <v>8P37+8H</v>
@@ -5131,14 +5170,14 @@
     </row>
     <row r="22" spans="1:27" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3H+3H</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="34">
         <v>42005</v>
@@ -5147,16 +5186,16 @@
         <v>75</v>
       </c>
       <c r="F22" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="I22" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="28" t="str">
@@ -5191,14 +5230,14 @@
     </row>
     <row r="23" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3H+3H</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D23" s="34">
         <v>43873</v>
@@ -5207,16 +5246,16 @@
         <v>45</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="28" t="str">
@@ -5249,14 +5288,14 @@
     </row>
     <row r="24" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="22" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">8P3P+VP </v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" s="34">
         <v>43969</v>
@@ -5265,16 +5304,16 @@
         <v>36</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="I24" s="26" t="s">
         <v>135</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="28"/>
@@ -5299,14 +5338,14 @@
     </row>
     <row r="25" spans="1:27" ht="270.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3Q+5M</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="34">
         <v>43541</v>
@@ -5315,16 +5354,16 @@
         <v>36</v>
       </c>
       <c r="F25" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="I25" s="26" t="s">
         <v>141</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="28" t="str">
@@ -5367,14 +5406,14 @@
     </row>
     <row r="26" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B26" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3Q+5P</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" s="34">
         <v>43873</v>
@@ -5383,16 +5422,16 @@
         <v>45</v>
       </c>
       <c r="F26" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="I26" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>149</v>
       </c>
       <c r="J26" s="27"/>
       <c r="K26" s="28" t="str">
@@ -5423,14 +5462,14 @@
     </row>
     <row r="27" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P3Q+R5</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D27" s="34">
         <v>43873</v>
@@ -5439,16 +5478,16 @@
         <v>45</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="28" t="str">
@@ -5481,14 +5520,14 @@
     </row>
     <row r="28" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B28" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P4P+CQ</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D28" s="34">
         <v>43873</v>
@@ -5497,16 +5536,16 @@
         <v>45</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J28" s="27"/>
       <c r="K28" s="28" t="str">
@@ -5537,16 +5576,16 @@
       <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
     </row>
-    <row r="29" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B29" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P4Q+9C</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D29" s="34">
         <v>43873</v>
@@ -5555,25 +5594,27 @@
         <v>45</v>
       </c>
       <c r="F29" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>163</v>
-      </c>
       <c r="I29" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="27"/>
+        <v>967</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K29" s="28" t="str">
         <f t="shared" si="4"/>
         <v>8P4Q+9C</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N29" s="31" t="str">
         <f t="shared" si="5"/>
@@ -5597,16 +5638,16 @@
       <c r="Z29" s="32"/>
       <c r="AA29" s="32"/>
     </row>
-    <row r="30" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B30" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P4X+V6</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D30" s="34">
         <v>43873</v>
@@ -5615,18 +5656,20 @@
         <v>45</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="J30" s="27"/>
+        <v>166</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>968</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K30" s="28" t="str">
         <f t="shared" si="4"/>
         <v>8P4X+V6</v>
@@ -5655,16 +5698,16 @@
       <c r="Z30" s="32"/>
       <c r="AA30" s="32"/>
     </row>
-    <row r="31" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B31" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P57+6C</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D31" s="41">
         <v>43972</v>
@@ -5673,18 +5716,20 @@
         <v>36</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J31" s="27"/>
+        <v>966</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
       <c r="M31" s="42"/>
@@ -5705,14 +5750,14 @@
     </row>
     <row r="32" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B32" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5J+MJ</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D32" s="34">
         <v>43873</v>
@@ -5721,16 +5766,16 @@
         <v>45</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="28" t="str">
@@ -5739,7 +5784,7 @@
       </c>
       <c r="L32" s="29"/>
       <c r="M32" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N32" s="31" t="str">
         <f t="shared" ref="N32:N51" si="7">LEFT(M32,1)</f>
@@ -5763,32 +5808,32 @@
     </row>
     <row r="33" spans="1:1024" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B33" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+RH</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D33" s="34">
         <v>43105</v>
       </c>
       <c r="E33" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="26" t="s">
         <v>184</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>188</v>
       </c>
       <c r="J33" s="27"/>
       <c r="K33" s="28" t="str">
@@ -5823,14 +5868,14 @@
     </row>
     <row r="34" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B34" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+RH</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D34" s="34">
         <v>43873</v>
@@ -5839,16 +5884,16 @@
         <v>45</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J34" s="27"/>
       <c r="K34" s="28" t="str">
@@ -5857,7 +5902,7 @@
       </c>
       <c r="L34" s="29"/>
       <c r="M34" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N34" s="31" t="str">
         <f t="shared" si="7"/>
@@ -5883,14 +5928,14 @@
     </row>
     <row r="35" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B35" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+RH</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D35" s="34">
         <v>43873</v>
@@ -5899,16 +5944,16 @@
         <v>45</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H35" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J35" s="27"/>
       <c r="K35" s="28" t="str">
@@ -5941,14 +5986,14 @@
     </row>
     <row r="36" spans="1:1024" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B36" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+VG</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D36" s="34">
         <v>43873</v>
@@ -5957,16 +6002,16 @@
         <v>45</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H36" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J36" s="27"/>
       <c r="K36" s="28" t="str">
@@ -5999,14 +6044,14 @@
     </row>
     <row r="37" spans="1:1024" ht="139.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B37" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5M+VJ</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D37" s="34">
         <v>43873</v>
@@ -6015,16 +6060,16 @@
         <v>45</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H37" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="J37" s="27"/>
       <c r="K37" s="28" t="str">
@@ -6059,14 +6104,14 @@
     </row>
     <row r="38" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5P+FR</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D38" s="34">
         <v>43894</v>
@@ -6075,16 +6120,16 @@
         <v>45</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J38" s="27"/>
       <c r="K38" s="28" t="str">
@@ -6117,14 +6162,14 @@
     </row>
     <row r="39" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B39" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P5V+VQ</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D39" s="34">
         <v>43873</v>
@@ -6133,16 +6178,16 @@
         <v>45</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J39" s="27"/>
       <c r="K39" s="28" t="str">
@@ -6175,14 +6220,14 @@
     </row>
     <row r="40" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B40" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6H+GP</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D40" s="34">
         <v>43873</v>
@@ -6191,16 +6236,16 @@
         <v>45</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J40" s="27"/>
       <c r="K40" s="28" t="str">
@@ -6231,43 +6276,45 @@
       <c r="Z40" s="32"/>
       <c r="AA40" s="32"/>
     </row>
-    <row r="41" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B41" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+HX</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D41" s="34">
         <v>42988</v>
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="35" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="J41" s="27"/>
+        <v>101</v>
+      </c>
+      <c r="I41" s="57" t="s">
+        <v>961</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K41" s="28" t="str">
         <f t="shared" si="6"/>
         <v>8P6J+HX</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M41" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N41" s="31" t="str">
         <f t="shared" si="7"/>
@@ -6289,16 +6336,16 @@
       <c r="Z41" s="32"/>
       <c r="AA41" s="32"/>
     </row>
-    <row r="42" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B42" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+HX</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D42" s="34">
         <v>43873</v>
@@ -6307,18 +6354,20 @@
         <v>45</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="J42" s="27"/>
+        <v>219</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K42" s="28" t="str">
         <f t="shared" si="6"/>
         <v>8P6J+HX</v>
@@ -6347,16 +6396,16 @@
       <c r="Z42" s="32"/>
       <c r="AA42" s="32"/>
     </row>
-    <row r="43" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B43" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+HX</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D43" s="34">
         <v>43873</v>
@@ -6365,18 +6414,20 @@
         <v>45</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="J43" s="27"/>
+        <v>219</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K43" s="28" t="str">
         <f t="shared" si="6"/>
         <v>8P6J+HX</v>
@@ -6405,16 +6456,16 @@
       <c r="Z43" s="32"/>
       <c r="AA43" s="32"/>
     </row>
-    <row r="44" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B44" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+WP</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D44" s="34">
         <v>43873</v>
@@ -6423,25 +6474,27 @@
         <v>45</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J44" s="27"/>
+        <v>962</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K44" s="28" t="str">
         <f t="shared" si="6"/>
         <v>8P6J+WP</v>
       </c>
       <c r="L44" s="29"/>
       <c r="M44" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N44" s="31" t="str">
         <f t="shared" si="7"/>
@@ -6465,16 +6518,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B45" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6M+95</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D45" s="34">
         <v>43873</v>
@@ -6483,18 +6536,20 @@
         <v>45</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J45" s="27"/>
+        <v>230</v>
+      </c>
+      <c r="I45" s="57" t="s">
+        <v>960</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K45" s="28" t="str">
         <f t="shared" si="6"/>
         <v>8P6M+95</v>
@@ -6523,16 +6578,16 @@
       <c r="Z45" s="32"/>
       <c r="AA45" s="32"/>
     </row>
-    <row r="46" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B46" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P6M+95</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D46" s="34">
         <v>43873</v>
@@ -6541,18 +6596,20 @@
         <v>45</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J46" s="27"/>
+        <v>235</v>
+      </c>
+      <c r="I46" s="57" t="s">
+        <v>960</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K46" s="28" t="str">
         <f t="shared" si="6"/>
         <v>8P6M+95</v>
@@ -6581,16 +6638,16 @@
       <c r="Z46" s="32"/>
       <c r="AA46" s="32"/>
     </row>
-    <row r="47" spans="1:1024" s="48" customFormat="1" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1024" s="48" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B47" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P76+Q9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D47" s="34">
         <v>43873</v>
@@ -6599,18 +6656,20 @@
         <v>45</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="J47" s="27"/>
+        <v>241</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K47" s="28" t="str">
         <f t="shared" si="6"/>
         <v>8P76+Q9</v>
@@ -6648,16 +6707,16 @@
       <c r="AMI47" s="6"/>
       <c r="AMJ47" s="6"/>
     </row>
-    <row r="48" spans="1:1024" ht="261.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1024" ht="261.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B48" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P77+W8</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D48" s="34">
         <v>43074</v>
@@ -6666,18 +6725,20 @@
         <v>36</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="J48" s="27"/>
+        <v>246</v>
+      </c>
+      <c r="I48" s="57" t="s">
+        <v>959</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K48" s="28" t="str">
         <f t="shared" si="6"/>
         <v>8P77+W8</v>
@@ -6710,14 +6771,14 @@
     </row>
     <row r="49" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B49" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P78+49</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D49" s="34">
         <v>43873</v>
@@ -6726,16 +6787,16 @@
         <v>45</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J49" s="27"/>
       <c r="K49" s="28" t="str">
@@ -6768,14 +6829,14 @@
     </row>
     <row r="50" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B50" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7G+46</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D50" s="34">
         <v>42005</v>
@@ -6784,16 +6845,16 @@
         <v>36</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J50" s="27"/>
       <c r="K50" s="28" t="str">
@@ -6828,14 +6889,14 @@
     </row>
     <row r="51" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B51" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7G+GJ</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D51" s="34">
         <v>43873</v>
@@ -6844,16 +6905,16 @@
         <v>45</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J51" s="27"/>
       <c r="K51" s="28" t="str">
@@ -6886,14 +6947,14 @@
     </row>
     <row r="52" spans="1:27" ht="282.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B52" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7G+HH</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D52" s="34">
         <v>43970</v>
@@ -6902,16 +6963,16 @@
         <v>36</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J52" s="27"/>
       <c r="K52" s="28"/>
@@ -6934,14 +6995,14 @@
     </row>
     <row r="53" spans="1:27" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B53" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7H+45</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D53" s="34">
         <v>43873</v>
@@ -6950,16 +7011,16 @@
         <v>45</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="28" t="str">
@@ -6990,16 +7051,16 @@
       <c r="Z53" s="32"/>
       <c r="AA53" s="32"/>
     </row>
-    <row r="54" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B54" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7J+7C</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D54" s="34">
         <v>43873</v>
@@ -7008,18 +7069,20 @@
         <v>45</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J54" s="27"/>
+        <v>963</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K54" s="28" t="str">
         <f t="shared" si="8"/>
         <v>8P7J+7C</v>
@@ -7050,14 +7113,14 @@
     </row>
     <row r="55" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B55" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7Q+CC</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D55" s="34">
         <v>43873</v>
@@ -7066,16 +7129,16 @@
         <v>45</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I55" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J55" s="27"/>
       <c r="K55" s="28" t="str">
@@ -7084,7 +7147,7 @@
       </c>
       <c r="L55" s="29"/>
       <c r="M55" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N55" s="31" t="str">
         <f t="shared" si="9"/>
@@ -7112,14 +7175,14 @@
     </row>
     <row r="56" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B56" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P7Q+CC</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D56" s="34">
         <v>43873</v>
@@ -7128,16 +7191,16 @@
         <v>45</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J56" s="27"/>
       <c r="K56" s="28" t="str">
@@ -7172,14 +7235,14 @@
     </row>
     <row r="57" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B57" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D57" s="34">
         <v>43873</v>
@@ -7188,16 +7251,16 @@
         <v>45</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I57" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J57" s="27"/>
       <c r="K57" s="28" t="str">
@@ -7230,14 +7293,14 @@
     </row>
     <row r="58" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B58" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D58" s="34">
         <v>43873</v>
@@ -7246,16 +7309,16 @@
         <v>45</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J58" s="27"/>
       <c r="K58" s="28" t="str">
@@ -7288,14 +7351,14 @@
     </row>
     <row r="59" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B59" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D59" s="34">
         <v>43873</v>
@@ -7304,16 +7367,16 @@
         <v>45</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J59" s="27"/>
       <c r="K59" s="28" t="str">
@@ -7346,14 +7409,14 @@
     </row>
     <row r="60" spans="1:27" ht="137.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B60" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D60" s="34">
         <v>43649</v>
@@ -7362,16 +7425,16 @@
         <v>36</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J60" s="27"/>
       <c r="K60" s="28" t="str">
@@ -7406,14 +7469,14 @@
     </row>
     <row r="61" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B61" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P8C+R7</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D61" s="34">
         <v>43873</v>
@@ -7422,16 +7485,16 @@
         <v>45</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I61" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J61" s="27"/>
       <c r="K61" s="28" t="str">
@@ -7440,7 +7503,7 @@
       </c>
       <c r="L61" s="29"/>
       <c r="M61" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N61" s="31" t="str">
         <f t="shared" si="9"/>
@@ -7464,14 +7527,14 @@
     </row>
     <row r="62" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B62" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P8C+VR</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D62" s="34">
         <v>43873</v>
@@ -7480,16 +7543,16 @@
         <v>45</v>
       </c>
       <c r="F62" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="H62" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="G62" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>310</v>
-      </c>
       <c r="I62" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J62" s="27"/>
       <c r="K62" s="28" t="str">
@@ -7524,14 +7587,14 @@
     </row>
     <row r="63" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B63" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P8F+5V</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D63" s="34">
         <v>43873</v>
@@ -7540,18 +7603,20 @@
         <v>45</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J63" s="27"/>
+        <v>969</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K63" s="28" t="str">
         <f t="shared" si="8"/>
         <v>8P8F+5V</v>
@@ -7582,14 +7647,14 @@
     </row>
     <row r="64" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B64" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P99+HX</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D64" s="34">
         <v>43873</v>
@@ -7598,16 +7663,16 @@
         <v>45</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I64" s="57" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="J64" s="27" t="s">
         <v>43</v>
@@ -7618,7 +7683,7 @@
       </c>
       <c r="L64" s="29"/>
       <c r="M64" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N64" s="31" t="str">
         <f t="shared" si="9"/>
@@ -7642,14 +7707,14 @@
     </row>
     <row r="65" spans="1:27" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B65" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P99+MW</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D65" s="34">
         <v>43873</v>
@@ -7658,16 +7723,16 @@
         <v>45</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I65" s="57" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="J65" s="27" t="s">
         <v>43</v>
@@ -7702,14 +7767,14 @@
     </row>
     <row r="66" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B66" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+62</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D66" s="34">
         <v>43873</v>
@@ -7718,16 +7783,16 @@
         <v>45</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I66" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J66" s="27"/>
       <c r="K66" s="28" t="str">
@@ -7760,14 +7825,14 @@
     </row>
     <row r="67" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B67" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+62</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D67" s="34">
         <v>43873</v>
@@ -7776,16 +7841,16 @@
         <v>45</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I67" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J67" s="27"/>
       <c r="K67" s="28" t="str">
@@ -7818,14 +7883,14 @@
     </row>
     <row r="68" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B68" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+62</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D68" s="34">
         <v>43873</v>
@@ -7834,16 +7899,16 @@
         <v>45</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I68" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J68" s="27"/>
       <c r="K68" s="28" t="str">
@@ -7876,14 +7941,14 @@
     </row>
     <row r="69" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B69" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+7C</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D69" s="34">
         <v>43873</v>
@@ -7892,16 +7957,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I69" s="26" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J69" s="27"/>
       <c r="K69" s="28" t="str">
@@ -7934,14 +7999,14 @@
     </row>
     <row r="70" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B70" s="22" t="str">
         <f t="shared" si="1"/>
         <v>8P9H+F9</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D70" s="34">
         <v>43873</v>
@@ -7950,16 +8015,16 @@
         <v>45</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J70" s="27"/>
       <c r="K70" s="28" t="str">
@@ -7994,14 +8059,14 @@
     </row>
     <row r="71" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B71" s="22" t="str">
         <f t="shared" ref="B71:B134" si="10">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A71,4),"%2B",RIGHT(A71,2)),A71)</f>
         <v>8P9H+F9</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D71" s="34">
         <v>43873</v>
@@ -8010,16 +8075,16 @@
         <v>45</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I71" s="26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J71" s="27"/>
       <c r="K71" s="28" t="str">
@@ -8054,14 +8119,14 @@
     </row>
     <row r="72" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B72" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9H+F9</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D72" s="34">
         <v>43873</v>
@@ -8070,16 +8135,16 @@
         <v>45</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I72" s="26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J72" s="27"/>
       <c r="K72" s="28" t="str">
@@ -8088,7 +8153,7 @@
       </c>
       <c r="L72" s="29"/>
       <c r="M72" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N72" s="31" t="str">
         <f t="shared" si="9"/>
@@ -8114,14 +8179,14 @@
     </row>
     <row r="73" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B73" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9M+W2</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D73" s="34">
         <v>43873</v>
@@ -8130,16 +8195,16 @@
         <v>45</v>
       </c>
       <c r="F73" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="G73" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="G73" s="35" t="s">
-        <v>348</v>
-      </c>
       <c r="H73" s="26" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I73" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J73" s="27"/>
       <c r="K73" s="28" t="str">
@@ -8170,32 +8235,32 @@
     </row>
     <row r="74" spans="1:27" ht="396" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B74" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9P+Q4</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D74" s="34">
         <v>43619</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H74" s="26" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I74" s="26" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J74" s="27"/>
       <c r="K74" s="28" t="str">
@@ -8204,7 +8269,7 @@
       </c>
       <c r="L74" s="29"/>
       <c r="M74" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N74" s="31" t="str">
         <f t="shared" si="9"/>
@@ -8228,14 +8293,14 @@
     </row>
     <row r="75" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B75" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9P+Q4</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D75" s="34">
         <v>43873</v>
@@ -8244,16 +8309,16 @@
         <v>45</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H75" s="26" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I75" s="26" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J75" s="27"/>
       <c r="K75" s="28" t="str">
@@ -8286,14 +8351,14 @@
     </row>
     <row r="76" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B76" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9P+Q4</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D76" s="34">
         <v>43873</v>
@@ -8302,16 +8367,16 @@
         <v>45</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I76" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J76" s="27"/>
       <c r="K76" s="28" t="str">
@@ -8344,32 +8409,32 @@
     </row>
     <row r="77" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B77" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+PC</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D77" s="34">
         <v>43612</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F77" s="35" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H77" s="26" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J77" s="27"/>
       <c r="K77" s="28" t="str">
@@ -8402,14 +8467,14 @@
     </row>
     <row r="78" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B78" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+PC</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D78" s="34">
         <v>43897</v>
@@ -8418,16 +8483,16 @@
         <v>45</v>
       </c>
       <c r="F78" s="35" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H78" s="26" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I78" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J78" s="27"/>
       <c r="K78" s="28" t="str">
@@ -8458,14 +8523,14 @@
     </row>
     <row r="79" spans="1:27" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B79" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+QJ</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D79" s="34">
         <v>43987</v>
@@ -8477,13 +8542,13 @@
         <v>32</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I79" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J79" s="27"/>
       <c r="K79" s="28" t="str">
@@ -8518,14 +8583,14 @@
     </row>
     <row r="80" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B80" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+QQ</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D80" s="34">
         <v>43893</v>
@@ -8537,13 +8602,13 @@
         <v>32</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H80" s="26" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I80" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J80" s="27"/>
       <c r="K80" s="28" t="str">
@@ -8578,14 +8643,14 @@
     </row>
     <row r="81" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B81" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D81" s="34">
         <v>43873</v>
@@ -8594,16 +8659,16 @@
         <v>45</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H81" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81" s="27"/>
       <c r="K81" s="28" t="str">
@@ -8636,14 +8701,14 @@
     </row>
     <row r="82" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B82" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D82" s="34">
         <v>43873</v>
@@ -8652,16 +8717,16 @@
         <v>45</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H82" s="26" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J82" s="27"/>
       <c r="K82" s="28" t="str">
@@ -8694,14 +8759,14 @@
     </row>
     <row r="83" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B83" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D83" s="34">
         <v>43873</v>
@@ -8710,16 +8775,16 @@
         <v>45</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J83" s="27"/>
       <c r="K83" s="28" t="str">
@@ -8752,14 +8817,14 @@
     </row>
     <row r="84" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B84" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D84" s="34">
         <v>43873</v>
@@ -8768,16 +8833,16 @@
         <v>45</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H84" s="26" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I84" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J84" s="27"/>
       <c r="K84" s="28" t="str">
@@ -8810,14 +8875,14 @@
     </row>
     <row r="85" spans="1:1024" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B85" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+7M</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D85" s="34">
         <v>43649</v>
@@ -8826,16 +8891,16 @@
         <v>45</v>
       </c>
       <c r="F85" s="35" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G85" s="35" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H85" s="26" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I85" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J85" s="27"/>
       <c r="K85" s="28" t="str">
@@ -8870,14 +8935,14 @@
     </row>
     <row r="86" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B86" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PC9+RH</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D86" s="34">
         <v>43873</v>
@@ -8886,16 +8951,16 @@
         <v>45</v>
       </c>
       <c r="F86" s="35" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G86" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H86" s="26" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I86" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J86" s="27"/>
       <c r="K86" s="28" t="str">
@@ -8928,14 +8993,14 @@
     </row>
     <row r="87" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B87" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCH+W5</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D87" s="34">
         <v>43873</v>
@@ -8944,16 +9009,16 @@
         <v>45</v>
       </c>
       <c r="F87" s="35" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G87" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I87" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J87" s="27"/>
       <c r="K87" s="28" t="str">
@@ -8988,14 +9053,14 @@
     </row>
     <row r="88" spans="1:1024" ht="261.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B88" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCW+6G</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D88" s="34">
         <v>43873</v>
@@ -9004,16 +9069,16 @@
         <v>45</v>
       </c>
       <c r="F88" s="35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G88" s="35" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H88" s="26" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I88" s="26" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J88" s="27"/>
       <c r="K88" s="28" t="str">
@@ -9048,14 +9113,14 @@
     </row>
     <row r="89" spans="1:1024" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B89" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCW+6H</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D89" s="34">
         <v>42988</v>
@@ -9064,16 +9129,16 @@
         <v>36</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="I89" s="26" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J89" s="27"/>
       <c r="K89" s="28" t="str">
@@ -9112,14 +9177,14 @@
     </row>
     <row r="90" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B90" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCW+6J</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D90" s="34">
         <v>43873</v>
@@ -9128,16 +9193,16 @@
         <v>45</v>
       </c>
       <c r="F90" s="35" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G90" s="35" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I90" s="26" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J90" s="27"/>
       <c r="K90" s="28" t="str">
@@ -9146,7 +9211,7 @@
       </c>
       <c r="L90" s="29"/>
       <c r="M90" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N90" s="31" t="str">
         <f t="shared" si="12"/>
@@ -9172,14 +9237,14 @@
     </row>
     <row r="91" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B91" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+74</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D91" s="34">
         <v>43873</v>
@@ -9188,16 +9253,16 @@
         <v>45</v>
       </c>
       <c r="F91" s="35" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G91" s="35" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I91" s="26" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J91" s="27"/>
       <c r="K91" s="28" t="str">
@@ -9232,14 +9297,14 @@
     </row>
     <row r="92" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B92" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+74</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D92" s="34">
         <v>43897</v>
@@ -9248,16 +9313,16 @@
         <v>45</v>
       </c>
       <c r="F92" s="35" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G92" s="35" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H92" s="26" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I92" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J92" s="27"/>
       <c r="K92" s="28" t="str">
@@ -9292,14 +9357,14 @@
     </row>
     <row r="93" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B93" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+74</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D93" s="34">
         <v>43873</v>
@@ -9311,13 +9376,13 @@
         <v>32</v>
       </c>
       <c r="G93" s="35" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H93" s="26" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I93" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J93" s="27"/>
       <c r="K93" s="28" t="str">
@@ -9350,14 +9415,14 @@
     </row>
     <row r="94" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B94" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J2</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D94" s="34">
         <v>43873</v>
@@ -9366,16 +9431,16 @@
         <v>45</v>
       </c>
       <c r="F94" s="35" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H94" s="26" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I94" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J94" s="27"/>
       <c r="K94" s="28" t="str">
@@ -9408,14 +9473,14 @@
     </row>
     <row r="95" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B95" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D95" s="34">
         <v>43873</v>
@@ -9424,16 +9489,16 @@
         <v>45</v>
       </c>
       <c r="F95" s="35" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I95" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J95" s="27"/>
       <c r="K95" s="28" t="str">
@@ -9466,30 +9531,30 @@
     </row>
     <row r="96" spans="1:1024" s="48" customFormat="1" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B96" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D96" s="34">
         <v>43731</v>
       </c>
       <c r="E96" s="34"/>
       <c r="F96" s="35" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G96" s="35" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J96" s="27"/>
       <c r="K96" s="28" t="str">
@@ -9533,14 +9598,14 @@
     </row>
     <row r="97" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B97" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D97" s="34">
         <v>43873</v>
@@ -9549,16 +9614,16 @@
         <v>45</v>
       </c>
       <c r="F97" s="35" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G97" s="35" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J97" s="27"/>
       <c r="K97" s="28" t="str">
@@ -9593,14 +9658,14 @@
     </row>
     <row r="98" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B98" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D98" s="34">
         <v>43873</v>
@@ -9609,16 +9674,16 @@
         <v>45</v>
       </c>
       <c r="F98" s="35" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G98" s="35" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J98" s="27"/>
       <c r="K98" s="28" t="str">
@@ -9653,14 +9718,14 @@
     </row>
     <row r="99" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B99" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PF4+M7</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D99" s="34">
         <v>43873</v>
@@ -9669,16 +9734,16 @@
         <v>45</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G99" s="35" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H99" s="26" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I99" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J99" s="27"/>
       <c r="K99" s="28" t="str">
@@ -9711,14 +9776,14 @@
     </row>
     <row r="100" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B100" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PF9+MX</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D100" s="34">
         <v>43731</v>
@@ -9727,16 +9792,16 @@
         <v>36</v>
       </c>
       <c r="F100" s="35" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G100" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H100" s="26" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I100" s="57" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="J100" s="27" t="s">
         <v>43</v>
@@ -9773,14 +9838,14 @@
     </row>
     <row r="101" spans="1:27" ht="116.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B101" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFF+WF</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D101" s="34">
         <v>43873</v>
@@ -9789,16 +9854,16 @@
         <v>45</v>
       </c>
       <c r="F101" s="35" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H101" s="26" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I101" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J101" s="27"/>
       <c r="K101" s="28" t="str">
@@ -9807,7 +9872,7 @@
       </c>
       <c r="L101" s="29"/>
       <c r="M101" s="49" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="N101" s="31" t="str">
         <f t="shared" si="12"/>
@@ -9831,14 +9896,14 @@
     </row>
     <row r="102" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B102" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+25</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D102" s="34">
         <v>43873</v>
@@ -9847,16 +9912,16 @@
         <v>45</v>
       </c>
       <c r="F102" s="35" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G102" s="35" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H102" s="26" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J102" s="27"/>
       <c r="K102" s="28" t="str">
@@ -9891,30 +9956,30 @@
     </row>
     <row r="103" spans="1:27" ht="327" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B103" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+6Q</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D103" s="34">
         <v>42988</v>
       </c>
       <c r="E103" s="34"/>
       <c r="F103" s="35" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G103" s="35" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H103" s="26" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I103" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J103" s="27"/>
       <c r="K103" s="28" t="str">
@@ -9949,14 +10014,14 @@
     </row>
     <row r="104" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B104" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+PF</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D104" s="34">
         <v>43873</v>
@@ -9965,16 +10030,16 @@
         <v>45</v>
       </c>
       <c r="F104" s="35" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H104" s="26" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J104" s="27"/>
       <c r="K104" s="28" t="str">
@@ -10007,14 +10072,14 @@
     </row>
     <row r="105" spans="1:27" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="33" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B105" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+PF</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D105" s="34">
         <v>43873</v>
@@ -10023,16 +10088,16 @@
         <v>45</v>
       </c>
       <c r="F105" s="35" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G105" s="35" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I105" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J105" s="27"/>
       <c r="K105" s="28" t="str">
@@ -10065,32 +10130,32 @@
     </row>
     <row r="106" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B106" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFH+85</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D106" s="34">
         <v>43619</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F106" s="35" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G106" s="35" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H106" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J106" s="27"/>
       <c r="K106" s="28" t="str">
@@ -10125,14 +10190,14 @@
     </row>
     <row r="107" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B107" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFH+86</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D107" s="34">
         <v>43873</v>
@@ -10141,16 +10206,16 @@
         <v>45</v>
       </c>
       <c r="F107" s="35" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H107" s="26" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J107" s="27"/>
       <c r="K107" s="28" t="str">
@@ -10183,14 +10248,14 @@
     </row>
     <row r="108" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B108" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFH+HW</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D108" s="34">
         <v>43873</v>
@@ -10199,16 +10264,16 @@
         <v>45</v>
       </c>
       <c r="F108" s="35" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G108" s="35" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H108" s="26" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="I108" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J108" s="27"/>
       <c r="K108" s="28" t="str">
@@ -10241,14 +10306,14 @@
     </row>
     <row r="109" spans="1:27" ht="306.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B109" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFJ+M8</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D109" s="34">
         <v>42988</v>
@@ -10257,16 +10322,16 @@
         <v>36</v>
       </c>
       <c r="F109" s="35" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G109" s="35" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H109" s="26" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I109" s="26" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J109" s="27"/>
       <c r="K109" s="28" t="str">
@@ -10301,14 +10366,14 @@
     </row>
     <row r="110" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B110" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+GR</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D110" s="34">
         <v>43873</v>
@@ -10317,16 +10382,16 @@
         <v>45</v>
       </c>
       <c r="F110" s="35" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H110" s="26" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I110" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J110" s="27"/>
       <c r="K110" s="28" t="str">
@@ -10359,14 +10424,14 @@
     </row>
     <row r="111" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B111" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+JV</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D111" s="34">
         <v>43873</v>
@@ -10375,16 +10440,16 @@
         <v>45</v>
       </c>
       <c r="F111" s="35" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H111" s="26" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I111" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J111" s="27"/>
       <c r="K111" s="28" t="str">
@@ -10417,14 +10482,14 @@
     </row>
     <row r="112" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B112" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+JV</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D112" s="34">
         <v>43358</v>
@@ -10433,16 +10498,16 @@
         <v>36</v>
       </c>
       <c r="F112" s="35" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G112" s="35" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="J112" s="27"/>
       <c r="K112" s="28" t="str">
@@ -10477,14 +10542,14 @@
     </row>
     <row r="113" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B113" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+QC</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D113" s="34">
         <v>43873</v>
@@ -10493,16 +10558,16 @@
         <v>45</v>
       </c>
       <c r="F113" s="35" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H113" s="26" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I113" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J113" s="27"/>
       <c r="K113" s="28" t="str">
@@ -10535,14 +10600,14 @@
     </row>
     <row r="114" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B114" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+QC</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D114" s="34">
         <v>43873</v>
@@ -10551,16 +10616,16 @@
         <v>45</v>
       </c>
       <c r="F114" s="35" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H114" s="26" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I114" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J114" s="27"/>
       <c r="K114" s="28" t="str">
@@ -10593,32 +10658,32 @@
     </row>
     <row r="115" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B115" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PFX+Q2</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D115" s="34">
         <v>43631</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F115" s="35" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G115" s="35" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H115" s="26" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I115" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J115" s="27"/>
       <c r="K115" s="28" t="str">
@@ -10653,14 +10718,14 @@
     </row>
     <row r="116" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B116" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGF+2C</v>
       </c>
       <c r="C116" s="35" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D116" s="34">
         <v>43873</v>
@@ -10669,16 +10734,16 @@
         <v>45</v>
       </c>
       <c r="F116" s="35" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H116" s="26" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I116" s="26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J116" s="27"/>
       <c r="K116" s="28" t="str">
@@ -10711,14 +10776,14 @@
     </row>
     <row r="117" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B117" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGF+2G</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D117" s="34">
         <v>43873</v>
@@ -10727,16 +10792,16 @@
         <v>45</v>
       </c>
       <c r="F117" s="35" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G117" s="35" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H117" s="26" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="I117" s="26" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J117" s="27"/>
       <c r="K117" s="28" t="str">
@@ -10769,14 +10834,14 @@
     </row>
     <row r="118" spans="1:27" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B118" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGF+68</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D118" s="34">
         <v>43731</v>
@@ -10785,16 +10850,16 @@
         <v>36</v>
       </c>
       <c r="F118" s="35" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G118" s="35" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H118" s="26" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="I118" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J118" s="27"/>
       <c r="K118" s="28" t="str">
@@ -10802,10 +10867,10 @@
         <v>8PGF+68</v>
       </c>
       <c r="L118" s="29" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M118" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N118" s="31" t="str">
         <f t="shared" si="14"/>
@@ -10829,14 +10894,14 @@
     </row>
     <row r="119" spans="1:27" ht="342.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B119" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+63</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D119" s="34">
         <v>43617</v>
@@ -10845,16 +10910,16 @@
         <v>36</v>
       </c>
       <c r="F119" s="35" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H119" s="26" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I119" s="26" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="J119" s="27"/>
       <c r="K119" s="28" t="str">
@@ -10862,7 +10927,7 @@
         <v>8PGG+63</v>
       </c>
       <c r="L119" s="29" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M119" s="44" t="s">
         <v>49</v>
@@ -10889,14 +10954,14 @@
     </row>
     <row r="120" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B120" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+63</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D120" s="34">
         <v>43873</v>
@@ -10905,16 +10970,16 @@
         <v>45</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G120" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H120" s="26" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I120" s="26" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="J120" s="27"/>
       <c r="K120" s="28" t="str">
@@ -10947,14 +11012,14 @@
     </row>
     <row r="121" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B121" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+99</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D121" s="34">
         <v>43873</v>
@@ -10963,16 +11028,16 @@
         <v>45</v>
       </c>
       <c r="F121" s="35" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G121" s="35" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H121" s="26" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="I121" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J121" s="27"/>
       <c r="K121" s="28" t="str">
@@ -11005,14 +11070,14 @@
     </row>
     <row r="122" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B122" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+VC</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D122" s="34">
         <v>43898</v>
@@ -11021,16 +11086,16 @@
         <v>45</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H122" s="26" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I122" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J122" s="27"/>
       <c r="K122" s="28" t="str">
@@ -11065,14 +11130,14 @@
     </row>
     <row r="123" spans="1:27" ht="245.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B123" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+WC</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D123" s="34">
         <v>43758</v>
@@ -11081,16 +11146,16 @@
         <v>36</v>
       </c>
       <c r="F123" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="G123" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="H123" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="G123" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="H123" s="26" t="s">
-        <v>549</v>
-      </c>
       <c r="I123" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J123" s="27"/>
       <c r="K123" s="28" t="str">
@@ -11125,14 +11190,14 @@
     </row>
     <row r="124" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B124" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGH+4H</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D124" s="34">
         <v>43873</v>
@@ -11141,16 +11206,16 @@
         <v>45</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G124" s="35" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H124" s="26" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="I124" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J124" s="27"/>
       <c r="K124" s="28" t="str">
@@ -11159,7 +11224,7 @@
       </c>
       <c r="L124" s="29"/>
       <c r="M124" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N124" s="31" t="str">
         <f t="shared" si="14"/>
@@ -11185,14 +11250,14 @@
     </row>
     <row r="125" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B125" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGM+5V</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D125" s="34">
         <v>43897</v>
@@ -11201,16 +11266,16 @@
         <v>45</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G125" s="35" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H125" s="26" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I125" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J125" s="27"/>
       <c r="K125" s="28" t="str">
@@ -11243,14 +11308,14 @@
     </row>
     <row r="126" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B126" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGM+5V</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D126" s="34">
         <v>43897</v>
@@ -11259,16 +11324,16 @@
         <v>45</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G126" s="35" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H126" s="26" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I126" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J126" s="27"/>
       <c r="K126" s="28" t="str">
@@ -11301,14 +11366,14 @@
     </row>
     <row r="127" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B127" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGP+84</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D127" s="34">
         <v>43873</v>
@@ -11317,16 +11382,16 @@
         <v>45</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G127" s="35" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H127" s="26" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I127" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J127" s="27"/>
       <c r="K127" s="28" t="str">
@@ -11359,14 +11424,14 @@
     </row>
     <row r="128" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B128" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGQ+74</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D128" s="34">
         <v>43873</v>
@@ -11375,16 +11440,16 @@
         <v>45</v>
       </c>
       <c r="F128" s="35" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G128" s="35" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H128" s="26" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I128" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J128" s="27"/>
       <c r="K128" s="28" t="str">
@@ -11419,14 +11484,14 @@
     </row>
     <row r="129" spans="1:27" ht="357.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B129" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGR+7W</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D129" s="34">
         <v>42988</v>
@@ -11435,16 +11500,16 @@
         <v>36</v>
       </c>
       <c r="F129" s="35" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G129" s="35" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H129" s="26" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I129" s="26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J129" s="27"/>
       <c r="K129" s="28" t="str">
@@ -11481,14 +11546,14 @@
     </row>
     <row r="130" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B130" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGR+7W</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D130" s="34">
         <v>43873</v>
@@ -11497,16 +11562,16 @@
         <v>45</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G130" s="35" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H130" s="26" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I130" s="26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J130" s="27"/>
       <c r="K130" s="28" t="str">
@@ -11539,16 +11604,16 @@
       <c r="Z130" s="32"/>
       <c r="AA130" s="32"/>
     </row>
-    <row r="131" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B131" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+3F</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D131" s="34">
         <v>43873</v>
@@ -11557,25 +11622,27 @@
         <v>45</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G131" s="35" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H131" s="26" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I131" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J131" s="27"/>
+        <v>970</v>
+      </c>
+      <c r="J131" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K131" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PGV+3F</v>
       </c>
       <c r="L131" s="29"/>
       <c r="M131" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N131" s="31" t="str">
         <f t="shared" si="14"/>
@@ -11597,16 +11664,16 @@
       <c r="Z131" s="32"/>
       <c r="AA131" s="32"/>
     </row>
-    <row r="132" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B132" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+4C</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D132" s="34">
         <v>43873</v>
@@ -11615,18 +11682,20 @@
         <v>45</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G132" s="35" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H132" s="26" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I132" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="J132" s="27"/>
+        <v>257</v>
+      </c>
+      <c r="J132" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K132" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PGV+4C</v>
@@ -11657,16 +11726,16 @@
       <c r="Z132" s="32"/>
       <c r="AA132" s="32"/>
     </row>
-    <row r="133" spans="1:27" ht="153" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B133" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+4C</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D133" s="34">
         <v>43873</v>
@@ -11675,18 +11744,20 @@
         <v>45</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G133" s="35" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H133" s="26" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I133" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="J133" s="27"/>
+        <v>257</v>
+      </c>
+      <c r="J133" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K133" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PGV+4C</v>
@@ -11715,36 +11786,38 @@
       <c r="Z133" s="32"/>
       <c r="AA133" s="32"/>
     </row>
-    <row r="134" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B134" s="22" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+4C</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D134" s="34">
         <v>43997</v>
       </c>
       <c r="E134" s="34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G134" s="35" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H134" s="26" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="J134" s="27"/>
+        <v>257</v>
+      </c>
+      <c r="J134" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K134" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PGV+4C</v>
@@ -11777,16 +11850,16 @@
       <c r="Z134" s="32"/>
       <c r="AA134" s="32"/>
     </row>
-    <row r="135" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B135" s="22" t="str">
         <f t="shared" ref="B135:B198" si="15">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A135,4),"%2B",RIGHT(A135,2)),A135)</f>
         <v>8PGV+9F</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D135" s="34">
         <v>43873</v>
@@ -11795,18 +11868,20 @@
         <v>45</v>
       </c>
       <c r="F135" s="35" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G135" s="35" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H135" s="26" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J135" s="27"/>
+        <v>958</v>
+      </c>
+      <c r="J135" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K135" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PGV+9F</v>
@@ -11835,16 +11910,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B136" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PGV+9F</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D136" s="34">
         <v>43873</v>
@@ -11853,18 +11928,20 @@
         <v>45</v>
       </c>
       <c r="F136" s="35" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G136" s="35" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J136" s="27"/>
+        <v>957</v>
+      </c>
+      <c r="J136" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K136" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PGV+9F</v>
@@ -11895,14 +11972,14 @@
     </row>
     <row r="137" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B137" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PGX+MQ</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D137" s="34">
         <v>43873</v>
@@ -11911,16 +11988,16 @@
         <v>45</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G137" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H137" s="26" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I137" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J137" s="27"/>
       <c r="K137" s="28" t="str">
@@ -11951,36 +12028,38 @@
       <c r="Z137" s="32"/>
       <c r="AA137" s="32"/>
     </row>
-    <row r="138" spans="1:27" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B138" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D138" s="34">
         <v>43809</v>
       </c>
       <c r="E138" s="34" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F138" s="35" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G138" s="35" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H138" s="26" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J138" s="27"/>
+        <v>172</v>
+      </c>
+      <c r="J138" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K138" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PHG+RV</v>
@@ -12011,16 +12090,16 @@
       <c r="Z138" s="32"/>
       <c r="AA138" s="32"/>
     </row>
-    <row r="139" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B139" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D139" s="34">
         <v>43873</v>
@@ -12029,18 +12108,20 @@
         <v>45</v>
       </c>
       <c r="F139" s="35" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G139" s="35" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H139" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J139" s="27"/>
+        <v>172</v>
+      </c>
+      <c r="J139" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K139" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PHG+RV</v>
@@ -12069,16 +12150,16 @@
       <c r="Z139" s="32"/>
       <c r="AA139" s="32"/>
     </row>
-    <row r="140" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B140" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D140" s="34">
         <v>43873</v>
@@ -12087,25 +12168,27 @@
         <v>45</v>
       </c>
       <c r="F140" s="35" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G140" s="35" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H140" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I140" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J140" s="27"/>
+        <v>172</v>
+      </c>
+      <c r="J140" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K140" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PHG+RV</v>
       </c>
       <c r="L140" s="29"/>
       <c r="M140" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N140" s="31" t="str">
         <f t="shared" si="14"/>
@@ -12127,16 +12210,16 @@
       <c r="Z140" s="32"/>
       <c r="AA140" s="32"/>
     </row>
-    <row r="141" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B141" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D141" s="34">
         <v>42736</v>
@@ -12145,18 +12228,20 @@
         <v>36</v>
       </c>
       <c r="F141" s="35" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G141" s="35" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H141" s="26" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="I141" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J141" s="27"/>
+        <v>172</v>
+      </c>
+      <c r="J141" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K141" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PHG+RV</v>
@@ -12189,14 +12274,14 @@
     </row>
     <row r="142" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B142" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PJC+32</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D142" s="34">
         <v>43873</v>
@@ -12205,16 +12290,16 @@
         <v>45</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G142" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H142" s="26" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="I142" s="26" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="J142" s="27"/>
       <c r="K142" s="28" t="str">
@@ -12253,14 +12338,14 @@
     </row>
     <row r="143" spans="1:27" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B143" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PJM+VW</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D143" s="34">
         <v>43873</v>
@@ -12269,16 +12354,16 @@
         <v>45</v>
       </c>
       <c r="F143" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G143" s="35" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="H143" s="26" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I143" s="26" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J143" s="27"/>
       <c r="K143" s="28" t="str">
@@ -12311,14 +12396,14 @@
     </row>
     <row r="144" spans="1:27" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B144" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PJR+46</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D144" s="34">
         <v>43873</v>
@@ -12327,16 +12412,16 @@
         <v>45</v>
       </c>
       <c r="F144" s="35" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G144" s="35" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H144" s="26" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="I144" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J144" s="27"/>
       <c r="K144" s="28" t="str">
@@ -12369,32 +12454,32 @@
     </row>
     <row r="145" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B145" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PJR+46</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D145" s="34">
         <v>43631</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F145" s="35" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G145" s="35" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="H145" s="26" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="I145" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J145" s="27"/>
       <c r="K145" s="28" t="str">
@@ -12429,14 +12514,14 @@
     </row>
     <row r="146" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B146" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PM9+8X</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D146" s="34">
         <v>43873</v>
@@ -12445,16 +12530,16 @@
         <v>45</v>
       </c>
       <c r="F146" s="35" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G146" s="35" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H146" s="26" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J146" s="27"/>
       <c r="K146" s="28" t="str">
@@ -12489,14 +12574,14 @@
     </row>
     <row r="147" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="33" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B147" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PM9+JX</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D147" s="34">
         <v>43873</v>
@@ -12505,16 +12590,16 @@
         <v>45</v>
       </c>
       <c r="F147" s="35" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H147" s="26" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J147" s="27"/>
       <c r="K147" s="28" t="str">
@@ -12549,14 +12634,14 @@
     </row>
     <row r="148" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="33" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B148" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PMH+33</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D148" s="34">
         <v>43873</v>
@@ -12565,16 +12650,16 @@
         <v>45</v>
       </c>
       <c r="F148" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G148" s="35" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H148" s="26" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J148" s="27"/>
       <c r="K148" s="28" t="str">
@@ -12605,16 +12690,16 @@
       <c r="Z148" s="32"/>
       <c r="AA148" s="32"/>
     </row>
-    <row r="149" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B149" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PMQ+XJ</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D149" s="34">
         <v>43873</v>
@@ -12623,18 +12708,20 @@
         <v>45</v>
       </c>
       <c r="F149" s="35" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G149" s="35" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="H149" s="26" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="J149" s="27"/>
+        <v>641</v>
+      </c>
+      <c r="J149" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K149" s="28" t="str">
         <f t="shared" ref="K149:K184" si="16">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A149),A149)</f>
         <v>8PMQ+XJ</v>
@@ -12663,42 +12750,44 @@
       <c r="Z149" s="32"/>
       <c r="AA149" s="32"/>
     </row>
-    <row r="150" spans="1:27" ht="294" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" ht="294" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="33" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B150" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8PPQ+5H</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D150" s="34">
         <v>43612</v>
       </c>
       <c r="E150" s="34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F150" s="35" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G150" s="35" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="H150" s="26" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>651</v>
-      </c>
-      <c r="J150" s="27"/>
+        <v>646</v>
+      </c>
+      <c r="J150" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K150" s="28" t="str">
         <f t="shared" si="16"/>
         <v>8PPQ+5H</v>
       </c>
       <c r="L150" s="29" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M150" s="36" t="s">
         <v>49</v>
@@ -12725,14 +12814,14 @@
     </row>
     <row r="151" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="33" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B151" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q29+P6</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D151" s="34">
         <v>43873</v>
@@ -12741,16 +12830,16 @@
         <v>45</v>
       </c>
       <c r="F151" s="35" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G151" s="35" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H151" s="26" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I151" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J151" s="27"/>
       <c r="K151" s="28" t="str">
@@ -12783,32 +12872,32 @@
     </row>
     <row r="152" spans="1:27" ht="258" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B152" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q5G+F7</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D152" s="34">
         <v>41821</v>
       </c>
       <c r="E152" s="34" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F152" s="35" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G152" s="35" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H152" s="26" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="J152" s="27"/>
       <c r="K152" s="28" t="str">
@@ -12816,7 +12905,7 @@
         <v>8Q5G+F7</v>
       </c>
       <c r="L152" s="29" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="M152" s="36" t="s">
         <v>49</v>
@@ -12843,14 +12932,14 @@
     </row>
     <row r="153" spans="1:27" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="33" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B153" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q63+HQ</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D153" s="34">
         <v>42988</v>
@@ -12859,16 +12948,16 @@
         <v>36</v>
       </c>
       <c r="F153" s="35" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G153" s="35" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="H153" s="26" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="J153" s="27" t="s">
         <v>43</v>
@@ -12905,16 +12994,16 @@
       <c r="Z153" s="32"/>
       <c r="AA153" s="32"/>
     </row>
-    <row r="154" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B154" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q64+Q3</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D154" s="34">
         <v>42989</v>
@@ -12923,18 +13012,20 @@
         <v>36</v>
       </c>
       <c r="F154" s="35" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G154" s="35" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H154" s="26" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="J154" s="27"/>
+        <v>670</v>
+      </c>
+      <c r="J154" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K154" s="28" t="str">
         <f t="shared" si="16"/>
         <v>8Q64+Q3</v>
@@ -12965,16 +13056,16 @@
       <c r="Z154" s="32"/>
       <c r="AA154" s="32"/>
     </row>
-    <row r="155" spans="1:27" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B155" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+2P</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D155" s="34">
         <v>43873</v>
@@ -12983,18 +13074,20 @@
         <v>45</v>
       </c>
       <c r="F155" s="35" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G155" s="35" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="H155" s="26" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="I155" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J155" s="27"/>
+        <v>135</v>
+      </c>
+      <c r="J155" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K155" s="28" t="str">
         <f t="shared" si="16"/>
         <v>8Q74+2P</v>
@@ -13023,36 +13116,38 @@
       <c r="Z155" s="32"/>
       <c r="AA155" s="32"/>
     </row>
-    <row r="156" spans="1:27" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B156" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+2P</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D156" s="34">
         <v>43488</v>
       </c>
       <c r="E156" s="34" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F156" s="35" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="H156" s="26" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="I156" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J156" s="27"/>
+        <v>135</v>
+      </c>
+      <c r="J156" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K156" s="28" t="str">
         <f t="shared" si="16"/>
         <v>8Q74+2P</v>
@@ -13083,16 +13178,16 @@
       <c r="Z156" s="32"/>
       <c r="AA156" s="32"/>
     </row>
-    <row r="157" spans="1:27" ht="188.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B157" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+2P</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D157" s="34">
         <v>43873</v>
@@ -13101,18 +13196,20 @@
         <v>45</v>
       </c>
       <c r="F157" s="35" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G157" s="35" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H157" s="26" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J157" s="27"/>
+        <v>172</v>
+      </c>
+      <c r="J157" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K157" s="28" t="str">
         <f t="shared" si="16"/>
         <v>8Q74+2P</v>
@@ -13143,14 +13240,14 @@
     </row>
     <row r="158" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B158" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+J5</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D158" s="34">
         <v>43873</v>
@@ -13159,16 +13256,16 @@
         <v>45</v>
       </c>
       <c r="F158" s="35" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G158" s="35" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H158" s="26" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J158" s="27"/>
       <c r="K158" s="28" t="str">
@@ -13203,14 +13300,14 @@
     </row>
     <row r="159" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="33" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B159" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q77+69</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D159" s="34">
         <v>43873</v>
@@ -13219,16 +13316,16 @@
         <v>45</v>
       </c>
       <c r="F159" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G159" s="35" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="H159" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J159" s="27"/>
       <c r="K159" s="28" t="str">
@@ -13261,14 +13358,14 @@
     </row>
     <row r="160" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="33" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B160" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q77+79</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D160" s="34">
         <v>42005</v>
@@ -13277,16 +13374,16 @@
         <v>36</v>
       </c>
       <c r="F160" s="35" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G160" s="35" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H160" s="26" t="s">
         <v>78</v>
       </c>
       <c r="I160" s="50" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="J160" s="27"/>
       <c r="K160" s="28" t="str">
@@ -13319,16 +13416,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B161" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q84+5P</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D161" s="34">
         <v>43873</v>
@@ -13337,18 +13434,20 @@
         <v>45</v>
       </c>
       <c r="F161" s="35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="H161" s="26" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="J161" s="27"/>
+        <v>135</v>
+      </c>
+      <c r="J161" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K161" s="28" t="str">
         <f t="shared" si="16"/>
         <v>8Q84+5P</v>
@@ -13377,16 +13476,16 @@
       <c r="Z161" s="32"/>
       <c r="AA161" s="32"/>
     </row>
-    <row r="162" spans="1:27" ht="311.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" ht="311.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="33" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B162" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q84+5P</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D162" s="34">
         <v>42988</v>
@@ -13395,24 +13494,26 @@
         <v>36</v>
       </c>
       <c r="F162" s="35" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G162" s="35" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="H162" s="26" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>707</v>
-      </c>
-      <c r="J162" s="27"/>
+        <v>702</v>
+      </c>
+      <c r="J162" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K162" s="28" t="str">
         <f t="shared" si="16"/>
         <v>8Q84+5P</v>
       </c>
       <c r="L162" s="29" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="M162" s="36" t="s">
         <v>49</v>
@@ -13439,14 +13540,14 @@
     </row>
     <row r="163" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B163" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q92+PP</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D163" s="34">
         <v>43730</v>
@@ -13455,16 +13556,16 @@
         <v>36</v>
       </c>
       <c r="F163" s="35" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G163" s="35" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H163" s="26" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="J163" s="27"/>
       <c r="K163" s="28" t="str">
@@ -13501,14 +13602,14 @@
     </row>
     <row r="164" spans="1:27" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B164" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D164" s="34">
         <v>42987</v>
@@ -13517,16 +13618,16 @@
         <v>36</v>
       </c>
       <c r="F164" s="35" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G164" s="35" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H164" s="26" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J164" s="27"/>
       <c r="K164" s="28" t="str">
@@ -13565,14 +13666,14 @@
     </row>
     <row r="165" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B165" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D165" s="34">
         <v>43873</v>
@@ -13581,16 +13682,16 @@
         <v>45</v>
       </c>
       <c r="F165" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G165" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H165" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J165" s="27"/>
       <c r="K165" s="28" t="str">
@@ -13625,14 +13726,14 @@
     </row>
     <row r="166" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B166" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D166" s="34">
         <v>43873</v>
@@ -13641,16 +13742,16 @@
         <v>45</v>
       </c>
       <c r="F166" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G166" s="35" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H166" s="26" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="I166" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J166" s="27"/>
       <c r="K166" s="28" t="str">
@@ -13685,14 +13786,14 @@
     </row>
     <row r="167" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B167" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D167" s="34">
         <v>43873</v>
@@ -13701,16 +13802,16 @@
         <v>45</v>
       </c>
       <c r="F167" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G167" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H167" s="26" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="I167" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J167" s="27"/>
       <c r="K167" s="28" t="str">
@@ -13745,14 +13846,14 @@
     </row>
     <row r="168" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B168" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D168" s="34">
         <v>43873</v>
@@ -13761,16 +13862,16 @@
         <v>45</v>
       </c>
       <c r="F168" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G168" s="35" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H168" s="26" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="I168" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J168" s="27"/>
       <c r="K168" s="28" t="str">
@@ -13805,14 +13906,14 @@
     </row>
     <row r="169" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B169" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D169" s="34">
         <v>43873</v>
@@ -13821,16 +13922,16 @@
         <v>45</v>
       </c>
       <c r="F169" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G169" s="35" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H169" s="26" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="I169" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J169" s="27"/>
       <c r="K169" s="28" t="str">
@@ -13865,14 +13966,14 @@
     </row>
     <row r="170" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B170" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D170" s="34">
         <v>43873</v>
@@ -13881,16 +13982,16 @@
         <v>45</v>
       </c>
       <c r="F170" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G170" s="35" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H170" s="26" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="I170" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J170" s="27"/>
       <c r="K170" s="28" t="str">
@@ -13925,14 +14026,14 @@
     </row>
     <row r="171" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B171" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D171" s="34">
         <v>43873</v>
@@ -13941,16 +14042,16 @@
         <v>45</v>
       </c>
       <c r="F171" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G171" s="35" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H171" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I171" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J171" s="27"/>
       <c r="K171" s="28" t="str">
@@ -13983,14 +14084,14 @@
     </row>
     <row r="172" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B172" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D172" s="34">
         <v>43873</v>
@@ -13999,16 +14100,16 @@
         <v>45</v>
       </c>
       <c r="F172" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G172" s="35" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="H172" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I172" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J172" s="27"/>
       <c r="K172" s="28" t="str">
@@ -14041,14 +14142,14 @@
     </row>
     <row r="173" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B173" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D173" s="34">
         <v>43873</v>
@@ -14057,16 +14158,16 @@
         <v>45</v>
       </c>
       <c r="F173" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G173" s="35" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H173" s="26" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="I173" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J173" s="27"/>
       <c r="K173" s="28" t="str">
@@ -14099,32 +14200,32 @@
     </row>
     <row r="174" spans="1:27" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="33" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B174" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D174" s="34">
         <v>43612</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F174" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G174" s="35" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H174" s="26" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="I174" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J174" s="27"/>
       <c r="K174" s="28" t="str">
@@ -14132,7 +14233,7 @@
         <v>8Q94+VR</v>
       </c>
       <c r="L174" s="29" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="M174" s="30" t="s">
         <v>42</v>
@@ -14159,14 +14260,14 @@
     </row>
     <row r="175" spans="1:27" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="33" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B175" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8Q98+X3</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D175" s="34">
         <v>42988</v>
@@ -14175,16 +14276,16 @@
         <v>36</v>
       </c>
       <c r="F175" s="35" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G175" s="35" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="H175" s="26" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I175" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J175" s="27"/>
       <c r="K175" s="28" t="str">
@@ -14219,14 +14320,14 @@
     </row>
     <row r="176" spans="1:27" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="33" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B176" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QC7+47</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D176" s="34">
         <v>43731</v>
@@ -14235,16 +14336,16 @@
         <v>36</v>
       </c>
       <c r="F176" s="35" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G176" s="35" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="H176" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I176" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J176" s="27"/>
       <c r="K176" s="28" t="str">
@@ -14255,7 +14356,7 @@
         <v>79</v>
       </c>
       <c r="M176" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N176" s="31" t="str">
         <f t="shared" si="17"/>
@@ -14279,14 +14380,14 @@
     </row>
     <row r="177" spans="1:27" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="33" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B177" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QC8+WH</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D177" s="34">
         <v>43873</v>
@@ -14295,16 +14396,16 @@
         <v>45</v>
       </c>
       <c r="F177" s="35" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G177" s="35" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="H177" s="26" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="I177" s="26" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="J177" s="27"/>
       <c r="K177" s="28" t="str">
@@ -14337,14 +14438,14 @@
     </row>
     <row r="178" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B178" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QF4+62</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D178" s="34">
         <v>43873</v>
@@ -14353,16 +14454,16 @@
         <v>45</v>
       </c>
       <c r="F178" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G178" s="35" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="H178" s="26" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="J178" s="27"/>
       <c r="K178" s="28" t="str">
@@ -14395,14 +14496,14 @@
     </row>
     <row r="179" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="33" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B179" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QF6+HR</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D179" s="34">
         <v>43254</v>
@@ -14411,16 +14512,16 @@
         <v>36</v>
       </c>
       <c r="F179" s="35" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G179" s="35" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H179" s="26" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="I179" s="26" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="J179" s="27"/>
       <c r="K179" s="28" t="str">
@@ -14428,7 +14529,7 @@
         <v>8QF6+HR</v>
       </c>
       <c r="L179" s="29" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="M179" s="38" t="s">
         <v>54</v>
@@ -14455,14 +14556,14 @@
     </row>
     <row r="180" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="33" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B180" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QG2+RX</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D180" s="34">
         <v>43893</v>
@@ -14471,16 +14572,16 @@
         <v>45</v>
       </c>
       <c r="F180" s="35" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G180" s="35" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="H180" s="26" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="I180" s="26" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="J180" s="27"/>
       <c r="K180" s="28" t="str">
@@ -14515,14 +14616,14 @@
     </row>
     <row r="181" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="33" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B181" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QG2+V2</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D181" s="34">
         <v>43873</v>
@@ -14531,16 +14632,16 @@
         <v>45</v>
       </c>
       <c r="F181" s="35" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G181" s="35" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="H181" s="26" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I181" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J181" s="27"/>
       <c r="K181" s="28" t="str">
@@ -14573,14 +14674,14 @@
     </row>
     <row r="182" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="33" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B182" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QH2+9H</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D182" s="34">
         <v>43873</v>
@@ -14589,16 +14690,16 @@
         <v>45</v>
       </c>
       <c r="F182" s="35" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="G182" s="35" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="H182" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="J182" s="27"/>
       <c r="K182" s="28" t="str">
@@ -14631,32 +14732,32 @@
     </row>
     <row r="183" spans="1:27" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="33" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B183" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QH3+R4</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D183" s="34">
         <v>42989</v>
       </c>
       <c r="E183" s="34" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F183" s="35" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G183" s="35" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="H183" s="26" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="I183" s="26" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="J183" s="27"/>
       <c r="K183" s="28" t="str">
@@ -14691,14 +14792,14 @@
     </row>
     <row r="184" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="33" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B184" s="22" t="str">
         <f t="shared" si="15"/>
         <v>8QJ4+V4</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D184" s="34">
         <v>43873</v>
@@ -14707,16 +14808,16 @@
         <v>45</v>
       </c>
       <c r="F184" s="35" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G184" s="35" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H184" s="26" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="I184" s="26" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="J184" s="27"/>
       <c r="K184" s="28" t="str">
@@ -14724,7 +14825,7 @@
         <v>8QJ4+V4</v>
       </c>
       <c r="L184" s="29" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M184" s="38" t="s">
         <v>54</v>
@@ -14751,7 +14852,7 @@
     </row>
     <row r="185" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="33" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B185" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14768,7 +14869,7 @@
         <v>79</v>
       </c>
       <c r="G185" s="35" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="H185" s="26"/>
       <c r="I185" s="26"/>
@@ -14800,7 +14901,7 @@
     </row>
     <row r="186" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="33" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B186" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14814,10 +14915,10 @@
         <v>45</v>
       </c>
       <c r="F186" s="35" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G186" s="35" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H186" s="26"/>
       <c r="I186" s="26"/>
@@ -14825,7 +14926,7 @@
       <c r="K186" s="29"/>
       <c r="L186" s="29"/>
       <c r="M186" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N186" s="31" t="str">
         <f t="shared" si="18"/>
@@ -14861,7 +14962,7 @@
     </row>
     <row r="187" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="33" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B187" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14875,10 +14976,10 @@
         <v>45</v>
       </c>
       <c r="F187" s="35" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G187" s="35" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H187" s="26"/>
       <c r="I187" s="26"/>
@@ -14910,7 +15011,7 @@
     </row>
     <row r="188" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="33" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B188" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14924,7 +15025,7 @@
         <v>45</v>
       </c>
       <c r="F188" s="35" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G188" s="35">
         <v>0</v>
@@ -14959,7 +15060,7 @@
     </row>
     <row r="189" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="33" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B189" s="22" t="str">
         <f t="shared" si="15"/>
@@ -14973,7 +15074,7 @@
         <v>45</v>
       </c>
       <c r="F189" s="35" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G189" s="35">
         <v>0</v>
@@ -15008,7 +15109,7 @@
     </row>
     <row r="190" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="33" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B190" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15022,10 +15123,10 @@
         <v>45</v>
       </c>
       <c r="F190" s="35" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G190" s="35" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="H190" s="26"/>
       <c r="I190" s="26"/>
@@ -15057,7 +15158,7 @@
     </row>
     <row r="191" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="33" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B191" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15071,10 +15172,10 @@
         <v>45</v>
       </c>
       <c r="F191" s="35" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="G191" s="35" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="H191" s="26"/>
       <c r="I191" s="26"/>
@@ -15106,7 +15207,7 @@
     </row>
     <row r="192" spans="1:27" ht="168.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="33" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B192" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15120,10 +15221,10 @@
         <v>45</v>
       </c>
       <c r="F192" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G192" s="35" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="H192" s="26"/>
       <c r="I192" s="26"/>
@@ -15155,7 +15256,7 @@
     </row>
     <row r="193" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="33" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B193" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15169,10 +15270,10 @@
         <v>45</v>
       </c>
       <c r="F193" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G193" s="35" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H193" s="26"/>
       <c r="I193" s="26"/>
@@ -15204,7 +15305,7 @@
     </row>
     <row r="194" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="33" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B194" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15218,10 +15319,10 @@
         <v>45</v>
       </c>
       <c r="F194" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G194" s="35" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H194" s="26"/>
       <c r="I194" s="26"/>
@@ -15253,7 +15354,7 @@
     </row>
     <row r="195" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="33" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B195" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15267,10 +15368,10 @@
         <v>45</v>
       </c>
       <c r="F195" s="35" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G195" s="35" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H195" s="26"/>
       <c r="I195" s="26"/>
@@ -15300,7 +15401,7 @@
     </row>
     <row r="196" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="33" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B196" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15314,10 +15415,10 @@
         <v>45</v>
       </c>
       <c r="F196" s="35" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G196" s="35" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="H196" s="26"/>
       <c r="I196" s="26"/>
@@ -15325,7 +15426,7 @@
       <c r="K196" s="29"/>
       <c r="L196" s="29"/>
       <c r="M196" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N196" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15349,7 +15450,7 @@
     </row>
     <row r="197" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="33" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B197" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15363,7 +15464,7 @@
         <v>45</v>
       </c>
       <c r="F197" s="35" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G197" s="35">
         <v>0</v>
@@ -15374,7 +15475,7 @@
       <c r="K197" s="29"/>
       <c r="L197" s="29"/>
       <c r="M197" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N197" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15398,7 +15499,7 @@
     </row>
     <row r="198" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B198" s="22" t="str">
         <f t="shared" si="15"/>
@@ -15412,10 +15513,10 @@
         <v>45</v>
       </c>
       <c r="F198" s="35" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G198" s="35" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H198" s="26"/>
       <c r="I198" s="26"/>
@@ -15423,7 +15524,7 @@
       <c r="K198" s="29"/>
       <c r="L198" s="29"/>
       <c r="M198" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N198" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15447,7 +15548,7 @@
     </row>
     <row r="199" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B199" s="22" t="str">
         <f t="shared" ref="B199:B256" si="19">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A199,4),"%2B",RIGHT(A199,2)),A199)</f>
@@ -15464,7 +15565,7 @@
         <v>79</v>
       </c>
       <c r="G199" s="35" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="H199" s="26"/>
       <c r="I199" s="26"/>
@@ -15472,7 +15573,7 @@
       <c r="K199" s="29"/>
       <c r="L199" s="29"/>
       <c r="M199" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N199" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15496,7 +15597,7 @@
     </row>
     <row r="200" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B200" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15510,10 +15611,10 @@
         <v>45</v>
       </c>
       <c r="F200" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G200" s="35" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="H200" s="26"/>
       <c r="I200" s="26"/>
@@ -15551,7 +15652,7 @@
     </row>
     <row r="201" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B201" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15565,10 +15666,10 @@
         <v>45</v>
       </c>
       <c r="F201" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G201" s="35" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H201" s="26"/>
       <c r="I201" s="26"/>
@@ -15600,7 +15701,7 @@
     </row>
     <row r="202" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B202" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15614,10 +15715,10 @@
         <v>45</v>
       </c>
       <c r="F202" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G202" s="35" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="H202" s="26"/>
       <c r="I202" s="26"/>
@@ -15625,7 +15726,7 @@
       <c r="K202" s="29"/>
       <c r="L202" s="29"/>
       <c r="M202" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N202" s="31" t="str">
         <f t="shared" si="18"/>
@@ -15649,7 +15750,7 @@
     </row>
     <row r="203" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B203" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15663,10 +15764,10 @@
         <v>45</v>
       </c>
       <c r="F203" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G203" s="35" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H203" s="26"/>
       <c r="I203" s="26"/>
@@ -15698,7 +15799,7 @@
     </row>
     <row r="204" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B204" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15712,10 +15813,10 @@
         <v>45</v>
       </c>
       <c r="F204" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G204" s="35" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="H204" s="26"/>
       <c r="I204" s="26"/>
@@ -15747,7 +15848,7 @@
     </row>
     <row r="205" spans="1:27" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B205" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15761,10 +15862,10 @@
         <v>45</v>
       </c>
       <c r="F205" s="35" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G205" s="35" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="H205" s="26"/>
       <c r="I205" s="26"/>
@@ -15796,7 +15897,7 @@
     </row>
     <row r="206" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B206" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15810,10 +15911,10 @@
         <v>45</v>
       </c>
       <c r="F206" s="35" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G206" s="35" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H206" s="26"/>
       <c r="I206" s="26"/>
@@ -15845,7 +15946,7 @@
     </row>
     <row r="207" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B207" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15859,10 +15960,10 @@
         <v>45</v>
       </c>
       <c r="F207" s="35" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G207" s="35" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H207" s="26"/>
       <c r="I207" s="26"/>
@@ -15894,7 +15995,7 @@
     </row>
     <row r="208" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B208" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15908,10 +16009,10 @@
         <v>45</v>
       </c>
       <c r="F208" s="35" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G208" s="35" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="H208" s="26"/>
       <c r="I208" s="26"/>
@@ -15943,7 +16044,7 @@
     </row>
     <row r="209" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B209" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15957,10 +16058,10 @@
         <v>45</v>
       </c>
       <c r="F209" s="35" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G209" s="35" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="H209" s="26"/>
       <c r="I209" s="26"/>
@@ -15992,7 +16093,7 @@
     </row>
     <row r="210" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B210" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16006,10 +16107,10 @@
         <v>45</v>
       </c>
       <c r="F210" s="35" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G210" s="35" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="H210" s="26"/>
       <c r="I210" s="26"/>
@@ -16017,7 +16118,7 @@
       <c r="K210" s="29"/>
       <c r="L210" s="29"/>
       <c r="M210" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N210" s="31" t="str">
         <f t="shared" si="18"/>
@@ -16039,7 +16140,7 @@
     </row>
     <row r="211" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B211" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16053,10 +16154,10 @@
         <v>45</v>
       </c>
       <c r="F211" s="35" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G211" s="35" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="H211" s="26"/>
       <c r="I211" s="26"/>
@@ -16086,7 +16187,7 @@
     </row>
     <row r="212" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B212" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16127,7 +16228,7 @@
     </row>
     <row r="213" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B213" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16141,10 +16242,10 @@
         <v>45</v>
       </c>
       <c r="F213" s="35" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G213" s="35" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="H213" s="26"/>
       <c r="I213" s="26"/>
@@ -16152,7 +16253,7 @@
       <c r="K213" s="29"/>
       <c r="L213" s="29"/>
       <c r="M213" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N213" s="31" t="str">
         <f t="shared" ref="N213:N244" si="20">LEFT(M213,1)</f>
@@ -16176,7 +16277,7 @@
     </row>
     <row r="214" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="33" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B214" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16190,10 +16291,10 @@
         <v>45</v>
       </c>
       <c r="F214" s="35" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G214" s="35" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="H214" s="26"/>
       <c r="I214" s="26"/>
@@ -16201,7 +16302,7 @@
       <c r="K214" s="29"/>
       <c r="L214" s="29"/>
       <c r="M214" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N214" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16225,7 +16326,7 @@
     </row>
     <row r="215" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="33" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B215" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16239,10 +16340,10 @@
         <v>45</v>
       </c>
       <c r="F215" s="35" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G215" s="35" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="H215" s="26"/>
       <c r="I215" s="26"/>
@@ -16253,7 +16354,7 @@
       </c>
       <c r="L215" s="29"/>
       <c r="M215" s="49" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="N215" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16277,7 +16378,7 @@
     </row>
     <row r="216" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="33" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B216" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16291,10 +16392,10 @@
         <v>45</v>
       </c>
       <c r="F216" s="35" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G216" s="35" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="H216" s="26"/>
       <c r="I216" s="26"/>
@@ -16302,7 +16403,7 @@
       <c r="K216" s="29"/>
       <c r="L216" s="29"/>
       <c r="M216" s="51" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="N216" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16324,7 +16425,7 @@
     </row>
     <row r="217" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="33" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B217" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16338,10 +16439,10 @@
         <v>45</v>
       </c>
       <c r="F217" s="35" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G217" s="35" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H217" s="26"/>
       <c r="I217" s="26"/>
@@ -16373,7 +16474,7 @@
     </row>
     <row r="218" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="33" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B218" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16387,10 +16488,10 @@
         <v>45</v>
       </c>
       <c r="F218" s="35" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G218" s="35" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="H218" s="26"/>
       <c r="I218" s="26"/>
@@ -16398,7 +16499,7 @@
       <c r="K218" s="29"/>
       <c r="L218" s="29"/>
       <c r="M218" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N218" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16422,7 +16523,7 @@
     </row>
     <row r="219" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="33" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B219" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16436,10 +16537,10 @@
         <v>45</v>
       </c>
       <c r="F219" s="35" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G219" s="35" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="H219" s="26"/>
       <c r="I219" s="26"/>
@@ -16447,7 +16548,7 @@
       <c r="K219" s="29"/>
       <c r="L219" s="29"/>
       <c r="M219" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N219" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16471,7 +16572,7 @@
     </row>
     <row r="220" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="33" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B220" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16485,10 +16586,10 @@
         <v>45</v>
       </c>
       <c r="F220" s="35" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G220" s="35" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="H220" s="26"/>
       <c r="I220" s="26"/>
@@ -16496,7 +16597,7 @@
       <c r="K220" s="29"/>
       <c r="L220" s="29"/>
       <c r="M220" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N220" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16520,7 +16621,7 @@
     </row>
     <row r="221" spans="1:27" ht="204.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="33" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B221" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16534,10 +16635,10 @@
         <v>45</v>
       </c>
       <c r="F221" s="35" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G221" s="35" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="H221" s="26"/>
       <c r="I221" s="26"/>
@@ -16569,7 +16670,7 @@
     </row>
     <row r="222" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="33" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B222" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16586,7 +16687,7 @@
         <v>83</v>
       </c>
       <c r="G222" s="35" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="H222" s="26"/>
       <c r="I222" s="26"/>
@@ -16594,7 +16695,7 @@
       <c r="K222" s="29"/>
       <c r="L222" s="29"/>
       <c r="M222" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N222" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16618,7 +16719,7 @@
     </row>
     <row r="223" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="33" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B223" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16632,10 +16733,10 @@
         <v>45</v>
       </c>
       <c r="F223" s="35" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G223" s="35" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="H223" s="26"/>
       <c r="I223" s="26"/>
@@ -16643,7 +16744,7 @@
       <c r="K223" s="29"/>
       <c r="L223" s="29"/>
       <c r="M223" s="30" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="N223" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16665,7 +16766,7 @@
     </row>
     <row r="224" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="33" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B224" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16679,10 +16780,10 @@
         <v>45</v>
       </c>
       <c r="F224" s="35" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G224" s="35" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="H224" s="26"/>
       <c r="I224" s="26"/>
@@ -16690,7 +16791,7 @@
       <c r="K224" s="29"/>
       <c r="L224" s="29"/>
       <c r="M224" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N224" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16714,7 +16815,7 @@
     </row>
     <row r="225" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="33" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B225" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16728,10 +16829,10 @@
         <v>45</v>
       </c>
       <c r="F225" s="35" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G225" s="35" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="H225" s="26"/>
       <c r="I225" s="26"/>
@@ -16739,7 +16840,7 @@
       <c r="K225" s="29"/>
       <c r="L225" s="29"/>
       <c r="M225" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N225" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16763,7 +16864,7 @@
     </row>
     <row r="226" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="33" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B226" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16777,10 +16878,10 @@
         <v>45</v>
       </c>
       <c r="F226" s="35" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G226" s="35" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="H226" s="26"/>
       <c r="I226" s="26"/>
@@ -16812,7 +16913,7 @@
     </row>
     <row r="227" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="33" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B227" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16826,10 +16927,10 @@
         <v>45</v>
       </c>
       <c r="F227" s="35" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G227" s="35" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="H227" s="26"/>
       <c r="I227" s="26"/>
@@ -16837,7 +16938,7 @@
       <c r="K227" s="29"/>
       <c r="L227" s="29"/>
       <c r="M227" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N227" s="31" t="str">
         <f t="shared" si="20"/>
@@ -16861,7 +16962,7 @@
     </row>
     <row r="228" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="33" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B228" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16875,10 +16976,10 @@
         <v>45</v>
       </c>
       <c r="F228" s="35" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G228" s="35" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H228" s="26"/>
       <c r="I228" s="26"/>
@@ -16910,7 +17011,7 @@
     </row>
     <row r="229" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="33" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B229" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16924,10 +17025,10 @@
         <v>45</v>
       </c>
       <c r="F229" s="35" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G229" s="35" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="H229" s="26"/>
       <c r="I229" s="26"/>
@@ -16959,7 +17060,7 @@
     </row>
     <row r="230" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="33" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B230" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16973,10 +17074,10 @@
         <v>45</v>
       </c>
       <c r="F230" s="35" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G230" s="35" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="H230" s="26"/>
       <c r="I230" s="26"/>
@@ -17008,7 +17109,7 @@
     </row>
     <row r="231" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="33" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B231" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17022,10 +17123,10 @@
         <v>45</v>
       </c>
       <c r="F231" s="35" t="s">
+        <v>850</v>
+      </c>
+      <c r="G231" s="35" t="s">
         <v>855</v>
-      </c>
-      <c r="G231" s="35" t="s">
-        <v>860</v>
       </c>
       <c r="H231" s="26"/>
       <c r="I231" s="26"/>
@@ -17057,7 +17158,7 @@
     </row>
     <row r="232" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="33" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B232" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17071,10 +17172,10 @@
         <v>45</v>
       </c>
       <c r="F232" s="35" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G232" s="35" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="H232" s="26"/>
       <c r="I232" s="26"/>
@@ -17106,7 +17207,7 @@
     </row>
     <row r="233" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="33" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B233" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17120,10 +17221,10 @@
         <v>45</v>
       </c>
       <c r="F233" s="35" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G233" s="35" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="H233" s="26"/>
       <c r="I233" s="26"/>
@@ -17131,7 +17232,7 @@
       <c r="K233" s="29"/>
       <c r="L233" s="29"/>
       <c r="M233" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N233" s="31" t="str">
         <f t="shared" si="20"/>
@@ -17155,7 +17256,7 @@
     </row>
     <row r="234" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="33" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B234" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17169,10 +17270,10 @@
         <v>45</v>
       </c>
       <c r="F234" s="35" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G234" s="35" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="H234" s="26"/>
       <c r="I234" s="26"/>
@@ -17204,7 +17305,7 @@
     </row>
     <row r="235" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="33" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B235" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17218,10 +17319,10 @@
         <v>45</v>
       </c>
       <c r="F235" s="35" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G235" s="35" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="H235" s="26"/>
       <c r="I235" s="26"/>
@@ -17253,7 +17354,7 @@
     </row>
     <row r="236" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="33" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B236" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17267,10 +17368,10 @@
         <v>45</v>
       </c>
       <c r="F236" s="35" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G236" s="35" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H236" s="26"/>
       <c r="I236" s="26"/>
@@ -17302,7 +17403,7 @@
     </row>
     <row r="237" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="33" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B237" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17316,10 +17417,10 @@
         <v>45</v>
       </c>
       <c r="F237" s="35" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G237" s="35" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="H237" s="26"/>
       <c r="I237" s="26"/>
@@ -17351,7 +17452,7 @@
     </row>
     <row r="238" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="33" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B238" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17365,10 +17466,10 @@
         <v>45</v>
       </c>
       <c r="F238" s="35" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G238" s="35" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="H238" s="26"/>
       <c r="I238" s="26"/>
@@ -17400,7 +17501,7 @@
     </row>
     <row r="239" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="33" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B239" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17414,10 +17515,10 @@
         <v>45</v>
       </c>
       <c r="F239" s="35" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G239" s="35" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="H239" s="26"/>
       <c r="I239" s="26"/>
@@ -17449,7 +17550,7 @@
     </row>
     <row r="240" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="33" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B240" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17463,10 +17564,10 @@
         <v>45</v>
       </c>
       <c r="F240" s="35" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G240" s="35" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="H240" s="26"/>
       <c r="I240" s="26"/>
@@ -17498,7 +17599,7 @@
     </row>
     <row r="241" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="33" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B241" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17512,7 +17613,7 @@
         <v>45</v>
       </c>
       <c r="F241" s="35" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G241" s="35">
         <v>0</v>
@@ -17547,7 +17648,7 @@
     </row>
     <row r="242" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="33" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B242" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17561,10 +17662,10 @@
         <v>45</v>
       </c>
       <c r="F242" s="35" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G242" s="35" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="H242" s="26"/>
       <c r="I242" s="26"/>
@@ -17596,7 +17697,7 @@
     </row>
     <row r="243" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="33" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B243" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17610,10 +17711,10 @@
         <v>45</v>
       </c>
       <c r="F243" s="35" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G243" s="35" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="H243" s="26"/>
       <c r="I243" s="26"/>
@@ -17645,7 +17746,7 @@
     </row>
     <row r="244" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="33" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B244" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17659,10 +17760,10 @@
         <v>45</v>
       </c>
       <c r="F244" s="35" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G244" s="35" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="H244" s="26"/>
       <c r="I244" s="26"/>
@@ -17694,7 +17795,7 @@
     </row>
     <row r="245" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="33" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B245" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17708,10 +17809,10 @@
         <v>45</v>
       </c>
       <c r="F245" s="35" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G245" s="35" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="H245" s="26"/>
       <c r="I245" s="26"/>
@@ -17743,7 +17844,7 @@
     </row>
     <row r="246" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="33" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B246" s="22" t="str">
         <f t="shared" si="19"/>
@@ -17757,10 +17858,10 @@
         <v>45</v>
       </c>
       <c r="F246" s="35" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G246" s="35" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="H246" s="26"/>
       <c r="I246" s="26"/>
@@ -17792,14 +17893,14 @@
     </row>
     <row r="247" spans="1:27" ht="211.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="39" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B247" s="22" t="str">
         <f t="shared" si="19"/>
         <v>6Q3G+97</v>
       </c>
       <c r="C247" s="40" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D247" s="41">
         <v>43282</v>
@@ -17808,16 +17909,16 @@
         <v>36</v>
       </c>
       <c r="F247" s="40" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G247" s="40" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="H247" s="26" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="I247" s="26" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="J247" s="27"/>
       <c r="K247" s="29"/>
@@ -17840,14 +17941,14 @@
     </row>
     <row r="248" spans="1:27" ht="291.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="39" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B248" s="22" t="str">
         <f t="shared" si="19"/>
         <v>6Q7V+23</v>
       </c>
       <c r="C248" s="40" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D248" s="41">
         <v>43073</v>
@@ -17856,16 +17957,16 @@
         <v>36</v>
       </c>
       <c r="F248" s="40" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G248" s="40" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="H248" s="26" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="I248" s="26" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="J248" s="27"/>
       <c r="K248" s="29"/>
@@ -17888,14 +17989,14 @@
     </row>
     <row r="249" spans="1:27" ht="284.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="39" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B249" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7QF6+HG</v>
       </c>
       <c r="C249" s="40" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D249" s="41">
         <v>40431</v>
@@ -17904,16 +18005,16 @@
         <v>36</v>
       </c>
       <c r="F249" s="40" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G249" s="40" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="H249" s="26" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="I249" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J249" s="27"/>
       <c r="K249" s="29"/>
@@ -17936,14 +18037,14 @@
     </row>
     <row r="250" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="39" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B250" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7QJF+2R</v>
       </c>
       <c r="C250" s="40" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="D250" s="41">
         <v>43440</v>
@@ -17952,16 +18053,16 @@
         <v>36</v>
       </c>
       <c r="F250" s="40" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="G250" s="40" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="H250" s="26" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="I250" s="26" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="J250" s="27"/>
       <c r="K250" s="29"/>
@@ -17984,14 +18085,14 @@
     </row>
     <row r="251" spans="1:27" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="39" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B251" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7Q64+F9</v>
       </c>
       <c r="C251" s="40" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D251" s="41">
         <v>43550</v>
@@ -18000,16 +18101,16 @@
         <v>36</v>
       </c>
       <c r="F251" s="40" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G251" s="40" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="H251" s="26" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="I251" s="26" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="J251" s="27"/>
       <c r="K251" s="29"/>
@@ -18032,32 +18133,32 @@
     </row>
     <row r="252" spans="1:27" ht="109.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="39" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B252" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7Q87+6P</v>
       </c>
       <c r="C252" s="40" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D252" s="41">
         <v>43730</v>
       </c>
       <c r="E252" s="41" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="F252" s="40" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G252" s="40" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="H252" s="26" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="I252" s="26" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="J252" s="27"/>
       <c r="K252" s="29"/>
@@ -18080,14 +18181,14 @@
     </row>
     <row r="253" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="39" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B253" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7RG4+R6</v>
       </c>
       <c r="C253" s="40" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D253" s="41">
         <v>43431</v>
@@ -18096,16 +18197,16 @@
         <v>36</v>
       </c>
       <c r="F253" s="40" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="G253" s="40" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H253" s="26" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I253" s="26" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="J253" s="27"/>
       <c r="K253" s="29"/>
@@ -18128,14 +18229,14 @@
     </row>
     <row r="254" spans="1:27" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="39" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B254" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7RP3+H8</v>
       </c>
       <c r="C254" s="40" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D254" s="41">
         <v>43431</v>
@@ -18144,16 +18245,16 @@
         <v>36</v>
       </c>
       <c r="F254" s="40" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G254" s="40" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="H254" s="26" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="I254" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J254" s="27"/>
       <c r="K254" s="29"/>
@@ -18174,36 +18275,38 @@
       <c r="Z254" s="32"/>
       <c r="AA254" s="32"/>
     </row>
-    <row r="255" spans="1:27" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="39" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B255" s="22" t="str">
         <f t="shared" si="19"/>
         <v>7PXW+85</v>
       </c>
       <c r="C255" s="40" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D255" s="41">
         <v>44318</v>
       </c>
       <c r="E255" s="41" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F255" s="40" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G255" s="40" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="H255" s="26" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="I255" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="J255" s="27"/>
+        <v>964</v>
+      </c>
+      <c r="J255" s="27" t="s">
+        <v>955</v>
+      </c>
       <c r="K255" s="29"/>
       <c r="L255" s="29"/>
       <c r="M255" s="42"/>
@@ -18224,14 +18327,14 @@
     </row>
     <row r="256" spans="1:27" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="39" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B256" s="22" t="str">
         <f t="shared" si="19"/>
         <v>8PCG+CM</v>
       </c>
       <c r="C256" s="40" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D256" s="41">
         <v>44318</v>
@@ -18240,16 +18343,16 @@
         <v>36</v>
       </c>
       <c r="F256" s="40" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="G256" s="40" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="H256" s="26" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="I256" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J256" s="27"/>
       <c r="K256" s="29"/>
@@ -18272,14 +18375,14 @@
     </row>
     <row r="257" spans="1:27" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="39" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B257" s="56" t="str">
         <f>HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A257,4),"%2B",RIGHT(A257,2)),A257)</f>
         <v>8P3P+VP</v>
       </c>
       <c r="C257" s="40" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D257" s="41">
         <v>44402</v>
@@ -18288,16 +18391,16 @@
         <v>36</v>
       </c>
       <c r="F257" s="40" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G257" s="40" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="H257" s="40" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="I257" s="40" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J257" s="52"/>
       <c r="K257" s="39"/>
@@ -18320,14 +18423,14 @@
     </row>
     <row r="258" spans="1:27" ht="337.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="39" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B258" s="56" t="str">
         <f>HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A258,4),"%2B",RIGHT(A258,2)),A258)</f>
         <v>8P3Q+X2</v>
       </c>
       <c r="C258" s="40" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D258" s="41">
         <v>44402</v>
@@ -18336,16 +18439,16 @@
         <v>36</v>
       </c>
       <c r="F258" s="40" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G258" s="40" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="H258" s="40" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I258" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J258" s="52"/>
       <c r="K258" s="39"/>
@@ -18366,16 +18469,16 @@
       <c r="Z258" s="55"/>
       <c r="AA258" s="55"/>
     </row>
-    <row r="259" spans="1:27" ht="187.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A259" s="39" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B259" s="56" t="str">
         <f t="shared" ref="B259:B260" si="22">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A259,4),"%2B",RIGHT(A259,2)),A259)</f>
         <v>7PJ6+MR</v>
       </c>
       <c r="C259" s="40" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D259" s="41">
         <v>44402</v>
@@ -18384,18 +18487,20 @@
         <v>36</v>
       </c>
       <c r="F259" s="40" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G259" s="40" t="s">
+        <v>950</v>
+      </c>
+      <c r="H259" s="40" t="s">
+        <v>942</v>
+      </c>
+      <c r="I259" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="J259" s="52" t="s">
         <v>955</v>
       </c>
-      <c r="H259" s="40" t="s">
-        <v>947</v>
-      </c>
-      <c r="I259" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="J259" s="52"/>
       <c r="K259" s="39"/>
       <c r="L259" s="39"/>
       <c r="M259" s="53"/>
@@ -18416,14 +18521,14 @@
     </row>
     <row r="260" spans="1:27" ht="375" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="39" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B260" s="56" t="str">
         <f t="shared" si="22"/>
         <v>8P8C+7M</v>
       </c>
       <c r="C260" s="40" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D260" s="41">
         <v>44402</v>
@@ -18432,16 +18537,16 @@
         <v>36</v>
       </c>
       <c r="F260" s="40" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G260" s="40" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="H260" s="40" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="I260" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J260" s="52"/>
       <c r="K260" s="39"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16945EE4-62D3-4797-BA4F-8627BA29C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9DE4F-A106-4A8F-9741-C36822722182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AA$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AA$261</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="976">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -3278,6 +3278,21 @@
   </si>
   <si>
     <t>soll im Juni 2022 rot markiert werden</t>
+  </si>
+  <si>
+    <t>8PGV+2F</t>
+  </si>
+  <si>
+    <t>Vorfahrt ändern, so dass das die Rot-Markierung auch inhaltlich Sinn bekommt mit rechts vor links oder Regelungen und Achtung Schule.</t>
+  </si>
+  <si>
+    <t>Börie/Berliner Straße</t>
+  </si>
+  <si>
+    <t>Zur Zeit hat die Berliner Straße Vorfahrt.</t>
+  </si>
+  <si>
+    <t>Rechts vor Links und "Achtung Schule"</t>
   </si>
 </sst>
 </file>
@@ -4040,12 +4055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I133" sqref="I133"/>
+      <pane ySplit="6" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L262" sqref="L262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4192,7 +4206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" s="19" customFormat="1" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1024" s="19" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -4282,7 +4296,7 @@
       <c r="AMI6" s="6"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" ht="95.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1024" ht="95.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>34</v>
       </c>
@@ -4342,7 +4356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1024" ht="56.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>34</v>
       </c>
@@ -4400,7 +4414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1024" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>50</v>
       </c>
@@ -4458,7 +4472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1024" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>55</v>
       </c>
@@ -4506,7 +4520,7 @@
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
     </row>
-    <row r="11" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>62</v>
       </c>
@@ -4554,7 +4568,7 @@
       <c r="Z11" s="32"/>
       <c r="AA11" s="32"/>
     </row>
-    <row r="12" spans="1:1024" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1024" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>68</v>
       </c>
@@ -4612,7 +4626,7 @@
       <c r="Z12" s="32"/>
       <c r="AA12" s="32"/>
     </row>
-    <row r="13" spans="1:1024" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1024" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>73</v>
       </c>
@@ -4732,7 +4746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>85</v>
       </c>
@@ -4798,7 +4812,7 @@
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
     </row>
-    <row r="16" spans="1:1024" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1024" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>91</v>
       </c>
@@ -4858,7 +4872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>96</v>
       </c>
@@ -4980,7 +4994,7 @@
       <c r="Z18" s="32"/>
       <c r="AA18" s="32"/>
     </row>
-    <row r="19" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>109</v>
       </c>
@@ -5044,7 +5058,7 @@
       <c r="Z19" s="32"/>
       <c r="AA19" s="32"/>
     </row>
-    <row r="20" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>109</v>
       </c>
@@ -5168,7 +5182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>122</v>
       </c>
@@ -5228,7 +5242,7 @@
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
     </row>
-    <row r="23" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>122</v>
       </c>
@@ -5286,7 +5300,7 @@
       <c r="Z23" s="32"/>
       <c r="AA23" s="32"/>
     </row>
-    <row r="24" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
         <v>131</v>
       </c>
@@ -5336,7 +5350,7 @@
       <c r="Z24" s="32"/>
       <c r="AA24" s="32"/>
     </row>
-    <row r="25" spans="1:27" ht="270.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="270.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>136</v>
       </c>
@@ -5404,7 +5418,7 @@
       <c r="Z25" s="32"/>
       <c r="AA25" s="32"/>
     </row>
-    <row r="26" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>142</v>
       </c>
@@ -5460,7 +5474,7 @@
       <c r="Z26" s="32"/>
       <c r="AA26" s="32"/>
     </row>
-    <row r="27" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>148</v>
       </c>
@@ -5518,7 +5532,7 @@
       <c r="Z27" s="32"/>
       <c r="AA27" s="32"/>
     </row>
-    <row r="28" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>153</v>
       </c>
@@ -5748,7 +5762,7 @@
       <c r="Z31" s="32"/>
       <c r="AA31" s="32"/>
     </row>
-    <row r="32" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>173</v>
       </c>
@@ -5806,7 +5820,7 @@
       <c r="Z32" s="32"/>
       <c r="AA32" s="32"/>
     </row>
-    <row r="33" spans="1:1024" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1024" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>178</v>
       </c>
@@ -5866,7 +5880,7 @@
       <c r="Z33" s="32"/>
       <c r="AA33" s="32"/>
     </row>
-    <row r="34" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
         <v>178</v>
       </c>
@@ -5926,7 +5940,7 @@
       <c r="Z34" s="32"/>
       <c r="AA34" s="32"/>
     </row>
-    <row r="35" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>178</v>
       </c>
@@ -5984,7 +5998,7 @@
       <c r="Z35" s="32"/>
       <c r="AA35" s="32"/>
     </row>
-    <row r="36" spans="1:1024" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1024" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>193</v>
       </c>
@@ -6042,7 +6056,7 @@
       <c r="Z36" s="32"/>
       <c r="AA36" s="32"/>
     </row>
-    <row r="37" spans="1:1024" ht="139.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1024" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>196</v>
       </c>
@@ -6102,7 +6116,7 @@
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
     </row>
-    <row r="38" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>200</v>
       </c>
@@ -6160,7 +6174,7 @@
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
     </row>
-    <row r="39" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>205</v>
       </c>
@@ -6218,7 +6232,7 @@
       <c r="Z39" s="32"/>
       <c r="AA39" s="32"/>
     </row>
-    <row r="40" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
         <v>210</v>
       </c>
@@ -6769,7 +6783,7 @@
       <c r="Z48" s="32"/>
       <c r="AA48" s="32"/>
     </row>
-    <row r="49" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>247</v>
       </c>
@@ -6827,7 +6841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>252</v>
       </c>
@@ -6887,7 +6901,7 @@
       <c r="Z50" s="32"/>
       <c r="AA50" s="32"/>
     </row>
-    <row r="51" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>258</v>
       </c>
@@ -6945,7 +6959,7 @@
       <c r="Z51" s="32"/>
       <c r="AA51" s="32"/>
     </row>
-    <row r="52" spans="1:27" ht="282.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>264</v>
       </c>
@@ -6993,7 +7007,7 @@
       <c r="Z52" s="32"/>
       <c r="AA52" s="32"/>
     </row>
-    <row r="53" spans="1:27" ht="99.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>269</v>
       </c>
@@ -7111,7 +7125,7 @@
       <c r="Z54" s="32"/>
       <c r="AA54" s="32"/>
     </row>
-    <row r="55" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>277</v>
       </c>
@@ -7173,7 +7187,7 @@
       <c r="Z55" s="32"/>
       <c r="AA55" s="32"/>
     </row>
-    <row r="56" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>277</v>
       </c>
@@ -7233,7 +7247,7 @@
       <c r="Z56" s="32"/>
       <c r="AA56" s="32"/>
     </row>
-    <row r="57" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>285</v>
       </c>
@@ -7291,7 +7305,7 @@
       <c r="Z57" s="32"/>
       <c r="AA57" s="32"/>
     </row>
-    <row r="58" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>285</v>
       </c>
@@ -7349,7 +7363,7 @@
       <c r="Z58" s="32"/>
       <c r="AA58" s="32"/>
     </row>
-    <row r="59" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>285</v>
       </c>
@@ -7407,7 +7421,7 @@
       <c r="Z59" s="32"/>
       <c r="AA59" s="32"/>
     </row>
-    <row r="60" spans="1:27" ht="137.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
         <v>285</v>
       </c>
@@ -7467,7 +7481,7 @@
       <c r="Z60" s="32"/>
       <c r="AA60" s="32"/>
     </row>
-    <row r="61" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>298</v>
       </c>
@@ -7525,7 +7539,7 @@
       <c r="Z61" s="32"/>
       <c r="AA61" s="32"/>
     </row>
-    <row r="62" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>302</v>
       </c>
@@ -7765,7 +7779,7 @@
       <c r="Z65" s="32"/>
       <c r="AA65" s="32"/>
     </row>
-    <row r="66" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>317</v>
       </c>
@@ -7823,7 +7837,7 @@
       <c r="Z66" s="32"/>
       <c r="AA66" s="32"/>
     </row>
-    <row r="67" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>317</v>
       </c>
@@ -7881,7 +7895,7 @@
       <c r="Z67" s="32"/>
       <c r="AA67" s="32"/>
     </row>
-    <row r="68" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>317</v>
       </c>
@@ -7939,7 +7953,7 @@
       <c r="Z68" s="32"/>
       <c r="AA68" s="32"/>
     </row>
-    <row r="69" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>325</v>
       </c>
@@ -7997,7 +8011,7 @@
       <c r="Z69" s="32"/>
       <c r="AA69" s="32"/>
     </row>
-    <row r="70" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>330</v>
       </c>
@@ -8057,7 +8071,7 @@
       <c r="Z70" s="32"/>
       <c r="AA70" s="32"/>
     </row>
-    <row r="71" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>330</v>
       </c>
@@ -8117,7 +8131,7 @@
       <c r="Z71" s="32"/>
       <c r="AA71" s="32"/>
     </row>
-    <row r="72" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>330</v>
       </c>
@@ -8177,7 +8191,7 @@
       <c r="Z72" s="32"/>
       <c r="AA72" s="32"/>
     </row>
-    <row r="73" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>341</v>
       </c>
@@ -8233,7 +8247,7 @@
       <c r="Z73" s="32"/>
       <c r="AA73" s="32"/>
     </row>
-    <row r="74" spans="1:27" ht="396" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="396" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
         <v>345</v>
       </c>
@@ -8291,7 +8305,7 @@
       <c r="Z74" s="32"/>
       <c r="AA74" s="32"/>
     </row>
-    <row r="75" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
         <v>345</v>
       </c>
@@ -8349,7 +8363,7 @@
       <c r="Z75" s="32"/>
       <c r="AA75" s="32"/>
     </row>
-    <row r="76" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>345</v>
       </c>
@@ -8407,7 +8421,7 @@
       <c r="Z76" s="32"/>
       <c r="AA76" s="32"/>
     </row>
-    <row r="77" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>358</v>
       </c>
@@ -8465,7 +8479,7 @@
       <c r="Z77" s="32"/>
       <c r="AA77" s="32"/>
     </row>
-    <row r="78" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>358</v>
       </c>
@@ -8521,7 +8535,7 @@
       <c r="Z78" s="32"/>
       <c r="AA78" s="32"/>
     </row>
-    <row r="79" spans="1:27" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
         <v>366</v>
       </c>
@@ -8581,7 +8595,7 @@
       </c>
       <c r="AA79" s="32"/>
     </row>
-    <row r="80" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>370</v>
       </c>
@@ -8641,7 +8655,7 @@
       </c>
       <c r="AA80" s="32"/>
     </row>
-    <row r="81" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
         <v>374</v>
       </c>
@@ -8699,7 +8713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>374</v>
       </c>
@@ -8757,7 +8771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
         <v>374</v>
       </c>
@@ -8815,7 +8829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
         <v>374</v>
       </c>
@@ -8873,7 +8887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:1024" ht="118.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1024" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>385</v>
       </c>
@@ -8933,7 +8947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
         <v>390</v>
       </c>
@@ -8991,7 +9005,7 @@
       <c r="Z86" s="32"/>
       <c r="AA86" s="32"/>
     </row>
-    <row r="87" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>395</v>
       </c>
@@ -9051,7 +9065,7 @@
       <c r="Z87" s="32"/>
       <c r="AA87" s="32"/>
     </row>
-    <row r="88" spans="1:1024" ht="261.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1024" ht="261.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
         <v>398</v>
       </c>
@@ -9111,7 +9125,7 @@
       <c r="Z88" s="32"/>
       <c r="AA88" s="32"/>
     </row>
-    <row r="89" spans="1:1024" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1024" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
         <v>402</v>
       </c>
@@ -9175,7 +9189,7 @@
       <c r="Z89" s="32"/>
       <c r="AA89" s="32"/>
     </row>
-    <row r="90" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
         <v>408</v>
       </c>
@@ -9235,7 +9249,7 @@
       <c r="Z90" s="32"/>
       <c r="AA90" s="32"/>
     </row>
-    <row r="91" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
         <v>414</v>
       </c>
@@ -9295,7 +9309,7 @@
       </c>
       <c r="AA91" s="32"/>
     </row>
-    <row r="92" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>414</v>
       </c>
@@ -9355,7 +9369,7 @@
       </c>
       <c r="AA92" s="32"/>
     </row>
-    <row r="93" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>414</v>
       </c>
@@ -9413,7 +9427,7 @@
       </c>
       <c r="AA93" s="32"/>
     </row>
-    <row r="94" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
         <v>424</v>
       </c>
@@ -9471,7 +9485,7 @@
       </c>
       <c r="AA94" s="32"/>
     </row>
-    <row r="95" spans="1:1024" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
         <v>429</v>
       </c>
@@ -9529,7 +9543,7 @@
       </c>
       <c r="AA95" s="32"/>
     </row>
-    <row r="96" spans="1:1024" s="48" customFormat="1" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1024" s="48" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
         <v>429</v>
       </c>
@@ -9596,7 +9610,7 @@
       <c r="AMI96" s="6"/>
       <c r="AMJ96" s="6"/>
     </row>
-    <row r="97" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
         <v>429</v>
       </c>
@@ -9656,7 +9670,7 @@
       </c>
       <c r="AA97" s="32"/>
     </row>
-    <row r="98" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
         <v>429</v>
       </c>
@@ -9716,7 +9730,7 @@
       </c>
       <c r="AA98" s="32"/>
     </row>
-    <row r="99" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
         <v>436</v>
       </c>
@@ -9836,7 +9850,7 @@
       <c r="Z100" s="32"/>
       <c r="AA100" s="32"/>
     </row>
-    <row r="101" spans="1:27" ht="116.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
         <v>444</v>
       </c>
@@ -9894,7 +9908,7 @@
       <c r="Z101" s="32"/>
       <c r="AA101" s="32"/>
     </row>
-    <row r="102" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
         <v>450</v>
       </c>
@@ -9954,7 +9968,7 @@
       <c r="Z102" s="32"/>
       <c r="AA102" s="32"/>
     </row>
-    <row r="103" spans="1:27" ht="327" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" ht="327" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
         <v>453</v>
       </c>
@@ -10012,7 +10026,7 @@
       <c r="Z103" s="32"/>
       <c r="AA103" s="32"/>
     </row>
-    <row r="104" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
         <v>458</v>
       </c>
@@ -10070,7 +10084,7 @@
       <c r="Z104" s="32"/>
       <c r="AA104" s="32"/>
     </row>
-    <row r="105" spans="1:27" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="33" t="s">
         <v>458</v>
       </c>
@@ -10128,7 +10142,7 @@
       <c r="Z105" s="32"/>
       <c r="AA105" s="32"/>
     </row>
-    <row r="106" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
         <v>465</v>
       </c>
@@ -10188,7 +10202,7 @@
       <c r="Z106" s="32"/>
       <c r="AA106" s="32"/>
     </row>
-    <row r="107" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
         <v>470</v>
       </c>
@@ -10246,7 +10260,7 @@
       <c r="Z107" s="32"/>
       <c r="AA107" s="32"/>
     </row>
-    <row r="108" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
         <v>474</v>
       </c>
@@ -10304,7 +10318,7 @@
       <c r="Z108" s="32"/>
       <c r="AA108" s="32"/>
     </row>
-    <row r="109" spans="1:27" ht="306.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" ht="306.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
         <v>479</v>
       </c>
@@ -10364,7 +10378,7 @@
       <c r="Z109" s="32"/>
       <c r="AA109" s="32"/>
     </row>
-    <row r="110" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
         <v>485</v>
       </c>
@@ -10422,7 +10436,7 @@
       <c r="Z110" s="32"/>
       <c r="AA110" s="32"/>
     </row>
-    <row r="111" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
         <v>490</v>
       </c>
@@ -10480,7 +10494,7 @@
       <c r="Z111" s="32"/>
       <c r="AA111" s="32"/>
     </row>
-    <row r="112" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
         <v>490</v>
       </c>
@@ -10540,7 +10554,7 @@
       <c r="Z112" s="32"/>
       <c r="AA112" s="32"/>
     </row>
-    <row r="113" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
         <v>499</v>
       </c>
@@ -10598,7 +10612,7 @@
       <c r="Z113" s="32"/>
       <c r="AA113" s="32"/>
     </row>
-    <row r="114" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
         <v>499</v>
       </c>
@@ -10656,7 +10670,7 @@
       <c r="Z114" s="32"/>
       <c r="AA114" s="32"/>
     </row>
-    <row r="115" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
         <v>506</v>
       </c>
@@ -10716,7 +10730,7 @@
       <c r="Z115" s="32"/>
       <c r="AA115" s="32"/>
     </row>
-    <row r="116" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
         <v>512</v>
       </c>
@@ -10774,7 +10788,7 @@
       <c r="Z116" s="32"/>
       <c r="AA116" s="32"/>
     </row>
-    <row r="117" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
         <v>515</v>
       </c>
@@ -10832,7 +10846,7 @@
       <c r="Z117" s="32"/>
       <c r="AA117" s="32"/>
     </row>
-    <row r="118" spans="1:27" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
         <v>520</v>
       </c>
@@ -10892,7 +10906,7 @@
       <c r="Z118" s="32"/>
       <c r="AA118" s="32"/>
     </row>
-    <row r="119" spans="1:27" ht="342.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" ht="342.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
         <v>525</v>
       </c>
@@ -10952,7 +10966,7 @@
       <c r="Z119" s="32"/>
       <c r="AA119" s="32"/>
     </row>
-    <row r="120" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
         <v>525</v>
       </c>
@@ -11010,7 +11024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
         <v>533</v>
       </c>
@@ -11068,7 +11082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
         <v>537</v>
       </c>
@@ -11128,7 +11142,7 @@
       <c r="Z122" s="32"/>
       <c r="AA122" s="32"/>
     </row>
-    <row r="123" spans="1:27" ht="245.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" ht="245.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
         <v>541</v>
       </c>
@@ -11188,7 +11202,7 @@
       <c r="Z123" s="32"/>
       <c r="AA123" s="32"/>
     </row>
-    <row r="124" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
         <v>545</v>
       </c>
@@ -11248,7 +11262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
         <v>550</v>
       </c>
@@ -11306,7 +11320,7 @@
       <c r="Z125" s="32"/>
       <c r="AA125" s="32"/>
     </row>
-    <row r="126" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
         <v>550</v>
       </c>
@@ -11364,7 +11378,7 @@
       <c r="Z126" s="32"/>
       <c r="AA126" s="32"/>
     </row>
-    <row r="127" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
         <v>554</v>
       </c>
@@ -11422,7 +11436,7 @@
       <c r="Z127" s="32"/>
       <c r="AA127" s="32"/>
     </row>
-    <row r="128" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
         <v>559</v>
       </c>
@@ -11482,7 +11496,7 @@
       <c r="Z128" s="32"/>
       <c r="AA128" s="32"/>
     </row>
-    <row r="129" spans="1:27" ht="357.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" ht="357.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
         <v>564</v>
       </c>
@@ -11544,7 +11558,7 @@
       <c r="Z129" s="32"/>
       <c r="AA129" s="32"/>
     </row>
-    <row r="130" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
         <v>564</v>
       </c>
@@ -11970,7 +11984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
         <v>592</v>
       </c>
@@ -12272,7 +12286,7 @@
       <c r="Z141" s="32"/>
       <c r="AA141" s="32"/>
     </row>
-    <row r="142" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
         <v>611</v>
       </c>
@@ -12336,7 +12350,7 @@
       <c r="Z142" s="32"/>
       <c r="AA142" s="32"/>
     </row>
-    <row r="143" spans="1:27" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
         <v>614</v>
       </c>
@@ -12394,7 +12408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
         <v>619</v>
       </c>
@@ -12452,7 +12466,7 @@
       <c r="Z144" s="32"/>
       <c r="AA144" s="32"/>
     </row>
-    <row r="145" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
         <v>619</v>
       </c>
@@ -12512,7 +12526,7 @@
       <c r="Z145" s="32"/>
       <c r="AA145" s="32"/>
     </row>
-    <row r="146" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
         <v>626</v>
       </c>
@@ -12572,7 +12586,7 @@
       <c r="Z146" s="32"/>
       <c r="AA146" s="32"/>
     </row>
-    <row r="147" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="33" t="s">
         <v>630</v>
       </c>
@@ -12632,7 +12646,7 @@
       <c r="Z147" s="32"/>
       <c r="AA147" s="32"/>
     </row>
-    <row r="148" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="33" t="s">
         <v>633</v>
       </c>
@@ -12723,7 +12737,7 @@
         <v>43</v>
       </c>
       <c r="K149" s="28" t="str">
-        <f t="shared" ref="K149:K184" si="16">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A149),A149)</f>
+        <f t="shared" ref="K149:K205" si="16">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A149),A149)</f>
         <v>8PMQ+XJ</v>
       </c>
       <c r="L149" s="29"/>
@@ -12812,7 +12826,7 @@
       <c r="Z150" s="32"/>
       <c r="AA150" s="32"/>
     </row>
-    <row r="151" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="33" t="s">
         <v>647</v>
       </c>
@@ -12870,7 +12884,7 @@
       <c r="Z151" s="32"/>
       <c r="AA151" s="32"/>
     </row>
-    <row r="152" spans="1:27" ht="258" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" ht="258" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
         <v>652</v>
       </c>
@@ -13238,7 +13252,7 @@
       <c r="Z157" s="32"/>
       <c r="AA157" s="32"/>
     </row>
-    <row r="158" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
         <v>683</v>
       </c>
@@ -13298,7 +13312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="33" t="s">
         <v>687</v>
       </c>
@@ -13356,7 +13370,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="33" t="s">
         <v>690</v>
       </c>
@@ -13538,7 +13552,7 @@
       <c r="Z162" s="32"/>
       <c r="AA162" s="32"/>
     </row>
-    <row r="163" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
         <v>704</v>
       </c>
@@ -13600,7 +13614,7 @@
       </c>
       <c r="AA163" s="32"/>
     </row>
-    <row r="164" spans="1:27" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
         <v>710</v>
       </c>
@@ -13664,7 +13678,7 @@
       </c>
       <c r="AA164" s="32"/>
     </row>
-    <row r="165" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="33" t="s">
         <v>710</v>
       </c>
@@ -13724,7 +13738,7 @@
       <c r="Z165" s="32"/>
       <c r="AA165" s="32"/>
     </row>
-    <row r="166" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="33" t="s">
         <v>710</v>
       </c>
@@ -13784,7 +13798,7 @@
       <c r="Z166" s="32"/>
       <c r="AA166" s="32"/>
     </row>
-    <row r="167" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="33" t="s">
         <v>710</v>
       </c>
@@ -13844,7 +13858,7 @@
       <c r="Z167" s="32"/>
       <c r="AA167" s="32"/>
     </row>
-    <row r="168" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="33" t="s">
         <v>710</v>
       </c>
@@ -13904,7 +13918,7 @@
       <c r="Z168" s="32"/>
       <c r="AA168" s="32"/>
     </row>
-    <row r="169" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="33" t="s">
         <v>710</v>
       </c>
@@ -13964,7 +13978,7 @@
       <c r="Z169" s="32"/>
       <c r="AA169" s="32"/>
     </row>
-    <row r="170" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="33" t="s">
         <v>710</v>
       </c>
@@ -14024,7 +14038,7 @@
       <c r="Z170" s="32"/>
       <c r="AA170" s="32"/>
     </row>
-    <row r="171" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="33" t="s">
         <v>710</v>
       </c>
@@ -14082,7 +14096,7 @@
       <c r="Z171" s="32"/>
       <c r="AA171" s="32"/>
     </row>
-    <row r="172" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="33" t="s">
         <v>710</v>
       </c>
@@ -14140,7 +14154,7 @@
       <c r="Z172" s="32"/>
       <c r="AA172" s="32"/>
     </row>
-    <row r="173" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="33" t="s">
         <v>710</v>
       </c>
@@ -14198,7 +14212,7 @@
       <c r="Z173" s="32"/>
       <c r="AA173" s="32"/>
     </row>
-    <row r="174" spans="1:27" ht="84" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="33" t="s">
         <v>710</v>
       </c>
@@ -14258,7 +14272,7 @@
       <c r="Z174" s="32"/>
       <c r="AA174" s="32"/>
     </row>
-    <row r="175" spans="1:27" ht="140.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="33" t="s">
         <v>739</v>
       </c>
@@ -14318,7 +14332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="182.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="33" t="s">
         <v>744</v>
       </c>
@@ -14378,7 +14392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" ht="225" x14ac:dyDescent="0.3">
       <c r="A177" s="33" t="s">
         <v>748</v>
       </c>
@@ -14436,7 +14450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
         <v>752</v>
       </c>
@@ -14494,7 +14508,7 @@
       <c r="Z178" s="32"/>
       <c r="AA178" s="32"/>
     </row>
-    <row r="179" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="33" t="s">
         <v>757</v>
       </c>
@@ -14554,7 +14568,7 @@
       <c r="Z179" s="32"/>
       <c r="AA179" s="32"/>
     </row>
-    <row r="180" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="33" t="s">
         <v>763</v>
       </c>
@@ -14614,7 +14628,7 @@
       </c>
       <c r="AA180" s="32"/>
     </row>
-    <row r="181" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="33" t="s">
         <v>767</v>
       </c>
@@ -14672,7 +14686,7 @@
       <c r="Z181" s="32"/>
       <c r="AA181" s="32"/>
     </row>
-    <row r="182" spans="1:27" ht="56.65" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="33" t="s">
         <v>771</v>
       </c>
@@ -14730,7 +14744,7 @@
       <c r="Z182" s="32"/>
       <c r="AA182" s="32"/>
     </row>
-    <row r="183" spans="1:27" ht="214.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="33" t="s">
         <v>776</v>
       </c>
@@ -14790,7 +14804,7 @@
       <c r="Z183" s="32"/>
       <c r="AA183" s="32"/>
     </row>
-    <row r="184" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="33" t="s">
         <v>782</v>
       </c>
@@ -14850,7 +14864,7 @@
       <c r="Z184" s="32"/>
       <c r="AA184" s="32"/>
     </row>
-    <row r="185" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="33" t="s">
         <v>784</v>
       </c>
@@ -14899,7 +14913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="33" t="s">
         <v>786</v>
       </c>
@@ -14960,7 +14974,7 @@
       <c r="Z186" s="32"/>
       <c r="AA186" s="32"/>
     </row>
-    <row r="187" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="33" t="s">
         <v>789</v>
       </c>
@@ -15009,7 +15023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="33" t="s">
         <v>792</v>
       </c>
@@ -15058,7 +15072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="33" t="s">
         <v>792</v>
       </c>
@@ -15107,7 +15121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="33" t="s">
         <v>795</v>
       </c>
@@ -15156,7 +15170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="33" t="s">
         <v>795</v>
       </c>
@@ -15205,7 +15219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="168.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="33" t="s">
         <v>796</v>
       </c>
@@ -15254,7 +15268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="33" t="s">
         <v>796</v>
       </c>
@@ -15303,7 +15317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="33" t="s">
         <v>796</v>
       </c>
@@ -15352,7 +15366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="33" t="s">
         <v>796</v>
       </c>
@@ -15399,7 +15413,7 @@
       <c r="Z195" s="32"/>
       <c r="AA195" s="32"/>
     </row>
-    <row r="196" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="33" t="s">
         <v>796</v>
       </c>
@@ -15448,7 +15462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="33" t="s">
         <v>807</v>
       </c>
@@ -15497,7 +15511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="33" t="s">
         <v>809</v>
       </c>
@@ -15546,7 +15560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="33" t="s">
         <v>809</v>
       </c>
@@ -15595,7 +15609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="33" t="s">
         <v>809</v>
       </c>
@@ -15650,7 +15664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="33" t="s">
         <v>809</v>
       </c>
@@ -15699,7 +15713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="33" t="s">
         <v>809</v>
       </c>
@@ -15748,7 +15762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="33" t="s">
         <v>809</v>
       </c>
@@ -15797,7 +15811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="33" t="s">
         <v>809</v>
       </c>
@@ -15846,7 +15860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="33" t="s">
         <v>809</v>
       </c>
@@ -15895,7 +15909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="33" t="s">
         <v>809</v>
       </c>
@@ -15944,7 +15958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="33" t="s">
         <v>809</v>
       </c>
@@ -15993,7 +16007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="33" t="s">
         <v>809</v>
       </c>
@@ -16042,7 +16056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="33" t="s">
         <v>809</v>
       </c>
@@ -16091,7 +16105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="33" t="s">
         <v>809</v>
       </c>
@@ -16138,7 +16152,7 @@
       <c r="Z210" s="32"/>
       <c r="AA210" s="32"/>
     </row>
-    <row r="211" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="33" t="s">
         <v>809</v>
       </c>
@@ -16185,7 +16199,7 @@
       <c r="Z211" s="32"/>
       <c r="AA211" s="32"/>
     </row>
-    <row r="212" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="33" t="s">
         <v>809</v>
       </c>
@@ -16226,7 +16240,7 @@
       <c r="Z212" s="32"/>
       <c r="AA212" s="32"/>
     </row>
-    <row r="213" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="33" t="s">
         <v>809</v>
       </c>
@@ -16275,7 +16289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="33" t="s">
         <v>809</v>
       </c>
@@ -16324,7 +16338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="33" t="s">
         <v>628</v>
       </c>
@@ -16376,7 +16390,7 @@
       <c r="Z215" s="32"/>
       <c r="AA215" s="32"/>
     </row>
-    <row r="216" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="33" t="s">
         <v>628</v>
       </c>
@@ -16423,7 +16437,7 @@
       <c r="Z216" s="32"/>
       <c r="AA216" s="32"/>
     </row>
-    <row r="217" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="33" t="s">
         <v>834</v>
       </c>
@@ -16472,7 +16486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="33" t="s">
         <v>834</v>
       </c>
@@ -16521,7 +16535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="33" t="s">
         <v>834</v>
       </c>
@@ -16570,7 +16584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="33" t="s">
         <v>834</v>
       </c>
@@ -16619,7 +16633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="204.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="33" t="s">
         <v>834</v>
       </c>
@@ -16668,7 +16682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="33" t="s">
         <v>834</v>
       </c>
@@ -16717,7 +16731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="33" t="s">
         <v>834</v>
       </c>
@@ -16764,7 +16778,7 @@
       <c r="Z223" s="32"/>
       <c r="AA223" s="32"/>
     </row>
-    <row r="224" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="33" t="s">
         <v>845</v>
       </c>
@@ -16813,7 +16827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="33" t="s">
         <v>845</v>
       </c>
@@ -16862,7 +16876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="33" t="s">
         <v>561</v>
       </c>
@@ -16911,7 +16925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="33" t="s">
         <v>561</v>
       </c>
@@ -16960,7 +16974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="228" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="33" t="s">
         <v>561</v>
       </c>
@@ -17009,7 +17023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="33" t="s">
         <v>561</v>
       </c>
@@ -17058,7 +17072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="33" t="s">
         <v>853</v>
       </c>
@@ -17107,7 +17121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="33" t="s">
         <v>853</v>
       </c>
@@ -17156,7 +17170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="33" t="s">
         <v>853</v>
       </c>
@@ -17205,7 +17219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="33" t="s">
         <v>853</v>
       </c>
@@ -17254,7 +17268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="234" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="33" t="s">
         <v>853</v>
       </c>
@@ -17303,7 +17317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="33" t="s">
         <v>859</v>
       </c>
@@ -17352,7 +17366,7 @@
       <c r="Z235" s="32"/>
       <c r="AA235" s="32"/>
     </row>
-    <row r="236" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="33" t="s">
         <v>859</v>
       </c>
@@ -17401,7 +17415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="33" t="s">
         <v>859</v>
       </c>
@@ -17450,7 +17464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="33" t="s">
         <v>859</v>
       </c>
@@ -17499,7 +17513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="33" t="s">
         <v>863</v>
       </c>
@@ -17548,7 +17562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="240" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="33" t="s">
         <v>863</v>
       </c>
@@ -17597,7 +17611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="33" t="s">
         <v>867</v>
       </c>
@@ -17646,7 +17660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="33" t="s">
         <v>867</v>
       </c>
@@ -17695,7 +17709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="243" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="33" t="s">
         <v>867</v>
       </c>
@@ -17744,7 +17758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="33" t="s">
         <v>867</v>
       </c>
@@ -17793,7 +17807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="33" t="s">
         <v>867</v>
       </c>
@@ -17842,7 +17856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="246" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="33" t="s">
         <v>875</v>
       </c>
@@ -17891,7 +17905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="247" spans="1:27" ht="211.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="39" t="s">
         <v>877</v>
       </c>
@@ -17939,7 +17953,7 @@
       <c r="Z247" s="32"/>
       <c r="AA247" s="32"/>
     </row>
-    <row r="248" spans="1:27" ht="291.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" ht="291.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="39" t="s">
         <v>883</v>
       </c>
@@ -17987,7 +18001,7 @@
       <c r="Z248" s="32"/>
       <c r="AA248" s="32"/>
     </row>
-    <row r="249" spans="1:27" ht="284.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" ht="284.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="39" t="s">
         <v>889</v>
       </c>
@@ -18035,7 +18049,7 @@
       <c r="Z249" s="32"/>
       <c r="AA249" s="32"/>
     </row>
-    <row r="250" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="39" t="s">
         <v>894</v>
       </c>
@@ -18083,7 +18097,7 @@
       <c r="Z250" s="32"/>
       <c r="AA250" s="32"/>
     </row>
-    <row r="251" spans="1:27" ht="96" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="39" t="s">
         <v>900</v>
       </c>
@@ -18131,7 +18145,7 @@
       <c r="Z251" s="32"/>
       <c r="AA251" s="32"/>
     </row>
-    <row r="252" spans="1:27" ht="109.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" ht="109.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="39" t="s">
         <v>905</v>
       </c>
@@ -18179,7 +18193,7 @@
       <c r="Z252" s="32"/>
       <c r="AA252" s="32"/>
     </row>
-    <row r="253" spans="1:27" ht="85.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="39" t="s">
         <v>912</v>
       </c>
@@ -18227,7 +18241,7 @@
       <c r="Z253" s="32"/>
       <c r="AA253" s="32"/>
     </row>
-    <row r="254" spans="1:27" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="39" t="s">
         <v>917</v>
       </c>
@@ -18325,7 +18339,7 @@
       <c r="Z255" s="32"/>
       <c r="AA255" s="32"/>
     </row>
-    <row r="256" spans="1:27" ht="133.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="39" t="s">
         <v>928</v>
       </c>
@@ -18373,7 +18387,7 @@
       <c r="Z256" s="32"/>
       <c r="AA256" s="32"/>
     </row>
-    <row r="257" spans="1:27" ht="206.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A257" s="39" t="s">
         <v>933</v>
       </c>
@@ -18421,7 +18435,7 @@
       <c r="Z257" s="55"/>
       <c r="AA257" s="55"/>
     </row>
-    <row r="258" spans="1:27" ht="337.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A258" s="39" t="s">
         <v>936</v>
       </c>
@@ -18474,7 +18488,7 @@
         <v>939</v>
       </c>
       <c r="B259" s="56" t="str">
-        <f t="shared" ref="B259:B260" si="22">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A259,4),"%2B",RIGHT(A259,2)),A259)</f>
+        <f t="shared" ref="B259:B261" si="22">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A259,4),"%2B",RIGHT(A259,2)),A259)</f>
         <v>7PJ6+MR</v>
       </c>
       <c r="C259" s="40" t="s">
@@ -18519,7 +18533,7 @@
       <c r="Z259" s="55"/>
       <c r="AA259" s="55"/>
     </row>
-    <row r="260" spans="1:27" ht="375" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" ht="375" x14ac:dyDescent="0.3">
       <c r="A260" s="39" t="s">
         <v>943</v>
       </c>
@@ -18567,7 +18581,60 @@
       <c r="Z260" s="55"/>
       <c r="AA260" s="55"/>
     </row>
-    <row r="261" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" spans="1:27" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A261" s="39" t="s">
+        <v>971</v>
+      </c>
+      <c r="B261" s="56" t="str">
+        <f t="shared" si="22"/>
+        <v>8PGV+2F</v>
+      </c>
+      <c r="C261" s="40" t="s">
+        <v>972</v>
+      </c>
+      <c r="D261" s="41">
+        <v>44745</v>
+      </c>
+      <c r="E261" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F261" s="40" t="s">
+        <v>973</v>
+      </c>
+      <c r="G261" s="40" t="s">
+        <v>974</v>
+      </c>
+      <c r="H261" s="40" t="s">
+        <v>975</v>
+      </c>
+      <c r="I261" s="40" t="e">
+        <f>- offen</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J261" s="52"/>
+      <c r="K261" s="28" t="str">
+        <f t="shared" ref="K261" si="23">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A261),A261)</f>
+        <v>8PGV+2F</v>
+      </c>
+      <c r="L261" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M261" s="53"/>
+      <c r="N261" s="54"/>
+      <c r="O261" s="55"/>
+      <c r="P261" s="55"/>
+      <c r="Q261" s="55"/>
+      <c r="R261" s="55"/>
+      <c r="S261" s="55"/>
+      <c r="T261" s="55"/>
+      <c r="U261" s="55"/>
+      <c r="V261" s="55"/>
+      <c r="W261" s="55"/>
+      <c r="X261" s="55"/>
+      <c r="Y261" s="55"/>
+      <c r="Z261" s="55"/>
+      <c r="AA261" s="55"/>
+    </row>
     <row r="262" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="263" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="264" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18585,13 +18652,7 @@
     <row r="276" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="277" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A6:AA260" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A6:AA261" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I74" r:id="rId1" display="- 2018-08-23 - Jens Spille - Herr Vinken (Region Hannover) informiert über die Planungsabsichten der Region Hannover, als zuständige Straßenbaulastträgerin, die Weetzener Landstraße (K 221) zwischen der Einmündung Dorfstraße und dem Kreisverkehr Marie-Curie-Straße/ Alfred-Bentz-Straße umzugestalten. Der Bereich wird in insgesamt 5 Abschnitte unterteilt. Die Planung wird stufenweise umgesetzt.  _x000a__x000a_[Umgestaltung Weetzener Landstraße (K221) (4579 KB)](https://www.stadthemmingen.de/allris/to020.asp?TOLFDNR=808)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B9DE4F-A106-4A8F-9741-C36822722182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF774550-B247-476D-BD6E-56D8F07BF220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="986">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -3293,6 +3293,36 @@
   </si>
   <si>
     <t>Rechts vor Links und "Achtung Schule"</t>
+  </si>
+  <si>
+    <t>Schlechter Belag</t>
+  </si>
+  <si>
+    <t>Der Belag ist in einem schlechten Zustand. Bei Regen weich und matschig.</t>
+  </si>
+  <si>
+    <t>Sanieren</t>
+  </si>
+  <si>
+    <t>8P6G+W4</t>
+  </si>
+  <si>
+    <t>Defekter Belag / Löcher</t>
+  </si>
+  <si>
+    <t>7PXM+GM</t>
+  </si>
+  <si>
+    <t>Tal der Büffel</t>
+  </si>
+  <si>
+    <t>Der Belag ist in einem schlechten Zustand. Hat Löcher. Sturzgefahr.</t>
+  </si>
+  <si>
+    <t>Ausbessern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weg  südlich der Freda-Wuesthoff-Straße </t>
   </si>
 </sst>
 </file>
@@ -4059,7 +4089,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L262" sqref="L262"/>
+      <selection pane="bottomLeft" activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -12737,7 +12767,7 @@
         <v>43</v>
       </c>
       <c r="K149" s="28" t="str">
-        <f t="shared" ref="K149:K205" si="16">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A149),A149)</f>
+        <f t="shared" ref="K149:K184" si="16">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A149),A149)</f>
         <v>8PMQ+XJ</v>
       </c>
       <c r="L149" s="29"/>
@@ -18607,9 +18637,8 @@
       <c r="H261" s="40" t="s">
         <v>975</v>
       </c>
-      <c r="I261" s="40" t="e">
-        <f>- offen</f>
-        <v>#NAME?</v>
+      <c r="I261" s="40" t="s">
+        <v>48</v>
       </c>
       <c r="J261" s="52"/>
       <c r="K261" s="28" t="str">
@@ -18635,8 +18664,112 @@
       <c r="Z261" s="55"/>
       <c r="AA261" s="55"/>
     </row>
-    <row r="262" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A262" s="39" t="s">
+        <v>979</v>
+      </c>
+      <c r="B262" s="56" t="str">
+        <f t="shared" ref="B262" si="24">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A262,4),"%2B",RIGHT(A262,2)),A262)</f>
+        <v>8P6G+W4</v>
+      </c>
+      <c r="C262" s="40" t="s">
+        <v>976</v>
+      </c>
+      <c r="D262" s="41">
+        <v>44748</v>
+      </c>
+      <c r="E262" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F262" s="40" t="s">
+        <v>985</v>
+      </c>
+      <c r="G262" s="40" t="s">
+        <v>977</v>
+      </c>
+      <c r="H262" s="40" t="s">
+        <v>978</v>
+      </c>
+      <c r="I262" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J262" s="52"/>
+      <c r="K262" s="28" t="str">
+        <f t="shared" ref="K262" si="25">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A262),A262)</f>
+        <v>8P6G+W4</v>
+      </c>
+      <c r="L262" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M262" s="53"/>
+      <c r="N262" s="54"/>
+      <c r="O262" s="55"/>
+      <c r="P262" s="55"/>
+      <c r="Q262" s="55"/>
+      <c r="R262" s="55"/>
+      <c r="S262" s="55"/>
+      <c r="T262" s="55"/>
+      <c r="U262" s="55"/>
+      <c r="V262" s="55"/>
+      <c r="W262" s="55"/>
+      <c r="X262" s="55"/>
+      <c r="Y262" s="55"/>
+      <c r="Z262" s="55"/>
+      <c r="AA262" s="55"/>
+    </row>
+    <row r="263" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A263" s="39" t="s">
+        <v>981</v>
+      </c>
+      <c r="B263" s="56" t="str">
+        <f t="shared" ref="B263" si="26">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A263,4),"%2B",RIGHT(A263,2)),A263)</f>
+        <v>7PXM+GM</v>
+      </c>
+      <c r="C263" s="40" t="s">
+        <v>980</v>
+      </c>
+      <c r="D263" s="41">
+        <v>44748</v>
+      </c>
+      <c r="E263" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F263" s="40" t="s">
+        <v>982</v>
+      </c>
+      <c r="G263" s="40" t="s">
+        <v>983</v>
+      </c>
+      <c r="H263" s="40" t="s">
+        <v>984</v>
+      </c>
+      <c r="I263" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J263" s="52"/>
+      <c r="K263" s="28" t="str">
+        <f t="shared" ref="K263" si="27">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A263),A263)</f>
+        <v>7PXM+GM</v>
+      </c>
+      <c r="L263" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M263" s="53"/>
+      <c r="N263" s="54"/>
+      <c r="O263" s="55"/>
+      <c r="P263" s="55"/>
+      <c r="Q263" s="55"/>
+      <c r="R263" s="55"/>
+      <c r="S263" s="55"/>
+      <c r="T263" s="55"/>
+      <c r="U263" s="55"/>
+      <c r="V263" s="55"/>
+      <c r="W263" s="55"/>
+      <c r="X263" s="55"/>
+      <c r="Y263" s="55"/>
+      <c r="Z263" s="55"/>
+      <c r="AA263" s="55"/>
+    </row>
     <row r="264" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="265" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="266" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\2_Projekte\Proj2022\2022-06-29-Wed_AG-Vorbereitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF774550-B247-476D-BD6E-56D8F07BF220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB0EFB-2949-411B-9DA3-9F31D9A02DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="994">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -3323,6 +3323,30 @@
   </si>
   <si>
     <t xml:space="preserve">Weg  südlich der Freda-Wuesthoff-Straße </t>
+  </si>
+  <si>
+    <t>Querrillen im Belag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schotter Weg zu schmal </t>
+  </si>
+  <si>
+    <t>Vor Hundephulfsweg Brücke</t>
+  </si>
+  <si>
+    <t>Der Belag ist in einem schlechten Zustand. Hat große Querrillen.</t>
+  </si>
+  <si>
+    <t>Der Weg ist zu schmal und keine glatte Oberfläche</t>
+  </si>
+  <si>
+    <t>Asphaltieren</t>
+  </si>
+  <si>
+    <t>8P8W+CH</t>
+  </si>
+  <si>
+    <t>8P6V+4C</t>
   </si>
 </sst>
 </file>
@@ -4089,7 +4113,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E264" sqref="E264"/>
+      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -18770,8 +18794,112 @@
       <c r="Z263" s="55"/>
       <c r="AA263" s="55"/>
     </row>
-    <row r="264" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A264" s="39" t="s">
+        <v>992</v>
+      </c>
+      <c r="B264" s="56" t="str">
+        <f t="shared" ref="B264:B265" si="28">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A264,4),"%2B",RIGHT(A264,2)),A264)</f>
+        <v>8P8W+CH</v>
+      </c>
+      <c r="C264" s="40" t="s">
+        <v>986</v>
+      </c>
+      <c r="D264" s="41">
+        <v>44748</v>
+      </c>
+      <c r="E264" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F264" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G264" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="H264" s="40" t="s">
+        <v>984</v>
+      </c>
+      <c r="I264" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J264" s="52"/>
+      <c r="K264" s="28" t="str">
+        <f t="shared" ref="K264:K265" si="29">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A264),A264)</f>
+        <v>8P8W+CH</v>
+      </c>
+      <c r="L264" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M264" s="53"/>
+      <c r="N264" s="54"/>
+      <c r="O264" s="55"/>
+      <c r="P264" s="55"/>
+      <c r="Q264" s="55"/>
+      <c r="R264" s="55"/>
+      <c r="S264" s="55"/>
+      <c r="T264" s="55"/>
+      <c r="U264" s="55"/>
+      <c r="V264" s="55"/>
+      <c r="W264" s="55"/>
+      <c r="X264" s="55"/>
+      <c r="Y264" s="55"/>
+      <c r="Z264" s="55"/>
+      <c r="AA264" s="55"/>
+    </row>
+    <row r="265" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A265" s="39" t="s">
+        <v>993</v>
+      </c>
+      <c r="B265" s="56" t="str">
+        <f t="shared" si="28"/>
+        <v>8P6V+4C</v>
+      </c>
+      <c r="C265" s="40" t="s">
+        <v>987</v>
+      </c>
+      <c r="D265" s="41">
+        <v>44748</v>
+      </c>
+      <c r="E265" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F265" s="40" t="s">
+        <v>988</v>
+      </c>
+      <c r="G265" s="40" t="s">
+        <v>990</v>
+      </c>
+      <c r="H265" s="40" t="s">
+        <v>991</v>
+      </c>
+      <c r="I265" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J265" s="52"/>
+      <c r="K265" s="28" t="str">
+        <f t="shared" si="29"/>
+        <v>8P6V+4C</v>
+      </c>
+      <c r="L265" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M265" s="53"/>
+      <c r="N265" s="54"/>
+      <c r="O265" s="55"/>
+      <c r="P265" s="55"/>
+      <c r="Q265" s="55"/>
+      <c r="R265" s="55"/>
+      <c r="S265" s="55"/>
+      <c r="T265" s="55"/>
+      <c r="U265" s="55"/>
+      <c r="V265" s="55"/>
+      <c r="W265" s="55"/>
+      <c r="X265" s="55"/>
+      <c r="Y265" s="55"/>
+      <c r="Z265" s="55"/>
+      <c r="AA265" s="55"/>
+    </row>
     <row r="266" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="267" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="268" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\2_Projekte\Proj2022\2022-06-29-Wed_AG-Vorbereitung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB0EFB-2949-411B-9DA3-9F31D9A02DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873A670-416C-4A19-B6AA-4131EF6CC13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="998">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -3347,6 +3347,18 @@
   </si>
   <si>
     <t>8P6V+4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pictogramme auf südlicher Seite </t>
+  </si>
+  <si>
+    <t>Klare Kennzeichnung fehlt</t>
+  </si>
+  <si>
+    <t>Pictogramme</t>
+  </si>
+  <si>
+    <t>8PFJ+PH</t>
   </si>
 </sst>
 </file>
@@ -18900,7 +18912,59 @@
       <c r="Z265" s="55"/>
       <c r="AA265" s="55"/>
     </row>
-    <row r="266" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A266" s="39" t="s">
+        <v>997</v>
+      </c>
+      <c r="B266" s="56" t="str">
+        <f t="shared" ref="B266" si="30">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A266,4),"%2B",RIGHT(A266,2)),A266)</f>
+        <v>8PFJ+PH</v>
+      </c>
+      <c r="C266" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="D266" s="41">
+        <v>44748</v>
+      </c>
+      <c r="E266" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F266" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="G266" s="40" t="s">
+        <v>995</v>
+      </c>
+      <c r="H266" s="40" t="s">
+        <v>996</v>
+      </c>
+      <c r="I266" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J266" s="52"/>
+      <c r="K266" s="28" t="str">
+        <f t="shared" ref="K266" si="31">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A266),A266)</f>
+        <v>8PFJ+PH</v>
+      </c>
+      <c r="L266" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M266" s="53"/>
+      <c r="N266" s="54"/>
+      <c r="O266" s="55"/>
+      <c r="P266" s="55"/>
+      <c r="Q266" s="55"/>
+      <c r="R266" s="55"/>
+      <c r="S266" s="55"/>
+      <c r="T266" s="55"/>
+      <c r="U266" s="55"/>
+      <c r="V266" s="55"/>
+      <c r="W266" s="55"/>
+      <c r="X266" s="55"/>
+      <c r="Y266" s="55"/>
+      <c r="Z266" s="55"/>
+      <c r="AA266" s="55"/>
+    </row>
     <row r="267" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="268" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="269" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873A670-416C-4A19-B6AA-4131EF6CC13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F10DAC-1965-4617-AB38-35F2B9EDD8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1003">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -3359,6 +3359,21 @@
   </si>
   <si>
     <t>8PFJ+PH</t>
+  </si>
+  <si>
+    <t>Durchfahrtverbot für alle, auch Fahrräder.</t>
+  </si>
+  <si>
+    <t>Radfahrer frei fehlt</t>
+  </si>
+  <si>
+    <t>Radfahrer frei anbringen</t>
+  </si>
+  <si>
+    <t>8PJR+26</t>
+  </si>
+  <si>
+    <t>wurde asphaltiert</t>
   </si>
 </sst>
 </file>
@@ -4124,8 +4139,8 @@
   <dimension ref="A1:AMJ277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
+      <pane ySplit="6" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -12501,9 +12516,11 @@
         <v>622</v>
       </c>
       <c r="I144" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="J144" s="27"/>
+        <v>1002</v>
+      </c>
+      <c r="J144" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K144" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PJR+46</v>
@@ -12559,9 +12576,11 @@
         <v>622</v>
       </c>
       <c r="I145" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="J145" s="27"/>
+        <v>1002</v>
+      </c>
+      <c r="J145" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="K145" s="28" t="str">
         <f t="shared" si="13"/>
         <v>8PJR+46</v>
@@ -18965,7 +18984,59 @@
       <c r="Z266" s="55"/>
       <c r="AA266" s="55"/>
     </row>
-    <row r="267" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A267" s="39" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B267" s="56" t="str">
+        <f t="shared" ref="B267" si="32">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A267,4),"%2B",RIGHT(A267,2)),A267)</f>
+        <v>8PJR+26</v>
+      </c>
+      <c r="C267" s="40" t="s">
+        <v>998</v>
+      </c>
+      <c r="D267" s="41">
+        <v>44748</v>
+      </c>
+      <c r="E267" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F267" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="G267" s="40" t="s">
+        <v>999</v>
+      </c>
+      <c r="H267" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I267" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J267" s="52"/>
+      <c r="K267" s="28" t="str">
+        <f t="shared" ref="K267" si="33">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A267),A267)</f>
+        <v>8PJR+26</v>
+      </c>
+      <c r="L267" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M267" s="53"/>
+      <c r="N267" s="54"/>
+      <c r="O267" s="55"/>
+      <c r="P267" s="55"/>
+      <c r="Q267" s="55"/>
+      <c r="R267" s="55"/>
+      <c r="S267" s="55"/>
+      <c r="T267" s="55"/>
+      <c r="U267" s="55"/>
+      <c r="V267" s="55"/>
+      <c r="W267" s="55"/>
+      <c r="X267" s="55"/>
+      <c r="Y267" s="55"/>
+      <c r="Z267" s="55"/>
+      <c r="AA267" s="55"/>
+    </row>
     <row r="268" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="269" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="270" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B9317-BF68-47CF-BAF5-641493114175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955315F4-3FAC-436D-A62D-6207C5E48BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AA$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AA$267</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1003">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -4136,8 +4129,8 @@
   <dimension ref="A1:AMJ277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J132" sqref="J132"/>
+      <pane ySplit="6" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J269" sqref="J269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -19008,9 +19001,11 @@
         <v>1000</v>
       </c>
       <c r="I267" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J267" s="50"/>
+        <v>957</v>
+      </c>
+      <c r="J267" s="50" t="s">
+        <v>43</v>
+      </c>
       <c r="K267" s="27" t="str">
         <f t="shared" ref="K267" si="33">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A267),A267)</f>
         <v>8PJR+26</v>
@@ -19045,7 +19040,7 @@
     <row r="276" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="277" ht="85.15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A6:AA261" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A6:AA267" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I74" r:id="rId1" display="- 2018-08-23 - Jens Spille - Herr Vinken (Region Hannover) informiert über die Planungsabsichten der Region Hannover, als zuständige Straßenbaulastträgerin, die Weetzener Landstraße (K 221) zwischen der Einmündung Dorfstraße und dem Kreisverkehr Marie-Curie-Straße/ Alfred-Bentz-Straße umzugestalten. Der Bereich wird in insgesamt 5 Abschnitte unterteilt. Die Planung wird stufenweise umgesetzt.  _x000a__x000a_[Umgestaltung Weetzener Landstraße (K221) (4579 KB)](https://www.stadthemmingen.de/allris/to020.asp?TOLFDNR=808)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955315F4-3FAC-436D-A62D-6207C5E48BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E8241-EA15-4E0C-8A91-C5F3E6B27396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1004">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -700,9 +700,6 @@
   </si>
   <si>
     <t>8P6H+GP</t>
-  </si>
-  <si>
-    <t>Beleuchtung zw. Arnum und Real</t>
   </si>
   <si>
     <t>Hoher Holzweg – Real – Devese</t>
@@ -3367,6 +3364,12 @@
   </si>
   <si>
     <t>wurde asphaltiert</t>
+  </si>
+  <si>
+    <t>Beleuchtung zw. Arnum und Kaufland</t>
+  </si>
+  <si>
+    <t>Route einrichten - Radschnellweg ist geplant.</t>
   </si>
 </sst>
 </file>
@@ -4129,8 +4132,8 @@
   <dimension ref="A1:AMJ277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J269" sqref="J269"/>
+      <pane ySplit="6" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K259" sqref="K259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4784,10 +4787,10 @@
         <v>84</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K14" s="27" t="str">
         <f t="shared" si="2"/>
@@ -4844,9 +4847,11 @@
         <v>89</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="26"/>
+        <v>956</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K15" s="27" t="str">
         <f t="shared" si="2"/>
         <v>7PXR+R8</v>
@@ -5220,7 +5225,7 @@
         <v>121</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>43</v>
@@ -5450,7 +5455,9 @@
       <c r="I25" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J25" s="26"/>
+      <c r="J25" s="26" t="s">
+        <v>954</v>
+      </c>
       <c r="K25" s="27" t="str">
         <f t="shared" ref="K25:K30" si="4">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A25),A25)</f>
         <v>8P3Q+5M</v>
@@ -5518,7 +5525,9 @@
       <c r="I26" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="J26" s="26"/>
+      <c r="J26" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K26" s="27" t="str">
         <f t="shared" si="4"/>
         <v>8P3Q+5P</v>
@@ -5574,7 +5583,9 @@
       <c r="I27" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="J27" s="26"/>
+      <c r="J27" s="26" t="s">
+        <v>954</v>
+      </c>
       <c r="K27" s="27" t="str">
         <f t="shared" si="4"/>
         <v>8P3Q+R5</v>
@@ -5632,7 +5643,9 @@
       <c r="I28" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="26"/>
+      <c r="J28" s="26" t="s">
+        <v>954</v>
+      </c>
       <c r="K28" s="27" t="str">
         <f t="shared" si="4"/>
         <v>8P4P+CQ</v>
@@ -5688,7 +5701,7 @@
         <v>161</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J29" s="26" t="s">
         <v>43</v>
@@ -5750,7 +5763,7 @@
         <v>166</v>
       </c>
       <c r="I30" s="54" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J30" s="26" t="s">
         <v>43</v>
@@ -5810,7 +5823,7 @@
         <v>171</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J31" s="26" t="s">
         <v>43</v>
@@ -5862,7 +5875,9 @@
       <c r="I32" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="26"/>
+      <c r="J32" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K32" s="27" t="str">
         <f t="shared" ref="K32:K51" si="6">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A32),A32)</f>
         <v>8P5J+MJ</v>
@@ -5920,7 +5935,9 @@
       <c r="I33" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="J33" s="26"/>
+      <c r="J33" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K33" s="27" t="str">
         <f t="shared" si="6"/>
         <v>8P5M+RH</v>
@@ -5980,7 +5997,9 @@
       <c r="I34" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J34" s="26"/>
+      <c r="J34" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K34" s="27" t="str">
         <f t="shared" si="6"/>
         <v>8P5M+RH</v>
@@ -6040,7 +6059,9 @@
       <c r="I35" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="J35" s="26"/>
+      <c r="J35" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K35" s="27" t="str">
         <f t="shared" si="6"/>
         <v>8P5M+RH</v>
@@ -6098,7 +6119,9 @@
       <c r="I36" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="J36" s="26"/>
+      <c r="J36" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K36" s="27" t="str">
         <f t="shared" si="6"/>
         <v>8P5M+VG</v>
@@ -6156,7 +6179,9 @@
       <c r="I37" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="J37" s="26"/>
+      <c r="J37" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K37" s="27" t="str">
         <f t="shared" si="6"/>
         <v>8P5M+VJ</v>
@@ -6216,7 +6241,9 @@
       <c r="I38" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J38" s="26"/>
+      <c r="J38" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K38" s="27" t="str">
         <f t="shared" si="6"/>
         <v>8P5P+FR</v>
@@ -6312,7 +6339,7 @@
         <v>8P6H+GP</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>211</v>
+        <v>1002</v>
       </c>
       <c r="D40" s="33">
         <v>43873</v>
@@ -6321,13 +6348,13 @@
         <v>45</v>
       </c>
       <c r="F40" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="H40" s="25" t="s">
         <v>213</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>214</v>
       </c>
       <c r="I40" s="25" t="s">
         <v>135</v>
@@ -6363,40 +6390,40 @@
     </row>
     <row r="41" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B41" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+HX</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D41" s="33">
         <v>42988</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="34" t="s">
         <v>217</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>218</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>101</v>
       </c>
       <c r="I41" s="54" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K41" s="27" t="str">
         <f t="shared" si="6"/>
         <v>8P6J+HX</v>
       </c>
       <c r="L41" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M41" s="29" t="s">
         <v>90</v>
@@ -6423,14 +6450,14 @@
     </row>
     <row r="42" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+HX</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="33">
         <v>43873</v>
@@ -6439,19 +6466,19 @@
         <v>45</v>
       </c>
       <c r="F42" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G42" s="34" t="s">
-        <v>223</v>
-      </c>
       <c r="H42" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K42" s="27" t="str">
         <f t="shared" si="6"/>
@@ -6483,14 +6510,14 @@
     </row>
     <row r="43" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B43" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+HX</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D43" s="33">
         <v>43873</v>
@@ -6499,19 +6526,19 @@
         <v>45</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K43" s="27" t="str">
         <f t="shared" si="6"/>
@@ -6543,14 +6570,14 @@
     </row>
     <row r="44" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P6J+WP</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D44" s="33">
         <v>43873</v>
@@ -6559,19 +6586,19 @@
         <v>45</v>
       </c>
       <c r="F44" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="H44" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>230</v>
-      </c>
       <c r="I44" s="25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K44" s="27" t="str">
         <f t="shared" si="6"/>
@@ -6605,14 +6632,14 @@
     </row>
     <row r="45" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B45" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P6M+95</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="33">
         <v>43873</v>
@@ -6624,16 +6651,16 @@
         <v>114</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I45" s="54" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K45" s="27" t="str">
         <f t="shared" si="6"/>
@@ -6665,14 +6692,14 @@
     </row>
     <row r="46" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B46" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P6M+95</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D46" s="33">
         <v>43873</v>
@@ -6684,16 +6711,16 @@
         <v>114</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I46" s="54" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K46" s="27" t="str">
         <f t="shared" si="6"/>
@@ -6725,14 +6752,14 @@
     </row>
     <row r="47" spans="1:1024" s="46" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B47" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P76+Q9</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="33">
         <v>43873</v>
@@ -6741,16 +6768,16 @@
         <v>45</v>
       </c>
       <c r="F47" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G47" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="H47" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="I47" s="25" t="s">
         <v>240</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>241</v>
       </c>
       <c r="J47" s="26" t="s">
         <v>43</v>
@@ -6794,14 +6821,14 @@
     </row>
     <row r="48" spans="1:1024" ht="261.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P77+W8</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" s="33">
         <v>43074</v>
@@ -6810,19 +6837,19 @@
         <v>36</v>
       </c>
       <c r="F48" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="H48" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>246</v>
-      </c>
       <c r="I48" s="54" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="K48" s="27" t="str">
         <f t="shared" si="6"/>
@@ -6856,14 +6883,14 @@
     </row>
     <row r="49" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B49" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P78+49</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D49" s="33">
         <v>43873</v>
@@ -6872,18 +6899,20 @@
         <v>45</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G49" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H49" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="I49" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="I49" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="J49" s="26"/>
+      <c r="J49" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K49" s="27" t="str">
         <f t="shared" si="6"/>
         <v>8P78+49</v>
@@ -6914,14 +6943,14 @@
     </row>
     <row r="50" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B50" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P7G+46</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D50" s="33">
         <v>42005</v>
@@ -6930,16 +6959,16 @@
         <v>36</v>
       </c>
       <c r="F50" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G50" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="G50" s="34" t="s">
+      <c r="H50" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="I50" s="25" t="s">
         <v>256</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>257</v>
       </c>
       <c r="J50" s="26"/>
       <c r="K50" s="27" t="str">
@@ -6974,14 +7003,14 @@
     </row>
     <row r="51" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B51" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P7G+GJ</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D51" s="33">
         <v>43873</v>
@@ -6990,16 +7019,16 @@
         <v>45</v>
       </c>
       <c r="F51" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="H51" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="I51" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>263</v>
       </c>
       <c r="J51" s="26"/>
       <c r="K51" s="27" t="str">
@@ -7032,14 +7061,14 @@
     </row>
     <row r="52" spans="1:27" ht="282.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B52" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P7G+HH</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D52" s="33">
         <v>43970</v>
@@ -7048,18 +7077,20 @@
         <v>36</v>
       </c>
       <c r="F52" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G52" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="H52" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="H52" s="25" t="s">
-        <v>268</v>
-      </c>
       <c r="I52" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="J52" s="26"/>
+        <v>262</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>954</v>
+      </c>
       <c r="K52" s="27"/>
       <c r="L52" s="28"/>
       <c r="M52" s="28"/>
@@ -7080,14 +7111,14 @@
     </row>
     <row r="53" spans="1:27" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B53" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P7H+45</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D53" s="33">
         <v>43873</v>
@@ -7099,13 +7130,13 @@
         <v>175</v>
       </c>
       <c r="G53" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="H53" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="H53" s="25" t="s">
-        <v>272</v>
-      </c>
       <c r="I53" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J53" s="26"/>
       <c r="K53" s="27" t="str">
@@ -7138,14 +7169,14 @@
     </row>
     <row r="54" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P7J+7C</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D54" s="33">
         <v>43873</v>
@@ -7154,19 +7185,19 @@
         <v>45</v>
       </c>
       <c r="F54" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G54" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="G54" s="34" t="s">
-        <v>276</v>
-      </c>
       <c r="H54" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K54" s="27" t="str">
         <f t="shared" si="8"/>
@@ -7198,14 +7229,14 @@
     </row>
     <row r="55" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B55" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P7Q+CC</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D55" s="33">
         <v>43873</v>
@@ -7214,13 +7245,13 @@
         <v>45</v>
       </c>
       <c r="F55" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G55" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="H55" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>281</v>
       </c>
       <c r="I55" s="25" t="s">
         <v>135</v>
@@ -7260,14 +7291,14 @@
     </row>
     <row r="56" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B56" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P7Q+CC</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D56" s="33">
         <v>43873</v>
@@ -7276,13 +7307,13 @@
         <v>45</v>
       </c>
       <c r="F56" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>283</v>
-      </c>
-      <c r="G56" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>284</v>
       </c>
       <c r="I56" s="25" t="s">
         <v>135</v>
@@ -7320,14 +7351,14 @@
     </row>
     <row r="57" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D57" s="33">
         <v>43873</v>
@@ -7336,13 +7367,13 @@
         <v>45</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I57" s="25" t="s">
         <v>135</v>
@@ -7378,14 +7409,14 @@
     </row>
     <row r="58" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D58" s="33">
         <v>43873</v>
@@ -7394,13 +7425,13 @@
         <v>45</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I58" s="25" t="s">
         <v>135</v>
@@ -7436,14 +7467,14 @@
     </row>
     <row r="59" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B59" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D59" s="33">
         <v>43873</v>
@@ -7452,18 +7483,20 @@
         <v>45</v>
       </c>
       <c r="F59" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G59" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="H59" s="25" t="s">
         <v>292</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>293</v>
       </c>
       <c r="I59" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J59" s="26"/>
+      <c r="J59" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K59" s="27" t="str">
         <f t="shared" si="8"/>
         <v>8P89+96</v>
@@ -7494,14 +7527,14 @@
     </row>
     <row r="60" spans="1:27" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B60" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P89+96</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D60" s="33">
         <v>43649</v>
@@ -7510,18 +7543,20 @@
         <v>36</v>
       </c>
       <c r="F60" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G60" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="G60" s="34" t="s">
+      <c r="H60" s="25" t="s">
         <v>296</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>297</v>
       </c>
       <c r="I60" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J60" s="26"/>
+      <c r="J60" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K60" s="27" t="str">
         <f t="shared" si="8"/>
         <v>8P89+96</v>
@@ -7554,14 +7589,14 @@
     </row>
     <row r="61" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B61" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P8C+R7</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D61" s="33">
         <v>43873</v>
@@ -7570,13 +7605,13 @@
         <v>45</v>
       </c>
       <c r="F61" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G61" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="G61" s="34" t="s">
-        <v>301</v>
-      </c>
       <c r="H61" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>135</v>
@@ -7612,14 +7647,14 @@
     </row>
     <row r="62" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B62" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P8C+VR</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D62" s="33">
         <v>43873</v>
@@ -7628,13 +7663,13 @@
         <v>45</v>
       </c>
       <c r="F62" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G62" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="H62" s="25" t="s">
         <v>304</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>305</v>
       </c>
       <c r="I62" s="25" t="s">
         <v>135</v>
@@ -7672,14 +7707,14 @@
     </row>
     <row r="63" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B63" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P8F+5V</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D63" s="33">
         <v>43873</v>
@@ -7691,16 +7726,16 @@
         <v>175</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K63" s="27" t="str">
         <f t="shared" si="8"/>
@@ -7732,14 +7767,14 @@
     </row>
     <row r="64" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B64" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P99+HX</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D64" s="33">
         <v>43873</v>
@@ -7748,16 +7783,16 @@
         <v>45</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G64" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="H64" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="H64" s="25" t="s">
-        <v>312</v>
-      </c>
       <c r="I64" s="54" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J64" s="26" t="s">
         <v>43</v>
@@ -7792,14 +7827,14 @@
     </row>
     <row r="65" spans="1:27" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B65" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P99+MW</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D65" s="33">
         <v>43873</v>
@@ -7808,16 +7843,16 @@
         <v>45</v>
       </c>
       <c r="F65" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G65" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="G65" s="34" t="s">
-        <v>316</v>
-      </c>
       <c r="H65" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I65" s="54" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J65" s="26" t="s">
         <v>43</v>
@@ -7852,14 +7887,14 @@
     </row>
     <row r="66" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B66" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+62</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D66" s="33">
         <v>43873</v>
@@ -7868,13 +7903,13 @@
         <v>45</v>
       </c>
       <c r="F66" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G66" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="G66" s="34" t="s">
-        <v>320</v>
-      </c>
       <c r="H66" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I66" s="25" t="s">
         <v>135</v>
@@ -7910,14 +7945,14 @@
     </row>
     <row r="67" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B67" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+62</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D67" s="33">
         <v>43873</v>
@@ -7926,13 +7961,13 @@
         <v>45</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I67" s="25" t="s">
         <v>135</v>
@@ -7968,14 +8003,14 @@
     </row>
     <row r="68" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B68" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+62</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D68" s="33">
         <v>43873</v>
@@ -7984,13 +8019,13 @@
         <v>45</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I68" s="25" t="s">
         <v>135</v>
@@ -8026,14 +8061,14 @@
     </row>
     <row r="69" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B69" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P9G+7C</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D69" s="33">
         <v>43873</v>
@@ -8042,16 +8077,16 @@
         <v>45</v>
       </c>
       <c r="F69" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="G69" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="G69" s="34" t="s">
+      <c r="H69" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="I69" s="25" t="s">
         <v>328</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="I69" s="25" t="s">
-        <v>329</v>
       </c>
       <c r="J69" s="26"/>
       <c r="K69" s="27" t="str">
@@ -8084,14 +8119,14 @@
     </row>
     <row r="70" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B70" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8P9H+F9</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D70" s="33">
         <v>43873</v>
@@ -8100,18 +8135,20 @@
         <v>45</v>
       </c>
       <c r="F70" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="I70" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="G70" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="I70" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="J70" s="26"/>
+      <c r="J70" s="26" t="s">
+        <v>954</v>
+      </c>
       <c r="K70" s="27" t="str">
         <f t="shared" si="8"/>
         <v>8P9H+F9</v>
@@ -8144,14 +8181,14 @@
     </row>
     <row r="71" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" s="21" t="str">
         <f t="shared" ref="B71:B134" si="10">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A71,4),"%2B",RIGHT(A71,2)),A71)</f>
         <v>8P9H+F9</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D71" s="33">
         <v>43873</v>
@@ -8160,18 +8197,20 @@
         <v>45</v>
       </c>
       <c r="F71" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="G71" s="34" t="s">
         <v>335</v>
-      </c>
-      <c r="G71" s="34" t="s">
-        <v>336</v>
       </c>
       <c r="H71" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I71" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="J71" s="26"/>
+        <v>332</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>954</v>
+      </c>
       <c r="K71" s="27" t="str">
         <f t="shared" si="8"/>
         <v>8P9H+F9</v>
@@ -8204,14 +8243,14 @@
     </row>
     <row r="72" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B72" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8P9H+F9</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D72" s="33">
         <v>43873</v>
@@ -8220,18 +8259,20 @@
         <v>45</v>
       </c>
       <c r="F72" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="G72" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="G72" s="34" t="s">
+      <c r="H72" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="H72" s="25" t="s">
-        <v>340</v>
-      </c>
       <c r="I72" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="J72" s="26"/>
+        <v>332</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>954</v>
+      </c>
       <c r="K72" s="27" t="str">
         <f t="shared" si="8"/>
         <v>8P9H+F9</v>
@@ -8264,14 +8305,14 @@
     </row>
     <row r="73" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B73" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8P9M+W2</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D73" s="33">
         <v>43873</v>
@@ -8280,13 +8321,13 @@
         <v>45</v>
       </c>
       <c r="F73" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G73" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="H73" s="25" t="s">
         <v>343</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>344</v>
       </c>
       <c r="I73" s="25" t="s">
         <v>135</v>
@@ -8320,32 +8361,32 @@
     </row>
     <row r="74" spans="1:27" ht="396" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B74" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8P9P+Q4</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D74" s="33">
         <v>43619</v>
       </c>
       <c r="E74" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="F74" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="F74" s="34" t="s">
+      <c r="G74" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="G74" s="34" t="s">
+      <c r="H74" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="H74" s="25" t="s">
+      <c r="I74" s="25" t="s">
         <v>350</v>
-      </c>
-      <c r="I74" s="25" t="s">
-        <v>351</v>
       </c>
       <c r="J74" s="26"/>
       <c r="K74" s="27" t="str">
@@ -8378,14 +8419,14 @@
     </row>
     <row r="75" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B75" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8P9P+Q4</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D75" s="33">
         <v>43873</v>
@@ -8394,16 +8435,16 @@
         <v>45</v>
       </c>
       <c r="F75" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G75" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="I75" s="25" t="s">
         <v>353</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>354</v>
       </c>
       <c r="J75" s="26"/>
       <c r="K75" s="27" t="str">
@@ -8436,14 +8477,14 @@
     </row>
     <row r="76" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B76" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8P9P+Q4</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D76" s="33">
         <v>43873</v>
@@ -8452,13 +8493,13 @@
         <v>45</v>
       </c>
       <c r="F76" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="G76" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="G76" s="34" t="s">
-        <v>357</v>
-      </c>
       <c r="H76" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I76" s="25" t="s">
         <v>135</v>
@@ -8494,29 +8535,29 @@
     </row>
     <row r="77" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B77" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+PC</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D77" s="33">
         <v>43612</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F77" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="G77" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="G77" s="34" t="s">
+      <c r="H77" s="25" t="s">
         <v>361</v>
-      </c>
-      <c r="H77" s="25" t="s">
-        <v>362</v>
       </c>
       <c r="I77" s="25" t="s">
         <v>135</v>
@@ -8552,14 +8593,14 @@
     </row>
     <row r="78" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B78" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+PC</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D78" s="33">
         <v>43897</v>
@@ -8568,13 +8609,13 @@
         <v>45</v>
       </c>
       <c r="F78" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="G78" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="G78" s="34" t="s">
-        <v>365</v>
-      </c>
       <c r="H78" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I78" s="25" t="s">
         <v>135</v>
@@ -8608,14 +8649,14 @@
     </row>
     <row r="79" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B79" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+QJ</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D79" s="33">
         <v>43987</v>
@@ -8627,10 +8668,10 @@
         <v>32</v>
       </c>
       <c r="G79" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="H79" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>369</v>
       </c>
       <c r="I79" s="25" t="s">
         <v>135</v>
@@ -8668,14 +8709,14 @@
     </row>
     <row r="80" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B80" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8P9X+QQ</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D80" s="33">
         <v>43893</v>
@@ -8687,10 +8728,10 @@
         <v>32</v>
       </c>
       <c r="G80" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="H80" s="25" t="s">
         <v>372</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>373</v>
       </c>
       <c r="I80" s="25" t="s">
         <v>135</v>
@@ -8728,14 +8769,14 @@
     </row>
     <row r="81" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B81" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D81" s="33">
         <v>43873</v>
@@ -8744,13 +8785,13 @@
         <v>45</v>
       </c>
       <c r="F81" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="G81" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="G81" s="34" t="s">
-        <v>377</v>
-      </c>
       <c r="H81" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I81" s="25" t="s">
         <v>135</v>
@@ -8786,14 +8827,14 @@
     </row>
     <row r="82" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B82" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D82" s="33">
         <v>43873</v>
@@ -8802,18 +8843,20 @@
         <v>45</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I82" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J82" s="26"/>
+      <c r="J82" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K82" s="27" t="str">
         <f t="shared" si="8"/>
         <v>8PC7+28</v>
@@ -8844,14 +8887,14 @@
     </row>
     <row r="83" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B83" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D83" s="33">
         <v>43873</v>
@@ -8860,18 +8903,20 @@
         <v>45</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G83" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="H83" s="25" t="s">
         <v>381</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>382</v>
       </c>
       <c r="I83" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J83" s="26"/>
+      <c r="J83" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K83" s="27" t="str">
         <f t="shared" si="8"/>
         <v>8PC7+28</v>
@@ -8902,14 +8947,14 @@
     </row>
     <row r="84" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B84" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+28</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D84" s="33">
         <v>43873</v>
@@ -8918,18 +8963,20 @@
         <v>45</v>
       </c>
       <c r="F84" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I84" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J84" s="26"/>
+      <c r="J84" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K84" s="27" t="str">
         <f t="shared" si="8"/>
         <v>8PC7+28</v>
@@ -8960,14 +9007,14 @@
     </row>
     <row r="85" spans="1:1024" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B85" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PC7+7M</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D85" s="33">
         <v>43649</v>
@@ -8976,18 +9023,20 @@
         <v>45</v>
       </c>
       <c r="F85" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="G85" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="G85" s="34" t="s">
+      <c r="H85" s="25" t="s">
         <v>388</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>389</v>
       </c>
       <c r="I85" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J85" s="26"/>
+      <c r="J85" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K85" s="27" t="str">
         <f t="shared" ref="K85:K116" si="11">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A85),A85)</f>
         <v>8PC7+7M</v>
@@ -9020,14 +9069,14 @@
     </row>
     <row r="86" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B86" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PC9+RH</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D86" s="33">
         <v>43873</v>
@@ -9036,13 +9085,13 @@
         <v>45</v>
       </c>
       <c r="F86" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="G86" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="G86" s="34" t="s">
-        <v>393</v>
-      </c>
       <c r="H86" s="25" t="s">
-        <v>394</v>
+        <v>1003</v>
       </c>
       <c r="I86" s="25" t="s">
         <v>135</v>
@@ -9078,14 +9127,14 @@
     </row>
     <row r="87" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B87" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCH+W5</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D87" s="33">
         <v>43873</v>
@@ -9094,13 +9143,13 @@
         <v>45</v>
       </c>
       <c r="F87" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G87" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="H87" s="25" t="s">
         <v>393</v>
-      </c>
-      <c r="H87" s="25" t="s">
-        <v>394</v>
       </c>
       <c r="I87" s="25" t="s">
         <v>135</v>
@@ -9138,14 +9187,14 @@
     </row>
     <row r="88" spans="1:1024" ht="261.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B88" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCW+6G</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D88" s="33">
         <v>43873</v>
@@ -9154,16 +9203,16 @@
         <v>45</v>
       </c>
       <c r="F88" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G88" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="H88" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="H88" s="25" t="s">
-        <v>401</v>
-      </c>
       <c r="I88" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J88" s="26"/>
       <c r="K88" s="27" t="str">
@@ -9198,14 +9247,14 @@
     </row>
     <row r="89" spans="1:1024" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B89" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCW+6H</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D89" s="33">
         <v>42988</v>
@@ -9214,16 +9263,16 @@
         <v>36</v>
       </c>
       <c r="F89" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="G89" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="G89" s="34" t="s">
+      <c r="H89" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="I89" s="25" t="s">
         <v>406</v>
-      </c>
-      <c r="I89" s="25" t="s">
-        <v>407</v>
       </c>
       <c r="J89" s="26"/>
       <c r="K89" s="27" t="str">
@@ -9262,14 +9311,14 @@
     </row>
     <row r="90" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B90" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCW+6J</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D90" s="33">
         <v>43873</v>
@@ -9278,16 +9327,16 @@
         <v>45</v>
       </c>
       <c r="F90" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="G90" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="G90" s="34" t="s">
+      <c r="H90" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="I90" s="25" t="s">
         <v>412</v>
-      </c>
-      <c r="I90" s="25" t="s">
-        <v>413</v>
       </c>
       <c r="J90" s="26"/>
       <c r="K90" s="27" t="str">
@@ -9322,14 +9371,14 @@
     </row>
     <row r="91" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B91" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+74</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D91" s="33">
         <v>43873</v>
@@ -9338,16 +9387,16 @@
         <v>45</v>
       </c>
       <c r="F91" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="G91" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="G91" s="34" t="s">
+      <c r="H91" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="I91" s="25" t="s">
         <v>417</v>
-      </c>
-      <c r="H91" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="I91" s="25" t="s">
-        <v>418</v>
       </c>
       <c r="J91" s="26"/>
       <c r="K91" s="27" t="str">
@@ -9382,14 +9431,14 @@
     </row>
     <row r="92" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B92" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+74</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D92" s="33">
         <v>43897</v>
@@ -9398,13 +9447,13 @@
         <v>45</v>
       </c>
       <c r="F92" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I92" s="25" t="s">
         <v>135</v>
@@ -9442,14 +9491,14 @@
     </row>
     <row r="93" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B93" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+74</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D93" s="33">
         <v>43873</v>
@@ -9461,10 +9510,10 @@
         <v>32</v>
       </c>
       <c r="G93" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="H93" s="25" t="s">
         <v>422</v>
-      </c>
-      <c r="H93" s="25" t="s">
-        <v>423</v>
       </c>
       <c r="I93" s="25" t="s">
         <v>172</v>
@@ -9500,14 +9549,14 @@
     </row>
     <row r="94" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B94" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J2</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D94" s="33">
         <v>43873</v>
@@ -9516,13 +9565,13 @@
         <v>45</v>
       </c>
       <c r="F94" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="G94" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="G94" s="34" t="s">
+      <c r="H94" s="25" t="s">
         <v>427</v>
-      </c>
-      <c r="H94" s="25" t="s">
-        <v>428</v>
       </c>
       <c r="I94" s="25" t="s">
         <v>172</v>
@@ -9558,14 +9607,14 @@
     </row>
     <row r="95" spans="1:1024" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B95" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D95" s="33">
         <v>43873</v>
@@ -9574,13 +9623,13 @@
         <v>45</v>
       </c>
       <c r="F95" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I95" s="25" t="s">
         <v>172</v>
@@ -9616,27 +9665,27 @@
     </row>
     <row r="96" spans="1:1024" s="46" customFormat="1" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B96" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D96" s="33">
         <v>43731</v>
       </c>
       <c r="E96" s="33"/>
       <c r="F96" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="G96" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="G96" s="34" t="s">
+      <c r="H96" s="25" t="s">
         <v>432</v>
-      </c>
-      <c r="H96" s="25" t="s">
-        <v>433</v>
       </c>
       <c r="I96" s="25" t="s">
         <v>172</v>
@@ -9683,14 +9732,14 @@
     </row>
     <row r="97" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B97" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D97" s="33">
         <v>43873</v>
@@ -9699,13 +9748,13 @@
         <v>45</v>
       </c>
       <c r="F97" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I97" s="25" t="s">
         <v>172</v>
@@ -9743,14 +9792,14 @@
     </row>
     <row r="98" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B98" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PCX+J3</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D98" s="33">
         <v>43873</v>
@@ -9759,13 +9808,13 @@
         <v>45</v>
       </c>
       <c r="F98" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G98" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I98" s="25" t="s">
         <v>172</v>
@@ -9803,14 +9852,14 @@
     </row>
     <row r="99" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B99" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PF4+M7</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D99" s="33">
         <v>43873</v>
@@ -9819,13 +9868,13 @@
         <v>45</v>
       </c>
       <c r="F99" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="G99" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="G99" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="H99" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I99" s="25" t="s">
         <v>135</v>
@@ -9861,14 +9910,14 @@
     </row>
     <row r="100" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B100" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PF9+MX</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D100" s="33">
         <v>43731</v>
@@ -9877,16 +9926,16 @@
         <v>36</v>
       </c>
       <c r="F100" s="34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G100" s="34" t="s">
         <v>133</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I100" s="54" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J100" s="26" t="s">
         <v>43</v>
@@ -9923,14 +9972,14 @@
     </row>
     <row r="101" spans="1:27" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B101" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFF+WF</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D101" s="33">
         <v>43873</v>
@@ -9939,25 +9988,27 @@
         <v>45</v>
       </c>
       <c r="F101" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="G101" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="G101" s="34" t="s">
+      <c r="H101" s="25" t="s">
         <v>447</v>
-      </c>
-      <c r="H101" s="25" t="s">
-        <v>448</v>
       </c>
       <c r="I101" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J101" s="26"/>
+      <c r="J101" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K101" s="27" t="str">
         <f t="shared" si="11"/>
         <v>8PFF+WF</v>
       </c>
       <c r="L101" s="28"/>
       <c r="M101" s="47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N101" s="30" t="str">
         <f t="shared" si="12"/>
@@ -9981,14 +10032,14 @@
     </row>
     <row r="102" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B102" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+25</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D102" s="33">
         <v>43873</v>
@@ -9997,18 +10048,20 @@
         <v>45</v>
       </c>
       <c r="F102" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G102" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H102" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I102" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J102" s="26"/>
+      <c r="J102" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K102" s="27" t="str">
         <f t="shared" si="11"/>
         <v>8PFG+25</v>
@@ -10041,27 +10094,27 @@
     </row>
     <row r="103" spans="1:27" ht="327" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B103" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+6Q</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D103" s="33">
         <v>42988</v>
       </c>
       <c r="E103" s="33"/>
       <c r="F103" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="G103" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="G103" s="34" t="s">
+      <c r="H103" s="25" t="s">
         <v>456</v>
-      </c>
-      <c r="H103" s="25" t="s">
-        <v>457</v>
       </c>
       <c r="I103" s="25" t="s">
         <v>135</v>
@@ -10099,14 +10152,14 @@
     </row>
     <row r="104" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B104" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+PF</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D104" s="33">
         <v>43873</v>
@@ -10115,13 +10168,13 @@
         <v>45</v>
       </c>
       <c r="F104" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="G104" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="G104" s="34" t="s">
-        <v>461</v>
-      </c>
       <c r="H104" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I104" s="25" t="s">
         <v>135</v>
@@ -10157,14 +10210,14 @@
     </row>
     <row r="105" spans="1:27" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B105" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFG+PF</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D105" s="33">
         <v>43873</v>
@@ -10173,13 +10226,13 @@
         <v>45</v>
       </c>
       <c r="F105" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="G105" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="G105" s="34" t="s">
-        <v>464</v>
-      </c>
       <c r="H105" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I105" s="25" t="s">
         <v>135</v>
@@ -10215,29 +10268,29 @@
     </row>
     <row r="106" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B106" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFH+85</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D106" s="33">
         <v>43619</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F106" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="G106" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="G106" s="34" t="s">
+      <c r="H106" s="25" t="s">
         <v>468</v>
-      </c>
-      <c r="H106" s="25" t="s">
-        <v>469</v>
       </c>
       <c r="I106" s="25" t="s">
         <v>135</v>
@@ -10275,14 +10328,14 @@
     </row>
     <row r="107" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B107" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFH+86</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D107" s="33">
         <v>43873</v>
@@ -10291,13 +10344,13 @@
         <v>45</v>
       </c>
       <c r="F107" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="G107" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="G107" s="34" t="s">
-        <v>473</v>
-      </c>
       <c r="H107" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I107" s="25" t="s">
         <v>135</v>
@@ -10333,14 +10386,14 @@
     </row>
     <row r="108" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B108" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFH+HW</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D108" s="33">
         <v>43873</v>
@@ -10349,13 +10402,13 @@
         <v>45</v>
       </c>
       <c r="F108" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="G108" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="G108" s="34" t="s">
+      <c r="H108" s="25" t="s">
         <v>477</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>478</v>
       </c>
       <c r="I108" s="25" t="s">
         <v>172</v>
@@ -10391,14 +10444,14 @@
     </row>
     <row r="109" spans="1:27" ht="306.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B109" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFJ+M8</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D109" s="33">
         <v>42988</v>
@@ -10407,16 +10460,16 @@
         <v>36</v>
       </c>
       <c r="F109" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="G109" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="G109" s="34" t="s">
+      <c r="H109" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="H109" s="25" t="s">
+      <c r="I109" s="25" t="s">
         <v>483</v>
-      </c>
-      <c r="I109" s="25" t="s">
-        <v>484</v>
       </c>
       <c r="J109" s="26"/>
       <c r="K109" s="27" t="str">
@@ -10451,14 +10504,14 @@
     </row>
     <row r="110" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B110" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+GR</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D110" s="33">
         <v>43873</v>
@@ -10467,18 +10520,20 @@
         <v>45</v>
       </c>
       <c r="F110" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="G110" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="G110" s="34" t="s">
+      <c r="H110" s="25" t="s">
         <v>488</v>
-      </c>
-      <c r="H110" s="25" t="s">
-        <v>489</v>
       </c>
       <c r="I110" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J110" s="26"/>
+      <c r="J110" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K110" s="27" t="str">
         <f t="shared" si="11"/>
         <v>8PFW+GR</v>
@@ -10509,14 +10564,14 @@
     </row>
     <row r="111" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B111" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+JV</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D111" s="33">
         <v>43873</v>
@@ -10525,18 +10580,20 @@
         <v>45</v>
       </c>
       <c r="F111" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="G111" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="G111" s="34" t="s">
-        <v>493</v>
-      </c>
       <c r="H111" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I111" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J111" s="26"/>
+      <c r="J111" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K111" s="27" t="str">
         <f t="shared" si="11"/>
         <v>8PFW+JV</v>
@@ -10567,14 +10624,14 @@
     </row>
     <row r="112" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B112" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+JV</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D112" s="33">
         <v>43358</v>
@@ -10583,16 +10640,16 @@
         <v>36</v>
       </c>
       <c r="F112" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="G112" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="G112" s="34" t="s">
+      <c r="H112" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="H112" s="25" t="s">
+      <c r="I112" s="25" t="s">
         <v>497</v>
-      </c>
-      <c r="I112" s="25" t="s">
-        <v>498</v>
       </c>
       <c r="J112" s="26"/>
       <c r="K112" s="27" t="str">
@@ -10627,14 +10684,14 @@
     </row>
     <row r="113" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B113" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+QC</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D113" s="33">
         <v>43873</v>
@@ -10643,13 +10700,13 @@
         <v>45</v>
       </c>
       <c r="F113" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="G113" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="34" t="s">
+      <c r="H113" s="25" t="s">
         <v>502</v>
-      </c>
-      <c r="H113" s="25" t="s">
-        <v>503</v>
       </c>
       <c r="I113" s="25" t="s">
         <v>172</v>
@@ -10685,14 +10742,14 @@
     </row>
     <row r="114" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B114" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFW+QC</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D114" s="33">
         <v>43873</v>
@@ -10701,13 +10758,13 @@
         <v>45</v>
       </c>
       <c r="F114" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G114" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H114" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I114" s="25" t="s">
         <v>172</v>
@@ -10743,29 +10800,29 @@
     </row>
     <row r="115" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B115" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PFX+Q2</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D115" s="33">
         <v>43631</v>
       </c>
       <c r="E115" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="F115" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="F115" s="34" t="s">
+      <c r="G115" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="G115" s="34" t="s">
+      <c r="H115" s="25" t="s">
         <v>510</v>
-      </c>
-      <c r="H115" s="25" t="s">
-        <v>511</v>
       </c>
       <c r="I115" s="25" t="s">
         <v>172</v>
@@ -10803,14 +10860,14 @@
     </row>
     <row r="116" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B116" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGF+2C</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D116" s="33">
         <v>43873</v>
@@ -10819,18 +10876,20 @@
         <v>45</v>
       </c>
       <c r="F116" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="G116" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="G116" s="34" t="s">
-        <v>514</v>
-      </c>
       <c r="H116" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I116" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="J116" s="26"/>
+        <v>332</v>
+      </c>
+      <c r="J116" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K116" s="27" t="str">
         <f t="shared" si="11"/>
         <v>8PGF+2C</v>
@@ -10861,14 +10920,14 @@
     </row>
     <row r="117" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B117" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGF+2G</v>
       </c>
       <c r="C117" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D117" s="33">
         <v>43873</v>
@@ -10877,18 +10936,20 @@
         <v>45</v>
       </c>
       <c r="F117" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="G117" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="G117" s="34" t="s">
+      <c r="H117" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="H117" s="25" t="s">
-        <v>519</v>
-      </c>
       <c r="I117" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="J117" s="26"/>
+        <v>332</v>
+      </c>
+      <c r="J117" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K117" s="27" t="str">
         <f t="shared" ref="K117:K148" si="13">HYPERLINK(CONCATENATE("https://plus.codes/9F4F",A117),A117)</f>
         <v>8PGF+2G</v>
@@ -10919,14 +10980,14 @@
     </row>
     <row r="118" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B118" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGF+68</v>
       </c>
       <c r="C118" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D118" s="33">
         <v>43731</v>
@@ -10935,13 +10996,13 @@
         <v>36</v>
       </c>
       <c r="F118" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="G118" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="G118" s="34" t="s">
+      <c r="H118" s="25" t="s">
         <v>523</v>
-      </c>
-      <c r="H118" s="25" t="s">
-        <v>524</v>
       </c>
       <c r="I118" s="25" t="s">
         <v>135</v>
@@ -10952,7 +11013,7 @@
         <v>8PGF+68</v>
       </c>
       <c r="L118" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M118" s="45" t="s">
         <v>189</v>
@@ -10979,14 +11040,14 @@
     </row>
     <row r="119" spans="1:27" ht="342.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B119" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+63</v>
       </c>
       <c r="C119" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D119" s="33">
         <v>43617</v>
@@ -10995,16 +11056,16 @@
         <v>36</v>
       </c>
       <c r="F119" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="G119" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="G119" s="34" t="s">
+      <c r="H119" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="H119" s="25" t="s">
+      <c r="I119" s="25" t="s">
         <v>529</v>
-      </c>
-      <c r="I119" s="25" t="s">
-        <v>530</v>
       </c>
       <c r="J119" s="26"/>
       <c r="K119" s="27" t="str">
@@ -11012,7 +11073,7 @@
         <v>8PGG+63</v>
       </c>
       <c r="L119" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M119" s="42" t="s">
         <v>49</v>
@@ -11039,14 +11100,14 @@
     </row>
     <row r="120" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B120" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+63</v>
       </c>
       <c r="C120" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D120" s="33">
         <v>43873</v>
@@ -11055,16 +11116,16 @@
         <v>45</v>
       </c>
       <c r="F120" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G120" s="34" t="s">
         <v>145</v>
       </c>
       <c r="H120" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="I120" s="25" t="s">
         <v>529</v>
-      </c>
-      <c r="I120" s="25" t="s">
-        <v>530</v>
       </c>
       <c r="J120" s="26"/>
       <c r="K120" s="27" t="str">
@@ -11097,14 +11158,14 @@
     </row>
     <row r="121" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B121" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+99</v>
       </c>
       <c r="C121" s="36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D121" s="33">
         <v>43873</v>
@@ -11113,13 +11174,13 @@
         <v>45</v>
       </c>
       <c r="F121" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="G121" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="H121" s="25" t="s">
         <v>535</v>
-      </c>
-      <c r="G121" s="34" t="s">
-        <v>534</v>
-      </c>
-      <c r="H121" s="25" t="s">
-        <v>536</v>
       </c>
       <c r="I121" s="25" t="s">
         <v>135</v>
@@ -11155,14 +11216,14 @@
     </row>
     <row r="122" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B122" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+VC</v>
       </c>
       <c r="C122" s="36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D122" s="33">
         <v>43898</v>
@@ -11171,13 +11232,13 @@
         <v>45</v>
       </c>
       <c r="F122" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="G122" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="G122" s="34" t="s">
-        <v>540</v>
-      </c>
       <c r="H122" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I122" s="25" t="s">
         <v>135</v>
@@ -11215,14 +11276,14 @@
     </row>
     <row r="123" spans="1:27" ht="245.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B123" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGG+WC</v>
       </c>
       <c r="C123" s="36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D123" s="33">
         <v>43758</v>
@@ -11231,13 +11292,13 @@
         <v>36</v>
       </c>
       <c r="F123" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G123" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="H123" s="25" t="s">
         <v>543</v>
-      </c>
-      <c r="H123" s="25" t="s">
-        <v>544</v>
       </c>
       <c r="I123" s="25" t="s">
         <v>172</v>
@@ -11275,14 +11336,14 @@
     </row>
     <row r="124" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B124" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGH+4H</v>
       </c>
       <c r="C124" s="36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D124" s="33">
         <v>43873</v>
@@ -11291,13 +11352,13 @@
         <v>45</v>
       </c>
       <c r="F124" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="G124" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="G124" s="34" t="s">
+      <c r="H124" s="25" t="s">
         <v>548</v>
-      </c>
-      <c r="H124" s="25" t="s">
-        <v>549</v>
       </c>
       <c r="I124" s="25" t="s">
         <v>172</v>
@@ -11335,14 +11396,14 @@
     </row>
     <row r="125" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B125" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGM+5V</v>
       </c>
       <c r="C125" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D125" s="33">
         <v>43897</v>
@@ -11351,13 +11412,13 @@
         <v>45</v>
       </c>
       <c r="F125" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I125" s="25" t="s">
         <v>135</v>
@@ -11393,14 +11454,14 @@
     </row>
     <row r="126" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B126" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGM+5V</v>
       </c>
       <c r="C126" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D126" s="33">
         <v>43897</v>
@@ -11409,13 +11470,13 @@
         <v>45</v>
       </c>
       <c r="F126" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H126" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I126" s="25" t="s">
         <v>172</v>
@@ -11451,14 +11512,14 @@
     </row>
     <row r="127" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B127" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGP+84</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D127" s="33">
         <v>43873</v>
@@ -11467,18 +11528,20 @@
         <v>45</v>
       </c>
       <c r="F127" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="G127" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="G127" s="34" t="s">
+      <c r="H127" s="25" t="s">
         <v>557</v>
-      </c>
-      <c r="H127" s="25" t="s">
-        <v>558</v>
       </c>
       <c r="I127" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J127" s="26"/>
+      <c r="J127" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K127" s="27" t="str">
         <f t="shared" si="13"/>
         <v>8PGP+84</v>
@@ -11509,14 +11572,14 @@
     </row>
     <row r="128" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B128" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGQ+74</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D128" s="33">
         <v>43873</v>
@@ -11525,18 +11588,20 @@
         <v>45</v>
       </c>
       <c r="F128" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="G128" s="34" t="s">
         <v>561</v>
       </c>
-      <c r="G128" s="34" t="s">
+      <c r="H128" s="25" t="s">
         <v>562</v>
-      </c>
-      <c r="H128" s="25" t="s">
-        <v>563</v>
       </c>
       <c r="I128" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J128" s="26"/>
+      <c r="J128" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K128" s="27" t="str">
         <f t="shared" si="13"/>
         <v>8PGQ+74</v>
@@ -11569,14 +11634,14 @@
     </row>
     <row r="129" spans="1:27" ht="357.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B129" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGR+7W</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D129" s="33">
         <v>42988</v>
@@ -11585,18 +11650,20 @@
         <v>36</v>
       </c>
       <c r="F129" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="G129" s="34" t="s">
         <v>566</v>
       </c>
-      <c r="G129" s="34" t="s">
+      <c r="H129" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="H129" s="25" t="s">
-        <v>568</v>
-      </c>
       <c r="I129" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="J129" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="J129" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K129" s="27" t="str">
         <f t="shared" si="13"/>
         <v>8PGR+7W</v>
@@ -11631,14 +11698,14 @@
     </row>
     <row r="130" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B130" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGR+7W</v>
       </c>
       <c r="C130" s="36" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D130" s="33">
         <v>43873</v>
@@ -11647,18 +11714,20 @@
         <v>45</v>
       </c>
       <c r="F130" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G130" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="H130" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="H130" s="25" t="s">
-        <v>571</v>
-      </c>
       <c r="I130" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="J130" s="26"/>
+        <v>256</v>
+      </c>
+      <c r="J130" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K130" s="27" t="str">
         <f t="shared" si="13"/>
         <v>8PGR+7W</v>
@@ -11691,14 +11760,14 @@
     </row>
     <row r="131" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B131" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+3F</v>
       </c>
       <c r="C131" s="36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D131" s="33">
         <v>43873</v>
@@ -11707,16 +11776,16 @@
         <v>45</v>
       </c>
       <c r="F131" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="G131" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="G131" s="34" t="s">
+      <c r="H131" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="H131" s="25" t="s">
-        <v>576</v>
-      </c>
       <c r="I131" s="25" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J131" s="26" t="s">
         <v>43</v>
@@ -11751,14 +11820,14 @@
     </row>
     <row r="132" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B132" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+4C</v>
       </c>
       <c r="C132" s="36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D132" s="33">
         <v>43873</v>
@@ -11767,16 +11836,16 @@
         <v>45</v>
       </c>
       <c r="F132" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G132" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="H132" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="H132" s="25" t="s">
-        <v>580</v>
-      </c>
       <c r="I132" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J132" s="26" t="s">
         <v>43</v>
@@ -11813,14 +11882,14 @@
     </row>
     <row r="133" spans="1:27" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B133" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+4C</v>
       </c>
       <c r="C133" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D133" s="33">
         <v>43873</v>
@@ -11829,16 +11898,16 @@
         <v>45</v>
       </c>
       <c r="F133" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G133" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H133" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I133" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J133" s="26" t="s">
         <v>43</v>
@@ -11873,32 +11942,32 @@
     </row>
     <row r="134" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B134" s="21" t="str">
         <f t="shared" si="10"/>
         <v>8PGV+4C</v>
       </c>
       <c r="C134" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D134" s="33">
         <v>43997</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F134" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="G134" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="G134" s="34" t="s">
-        <v>585</v>
-      </c>
       <c r="H134" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I134" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J134" s="26" t="s">
         <v>43</v>
@@ -11937,14 +12006,14 @@
     </row>
     <row r="135" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B135" s="21" t="str">
         <f t="shared" ref="B135:B198" si="15">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A135,4),"%2B",RIGHT(A135,2)),A135)</f>
         <v>8PGV+9F</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D135" s="33">
         <v>43873</v>
@@ -11953,20 +12022,18 @@
         <v>45</v>
       </c>
       <c r="F135" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="G135" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="G135" s="34" t="s">
-        <v>589</v>
-      </c>
       <c r="H135" s="25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I135" s="25" t="s">
-        <v>958</v>
-      </c>
-      <c r="J135" s="26" t="s">
-        <v>955</v>
-      </c>
+        <v>957</v>
+      </c>
+      <c r="J135" s="26"/>
       <c r="K135" s="27" t="str">
         <f t="shared" si="13"/>
         <v>8PGV+9F</v>
@@ -11997,14 +12064,14 @@
     </row>
     <row r="136" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B136" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PGV+9F</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D136" s="33">
         <v>43873</v>
@@ -12013,16 +12080,16 @@
         <v>45</v>
       </c>
       <c r="F136" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G136" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="H136" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="H136" s="25" t="s">
-        <v>591</v>
-      </c>
       <c r="I136" s="25" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J136" s="26" t="s">
         <v>43</v>
@@ -12057,14 +12124,14 @@
     </row>
     <row r="137" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B137" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PGX+MQ</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D137" s="33">
         <v>43873</v>
@@ -12073,13 +12140,13 @@
         <v>45</v>
       </c>
       <c r="F137" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G137" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H137" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I137" s="25" t="s">
         <v>172</v>
@@ -12115,35 +12182,35 @@
     </row>
     <row r="138" spans="1:27" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B138" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D138" s="33">
         <v>43809</v>
       </c>
       <c r="E138" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="F138" s="34" t="s">
         <v>597</v>
       </c>
-      <c r="F138" s="34" t="s">
+      <c r="G138" s="34" t="s">
         <v>598</v>
       </c>
-      <c r="G138" s="34" t="s">
+      <c r="H138" s="25" t="s">
         <v>599</v>
-      </c>
-      <c r="H138" s="25" t="s">
-        <v>600</v>
       </c>
       <c r="I138" s="25" t="s">
         <v>172</v>
       </c>
       <c r="J138" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K138" s="27" t="str">
         <f t="shared" si="13"/>
@@ -12177,14 +12244,14 @@
     </row>
     <row r="139" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B139" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D139" s="33">
         <v>43873</v>
@@ -12193,10 +12260,10 @@
         <v>45</v>
       </c>
       <c r="F139" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="G139" s="34" t="s">
         <v>602</v>
-      </c>
-      <c r="G139" s="34" t="s">
-        <v>603</v>
       </c>
       <c r="H139" s="25" t="s">
         <v>134</v>
@@ -12205,7 +12272,7 @@
         <v>172</v>
       </c>
       <c r="J139" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K139" s="27" t="str">
         <f t="shared" si="13"/>
@@ -12237,14 +12304,14 @@
     </row>
     <row r="140" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B140" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D140" s="33">
         <v>43873</v>
@@ -12253,10 +12320,10 @@
         <v>45</v>
       </c>
       <c r="F140" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="G140" s="34" t="s">
         <v>605</v>
-      </c>
-      <c r="G140" s="34" t="s">
-        <v>606</v>
       </c>
       <c r="H140" s="25" t="s">
         <v>134</v>
@@ -12265,7 +12332,7 @@
         <v>172</v>
       </c>
       <c r="J140" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K140" s="27" t="str">
         <f t="shared" si="13"/>
@@ -12297,14 +12364,14 @@
     </row>
     <row r="141" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B141" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PHG+RV</v>
       </c>
       <c r="C141" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D141" s="33">
         <v>42736</v>
@@ -12313,19 +12380,19 @@
         <v>36</v>
       </c>
       <c r="F141" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="G141" s="34" t="s">
         <v>608</v>
       </c>
-      <c r="G141" s="34" t="s">
+      <c r="H141" s="25" t="s">
         <v>609</v>
-      </c>
-      <c r="H141" s="25" t="s">
-        <v>610</v>
       </c>
       <c r="I141" s="25" t="s">
         <v>172</v>
       </c>
       <c r="J141" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K141" s="27" t="str">
         <f t="shared" si="13"/>
@@ -12359,14 +12426,14 @@
     </row>
     <row r="142" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B142" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PJC+32</v>
       </c>
       <c r="C142" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D142" s="33">
         <v>43873</v>
@@ -12375,16 +12442,16 @@
         <v>45</v>
       </c>
       <c r="F142" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G142" s="34" t="s">
         <v>145</v>
       </c>
       <c r="H142" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="I142" s="25" t="s">
         <v>529</v>
-      </c>
-      <c r="I142" s="25" t="s">
-        <v>530</v>
       </c>
       <c r="J142" s="26"/>
       <c r="K142" s="27" t="str">
@@ -12423,14 +12490,14 @@
     </row>
     <row r="143" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B143" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PJM+VW</v>
       </c>
       <c r="C143" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D143" s="33">
         <v>43873</v>
@@ -12442,13 +12509,13 @@
         <v>129</v>
       </c>
       <c r="G143" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="H143" s="25" t="s">
         <v>616</v>
       </c>
-      <c r="H143" s="25" t="s">
+      <c r="I143" s="25" t="s">
         <v>617</v>
-      </c>
-      <c r="I143" s="25" t="s">
-        <v>618</v>
       </c>
       <c r="J143" s="26"/>
       <c r="K143" s="27" t="str">
@@ -12481,14 +12548,14 @@
     </row>
     <row r="144" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B144" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PJR+46</v>
       </c>
       <c r="C144" s="36" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D144" s="33">
         <v>43873</v>
@@ -12497,16 +12564,16 @@
         <v>45</v>
       </c>
       <c r="F144" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G144" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="H144" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="H144" s="25" t="s">
-        <v>622</v>
-      </c>
       <c r="I144" s="25" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J144" s="26" t="s">
         <v>43</v>
@@ -12541,32 +12608,32 @@
     </row>
     <row r="145" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B145" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PJR+46</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D145" s="33">
         <v>43631</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F145" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="G145" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="G145" s="34" t="s">
-        <v>625</v>
-      </c>
       <c r="H145" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I145" s="25" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J145" s="26" t="s">
         <v>43</v>
@@ -12603,14 +12670,14 @@
     </row>
     <row r="146" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B146" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PM9+8X</v>
       </c>
       <c r="C146" s="36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D146" s="33">
         <v>43873</v>
@@ -12619,16 +12686,16 @@
         <v>45</v>
       </c>
       <c r="F146" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="G146" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="G146" s="34" t="s">
-        <v>629</v>
-      </c>
       <c r="H146" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I146" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J146" s="26"/>
       <c r="K146" s="27" t="str">
@@ -12663,14 +12730,14 @@
     </row>
     <row r="147" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B147" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PM9+JX</v>
       </c>
       <c r="C147" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D147" s="33">
         <v>43873</v>
@@ -12679,16 +12746,16 @@
         <v>45</v>
       </c>
       <c r="F147" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G147" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H147" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I147" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J147" s="26"/>
       <c r="K147" s="27" t="str">
@@ -12723,14 +12790,14 @@
     </row>
     <row r="148" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B148" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PMH+33</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D148" s="33">
         <v>43873</v>
@@ -12742,13 +12809,13 @@
         <v>129</v>
       </c>
       <c r="G148" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="H148" s="25" t="s">
         <v>635</v>
       </c>
-      <c r="H148" s="25" t="s">
-        <v>636</v>
-      </c>
       <c r="I148" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J148" s="26"/>
       <c r="K148" s="27" t="str">
@@ -12781,14 +12848,14 @@
     </row>
     <row r="149" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B149" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PMQ+XJ</v>
       </c>
       <c r="C149" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D149" s="33">
         <v>43873</v>
@@ -12797,16 +12864,16 @@
         <v>45</v>
       </c>
       <c r="F149" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G149" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="H149" s="25" t="s">
         <v>639</v>
       </c>
-      <c r="H149" s="25" t="s">
+      <c r="I149" s="25" t="s">
         <v>640</v>
-      </c>
-      <c r="I149" s="25" t="s">
-        <v>641</v>
       </c>
       <c r="J149" s="26" t="s">
         <v>43</v>
@@ -12841,32 +12908,32 @@
     </row>
     <row r="150" spans="1:27" ht="294" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="32" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B150" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8PPQ+5H</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D150" s="33">
         <v>43612</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F150" s="34" t="s">
+        <v>643</v>
+      </c>
+      <c r="G150" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="G150" s="34" t="s">
+      <c r="H150" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="I150" s="25" t="s">
         <v>645</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="I150" s="25" t="s">
-        <v>646</v>
       </c>
       <c r="J150" s="26" t="s">
         <v>43</v>
@@ -12876,7 +12943,7 @@
         <v>8PPQ+5H</v>
       </c>
       <c r="L150" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M150" s="35" t="s">
         <v>49</v>
@@ -12903,14 +12970,14 @@
     </row>
     <row r="151" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="32" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B151" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q29+P6</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D151" s="33">
         <v>43873</v>
@@ -12919,13 +12986,13 @@
         <v>45</v>
       </c>
       <c r="F151" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="G151" s="34" t="s">
         <v>649</v>
       </c>
-      <c r="G151" s="34" t="s">
+      <c r="H151" s="25" t="s">
         <v>650</v>
-      </c>
-      <c r="H151" s="25" t="s">
-        <v>651</v>
       </c>
       <c r="I151" s="25" t="s">
         <v>135</v>
@@ -12961,32 +13028,32 @@
     </row>
     <row r="152" spans="1:27" ht="258" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="32" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B152" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q5G+F7</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D152" s="33">
         <v>41821</v>
       </c>
       <c r="E152" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="F152" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="F152" s="34" t="s">
+      <c r="G152" s="34" t="s">
         <v>655</v>
       </c>
-      <c r="G152" s="34" t="s">
+      <c r="H152" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="H152" s="25" t="s">
+      <c r="I152" s="25" t="s">
         <v>657</v>
-      </c>
-      <c r="I152" s="25" t="s">
-        <v>658</v>
       </c>
       <c r="J152" s="26"/>
       <c r="K152" s="27" t="str">
@@ -12994,7 +13061,7 @@
         <v>8Q5G+F7</v>
       </c>
       <c r="L152" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M152" s="35" t="s">
         <v>49</v>
@@ -13021,14 +13088,14 @@
     </row>
     <row r="153" spans="1:27" ht="249.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="32" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B153" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q63+HQ</v>
       </c>
       <c r="C153" s="36" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D153" s="33">
         <v>42988</v>
@@ -13037,16 +13104,16 @@
         <v>36</v>
       </c>
       <c r="F153" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="G153" s="34" t="s">
         <v>662</v>
       </c>
-      <c r="G153" s="34" t="s">
+      <c r="H153" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="I153" s="25" t="s">
         <v>663</v>
-      </c>
-      <c r="H153" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="I153" s="25" t="s">
-        <v>664</v>
       </c>
       <c r="J153" s="26" t="s">
         <v>43</v>
@@ -13085,14 +13152,14 @@
     </row>
     <row r="154" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="32" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B154" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q64+Q3</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D154" s="33">
         <v>42989</v>
@@ -13101,19 +13168,19 @@
         <v>36</v>
       </c>
       <c r="F154" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="G154" s="34" t="s">
         <v>667</v>
       </c>
-      <c r="G154" s="34" t="s">
+      <c r="H154" s="25" t="s">
         <v>668</v>
       </c>
-      <c r="H154" s="25" t="s">
+      <c r="I154" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="I154" s="25" t="s">
-        <v>670</v>
-      </c>
       <c r="J154" s="26" t="s">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="K154" s="27" t="str">
         <f t="shared" si="16"/>
@@ -13147,14 +13214,14 @@
     </row>
     <row r="155" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B155" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+2P</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D155" s="33">
         <v>43873</v>
@@ -13163,19 +13230,19 @@
         <v>45</v>
       </c>
       <c r="F155" s="34" t="s">
+        <v>672</v>
+      </c>
+      <c r="G155" s="34" t="s">
         <v>673</v>
       </c>
-      <c r="G155" s="34" t="s">
+      <c r="H155" s="25" t="s">
         <v>674</v>
-      </c>
-      <c r="H155" s="25" t="s">
-        <v>675</v>
       </c>
       <c r="I155" s="25" t="s">
         <v>135</v>
       </c>
       <c r="J155" s="26" t="s">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="K155" s="27" t="str">
         <f t="shared" si="16"/>
@@ -13207,35 +13274,35 @@
     </row>
     <row r="156" spans="1:27" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B156" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+2P</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D156" s="33">
         <v>43488</v>
       </c>
       <c r="E156" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="F156" s="34" t="s">
         <v>677</v>
       </c>
-      <c r="F156" s="34" t="s">
+      <c r="G156" s="34" t="s">
         <v>678</v>
       </c>
-      <c r="G156" s="34" t="s">
-        <v>679</v>
-      </c>
       <c r="H156" s="25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I156" s="25" t="s">
         <v>135</v>
       </c>
       <c r="J156" s="26" t="s">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="K156" s="27" t="str">
         <f t="shared" si="16"/>
@@ -13269,14 +13336,14 @@
     </row>
     <row r="157" spans="1:27" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B157" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+2P</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D157" s="33">
         <v>43873</v>
@@ -13285,19 +13352,19 @@
         <v>45</v>
       </c>
       <c r="F157" s="34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G157" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="H157" s="25" t="s">
         <v>681</v>
-      </c>
-      <c r="H157" s="25" t="s">
-        <v>682</v>
       </c>
       <c r="I157" s="25" t="s">
         <v>172</v>
       </c>
       <c r="J157" s="26" t="s">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="K157" s="27" t="str">
         <f t="shared" si="16"/>
@@ -13329,14 +13396,14 @@
     </row>
     <row r="158" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B158" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q74+J5</v>
       </c>
       <c r="C158" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D158" s="33">
         <v>43873</v>
@@ -13345,18 +13412,20 @@
         <v>45</v>
       </c>
       <c r="F158" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="G158" s="34" t="s">
         <v>685</v>
       </c>
-      <c r="G158" s="34" t="s">
-        <v>686</v>
-      </c>
       <c r="H158" s="25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I158" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J158" s="26"/>
+      <c r="J158" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K158" s="27" t="str">
         <f t="shared" si="16"/>
         <v>8Q74+J5</v>
@@ -13389,14 +13458,14 @@
     </row>
     <row r="159" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="32" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B159" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q77+69</v>
       </c>
       <c r="C159" s="36" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D159" s="33">
         <v>43873</v>
@@ -13408,7 +13477,7 @@
         <v>129</v>
       </c>
       <c r="G159" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H159" s="25" t="s">
         <v>78</v>
@@ -13447,14 +13516,14 @@
     </row>
     <row r="160" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B160" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q77+79</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D160" s="33">
         <v>42005</v>
@@ -13463,16 +13532,16 @@
         <v>36</v>
       </c>
       <c r="F160" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="G160" s="34" t="s">
         <v>692</v>
-      </c>
-      <c r="G160" s="34" t="s">
-        <v>693</v>
       </c>
       <c r="H160" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I160" s="48" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J160" s="26"/>
       <c r="K160" s="27" t="str">
@@ -13507,14 +13576,14 @@
     </row>
     <row r="161" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B161" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q84+5P</v>
       </c>
       <c r="C161" s="36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D161" s="33">
         <v>43873</v>
@@ -13526,10 +13595,10 @@
         <v>164</v>
       </c>
       <c r="G161" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H161" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I161" s="25" t="s">
         <v>135</v>
@@ -13567,14 +13636,14 @@
     </row>
     <row r="162" spans="1:27" ht="311.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B162" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q84+5P</v>
       </c>
       <c r="C162" s="36" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D162" s="33">
         <v>42988</v>
@@ -13583,16 +13652,16 @@
         <v>36</v>
       </c>
       <c r="F162" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="G162" s="34" t="s">
         <v>699</v>
       </c>
-      <c r="G162" s="34" t="s">
+      <c r="H162" s="25" t="s">
         <v>700</v>
       </c>
-      <c r="H162" s="25" t="s">
+      <c r="I162" s="25" t="s">
         <v>701</v>
-      </c>
-      <c r="I162" s="25" t="s">
-        <v>702</v>
       </c>
       <c r="J162" s="26" t="s">
         <v>43</v>
@@ -13602,7 +13671,7 @@
         <v>8Q84+5P</v>
       </c>
       <c r="L162" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M162" s="35" t="s">
         <v>49</v>
@@ -13629,14 +13698,14 @@
     </row>
     <row r="163" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B163" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q92+PP</v>
       </c>
       <c r="C163" s="36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D163" s="33">
         <v>43730</v>
@@ -13645,16 +13714,16 @@
         <v>36</v>
       </c>
       <c r="F163" s="34" t="s">
+        <v>705</v>
+      </c>
+      <c r="G163" s="34" t="s">
         <v>706</v>
       </c>
-      <c r="G163" s="34" t="s">
+      <c r="H163" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="H163" s="25" t="s">
+      <c r="I163" s="25" t="s">
         <v>708</v>
-      </c>
-      <c r="I163" s="25" t="s">
-        <v>709</v>
       </c>
       <c r="J163" s="26"/>
       <c r="K163" s="27" t="str">
@@ -13691,14 +13760,14 @@
     </row>
     <row r="164" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B164" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C164" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D164" s="33">
         <v>42987</v>
@@ -13707,16 +13776,16 @@
         <v>36</v>
       </c>
       <c r="F164" s="34" t="s">
+        <v>711</v>
+      </c>
+      <c r="G164" s="34" t="s">
         <v>712</v>
       </c>
-      <c r="G164" s="34" t="s">
+      <c r="H164" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="H164" s="25" t="s">
-        <v>714</v>
-      </c>
       <c r="I164" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J164" s="26"/>
       <c r="K164" s="27" t="str">
@@ -13755,14 +13824,14 @@
     </row>
     <row r="165" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B165" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C165" s="36" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D165" s="33">
         <v>43873</v>
@@ -13771,13 +13840,13 @@
         <v>45</v>
       </c>
       <c r="F165" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G165" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H165" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I165" s="25" t="s">
         <v>135</v>
@@ -13815,14 +13884,14 @@
     </row>
     <row r="166" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B166" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C166" s="36" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D166" s="33">
         <v>43873</v>
@@ -13831,13 +13900,13 @@
         <v>45</v>
       </c>
       <c r="F166" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G166" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H166" s="25" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I166" s="25" t="s">
         <v>135</v>
@@ -13875,14 +13944,14 @@
     </row>
     <row r="167" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B167" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C167" s="36" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D167" s="33">
         <v>43873</v>
@@ -13891,13 +13960,13 @@
         <v>45</v>
       </c>
       <c r="F167" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G167" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H167" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I167" s="25" t="s">
         <v>135</v>
@@ -13935,14 +14004,14 @@
     </row>
     <row r="168" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B168" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C168" s="36" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D168" s="33">
         <v>43873</v>
@@ -13951,13 +14020,13 @@
         <v>45</v>
       </c>
       <c r="F168" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G168" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="H168" s="25" t="s">
         <v>722</v>
-      </c>
-      <c r="H168" s="25" t="s">
-        <v>723</v>
       </c>
       <c r="I168" s="25" t="s">
         <v>135</v>
@@ -13995,14 +14064,14 @@
     </row>
     <row r="169" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B169" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C169" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D169" s="33">
         <v>43873</v>
@@ -14011,13 +14080,13 @@
         <v>45</v>
       </c>
       <c r="F169" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G169" s="34" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H169" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I169" s="25" t="s">
         <v>135</v>
@@ -14055,14 +14124,14 @@
     </row>
     <row r="170" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B170" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D170" s="33">
         <v>43873</v>
@@ -14071,13 +14140,13 @@
         <v>45</v>
       </c>
       <c r="F170" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G170" s="34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H170" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I170" s="25" t="s">
         <v>135</v>
@@ -14115,14 +14184,14 @@
     </row>
     <row r="171" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B171" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C171" s="36" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D171" s="33">
         <v>43873</v>
@@ -14131,10 +14200,10 @@
         <v>45</v>
       </c>
       <c r="F171" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G171" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H171" s="25" t="s">
         <v>166</v>
@@ -14173,14 +14242,14 @@
     </row>
     <row r="172" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B172" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C172" s="36" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D172" s="33">
         <v>43873</v>
@@ -14189,10 +14258,10 @@
         <v>45</v>
       </c>
       <c r="F172" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H172" s="25" t="s">
         <v>166</v>
@@ -14231,14 +14300,14 @@
     </row>
     <row r="173" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B173" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D173" s="33">
         <v>43873</v>
@@ -14247,13 +14316,13 @@
         <v>45</v>
       </c>
       <c r="F173" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G173" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="H173" s="25" t="s">
         <v>733</v>
-      </c>
-      <c r="H173" s="25" t="s">
-        <v>734</v>
       </c>
       <c r="I173" s="25" t="s">
         <v>135</v>
@@ -14289,29 +14358,29 @@
     </row>
     <row r="174" spans="1:27" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B174" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q94+VR</v>
       </c>
       <c r="C174" s="36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D174" s="33">
         <v>43612</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F174" s="34" t="s">
+        <v>735</v>
+      </c>
+      <c r="G174" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="G174" s="34" t="s">
+      <c r="H174" s="25" t="s">
         <v>737</v>
-      </c>
-      <c r="H174" s="25" t="s">
-        <v>738</v>
       </c>
       <c r="I174" s="25" t="s">
         <v>135</v>
@@ -14322,7 +14391,7 @@
         <v>8Q94+VR</v>
       </c>
       <c r="L174" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M174" s="29" t="s">
         <v>42</v>
@@ -14349,14 +14418,14 @@
     </row>
     <row r="175" spans="1:27" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B175" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8Q98+X3</v>
       </c>
       <c r="C175" s="36" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D175" s="33">
         <v>42988</v>
@@ -14365,13 +14434,13 @@
         <v>36</v>
       </c>
       <c r="F175" s="34" t="s">
+        <v>740</v>
+      </c>
+      <c r="G175" s="34" t="s">
         <v>741</v>
       </c>
-      <c r="G175" s="34" t="s">
+      <c r="H175" s="25" t="s">
         <v>742</v>
-      </c>
-      <c r="H175" s="25" t="s">
-        <v>743</v>
       </c>
       <c r="I175" s="25" t="s">
         <v>172</v>
@@ -14409,14 +14478,14 @@
     </row>
     <row r="176" spans="1:27" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="32" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B176" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8QC7+47</v>
       </c>
       <c r="C176" s="36" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D176" s="33">
         <v>43731</v>
@@ -14425,10 +14494,10 @@
         <v>36</v>
       </c>
       <c r="F176" s="34" t="s">
+        <v>745</v>
+      </c>
+      <c r="G176" s="34" t="s">
         <v>746</v>
-      </c>
-      <c r="G176" s="34" t="s">
-        <v>747</v>
       </c>
       <c r="H176" s="25" t="s">
         <v>95</v>
@@ -14469,14 +14538,14 @@
     </row>
     <row r="177" spans="1:27" ht="225" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B177" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8QC8+WH</v>
       </c>
       <c r="C177" s="36" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D177" s="33">
         <v>43873</v>
@@ -14485,16 +14554,16 @@
         <v>45</v>
       </c>
       <c r="F177" s="34" t="s">
+        <v>748</v>
+      </c>
+      <c r="G177" s="34" t="s">
         <v>749</v>
       </c>
-      <c r="G177" s="34" t="s">
+      <c r="H177" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="I177" s="25" t="s">
         <v>750</v>
-      </c>
-      <c r="H177" s="25" t="s">
-        <v>701</v>
-      </c>
-      <c r="I177" s="25" t="s">
-        <v>751</v>
       </c>
       <c r="J177" s="26"/>
       <c r="K177" s="27" t="str">
@@ -14527,14 +14596,14 @@
     </row>
     <row r="178" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="32" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B178" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8QF4+62</v>
       </c>
       <c r="C178" s="36" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D178" s="33">
         <v>43873</v>
@@ -14546,13 +14615,13 @@
         <v>129</v>
       </c>
       <c r="G178" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="H178" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="H178" s="25" t="s">
+      <c r="I178" s="25" t="s">
         <v>755</v>
-      </c>
-      <c r="I178" s="25" t="s">
-        <v>756</v>
       </c>
       <c r="J178" s="26"/>
       <c r="K178" s="27" t="str">
@@ -14585,14 +14654,14 @@
     </row>
     <row r="179" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B179" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8QF6+HR</v>
       </c>
       <c r="C179" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D179" s="33">
         <v>43254</v>
@@ -14601,24 +14670,26 @@
         <v>36</v>
       </c>
       <c r="F179" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="G179" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="G179" s="34" t="s">
+      <c r="H179" s="25" t="s">
         <v>760</v>
       </c>
-      <c r="H179" s="25" t="s">
+      <c r="I179" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="I179" s="25" t="s">
-        <v>762</v>
-      </c>
-      <c r="J179" s="26"/>
+      <c r="J179" s="26" t="s">
+        <v>955</v>
+      </c>
       <c r="K179" s="27" t="str">
         <f t="shared" si="16"/>
         <v>8QF6+HR</v>
       </c>
       <c r="L179" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M179" s="37" t="s">
         <v>54</v>
@@ -14645,14 +14716,14 @@
     </row>
     <row r="180" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B180" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8QG2+RX</v>
       </c>
       <c r="C180" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D180" s="33">
         <v>43893</v>
@@ -14661,16 +14732,16 @@
         <v>45</v>
       </c>
       <c r="F180" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="G180" s="34" t="s">
         <v>765</v>
       </c>
-      <c r="G180" s="34" t="s">
-        <v>766</v>
-      </c>
       <c r="H180" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I180" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J180" s="26"/>
       <c r="K180" s="27" t="str">
@@ -14705,14 +14776,14 @@
     </row>
     <row r="181" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B181" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8QG2+V2</v>
       </c>
       <c r="C181" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D181" s="33">
         <v>43873</v>
@@ -14721,13 +14792,13 @@
         <v>45</v>
       </c>
       <c r="F181" s="34" t="s">
+        <v>767</v>
+      </c>
+      <c r="G181" s="34" t="s">
         <v>768</v>
       </c>
-      <c r="G181" s="34" t="s">
+      <c r="H181" s="25" t="s">
         <v>769</v>
-      </c>
-      <c r="H181" s="25" t="s">
-        <v>770</v>
       </c>
       <c r="I181" s="25" t="s">
         <v>135</v>
@@ -14763,14 +14834,14 @@
     </row>
     <row r="182" spans="1:27" ht="56.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B182" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8QH2+9H</v>
       </c>
       <c r="C182" s="36" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D182" s="33">
         <v>43873</v>
@@ -14779,16 +14850,16 @@
         <v>45</v>
       </c>
       <c r="F182" s="34" t="s">
+        <v>772</v>
+      </c>
+      <c r="G182" s="34" t="s">
         <v>773</v>
       </c>
-      <c r="G182" s="34" t="s">
+      <c r="H182" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="I182" s="25" t="s">
         <v>774</v>
-      </c>
-      <c r="H182" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="I182" s="25" t="s">
-        <v>775</v>
       </c>
       <c r="J182" s="26"/>
       <c r="K182" s="27" t="str">
@@ -14821,32 +14892,32 @@
     </row>
     <row r="183" spans="1:27" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B183" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8QH3+R4</v>
       </c>
       <c r="C183" s="36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D183" s="33">
         <v>42989</v>
       </c>
       <c r="E183" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="F183" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="G183" s="34" t="s">
         <v>778</v>
       </c>
-      <c r="F183" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="G183" s="34" t="s">
+      <c r="H183" s="25" t="s">
         <v>779</v>
       </c>
-      <c r="H183" s="25" t="s">
+      <c r="I183" s="25" t="s">
         <v>780</v>
-      </c>
-      <c r="I183" s="25" t="s">
-        <v>781</v>
       </c>
       <c r="J183" s="26"/>
       <c r="K183" s="27" t="str">
@@ -14881,14 +14952,14 @@
     </row>
     <row r="184" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B184" s="21" t="str">
         <f t="shared" si="15"/>
         <v>8QJ4+V4</v>
       </c>
       <c r="C184" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D184" s="33">
         <v>43873</v>
@@ -14897,16 +14968,16 @@
         <v>45</v>
       </c>
       <c r="F184" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G184" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H184" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I184" s="25" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J184" s="26"/>
       <c r="K184" s="27" t="str">
@@ -14914,7 +14985,7 @@
         <v>8QJ4+V4</v>
       </c>
       <c r="L184" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M184" s="37" t="s">
         <v>54</v>
@@ -14941,7 +15012,7 @@
     </row>
     <row r="185" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B185" s="21" t="str">
         <f t="shared" si="15"/>
@@ -14958,7 +15029,7 @@
         <v>79</v>
       </c>
       <c r="G185" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
@@ -14990,7 +15061,7 @@
     </row>
     <row r="186" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B186" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15004,10 +15075,10 @@
         <v>45</v>
       </c>
       <c r="F186" s="34" t="s">
+        <v>786</v>
+      </c>
+      <c r="G186" s="34" t="s">
         <v>787</v>
-      </c>
-      <c r="G186" s="34" t="s">
-        <v>788</v>
       </c>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
@@ -15051,7 +15122,7 @@
     </row>
     <row r="187" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B187" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15065,10 +15136,10 @@
         <v>45</v>
       </c>
       <c r="F187" s="34" t="s">
+        <v>789</v>
+      </c>
+      <c r="G187" s="34" t="s">
         <v>790</v>
-      </c>
-      <c r="G187" s="34" t="s">
-        <v>791</v>
       </c>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
@@ -15100,7 +15171,7 @@
     </row>
     <row r="188" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B188" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15114,7 +15185,7 @@
         <v>45</v>
       </c>
       <c r="F188" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G188" s="34">
         <v>0</v>
@@ -15149,7 +15220,7 @@
     </row>
     <row r="189" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B189" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15163,7 +15234,7 @@
         <v>45</v>
       </c>
       <c r="F189" s="34" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G189" s="34">
         <v>0</v>
@@ -15198,7 +15269,7 @@
     </row>
     <row r="190" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="32" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B190" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15212,10 +15283,10 @@
         <v>45</v>
       </c>
       <c r="F190" s="34" t="s">
+        <v>795</v>
+      </c>
+      <c r="G190" s="34" t="s">
         <v>796</v>
-      </c>
-      <c r="G190" s="34" t="s">
-        <v>797</v>
       </c>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
@@ -15247,7 +15318,7 @@
     </row>
     <row r="191" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="32" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B191" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15261,10 +15332,10 @@
         <v>45</v>
       </c>
       <c r="F191" s="34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G191" s="34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
@@ -15296,7 +15367,7 @@
     </row>
     <row r="192" spans="1:27" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B192" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15310,10 +15381,10 @@
         <v>45</v>
       </c>
       <c r="F192" s="34" t="s">
+        <v>798</v>
+      </c>
+      <c r="G192" s="34" t="s">
         <v>799</v>
-      </c>
-      <c r="G192" s="34" t="s">
-        <v>800</v>
       </c>
       <c r="H192" s="25"/>
       <c r="I192" s="25"/>
@@ -15345,7 +15416,7 @@
     </row>
     <row r="193" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B193" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15359,10 +15430,10 @@
         <v>45</v>
       </c>
       <c r="F193" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G193" s="34" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
@@ -15394,7 +15465,7 @@
     </row>
     <row r="194" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B194" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15408,10 +15479,10 @@
         <v>45</v>
       </c>
       <c r="F194" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G194" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H194" s="25"/>
       <c r="I194" s="25"/>
@@ -15443,7 +15514,7 @@
     </row>
     <row r="195" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B195" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15457,10 +15528,10 @@
         <v>45</v>
       </c>
       <c r="F195" s="34" t="s">
+        <v>802</v>
+      </c>
+      <c r="G195" s="34" t="s">
         <v>803</v>
-      </c>
-      <c r="G195" s="34" t="s">
-        <v>804</v>
       </c>
       <c r="H195" s="25"/>
       <c r="I195" s="25"/>
@@ -15490,7 +15561,7 @@
     </row>
     <row r="196" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B196" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15504,10 +15575,10 @@
         <v>45</v>
       </c>
       <c r="F196" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="G196" s="34" t="s">
         <v>805</v>
-      </c>
-      <c r="G196" s="34" t="s">
-        <v>806</v>
       </c>
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
@@ -15539,7 +15610,7 @@
     </row>
     <row r="197" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B197" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15553,7 +15624,7 @@
         <v>45</v>
       </c>
       <c r="F197" s="34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G197" s="34">
         <v>0</v>
@@ -15588,7 +15659,7 @@
     </row>
     <row r="198" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B198" s="21" t="str">
         <f t="shared" si="15"/>
@@ -15602,10 +15673,10 @@
         <v>45</v>
       </c>
       <c r="F198" s="34" t="s">
+        <v>809</v>
+      </c>
+      <c r="G198" s="34" t="s">
         <v>810</v>
-      </c>
-      <c r="G198" s="34" t="s">
-        <v>811</v>
       </c>
       <c r="H198" s="25"/>
       <c r="I198" s="25"/>
@@ -15637,7 +15708,7 @@
     </row>
     <row r="199" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B199" s="21" t="str">
         <f t="shared" ref="B199:B256" si="19">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A199,4),"%2B",RIGHT(A199,2)),A199)</f>
@@ -15654,7 +15725,7 @@
         <v>79</v>
       </c>
       <c r="G199" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H199" s="25"/>
       <c r="I199" s="25"/>
@@ -15686,7 +15757,7 @@
     </row>
     <row r="200" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B200" s="21" t="str">
         <f t="shared" si="19"/>
@@ -15700,10 +15771,10 @@
         <v>45</v>
       </c>
       <c r="F200" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G200" s="34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H200" s="25"/>
       <c r="I200" s="25"/>
@@ -15741,7 +15812,7 @@
     </row>
     <row r="201" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B201" s="21" t="str">
         <f t="shared" si="19"/>
@@ -15755,10 +15826,10 @@
         <v>45</v>
       </c>
       <c r="F201" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G201" s="34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H201" s="25"/>
       <c r="I201" s="25"/>
@@ -15790,7 +15861,7 @@
     </row>
     <row r="202" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B202" s="21" t="str">
         <f t="shared" si="19"/>
@@ -15804,10 +15875,10 @@
         <v>45</v>
       </c>
       <c r="F202" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G202" s="34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H202" s="25"/>
       <c r="I202" s="25"/>
@@ -15839,7 +15910,7 @@
     </row>
     <row r="203" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B203" s="21" t="str">
         <f t="shared" si="19"/>
@@ -15853,10 +15924,10 @@
         <v>45</v>
       </c>
       <c r="F203" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G203" s="34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H203" s="25"/>
       <c r="I203" s="25"/>
@@ -15888,7 +15959,7 @@
     </row>
     <row r="204" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B204" s="21" t="str">
         <f t="shared" si="19"/>
@@ -15902,10 +15973,10 @@
         <v>45</v>
       </c>
       <c r="F204" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G204" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H204" s="25"/>
       <c r="I204" s="25"/>
@@ -15937,7 +16008,7 @@
     </row>
     <row r="205" spans="1:27" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B205" s="21" t="str">
         <f t="shared" si="19"/>
@@ -15951,10 +16022,10 @@
         <v>45</v>
       </c>
       <c r="F205" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G205" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H205" s="25"/>
       <c r="I205" s="25"/>
@@ -15986,7 +16057,7 @@
     </row>
     <row r="206" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B206" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16000,10 +16071,10 @@
         <v>45</v>
       </c>
       <c r="F206" s="34" t="s">
+        <v>818</v>
+      </c>
+      <c r="G206" s="34" t="s">
         <v>819</v>
-      </c>
-      <c r="G206" s="34" t="s">
-        <v>820</v>
       </c>
       <c r="H206" s="25"/>
       <c r="I206" s="25"/>
@@ -16035,7 +16106,7 @@
     </row>
     <row r="207" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B207" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16049,10 +16120,10 @@
         <v>45</v>
       </c>
       <c r="F207" s="34" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G207" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H207" s="25"/>
       <c r="I207" s="25"/>
@@ -16084,7 +16155,7 @@
     </row>
     <row r="208" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B208" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16098,10 +16169,10 @@
         <v>45</v>
       </c>
       <c r="F208" s="34" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G208" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H208" s="25"/>
       <c r="I208" s="25"/>
@@ -16133,7 +16204,7 @@
     </row>
     <row r="209" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B209" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16147,10 +16218,10 @@
         <v>45</v>
       </c>
       <c r="F209" s="34" t="s">
+        <v>822</v>
+      </c>
+      <c r="G209" s="34" t="s">
         <v>823</v>
-      </c>
-      <c r="G209" s="34" t="s">
-        <v>824</v>
       </c>
       <c r="H209" s="25"/>
       <c r="I209" s="25"/>
@@ -16182,7 +16253,7 @@
     </row>
     <row r="210" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B210" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16196,10 +16267,10 @@
         <v>45</v>
       </c>
       <c r="F210" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="G210" s="34" t="s">
         <v>825</v>
-      </c>
-      <c r="G210" s="34" t="s">
-        <v>826</v>
       </c>
       <c r="H210" s="25"/>
       <c r="I210" s="25"/>
@@ -16229,7 +16300,7 @@
     </row>
     <row r="211" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B211" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16243,10 +16314,10 @@
         <v>45</v>
       </c>
       <c r="F211" s="34" t="s">
+        <v>826</v>
+      </c>
+      <c r="G211" s="34" t="s">
         <v>827</v>
-      </c>
-      <c r="G211" s="34" t="s">
-        <v>828</v>
       </c>
       <c r="H211" s="25"/>
       <c r="I211" s="25"/>
@@ -16276,7 +16347,7 @@
     </row>
     <row r="212" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B212" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16317,7 +16388,7 @@
     </row>
     <row r="213" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B213" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16331,10 +16402,10 @@
         <v>45</v>
       </c>
       <c r="F213" s="34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G213" s="34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H213" s="25"/>
       <c r="I213" s="25"/>
@@ -16366,7 +16437,7 @@
     </row>
     <row r="214" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B214" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16380,10 +16451,10 @@
         <v>45</v>
       </c>
       <c r="F214" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G214" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H214" s="25"/>
       <c r="I214" s="25"/>
@@ -16415,7 +16486,7 @@
     </row>
     <row r="215" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B215" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16429,10 +16500,10 @@
         <v>45</v>
       </c>
       <c r="F215" s="34" t="s">
+        <v>830</v>
+      </c>
+      <c r="G215" s="34" t="s">
         <v>831</v>
-      </c>
-      <c r="G215" s="34" t="s">
-        <v>832</v>
       </c>
       <c r="H215" s="25"/>
       <c r="I215" s="25"/>
@@ -16443,7 +16514,7 @@
       </c>
       <c r="L215" s="28"/>
       <c r="M215" s="47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N215" s="30" t="str">
         <f t="shared" si="20"/>
@@ -16467,7 +16538,7 @@
     </row>
     <row r="216" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B216" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16481,10 +16552,10 @@
         <v>45</v>
       </c>
       <c r="F216" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G216" s="34" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H216" s="25"/>
       <c r="I216" s="25"/>
@@ -16492,7 +16563,7 @@
       <c r="K216" s="28"/>
       <c r="L216" s="28"/>
       <c r="M216" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N216" s="30" t="str">
         <f t="shared" si="20"/>
@@ -16514,7 +16585,7 @@
     </row>
     <row r="217" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B217" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16528,10 +16599,10 @@
         <v>45</v>
       </c>
       <c r="F217" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G217" s="34" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H217" s="25"/>
       <c r="I217" s="25"/>
@@ -16563,7 +16634,7 @@
     </row>
     <row r="218" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B218" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16577,10 +16648,10 @@
         <v>45</v>
       </c>
       <c r="F218" s="34" t="s">
+        <v>835</v>
+      </c>
+      <c r="G218" s="34" t="s">
         <v>836</v>
-      </c>
-      <c r="G218" s="34" t="s">
-        <v>837</v>
       </c>
       <c r="H218" s="25"/>
       <c r="I218" s="25"/>
@@ -16612,7 +16683,7 @@
     </row>
     <row r="219" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B219" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16626,10 +16697,10 @@
         <v>45</v>
       </c>
       <c r="F219" s="34" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G219" s="34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H219" s="25"/>
       <c r="I219" s="25"/>
@@ -16661,7 +16732,7 @@
     </row>
     <row r="220" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B220" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16675,10 +16746,10 @@
         <v>45</v>
       </c>
       <c r="F220" s="34" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G220" s="34" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H220" s="25"/>
       <c r="I220" s="25"/>
@@ -16710,7 +16781,7 @@
     </row>
     <row r="221" spans="1:27" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B221" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16724,10 +16795,10 @@
         <v>45</v>
       </c>
       <c r="F221" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G221" s="34" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H221" s="25"/>
       <c r="I221" s="25"/>
@@ -16759,7 +16830,7 @@
     </row>
     <row r="222" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B222" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16776,7 +16847,7 @@
         <v>83</v>
       </c>
       <c r="G222" s="34" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H222" s="25"/>
       <c r="I222" s="25"/>
@@ -16808,7 +16879,7 @@
     </row>
     <row r="223" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B223" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16822,10 +16893,10 @@
         <v>45</v>
       </c>
       <c r="F223" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="G223" s="34" t="s">
         <v>842</v>
-      </c>
-      <c r="G223" s="34" t="s">
-        <v>843</v>
       </c>
       <c r="H223" s="25"/>
       <c r="I223" s="25"/>
@@ -16833,7 +16904,7 @@
       <c r="K223" s="28"/>
       <c r="L223" s="28"/>
       <c r="M223" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="N223" s="30" t="str">
         <f t="shared" si="20"/>
@@ -16855,7 +16926,7 @@
     </row>
     <row r="224" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B224" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16869,10 +16940,10 @@
         <v>45</v>
       </c>
       <c r="F224" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G224" s="34" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H224" s="25"/>
       <c r="I224" s="25"/>
@@ -16904,7 +16975,7 @@
     </row>
     <row r="225" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B225" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16918,10 +16989,10 @@
         <v>45</v>
       </c>
       <c r="F225" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G225" s="34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H225" s="25"/>
       <c r="I225" s="25"/>
@@ -16953,7 +17024,7 @@
     </row>
     <row r="226" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B226" s="21" t="str">
         <f t="shared" si="19"/>
@@ -16967,10 +17038,10 @@
         <v>45</v>
       </c>
       <c r="F226" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G226" s="34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H226" s="25"/>
       <c r="I226" s="25"/>
@@ -17002,7 +17073,7 @@
     </row>
     <row r="227" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B227" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17016,10 +17087,10 @@
         <v>45</v>
       </c>
       <c r="F227" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G227" s="34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H227" s="25"/>
       <c r="I227" s="25"/>
@@ -17051,7 +17122,7 @@
     </row>
     <row r="228" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B228" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17065,10 +17136,10 @@
         <v>45</v>
       </c>
       <c r="F228" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="G228" s="34" t="s">
         <v>850</v>
-      </c>
-      <c r="G228" s="34" t="s">
-        <v>851</v>
       </c>
       <c r="H228" s="25"/>
       <c r="I228" s="25"/>
@@ -17100,7 +17171,7 @@
     </row>
     <row r="229" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B229" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17114,10 +17185,10 @@
         <v>45</v>
       </c>
       <c r="F229" s="34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G229" s="34" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H229" s="25"/>
       <c r="I229" s="25"/>
@@ -17149,7 +17220,7 @@
     </row>
     <row r="230" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B230" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17163,10 +17234,10 @@
         <v>45</v>
       </c>
       <c r="F230" s="34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G230" s="34" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H230" s="25"/>
       <c r="I230" s="25"/>
@@ -17198,7 +17269,7 @@
     </row>
     <row r="231" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B231" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17212,10 +17283,10 @@
         <v>45</v>
       </c>
       <c r="F231" s="34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G231" s="34" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H231" s="25"/>
       <c r="I231" s="25"/>
@@ -17247,7 +17318,7 @@
     </row>
     <row r="232" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B232" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17261,10 +17332,10 @@
         <v>45</v>
       </c>
       <c r="F232" s="34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G232" s="34" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H232" s="25"/>
       <c r="I232" s="25"/>
@@ -17296,7 +17367,7 @@
     </row>
     <row r="233" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B233" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17310,10 +17381,10 @@
         <v>45</v>
       </c>
       <c r="F233" s="34" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G233" s="34" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H233" s="25"/>
       <c r="I233" s="25"/>
@@ -17345,7 +17416,7 @@
     </row>
     <row r="234" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B234" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17359,10 +17430,10 @@
         <v>45</v>
       </c>
       <c r="F234" s="34" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G234" s="34" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H234" s="25"/>
       <c r="I234" s="25"/>
@@ -17394,7 +17465,7 @@
     </row>
     <row r="235" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="32" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B235" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17408,10 +17479,10 @@
         <v>45</v>
       </c>
       <c r="F235" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G235" s="34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H235" s="25"/>
       <c r="I235" s="25"/>
@@ -17443,7 +17514,7 @@
     </row>
     <row r="236" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="32" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B236" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17457,10 +17528,10 @@
         <v>45</v>
       </c>
       <c r="F236" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G236" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H236" s="25"/>
       <c r="I236" s="25"/>
@@ -17492,7 +17563,7 @@
     </row>
     <row r="237" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="32" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B237" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17506,10 +17577,10 @@
         <v>45</v>
       </c>
       <c r="F237" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G237" s="34" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H237" s="25"/>
       <c r="I237" s="25"/>
@@ -17541,7 +17612,7 @@
     </row>
     <row r="238" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="32" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B238" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17555,10 +17626,10 @@
         <v>45</v>
       </c>
       <c r="F238" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G238" s="34" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H238" s="25"/>
       <c r="I238" s="25"/>
@@ -17590,7 +17661,7 @@
     </row>
     <row r="239" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="32" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B239" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17604,10 +17675,10 @@
         <v>45</v>
       </c>
       <c r="F239" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G239" s="34" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H239" s="25"/>
       <c r="I239" s="25"/>
@@ -17639,7 +17710,7 @@
     </row>
     <row r="240" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="32" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B240" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17653,10 +17724,10 @@
         <v>45</v>
       </c>
       <c r="F240" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="G240" s="34" t="s">
         <v>865</v>
-      </c>
-      <c r="G240" s="34" t="s">
-        <v>866</v>
       </c>
       <c r="H240" s="25"/>
       <c r="I240" s="25"/>
@@ -17688,7 +17759,7 @@
     </row>
     <row r="241" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="32" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B241" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17702,7 +17773,7 @@
         <v>45</v>
       </c>
       <c r="F241" s="34" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G241" s="34">
         <v>0</v>
@@ -17737,7 +17808,7 @@
     </row>
     <row r="242" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="32" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B242" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17751,10 +17822,10 @@
         <v>45</v>
       </c>
       <c r="F242" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="G242" s="34" t="s">
         <v>869</v>
-      </c>
-      <c r="G242" s="34" t="s">
-        <v>870</v>
       </c>
       <c r="H242" s="25"/>
       <c r="I242" s="25"/>
@@ -17786,7 +17857,7 @@
     </row>
     <row r="243" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="32" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B243" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17800,10 +17871,10 @@
         <v>45</v>
       </c>
       <c r="F243" s="34" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G243" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H243" s="25"/>
       <c r="I243" s="25"/>
@@ -17835,7 +17906,7 @@
     </row>
     <row r="244" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="32" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B244" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17849,10 +17920,10 @@
         <v>45</v>
       </c>
       <c r="F244" s="34" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G244" s="34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H244" s="25"/>
       <c r="I244" s="25"/>
@@ -17884,7 +17955,7 @@
     </row>
     <row r="245" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="32" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B245" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17898,10 +17969,10 @@
         <v>45</v>
       </c>
       <c r="F245" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="G245" s="34" t="s">
         <v>873</v>
-      </c>
-      <c r="G245" s="34" t="s">
-        <v>874</v>
       </c>
       <c r="H245" s="25"/>
       <c r="I245" s="25"/>
@@ -17933,7 +18004,7 @@
     </row>
     <row r="246" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="32" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B246" s="21" t="str">
         <f t="shared" si="19"/>
@@ -17947,10 +18018,10 @@
         <v>45</v>
       </c>
       <c r="F246" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G246" s="34" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H246" s="25"/>
       <c r="I246" s="25"/>
@@ -17982,14 +18053,14 @@
     </row>
     <row r="247" spans="1:27" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B247" s="21" t="str">
         <f t="shared" si="19"/>
         <v>6Q3G+97</v>
       </c>
       <c r="C247" s="39" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D247" s="40">
         <v>43282</v>
@@ -17998,16 +18069,16 @@
         <v>36</v>
       </c>
       <c r="F247" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="G247" s="39" t="s">
         <v>879</v>
       </c>
-      <c r="G247" s="39" t="s">
+      <c r="H247" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="H247" s="25" t="s">
+      <c r="I247" s="25" t="s">
         <v>881</v>
-      </c>
-      <c r="I247" s="25" t="s">
-        <v>882</v>
       </c>
       <c r="J247" s="26"/>
       <c r="K247" s="28"/>
@@ -18030,14 +18101,14 @@
     </row>
     <row r="248" spans="1:27" ht="291.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B248" s="21" t="str">
         <f t="shared" si="19"/>
         <v>6Q7V+23</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D248" s="40">
         <v>43073</v>
@@ -18046,16 +18117,16 @@
         <v>36</v>
       </c>
       <c r="F248" s="39" t="s">
+        <v>884</v>
+      </c>
+      <c r="G248" s="39" t="s">
         <v>885</v>
       </c>
-      <c r="G248" s="39" t="s">
+      <c r="H248" s="25" t="s">
         <v>886</v>
       </c>
-      <c r="H248" s="25" t="s">
+      <c r="I248" s="25" t="s">
         <v>887</v>
-      </c>
-      <c r="I248" s="25" t="s">
-        <v>888</v>
       </c>
       <c r="J248" s="26"/>
       <c r="K248" s="28"/>
@@ -18078,14 +18149,14 @@
     </row>
     <row r="249" spans="1:27" ht="284.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="38" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B249" s="21" t="str">
         <f t="shared" si="19"/>
         <v>7QF6+HG</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D249" s="40">
         <v>40431</v>
@@ -18094,13 +18165,13 @@
         <v>36</v>
       </c>
       <c r="F249" s="39" t="s">
+        <v>890</v>
+      </c>
+      <c r="G249" s="39" t="s">
         <v>891</v>
       </c>
-      <c r="G249" s="39" t="s">
+      <c r="H249" s="25" t="s">
         <v>892</v>
-      </c>
-      <c r="H249" s="25" t="s">
-        <v>893</v>
       </c>
       <c r="I249" s="25" t="s">
         <v>172</v>
@@ -18126,14 +18197,14 @@
     </row>
     <row r="250" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B250" s="21" t="str">
         <f t="shared" si="19"/>
         <v>7QJF+2R</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D250" s="40">
         <v>43440</v>
@@ -18142,16 +18213,16 @@
         <v>36</v>
       </c>
       <c r="F250" s="39" t="s">
+        <v>895</v>
+      </c>
+      <c r="G250" s="39" t="s">
         <v>896</v>
       </c>
-      <c r="G250" s="39" t="s">
+      <c r="H250" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="H250" s="25" t="s">
+      <c r="I250" s="25" t="s">
         <v>898</v>
-      </c>
-      <c r="I250" s="25" t="s">
-        <v>899</v>
       </c>
       <c r="J250" s="26"/>
       <c r="K250" s="28"/>
@@ -18174,14 +18245,14 @@
     </row>
     <row r="251" spans="1:27" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B251" s="21" t="str">
         <f t="shared" si="19"/>
         <v>7Q64+F9</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D251" s="40">
         <v>43550</v>
@@ -18190,16 +18261,16 @@
         <v>36</v>
       </c>
       <c r="F251" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="G251" s="39" t="s">
         <v>902</v>
       </c>
-      <c r="G251" s="39" t="s">
+      <c r="H251" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="I251" s="25" t="s">
         <v>903</v>
-      </c>
-      <c r="H251" s="25" t="s">
-        <v>898</v>
-      </c>
-      <c r="I251" s="25" t="s">
-        <v>904</v>
       </c>
       <c r="J251" s="26"/>
       <c r="K251" s="28"/>
@@ -18222,32 +18293,32 @@
     </row>
     <row r="252" spans="1:27" ht="109.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="38" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B252" s="21" t="str">
         <f t="shared" si="19"/>
         <v>7Q87+6P</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D252" s="40">
         <v>43730</v>
       </c>
       <c r="E252" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="F252" s="39" t="s">
         <v>907</v>
       </c>
-      <c r="F252" s="39" t="s">
+      <c r="G252" s="39" t="s">
         <v>908</v>
       </c>
-      <c r="G252" s="39" t="s">
+      <c r="H252" s="25" t="s">
         <v>909</v>
       </c>
-      <c r="H252" s="25" t="s">
+      <c r="I252" s="25" t="s">
         <v>910</v>
-      </c>
-      <c r="I252" s="25" t="s">
-        <v>911</v>
       </c>
       <c r="J252" s="26"/>
       <c r="K252" s="28"/>
@@ -18270,14 +18341,14 @@
     </row>
     <row r="253" spans="1:27" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="38" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B253" s="21" t="str">
         <f t="shared" si="19"/>
         <v>7RG4+R6</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D253" s="40">
         <v>43431</v>
@@ -18286,16 +18357,16 @@
         <v>36</v>
       </c>
       <c r="F253" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="G253" s="39" t="s">
         <v>914</v>
       </c>
-      <c r="G253" s="39" t="s">
+      <c r="H253" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="I253" s="25" t="s">
         <v>915</v>
-      </c>
-      <c r="H253" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="I253" s="25" t="s">
-        <v>916</v>
       </c>
       <c r="J253" s="26"/>
       <c r="K253" s="28"/>
@@ -18318,14 +18389,14 @@
     </row>
     <row r="254" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="38" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B254" s="21" t="str">
         <f t="shared" si="19"/>
         <v>7RP3+H8</v>
       </c>
       <c r="C254" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D254" s="40">
         <v>43431</v>
@@ -18334,13 +18405,13 @@
         <v>36</v>
       </c>
       <c r="F254" s="39" t="s">
+        <v>918</v>
+      </c>
+      <c r="G254" s="39" t="s">
         <v>919</v>
       </c>
-      <c r="G254" s="39" t="s">
+      <c r="H254" s="25" t="s">
         <v>920</v>
-      </c>
-      <c r="H254" s="25" t="s">
-        <v>921</v>
       </c>
       <c r="I254" s="25" t="s">
         <v>172</v>
@@ -18366,35 +18437,35 @@
     </row>
     <row r="255" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="38" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B255" s="21" t="str">
         <f t="shared" si="19"/>
         <v>7PXW+85</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D255" s="40">
         <v>44318</v>
       </c>
       <c r="E255" s="40" t="s">
+        <v>923</v>
+      </c>
+      <c r="F255" s="39" t="s">
         <v>924</v>
       </c>
-      <c r="F255" s="39" t="s">
+      <c r="G255" s="39" t="s">
         <v>925</v>
       </c>
-      <c r="G255" s="39" t="s">
+      <c r="H255" s="25" t="s">
         <v>926</v>
       </c>
-      <c r="H255" s="25" t="s">
-        <v>927</v>
-      </c>
       <c r="I255" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J255" s="26" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K255" s="28"/>
       <c r="L255" s="28"/>
@@ -18416,14 +18487,14 @@
     </row>
     <row r="256" spans="1:27" ht="133.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="38" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B256" s="21" t="str">
         <f t="shared" si="19"/>
         <v>8PCG+CM</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D256" s="40">
         <v>44318</v>
@@ -18432,13 +18503,13 @@
         <v>36</v>
       </c>
       <c r="F256" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="G256" s="39" t="s">
         <v>930</v>
       </c>
-      <c r="G256" s="39" t="s">
+      <c r="H256" s="25" t="s">
         <v>931</v>
-      </c>
-      <c r="H256" s="25" t="s">
-        <v>932</v>
       </c>
       <c r="I256" s="25" t="s">
         <v>172</v>
@@ -18464,14 +18535,14 @@
     </row>
     <row r="257" spans="1:27" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A257" s="38" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B257" s="53" t="str">
         <f>HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A257,4),"%2B",RIGHT(A257,2)),A257)</f>
         <v>8P3P+VP</v>
       </c>
       <c r="C257" s="39" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D257" s="40">
         <v>44402</v>
@@ -18480,13 +18551,13 @@
         <v>36</v>
       </c>
       <c r="F257" s="39" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G257" s="39" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H257" s="39" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I257" s="39" t="s">
         <v>172</v>
@@ -18512,14 +18583,14 @@
     </row>
     <row r="258" spans="1:27" ht="337.5" x14ac:dyDescent="0.3">
       <c r="A258" s="38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B258" s="53" t="str">
         <f>HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A258,4),"%2B",RIGHT(A258,2)),A258)</f>
         <v>8P3Q+X2</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D258" s="40">
         <v>44402</v>
@@ -18528,18 +18599,20 @@
         <v>36</v>
       </c>
       <c r="F258" s="39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G258" s="39" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H258" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I258" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="J258" s="50"/>
+      <c r="J258" s="50" t="s">
+        <v>954</v>
+      </c>
       <c r="K258" s="38"/>
       <c r="L258" s="38"/>
       <c r="M258" s="51"/>
@@ -18560,14 +18633,14 @@
     </row>
     <row r="259" spans="1:27" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A259" s="38" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B259" s="53" t="str">
         <f t="shared" ref="B259:B261" si="22">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A259,4),"%2B",RIGHT(A259,2)),A259)</f>
         <v>7PJ6+MR</v>
       </c>
       <c r="C259" s="39" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D259" s="40">
         <v>44402</v>
@@ -18576,19 +18649,19 @@
         <v>36</v>
       </c>
       <c r="F259" s="39" t="s">
+        <v>940</v>
+      </c>
+      <c r="G259" s="39" t="s">
+        <v>949</v>
+      </c>
+      <c r="H259" s="39" t="s">
         <v>941</v>
-      </c>
-      <c r="G259" s="39" t="s">
-        <v>950</v>
-      </c>
-      <c r="H259" s="39" t="s">
-        <v>942</v>
       </c>
       <c r="I259" s="39" t="s">
         <v>135</v>
       </c>
       <c r="J259" s="50" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K259" s="38"/>
       <c r="L259" s="38"/>
@@ -18610,14 +18683,14 @@
     </row>
     <row r="260" spans="1:27" ht="375" x14ac:dyDescent="0.3">
       <c r="A260" s="38" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B260" s="53" t="str">
         <f t="shared" si="22"/>
         <v>8P8C+7M</v>
       </c>
       <c r="C260" s="39" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D260" s="40">
         <v>44402</v>
@@ -18626,13 +18699,13 @@
         <v>36</v>
       </c>
       <c r="F260" s="39" t="s">
+        <v>944</v>
+      </c>
+      <c r="G260" s="39" t="s">
+        <v>950</v>
+      </c>
+      <c r="H260" s="39" t="s">
         <v>945</v>
-      </c>
-      <c r="G260" s="39" t="s">
-        <v>951</v>
-      </c>
-      <c r="H260" s="39" t="s">
-        <v>946</v>
       </c>
       <c r="I260" s="39" t="s">
         <v>135</v>
@@ -18658,14 +18731,14 @@
     </row>
     <row r="261" spans="1:27" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A261" s="38" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B261" s="53" t="str">
         <f t="shared" si="22"/>
         <v>8PGV+2F</v>
       </c>
       <c r="C261" s="39" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D261" s="40">
         <v>44745</v>
@@ -18674,13 +18747,13 @@
         <v>36</v>
       </c>
       <c r="F261" s="39" t="s">
+        <v>972</v>
+      </c>
+      <c r="G261" s="39" t="s">
         <v>973</v>
       </c>
-      <c r="G261" s="39" t="s">
+      <c r="H261" s="39" t="s">
         <v>974</v>
-      </c>
-      <c r="H261" s="39" t="s">
-        <v>975</v>
       </c>
       <c r="I261" s="39" t="s">
         <v>48</v>
@@ -18711,14 +18784,14 @@
     </row>
     <row r="262" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A262" s="38" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B262" s="53" t="str">
         <f t="shared" ref="B262" si="24">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A262,4),"%2B",RIGHT(A262,2)),A262)</f>
         <v>8P6G+W4</v>
       </c>
       <c r="C262" s="39" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D262" s="40">
         <v>44748</v>
@@ -18727,13 +18800,13 @@
         <v>36</v>
       </c>
       <c r="F262" s="39" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G262" s="39" t="s">
+        <v>976</v>
+      </c>
+      <c r="H262" s="39" t="s">
         <v>977</v>
-      </c>
-      <c r="H262" s="39" t="s">
-        <v>978</v>
       </c>
       <c r="I262" s="39" t="s">
         <v>48</v>
@@ -18764,14 +18837,14 @@
     </row>
     <row r="263" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A263" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B263" s="53" t="str">
         <f t="shared" ref="B263" si="26">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A263,4),"%2B",RIGHT(A263,2)),A263)</f>
         <v>7PXM+GM</v>
       </c>
       <c r="C263" s="39" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D263" s="40">
         <v>44748</v>
@@ -18780,13 +18853,13 @@
         <v>36</v>
       </c>
       <c r="F263" s="39" t="s">
+        <v>981</v>
+      </c>
+      <c r="G263" s="39" t="s">
         <v>982</v>
       </c>
-      <c r="G263" s="39" t="s">
+      <c r="H263" s="39" t="s">
         <v>983</v>
-      </c>
-      <c r="H263" s="39" t="s">
-        <v>984</v>
       </c>
       <c r="I263" s="39" t="s">
         <v>48</v>
@@ -18817,14 +18890,14 @@
     </row>
     <row r="264" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A264" s="38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B264" s="53" t="str">
         <f t="shared" ref="B264:B265" si="28">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A264,4),"%2B",RIGHT(A264,2)),A264)</f>
         <v>8P8W+CH</v>
       </c>
       <c r="C264" s="39" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D264" s="40">
         <v>44748</v>
@@ -18833,13 +18906,13 @@
         <v>36</v>
       </c>
       <c r="F264" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G264" s="39" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H264" s="39" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I264" s="39" t="s">
         <v>48</v>
@@ -18870,14 +18943,14 @@
     </row>
     <row r="265" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A265" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B265" s="53" t="str">
         <f t="shared" si="28"/>
         <v>8P6V+4C</v>
       </c>
       <c r="C265" s="39" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D265" s="40">
         <v>44748</v>
@@ -18886,13 +18959,13 @@
         <v>36</v>
       </c>
       <c r="F265" s="39" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G265" s="39" t="s">
+        <v>989</v>
+      </c>
+      <c r="H265" s="39" t="s">
         <v>990</v>
-      </c>
-      <c r="H265" s="39" t="s">
-        <v>991</v>
       </c>
       <c r="I265" s="39" t="s">
         <v>48</v>
@@ -18923,14 +18996,14 @@
     </row>
     <row r="266" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A266" s="38" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B266" s="53" t="str">
         <f t="shared" ref="B266" si="30">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A266,4),"%2B",RIGHT(A266,2)),A266)</f>
         <v>8PFJ+PH</v>
       </c>
       <c r="C266" s="39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D266" s="40">
         <v>44748</v>
@@ -18939,13 +19012,13 @@
         <v>36</v>
       </c>
       <c r="F266" s="39" t="s">
+        <v>993</v>
+      </c>
+      <c r="G266" s="39" t="s">
         <v>994</v>
       </c>
-      <c r="G266" s="39" t="s">
+      <c r="H266" s="39" t="s">
         <v>995</v>
-      </c>
-      <c r="H266" s="39" t="s">
-        <v>996</v>
       </c>
       <c r="I266" s="39" t="s">
         <v>48</v>
@@ -18976,14 +19049,14 @@
     </row>
     <row r="267" spans="1:27" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A267" s="38" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B267" s="53" t="str">
         <f t="shared" ref="B267" si="32">HYPERLINK(CONCATENATE("https://www.google.com/maps/search/?api=1&amp;query=9F4F",LEFT(A267,4),"%2B",RIGHT(A267,2)),A267)</f>
         <v>8PJR+26</v>
       </c>
       <c r="C267" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D267" s="40">
         <v>44748</v>
@@ -18992,16 +19065,16 @@
         <v>36</v>
       </c>
       <c r="F267" s="39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G267" s="39" t="s">
+        <v>998</v>
+      </c>
+      <c r="H267" s="39" t="s">
         <v>999</v>
       </c>
-      <c r="H267" s="39" t="s">
-        <v>1000</v>
-      </c>
       <c r="I267" s="39" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J267" s="50" t="s">
         <v>43</v>

--- a/MaengelKarte/Maengelliste.xlsx
+++ b/MaengelKarte/Maengelliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataADFC\1_ADFC-github\adfc-hemmingen-pattensen.github.io\MaengelKarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7E8241-EA15-4E0C-8A91-C5F3E6B27396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F2AF10-F5DD-4BE3-BA5B-096C0F12C6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1004">
   <si>
     <t>ADFC Hemmingen / Pattensen</t>
   </si>
@@ -4132,8 +4132,8 @@
   <dimension ref="A1:AMJ277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K259" sqref="K259"/>
+      <pane ySplit="6" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9096,7 +9096,9 @@
       <c r="I86" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="J86" s="26"/>
+      <c r="J86" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K86" s="27" t="str">
         <f t="shared" si="11"/>
         <v>8PC9+RH</v>
